--- a/inst/SWO_Data.xlsx
+++ b/inst/SWO_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adrian\Documents\GitHub\SWOMSE\inst\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adrian\Documents\GitHub\nswo-mse\inst\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09CA8D14-7C89-40FC-818B-71CA20B449A3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D7E482F-764D-494E-A68B-0045C22D869E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-2385" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="273">
   <si>
     <t>Name</t>
   </si>
@@ -163,18 +164,6 @@
     <t>CV Abundance index</t>
   </si>
   <si>
-    <t>Index 1</t>
-  </si>
-  <si>
-    <t>CV Index 1</t>
-  </si>
-  <si>
-    <t>Index 2</t>
-  </si>
-  <si>
-    <t>CV Index 2</t>
-  </si>
-  <si>
     <t>Recruitment index</t>
   </si>
   <si>
@@ -542,12 +531,6 @@
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>CV Index 3</t>
-  </si>
-  <si>
-    <t>Index 3</t>
   </si>
   <si>
     <t>series</t>
@@ -747,15 +730,6 @@
   </si>
   <si>
     <t>CV</t>
-  </si>
-  <si>
-    <t>Vuln Index 1</t>
-  </si>
-  <si>
-    <t>Vuln Index 2</t>
-  </si>
-  <si>
-    <t>Vuln Index 3</t>
   </si>
   <si>
     <t>CAL 1978</t>
@@ -1631,47 +1605,17 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="24" fillId="0" borderId="18" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="12" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="13" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="44" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="12" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="12" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="15" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="19" fillId="34" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="19" fillId="34" borderId="0" xfId="42" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="42" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="42" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="19" fillId="35" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="19" fillId="34" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="10" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="42" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="36" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1679,10 +1623,28 @@
     <xf numFmtId="0" fontId="19" fillId="35" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="42" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="42" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="36" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1694,25 +1656,37 @@
     <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="42" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="10" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="42" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="19" fillId="34" borderId="0" xfId="42" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="19" fillId="34" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="44" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="15" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="19" fillId="34" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="19" fillId="35" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="12" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="13" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="12" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="12" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2075,8 +2049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BQ134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B127" sqref="B127"/>
+    <sheetView tabSelected="1" topLeftCell="AN34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BO48" sqref="BO48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2098,7 +2072,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2106,7 +2080,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2114,7 +2088,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2122,7 +2096,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2146,12 +2120,12 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -2269,7 +2243,7 @@
     </row>
     <row r="33" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:69" x14ac:dyDescent="0.25">
@@ -2769,16 +2743,16 @@
         <v>246.9</v>
       </c>
       <c r="W48" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="X48" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="Y48" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="Z48" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="AA48">
         <v>433.4</v>
@@ -2904,7 +2878,7 @@
         <v>177.4</v>
       </c>
     </row>
-    <row r="49" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>43</v>
       </c>
@@ -2933,16 +2907,16 @@
         <v>0.34783666089999998</v>
       </c>
       <c r="W49" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="X49" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="Y49" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="Z49" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="AA49">
         <v>0.31871116199999999</v>
@@ -3068,899 +3042,86 @@
         <v>0.15998062900000001</v>
       </c>
     </row>
-    <row r="50" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
+    <row r="50" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A50" s="2"/>
+    </row>
+    <row r="51" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A51" s="2"/>
+    </row>
+    <row r="52" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A52" s="2"/>
+    </row>
+    <row r="53" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A53" s="2"/>
+    </row>
+    <row r="54" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A54" s="2"/>
+    </row>
+    <row r="55" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A55" s="2"/>
+    </row>
+    <row r="56" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A56" s="2"/>
+    </row>
+    <row r="57" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A57" s="2"/>
+    </row>
+    <row r="58" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A58" s="2"/>
+    </row>
+    <row r="59" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>44</v>
       </c>
-      <c r="N50">
-        <v>109.27</v>
-      </c>
-      <c r="O50">
-        <v>201.92</v>
-      </c>
-      <c r="P50">
-        <v>79.73</v>
-      </c>
-      <c r="Q50">
-        <v>55.55</v>
-      </c>
-      <c r="R50">
-        <v>58.74</v>
-      </c>
-      <c r="S50">
-        <v>78.040000000000006</v>
-      </c>
-      <c r="T50">
-        <v>54.03</v>
-      </c>
-      <c r="U50">
-        <v>51.12</v>
-      </c>
-      <c r="V50">
-        <v>65.66</v>
-      </c>
-      <c r="AE50">
-        <v>94.62</v>
-      </c>
-      <c r="AF50">
-        <v>81.66</v>
-      </c>
-      <c r="AG50">
-        <v>85.02</v>
-      </c>
-      <c r="AH50">
-        <v>66.7</v>
-      </c>
-      <c r="AI50">
-        <v>57.93</v>
-      </c>
-      <c r="AJ50">
-        <v>57.23</v>
-      </c>
-      <c r="AK50">
-        <v>67.849999999999994</v>
-      </c>
-      <c r="AL50">
-        <v>112.51</v>
-      </c>
-      <c r="AM50">
-        <v>80.25</v>
-      </c>
-      <c r="AN50">
-        <v>77.459999999999994</v>
-      </c>
-      <c r="AO50">
-        <v>73.069999999999993</v>
-      </c>
-      <c r="AP50">
-        <v>105.1</v>
-      </c>
-      <c r="AQ50">
-        <v>70.709999999999994</v>
-      </c>
-      <c r="AR50">
-        <v>83.75</v>
-      </c>
-      <c r="AS50">
-        <v>70.63</v>
-      </c>
-      <c r="AT50">
-        <v>51.84</v>
-      </c>
-      <c r="AU50">
-        <v>64.400000000000006</v>
-      </c>
-      <c r="AV50">
-        <v>39.369999999999997</v>
-      </c>
-      <c r="AW50">
-        <v>56.1</v>
-      </c>
-      <c r="AX50">
-        <v>78.319999999999993</v>
-      </c>
-      <c r="AY50">
-        <v>104.47</v>
-      </c>
-      <c r="AZ50">
-        <v>77.58</v>
-      </c>
-      <c r="BA50">
-        <v>89.67</v>
-      </c>
-      <c r="BB50">
-        <v>134.22999999999999</v>
-      </c>
-      <c r="BC50">
-        <v>94.73</v>
-      </c>
-      <c r="BD50">
-        <v>88.85</v>
-      </c>
-      <c r="BE50">
-        <v>106.22</v>
-      </c>
-      <c r="BF50">
-        <v>92.8</v>
-      </c>
-      <c r="BG50">
-        <v>86.94</v>
-      </c>
-      <c r="BH50">
-        <v>110.49</v>
-      </c>
-      <c r="BI50">
-        <v>96.25</v>
-      </c>
-      <c r="BJ50">
-        <v>137.25</v>
-      </c>
-      <c r="BK50">
-        <v>100.51</v>
-      </c>
-      <c r="BL50">
-        <v>108.48</v>
-      </c>
-      <c r="BM50">
-        <v>105.22</v>
-      </c>
-      <c r="BN50">
-        <v>84.92</v>
-      </c>
-      <c r="BO50">
-        <v>88.35</v>
-      </c>
-      <c r="BP50">
-        <v>65.27</v>
-      </c>
-    </row>
-    <row r="51" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
+    </row>
+    <row r="60" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>45</v>
       </c>
-      <c r="N51">
-        <v>0.19</v>
-      </c>
-      <c r="O51">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="P51">
-        <v>0.06</v>
-      </c>
-      <c r="Q51">
-        <v>0.06</v>
-      </c>
-      <c r="R51">
-        <v>0.05</v>
-      </c>
-      <c r="S51">
-        <v>0.05</v>
-      </c>
-      <c r="T51">
-        <v>0.05</v>
-      </c>
-      <c r="U51">
-        <v>0.05</v>
-      </c>
-      <c r="V51">
-        <v>0.05</v>
-      </c>
-      <c r="AE51">
-        <v>0.1</v>
-      </c>
-      <c r="AF51">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AG51">
-        <v>0.1</v>
-      </c>
-      <c r="AH51">
-        <v>0.1</v>
-      </c>
-      <c r="AI51">
-        <v>0.11</v>
-      </c>
-      <c r="AJ51">
-        <v>0.11</v>
-      </c>
-      <c r="AK51">
-        <v>0.1</v>
-      </c>
-      <c r="AL51">
-        <v>0.11</v>
-      </c>
-      <c r="AM51">
-        <v>0.1</v>
-      </c>
-      <c r="AN51">
-        <v>0.1</v>
-      </c>
-      <c r="AO51">
-        <v>0.09</v>
-      </c>
-      <c r="AP51">
-        <v>0.09</v>
-      </c>
-      <c r="AQ51">
-        <v>0.06</v>
-      </c>
-      <c r="AR51">
-        <v>0.06</v>
-      </c>
-      <c r="AS51">
-        <v>0.05</v>
-      </c>
-      <c r="AT51">
-        <v>0.04</v>
-      </c>
-      <c r="AU51">
-        <v>0.04</v>
-      </c>
-      <c r="AV51">
-        <v>0.05</v>
-      </c>
-      <c r="AW51">
-        <v>0.05</v>
-      </c>
-      <c r="AX51">
-        <v>0.05</v>
-      </c>
-      <c r="AY51">
-        <v>0.05</v>
-      </c>
-      <c r="AZ51">
-        <v>0.05</v>
-      </c>
-      <c r="BA51">
-        <v>0.05</v>
-      </c>
-      <c r="BB51">
-        <v>0.06</v>
-      </c>
-      <c r="BC51">
-        <v>0.05</v>
-      </c>
-      <c r="BD51">
-        <v>0.05</v>
-      </c>
-      <c r="BE51">
-        <v>0.05</v>
-      </c>
-      <c r="BF51">
-        <v>0.05</v>
-      </c>
-      <c r="BG51">
-        <v>0.06</v>
-      </c>
-      <c r="BH51">
-        <v>0.06</v>
-      </c>
-      <c r="BI51">
-        <v>0.06</v>
-      </c>
-      <c r="BJ51">
-        <v>0.06</v>
-      </c>
-      <c r="BK51">
-        <v>0.06</v>
-      </c>
-      <c r="BL51">
-        <v>0.06</v>
-      </c>
-      <c r="BM51">
-        <v>0.06</v>
-      </c>
-      <c r="BN51">
-        <v>0.05</v>
-      </c>
-      <c r="BO51">
-        <v>0.05</v>
-      </c>
-      <c r="BP51">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="52" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="B52">
-        <v>1</v>
-      </c>
-      <c r="C52">
-        <v>1</v>
-      </c>
-      <c r="D52">
-        <v>1</v>
-      </c>
-      <c r="E52">
-        <v>1</v>
-      </c>
-      <c r="F52">
-        <v>1</v>
-      </c>
-      <c r="G52">
-        <v>1</v>
-      </c>
-      <c r="H52">
-        <v>1</v>
-      </c>
-      <c r="I52">
-        <v>1</v>
-      </c>
-      <c r="J52">
-        <v>1</v>
-      </c>
-      <c r="K52">
-        <v>1</v>
-      </c>
-      <c r="L52">
-        <v>1</v>
-      </c>
-      <c r="M52">
-        <v>1</v>
-      </c>
-      <c r="N52">
-        <v>1</v>
-      </c>
-      <c r="O52">
-        <v>1</v>
-      </c>
-      <c r="P52">
-        <v>1</v>
-      </c>
-      <c r="Q52">
-        <v>1</v>
-      </c>
-      <c r="R52">
-        <v>1</v>
-      </c>
-      <c r="S52">
-        <v>1</v>
-      </c>
-      <c r="T52">
-        <v>1</v>
-      </c>
-      <c r="U52">
-        <v>1</v>
-      </c>
-      <c r="V52">
-        <v>1</v>
-      </c>
-      <c r="W52">
-        <v>1</v>
-      </c>
-      <c r="X52">
-        <v>1</v>
-      </c>
-      <c r="Y52">
-        <v>1</v>
-      </c>
-      <c r="Z52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
+    </row>
+    <row r="61" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>46</v>
       </c>
-      <c r="AY53">
-        <v>217.59010000000001</v>
-      </c>
-      <c r="AZ53">
-        <v>308.53269999999998</v>
-      </c>
-      <c r="BA53">
-        <v>323.26659999999998</v>
-      </c>
-      <c r="BB53">
-        <v>281.86329999999998</v>
-      </c>
-      <c r="BC53">
-        <v>328.90780000000001</v>
-      </c>
-      <c r="BD53">
-        <v>395.86369999999999</v>
-      </c>
-      <c r="BE53">
-        <v>305.2244</v>
-      </c>
-      <c r="BF53">
-        <v>301.20659999999998</v>
-      </c>
-      <c r="BG53">
-        <v>329.37490000000003</v>
-      </c>
-      <c r="BH53">
-        <v>305.06150000000002</v>
-      </c>
-      <c r="BI53">
-        <v>365.61520000000002</v>
-      </c>
-      <c r="BJ53">
-        <v>416.40820000000002</v>
-      </c>
-      <c r="BK53">
-        <v>357.02199999999999</v>
-      </c>
-      <c r="BL53">
-        <v>487.21570000000003</v>
-      </c>
-      <c r="BM53">
-        <v>457.19979999999998</v>
-      </c>
-      <c r="BN53">
-        <v>426.24790000000002</v>
-      </c>
-      <c r="BO53">
-        <v>583.26289999999995</v>
-      </c>
-      <c r="BP53">
-        <v>551.56140000000005</v>
-      </c>
-    </row>
-    <row r="54" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
+    </row>
+    <row r="62" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>47</v>
       </c>
-      <c r="AY54">
-        <v>0.13019320000000001</v>
-      </c>
-      <c r="AZ54">
-        <v>0.15966459999999999</v>
-      </c>
-      <c r="BA54">
-        <v>0.16042770000000001</v>
-      </c>
-      <c r="BB54">
-        <v>0.13998739999999998</v>
-      </c>
-      <c r="BC54">
-        <v>0.14417640000000001</v>
-      </c>
-      <c r="BD54">
-        <v>0.1387227</v>
-      </c>
-      <c r="BE54">
-        <v>0.12223879999999999</v>
-      </c>
-      <c r="BF54">
-        <v>0.11502599999999999</v>
-      </c>
-      <c r="BG54">
-        <v>0.1180653</v>
-      </c>
-      <c r="BH54">
-        <v>0.12084619999999999</v>
-      </c>
-      <c r="BI54">
-        <v>0.11717169999999999</v>
-      </c>
-      <c r="BJ54">
-        <v>0.12005639999999999</v>
-      </c>
-      <c r="BK54">
-        <v>0.1071782</v>
-      </c>
-      <c r="BL54">
-        <v>0.1159772</v>
-      </c>
-      <c r="BM54">
-        <v>0.1313136</v>
-      </c>
-      <c r="BN54">
-        <v>0.111913</v>
-      </c>
-      <c r="BO54">
-        <v>0.12083679999999999</v>
-      </c>
-      <c r="BP54">
-        <v>0.1434598</v>
-      </c>
-    </row>
-    <row r="55" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="B55">
-        <v>1</v>
-      </c>
-      <c r="C55">
-        <v>1</v>
-      </c>
-      <c r="D55">
-        <v>1</v>
-      </c>
-      <c r="E55">
-        <v>1</v>
-      </c>
-      <c r="F55">
-        <v>1</v>
-      </c>
-      <c r="G55">
-        <v>1</v>
-      </c>
-      <c r="H55">
-        <v>1</v>
-      </c>
-      <c r="I55">
-        <v>1</v>
-      </c>
-      <c r="J55">
-        <v>1</v>
-      </c>
-      <c r="K55">
-        <v>1</v>
-      </c>
-      <c r="L55">
-        <v>1</v>
-      </c>
-      <c r="M55">
-        <v>1</v>
-      </c>
-      <c r="N55">
-        <v>1</v>
-      </c>
-      <c r="O55">
-        <v>1</v>
-      </c>
-      <c r="P55">
-        <v>1</v>
-      </c>
-      <c r="Q55">
-        <v>1</v>
-      </c>
-      <c r="R55">
-        <v>1</v>
-      </c>
-      <c r="S55">
-        <v>1</v>
-      </c>
-      <c r="T55">
-        <v>1</v>
-      </c>
-      <c r="U55">
-        <v>1</v>
-      </c>
-      <c r="V55">
-        <v>1</v>
-      </c>
-      <c r="W55">
-        <v>1</v>
-      </c>
-      <c r="X55">
-        <v>1</v>
-      </c>
-      <c r="Y55">
-        <v>1</v>
-      </c>
-      <c r="Z55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="AL56">
-        <v>260.61799999999999</v>
-      </c>
-      <c r="AM56">
-        <v>248.251</v>
-      </c>
-      <c r="AN56">
-        <v>211.43100000000001</v>
-      </c>
-      <c r="AO56">
-        <v>213.38399999999999</v>
-      </c>
-      <c r="AP56">
-        <v>213.613</v>
-      </c>
-      <c r="AQ56">
-        <v>217.38800000000001</v>
-      </c>
-      <c r="AR56">
-        <v>213.59</v>
-      </c>
-      <c r="AS56">
-        <v>188.93100000000001</v>
-      </c>
-      <c r="AT56">
-        <v>180.79300000000001</v>
-      </c>
-      <c r="AU56">
-        <v>199.41499999999999</v>
-      </c>
-      <c r="AV56">
-        <v>169.36699999999999</v>
-      </c>
-      <c r="AW56">
-        <v>168.786</v>
-      </c>
-      <c r="AX56">
-        <v>184.01400000000001</v>
-      </c>
-      <c r="AY56">
-        <v>207.82499999999999</v>
-      </c>
-      <c r="AZ56">
-        <v>256.51400000000001</v>
-      </c>
-      <c r="BA56">
-        <v>222.245</v>
-      </c>
-      <c r="BB56">
-        <v>193.00299999999999</v>
-      </c>
-      <c r="BC56">
-        <v>218.935</v>
-      </c>
-      <c r="BD56">
-        <v>200.23699999999999</v>
-      </c>
-      <c r="BE56">
-        <v>196.07</v>
-      </c>
-      <c r="BF56">
-        <v>181.62899999999999</v>
-      </c>
-      <c r="BG56">
-        <v>209.76400000000001</v>
-      </c>
-      <c r="BH56">
-        <v>242.613</v>
-      </c>
-      <c r="BI56">
-        <v>222.93</v>
-      </c>
-      <c r="BJ56">
-        <v>221.27600000000001</v>
-      </c>
-      <c r="BK56">
-        <v>227.70699999999999</v>
-      </c>
-      <c r="BL56">
-        <v>237.27699999999999</v>
-      </c>
-      <c r="BM56">
-        <v>228.416</v>
-      </c>
-      <c r="BN56">
-        <v>210.977</v>
-      </c>
-      <c r="BO56">
-        <v>217.12700000000001</v>
-      </c>
-    </row>
-    <row r="57" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="AL57">
-        <v>1.5688629999999999E-2</v>
-      </c>
-      <c r="AM57">
-        <v>1.613504E-2</v>
-      </c>
-      <c r="AN57">
-        <v>1.6649000000000001E-2</v>
-      </c>
-      <c r="AO57">
-        <v>1.6449999999999999E-2</v>
-      </c>
-      <c r="AP57">
-        <v>1.6318550000000001E-2</v>
-      </c>
-      <c r="AQ57">
-        <v>1.628197E-2</v>
-      </c>
-      <c r="AR57">
-        <v>1.6347839999999999E-2</v>
-      </c>
-      <c r="AS57">
-        <v>1.6776260000000001E-2</v>
-      </c>
-      <c r="AT57">
-        <v>1.677404E-2</v>
-      </c>
-      <c r="AU57">
-        <v>1.6373180000000001E-2</v>
-      </c>
-      <c r="AV57">
-        <v>1.678665E-2</v>
-      </c>
-      <c r="AW57">
-        <v>1.681158E-2</v>
-      </c>
-      <c r="AX57">
-        <v>1.6623619999999999E-2</v>
-      </c>
-      <c r="AY57">
-        <v>1.6435459999999999E-2</v>
-      </c>
-      <c r="AZ57">
-        <v>1.5783210000000002E-2</v>
-      </c>
-      <c r="BA57">
-        <v>1.6557530000000001E-2</v>
-      </c>
-      <c r="BB57">
-        <v>1.6224570000000001E-2</v>
-      </c>
-      <c r="BC57">
-        <v>1.596504E-2</v>
-      </c>
-      <c r="BD57">
-        <v>1.6285419999999998E-2</v>
-      </c>
-      <c r="BE57">
-        <v>1.6415820000000001E-2</v>
-      </c>
-      <c r="BF57">
-        <v>1.678402E-2</v>
-      </c>
-      <c r="BG57">
-        <v>1.6370530000000001E-2</v>
-      </c>
-      <c r="BH57">
-        <v>1.5959350000000001E-2</v>
-      </c>
-      <c r="BI57">
-        <v>1.6154020000000002E-2</v>
-      </c>
-      <c r="BJ57">
-        <v>1.6138650000000001E-2</v>
-      </c>
-      <c r="BK57">
-        <v>1.60632E-2</v>
-      </c>
-      <c r="BL57">
-        <v>1.583447E-2</v>
-      </c>
-      <c r="BM57">
-        <v>1.6137220000000001E-2</v>
-      </c>
-      <c r="BN57">
-        <v>1.604974E-2</v>
-      </c>
-      <c r="BO57">
-        <v>1.6094879999999999E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B58">
-        <v>1</v>
-      </c>
-      <c r="C58">
-        <v>1</v>
-      </c>
-      <c r="D58">
-        <v>1</v>
-      </c>
-      <c r="E58">
-        <v>1</v>
-      </c>
-      <c r="F58">
-        <v>1</v>
-      </c>
-      <c r="G58">
-        <v>1</v>
-      </c>
-      <c r="H58">
-        <v>1</v>
-      </c>
-      <c r="I58">
-        <v>1</v>
-      </c>
-      <c r="J58">
-        <v>1</v>
-      </c>
-      <c r="K58">
-        <v>1</v>
-      </c>
-      <c r="L58">
-        <v>1</v>
-      </c>
-      <c r="M58">
-        <v>1</v>
-      </c>
-      <c r="N58">
-        <v>1</v>
-      </c>
-      <c r="O58">
-        <v>1</v>
-      </c>
-      <c r="P58">
-        <v>1</v>
-      </c>
-      <c r="Q58">
-        <v>1</v>
-      </c>
-      <c r="R58">
-        <v>1</v>
-      </c>
-      <c r="S58">
-        <v>1</v>
-      </c>
-      <c r="T58">
-        <v>1</v>
-      </c>
-      <c r="U58">
-        <v>1</v>
-      </c>
-      <c r="V58">
-        <v>1</v>
-      </c>
-      <c r="W58">
-        <v>1</v>
-      </c>
-      <c r="X58">
-        <v>1</v>
-      </c>
-      <c r="Y58">
-        <v>1</v>
-      </c>
-      <c r="Z58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+    </row>
+    <row r="63" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="60" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="61" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="62" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="63" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="65" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="66" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="67" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="69" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="70" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="71" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B71">
         <v>47.5</v>
@@ -4121,7 +3282,7 @@
     </row>
     <row r="72" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B72">
         <v>50</v>
@@ -4279,7 +3440,7 @@
     </row>
     <row r="73" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -4437,7 +3598,7 @@
     </row>
     <row r="74" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -4595,7 +3756,7 @@
     </row>
     <row r="75" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -4753,7 +3914,7 @@
     </row>
     <row r="76" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -4911,7 +4072,7 @@
     </row>
     <row r="77" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="B77">
         <v>19</v>
@@ -5069,7 +4230,7 @@
     </row>
     <row r="78" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -5227,7 +4388,7 @@
     </row>
     <row r="79" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="B79">
         <v>4</v>
@@ -5385,7 +4546,7 @@
     </row>
     <row r="80" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="B80">
         <v>10</v>
@@ -5543,7 +4704,7 @@
     </row>
     <row r="81" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="B81">
         <v>158</v>
@@ -5701,7 +4862,7 @@
     </row>
     <row r="82" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="B82">
         <v>15</v>
@@ -5859,7 +5020,7 @@
     </row>
     <row r="83" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -6017,7 +5178,7 @@
     </row>
     <row r="84" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="B84">
         <v>3</v>
@@ -6175,7 +5336,7 @@
     </row>
     <row r="85" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="B85">
         <v>2</v>
@@ -6333,7 +5494,7 @@
     </row>
     <row r="86" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="B86">
         <v>132</v>
@@ -6491,7 +5652,7 @@
     </row>
     <row r="87" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="B87">
         <v>214</v>
@@ -6649,7 +5810,7 @@
     </row>
     <row r="88" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="B88">
         <v>156</v>
@@ -6807,7 +5968,7 @@
     </row>
     <row r="89" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="B89">
         <v>230</v>
@@ -6965,7 +6126,7 @@
     </row>
     <row r="90" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="B90">
         <v>23</v>
@@ -7123,7 +6284,7 @@
     </row>
     <row r="91" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="B91">
         <v>55</v>
@@ -7281,7 +6442,7 @@
     </row>
     <row r="92" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="B92">
         <v>50</v>
@@ -7439,7 +6600,7 @@
     </row>
     <row r="93" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="B93">
         <v>25</v>
@@ -7597,7 +6758,7 @@
     </row>
     <row r="94" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="B94">
         <v>25</v>
@@ -7755,7 +6916,7 @@
     </row>
     <row r="95" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="B95">
         <v>76</v>
@@ -7913,7 +7074,7 @@
     </row>
     <row r="96" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="B96">
         <v>18</v>
@@ -8071,7 +7232,7 @@
     </row>
     <row r="97" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -8229,7 +7390,7 @@
     </row>
     <row r="98" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="B98">
         <v>12</v>
@@ -8387,7 +7548,7 @@
     </row>
     <row r="99" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="B99">
         <v>1</v>
@@ -8545,7 +7706,7 @@
     </row>
     <row r="100" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -8703,7 +7864,7 @@
     </row>
     <row r="101" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="B101">
         <v>1</v>
@@ -8861,7 +8022,7 @@
     </row>
     <row r="102" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="B102">
         <v>1</v>
@@ -9019,7 +8180,7 @@
     </row>
     <row r="103" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -9177,7 +8338,7 @@
     </row>
     <row r="104" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="B104">
         <v>463</v>
@@ -9335,7 +8496,7 @@
     </row>
     <row r="105" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B105">
         <v>39</v>
@@ -9493,7 +8654,7 @@
     </row>
     <row r="106" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="B106">
         <v>5</v>
@@ -9651,7 +8812,7 @@
     </row>
     <row r="107" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="B107">
         <v>13</v>
@@ -9809,7 +8970,7 @@
     </row>
     <row r="108" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="B108">
         <v>51</v>
@@ -9967,7 +9128,7 @@
     </row>
     <row r="109" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="B109">
         <v>20</v>
@@ -10125,7 +9286,7 @@
     </row>
     <row r="110" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="B110">
         <v>7</v>
@@ -10283,82 +9444,82 @@
     </row>
     <row r="111" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="112" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B126">
         <v>375</v>
@@ -10366,42 +9527,42 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -10422,236 +9583,236 @@
   <sheetData>
     <row r="1" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58" t="s">
+        <v>169</v>
+      </c>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58" t="s">
+        <v>170</v>
+      </c>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58" t="s">
+        <v>171</v>
+      </c>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58" t="s">
+        <v>172</v>
+      </c>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58" t="s">
         <v>173</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="M1" s="58"/>
+      <c r="N1" s="58" t="s">
         <v>174</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34" t="s">
+      <c r="O1" s="58"/>
+      <c r="P1" s="58" t="s">
         <v>175</v>
       </c>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34" t="s">
+      <c r="Q1" s="58"/>
+      <c r="R1" s="58" t="s">
         <v>176</v>
       </c>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34" t="s">
+      <c r="S1" s="58"/>
+      <c r="T1" s="58" t="s">
         <v>177</v>
       </c>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34" t="s">
+      <c r="U1" s="58"/>
+      <c r="V1" s="61" t="s">
         <v>178</v>
       </c>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34" t="s">
+      <c r="W1" s="61"/>
+      <c r="X1" s="61" t="s">
         <v>179</v>
       </c>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34" t="s">
+      <c r="Y1" s="61"/>
+      <c r="Z1" s="60" t="s">
         <v>180</v>
       </c>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34" t="s">
+      <c r="AA1" s="60"/>
+      <c r="AB1" s="58" t="s">
         <v>181</v>
       </c>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34" t="s">
+      <c r="AC1" s="58"/>
+      <c r="AD1" s="58" t="s">
         <v>182</v>
       </c>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34" t="s">
+      <c r="AE1" s="58"/>
+      <c r="AF1" s="58" t="s">
         <v>183</v>
       </c>
-      <c r="U1" s="34"/>
-      <c r="V1" s="38" t="s">
+      <c r="AG1" s="58"/>
+      <c r="AH1" s="58" t="s">
         <v>184</v>
       </c>
-      <c r="W1" s="38"/>
-      <c r="X1" s="38" t="s">
+      <c r="AI1" s="58"/>
+      <c r="AJ1" s="58" t="s">
         <v>185</v>
       </c>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="37" t="s">
+      <c r="AK1" s="58"/>
+      <c r="AL1" s="58" t="s">
         <v>186</v>
       </c>
-      <c r="AA1" s="37"/>
-      <c r="AB1" s="34" t="s">
+      <c r="AM1" s="58"/>
+      <c r="AN1" s="58" t="s">
         <v>187</v>
       </c>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="34" t="s">
-        <v>188</v>
-      </c>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="34" t="s">
-        <v>189</v>
-      </c>
-      <c r="AG1" s="34"/>
-      <c r="AH1" s="34" t="s">
-        <v>190</v>
-      </c>
-      <c r="AI1" s="34"/>
-      <c r="AJ1" s="34" t="s">
-        <v>191</v>
-      </c>
-      <c r="AK1" s="34"/>
-      <c r="AL1" s="34" t="s">
-        <v>192</v>
-      </c>
-      <c r="AM1" s="34"/>
-      <c r="AN1" s="34" t="s">
-        <v>193</v>
-      </c>
-      <c r="AO1" s="35"/>
+      <c r="AO1" s="59"/>
     </row>
     <row r="2" spans="1:41" ht="36.75" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="B2" s="36" t="s">
-        <v>195</v>
-      </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36" t="s">
-        <v>195</v>
-      </c>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36" t="s">
-        <v>196</v>
-      </c>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36" t="s">
-        <v>196</v>
-      </c>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36" t="s">
-        <v>196</v>
-      </c>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36" t="s">
-        <v>196</v>
-      </c>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36" t="s">
-        <v>196</v>
-      </c>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="36" t="s">
-        <v>196</v>
-      </c>
-      <c r="S2" s="36"/>
-      <c r="T2" s="36" t="s">
-        <v>196</v>
-      </c>
-      <c r="U2" s="36"/>
-      <c r="V2" s="36" t="s">
-        <v>196</v>
-      </c>
-      <c r="W2" s="36"/>
-      <c r="X2" s="36" t="s">
-        <v>196</v>
-      </c>
-      <c r="Y2" s="36"/>
-      <c r="Z2" s="36" t="s">
-        <v>196</v>
-      </c>
-      <c r="AA2" s="36"/>
-      <c r="AB2" s="36" t="s">
-        <v>196</v>
-      </c>
-      <c r="AC2" s="36"/>
-      <c r="AD2" s="36" t="s">
-        <v>195</v>
-      </c>
-      <c r="AE2" s="36"/>
-      <c r="AF2" s="36" t="s">
-        <v>196</v>
-      </c>
-      <c r="AG2" s="36"/>
-      <c r="AH2" s="36" t="s">
-        <v>195</v>
-      </c>
-      <c r="AI2" s="36"/>
-      <c r="AJ2" s="36" t="s">
-        <v>195</v>
-      </c>
-      <c r="AK2" s="36"/>
-      <c r="AL2" s="36" t="s">
-        <v>195</v>
-      </c>
-      <c r="AM2" s="36"/>
-      <c r="AN2" s="36" t="s">
-        <v>196</v>
-      </c>
-      <c r="AO2" s="39"/>
+        <v>188</v>
+      </c>
+      <c r="B2" s="54" t="s">
+        <v>189</v>
+      </c>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54" t="s">
+        <v>189</v>
+      </c>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54" t="s">
+        <v>190</v>
+      </c>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54" t="s">
+        <v>190</v>
+      </c>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54" t="s">
+        <v>190</v>
+      </c>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54" t="s">
+        <v>190</v>
+      </c>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54" t="s">
+        <v>190</v>
+      </c>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="54" t="s">
+        <v>190</v>
+      </c>
+      <c r="S2" s="54"/>
+      <c r="T2" s="54" t="s">
+        <v>190</v>
+      </c>
+      <c r="U2" s="54"/>
+      <c r="V2" s="54" t="s">
+        <v>190</v>
+      </c>
+      <c r="W2" s="54"/>
+      <c r="X2" s="54" t="s">
+        <v>190</v>
+      </c>
+      <c r="Y2" s="54"/>
+      <c r="Z2" s="54" t="s">
+        <v>190</v>
+      </c>
+      <c r="AA2" s="54"/>
+      <c r="AB2" s="54" t="s">
+        <v>190</v>
+      </c>
+      <c r="AC2" s="54"/>
+      <c r="AD2" s="54" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE2" s="54"/>
+      <c r="AF2" s="54" t="s">
+        <v>190</v>
+      </c>
+      <c r="AG2" s="54"/>
+      <c r="AH2" s="54" t="s">
+        <v>189</v>
+      </c>
+      <c r="AI2" s="54"/>
+      <c r="AJ2" s="54" t="s">
+        <v>189</v>
+      </c>
+      <c r="AK2" s="54"/>
+      <c r="AL2" s="54" t="s">
+        <v>189</v>
+      </c>
+      <c r="AM2" s="54"/>
+      <c r="AN2" s="54" t="s">
+        <v>190</v>
+      </c>
+      <c r="AO2" s="55"/>
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="B3" s="41" t="s">
-        <v>198</v>
-      </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41" t="s">
-        <v>198</v>
-      </c>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41" t="s">
-        <v>198</v>
-      </c>
-      <c r="G3" s="41"/>
-      <c r="H3" s="45" t="s">
-        <v>198</v>
-      </c>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="43">
+        <v>191</v>
+      </c>
+      <c r="B3" s="52" t="s">
+        <v>192</v>
+      </c>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52" t="s">
+        <v>192</v>
+      </c>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52" t="s">
+        <v>192</v>
+      </c>
+      <c r="G3" s="52"/>
+      <c r="H3" s="53" t="s">
+        <v>192</v>
+      </c>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="51">
         <v>1</v>
       </c>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43">
+      <c r="M3" s="51"/>
+      <c r="N3" s="51">
         <v>2</v>
       </c>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43">
+      <c r="O3" s="51"/>
+      <c r="P3" s="51">
         <v>3</v>
       </c>
-      <c r="Q3" s="43"/>
-      <c r="R3" s="43">
+      <c r="Q3" s="51"/>
+      <c r="R3" s="51">
         <v>4</v>
       </c>
-      <c r="S3" s="43"/>
-      <c r="T3" s="42" t="s">
-        <v>199</v>
-      </c>
-      <c r="U3" s="43"/>
-      <c r="V3" s="44" t="s">
-        <v>198</v>
-      </c>
-      <c r="W3" s="44"/>
-      <c r="X3" s="44" t="s">
-        <v>198</v>
-      </c>
-      <c r="Y3" s="44"/>
-      <c r="Z3" s="40" t="s">
-        <v>198</v>
-      </c>
-      <c r="AA3" s="40"/>
-      <c r="AB3" s="41"/>
-      <c r="AC3" s="41"/>
-      <c r="AD3" s="41" t="s">
-        <v>198</v>
-      </c>
-      <c r="AE3" s="41"/>
-      <c r="AF3" s="41"/>
-      <c r="AG3" s="41"/>
+      <c r="S3" s="51"/>
+      <c r="T3" s="47" t="s">
+        <v>193</v>
+      </c>
+      <c r="U3" s="51"/>
+      <c r="V3" s="57" t="s">
+        <v>192</v>
+      </c>
+      <c r="W3" s="57"/>
+      <c r="X3" s="57" t="s">
+        <v>192</v>
+      </c>
+      <c r="Y3" s="57"/>
+      <c r="Z3" s="56" t="s">
+        <v>192</v>
+      </c>
+      <c r="AA3" s="56"/>
+      <c r="AB3" s="52"/>
+      <c r="AC3" s="52"/>
+      <c r="AD3" s="52" t="s">
+        <v>192</v>
+      </c>
+      <c r="AE3" s="52"/>
+      <c r="AF3" s="52"/>
+      <c r="AG3" s="52"/>
       <c r="AH3" s="7"/>
       <c r="AI3" s="7"/>
       <c r="AJ3" s="7"/>
@@ -10663,552 +9824,552 @@
     </row>
     <row r="4" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="B4" s="47" t="s">
-        <v>201</v>
-      </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47" t="s">
-        <v>201</v>
-      </c>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47" t="s">
-        <v>201</v>
-      </c>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47" t="s">
-        <v>202</v>
-      </c>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47" t="s">
-        <v>202</v>
-      </c>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47" t="s">
-        <v>202</v>
-      </c>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47" t="s">
-        <v>202</v>
-      </c>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q4" s="47"/>
-      <c r="R4" s="47" t="s">
-        <v>202</v>
-      </c>
-      <c r="S4" s="47"/>
-      <c r="T4" s="47" t="s">
-        <v>202</v>
-      </c>
-      <c r="U4" s="47"/>
-      <c r="V4" s="48" t="s">
-        <v>202</v>
-      </c>
-      <c r="W4" s="48"/>
-      <c r="X4" s="49" t="s">
-        <v>202</v>
-      </c>
-      <c r="Y4" s="49"/>
-      <c r="Z4" s="46" t="s">
-        <v>202</v>
-      </c>
-      <c r="AA4" s="46"/>
-      <c r="AB4" s="42" t="s">
-        <v>201</v>
-      </c>
-      <c r="AC4" s="42"/>
-      <c r="AD4" s="42" t="s">
-        <v>201</v>
-      </c>
-      <c r="AE4" s="42"/>
-      <c r="AF4" s="47" t="s">
-        <v>202</v>
-      </c>
-      <c r="AG4" s="47"/>
-      <c r="AH4" s="47" t="s">
-        <v>201</v>
-      </c>
-      <c r="AI4" s="47"/>
-      <c r="AJ4" s="47" t="s">
-        <v>201</v>
-      </c>
-      <c r="AK4" s="47"/>
-      <c r="AL4" s="47" t="s">
-        <v>201</v>
-      </c>
-      <c r="AM4" s="47"/>
-      <c r="AN4" s="50" t="s">
-        <v>202</v>
-      </c>
-      <c r="AO4" s="51"/>
+        <v>194</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="O4" s="35"/>
+      <c r="P4" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q4" s="35"/>
+      <c r="R4" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="S4" s="35"/>
+      <c r="T4" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="U4" s="35"/>
+      <c r="V4" s="38" t="s">
+        <v>196</v>
+      </c>
+      <c r="W4" s="38"/>
+      <c r="X4" s="39" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y4" s="39"/>
+      <c r="Z4" s="40" t="s">
+        <v>196</v>
+      </c>
+      <c r="AA4" s="40"/>
+      <c r="AB4" s="47" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC4" s="47"/>
+      <c r="AD4" s="47" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE4" s="47"/>
+      <c r="AF4" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="AG4" s="35"/>
+      <c r="AH4" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="AI4" s="35"/>
+      <c r="AJ4" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="AK4" s="35"/>
+      <c r="AL4" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="AM4" s="35"/>
+      <c r="AN4" s="36" t="s">
+        <v>196</v>
+      </c>
+      <c r="AO4" s="37"/>
     </row>
     <row r="5" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="B5" s="42" t="s">
-        <v>204</v>
-      </c>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42" t="s">
-        <v>204</v>
-      </c>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42" t="s">
-        <v>204</v>
-      </c>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42" t="s">
-        <v>205</v>
-      </c>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42" t="s">
-        <v>205</v>
-      </c>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42" t="s">
-        <v>205</v>
-      </c>
-      <c r="M5" s="42"/>
-      <c r="N5" s="42" t="s">
-        <v>205</v>
-      </c>
-      <c r="O5" s="42"/>
-      <c r="P5" s="42" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q5" s="42"/>
-      <c r="R5" s="42" t="s">
-        <v>205</v>
-      </c>
-      <c r="S5" s="42"/>
-      <c r="T5" s="42" t="s">
-        <v>205</v>
-      </c>
-      <c r="U5" s="42"/>
-      <c r="V5" s="52" t="s">
-        <v>206</v>
-      </c>
-      <c r="W5" s="52"/>
-      <c r="X5" s="53" t="s">
-        <v>206</v>
-      </c>
-      <c r="Y5" s="53"/>
-      <c r="Z5" s="54" t="s">
-        <v>206</v>
-      </c>
-      <c r="AA5" s="54"/>
-      <c r="AB5" s="54" t="s">
-        <v>206</v>
-      </c>
-      <c r="AC5" s="54"/>
-      <c r="AD5" s="42" t="s">
-        <v>207</v>
-      </c>
-      <c r="AE5" s="42"/>
-      <c r="AF5" s="42" t="s">
-        <v>208</v>
-      </c>
-      <c r="AG5" s="42"/>
-      <c r="AH5" s="42" t="s">
-        <v>87</v>
-      </c>
-      <c r="AI5" s="42"/>
-      <c r="AJ5" s="42" t="s">
-        <v>87</v>
-      </c>
-      <c r="AK5" s="42"/>
-      <c r="AL5" s="42" t="s">
-        <v>87</v>
-      </c>
-      <c r="AM5" s="42"/>
-      <c r="AN5" s="50" t="s">
-        <v>87</v>
-      </c>
-      <c r="AO5" s="51"/>
+        <v>197</v>
+      </c>
+      <c r="B5" s="47" t="s">
+        <v>198</v>
+      </c>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47" t="s">
+        <v>198</v>
+      </c>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47" t="s">
+        <v>198</v>
+      </c>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47" t="s">
+        <v>199</v>
+      </c>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47" t="s">
+        <v>199</v>
+      </c>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47" t="s">
+        <v>199</v>
+      </c>
+      <c r="M5" s="47"/>
+      <c r="N5" s="47" t="s">
+        <v>199</v>
+      </c>
+      <c r="O5" s="47"/>
+      <c r="P5" s="47" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q5" s="47"/>
+      <c r="R5" s="47" t="s">
+        <v>199</v>
+      </c>
+      <c r="S5" s="47"/>
+      <c r="T5" s="47" t="s">
+        <v>199</v>
+      </c>
+      <c r="U5" s="47"/>
+      <c r="V5" s="48" t="s">
+        <v>200</v>
+      </c>
+      <c r="W5" s="48"/>
+      <c r="X5" s="49" t="s">
+        <v>200</v>
+      </c>
+      <c r="Y5" s="49"/>
+      <c r="Z5" s="50" t="s">
+        <v>200</v>
+      </c>
+      <c r="AA5" s="50"/>
+      <c r="AB5" s="50" t="s">
+        <v>200</v>
+      </c>
+      <c r="AC5" s="50"/>
+      <c r="AD5" s="47" t="s">
+        <v>201</v>
+      </c>
+      <c r="AE5" s="47"/>
+      <c r="AF5" s="47" t="s">
+        <v>202</v>
+      </c>
+      <c r="AG5" s="47"/>
+      <c r="AH5" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="AI5" s="47"/>
+      <c r="AJ5" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="AK5" s="47"/>
+      <c r="AL5" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="AM5" s="47"/>
+      <c r="AN5" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="AO5" s="37"/>
     </row>
     <row r="6" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="B6" s="44" t="s">
+        <v>204</v>
+      </c>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44" t="s">
+        <v>205</v>
+      </c>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44" t="s">
+        <v>205</v>
+      </c>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44" t="s">
+        <v>206</v>
+      </c>
+      <c r="I6" s="44"/>
+      <c r="J6" s="45" t="s">
+        <v>207</v>
+      </c>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45" t="s">
+        <v>207</v>
+      </c>
+      <c r="M6" s="45"/>
+      <c r="N6" s="45" t="s">
+        <v>207</v>
+      </c>
+      <c r="O6" s="45"/>
+      <c r="P6" s="45" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q6" s="45"/>
+      <c r="R6" s="45" t="s">
+        <v>207</v>
+      </c>
+      <c r="S6" s="45"/>
+      <c r="T6" s="45" t="s">
+        <v>207</v>
+      </c>
+      <c r="U6" s="45"/>
+      <c r="V6" s="45" t="s">
+        <v>207</v>
+      </c>
+      <c r="W6" s="45"/>
+      <c r="X6" s="46" t="s">
+        <v>207</v>
+      </c>
+      <c r="Y6" s="46"/>
+      <c r="Z6" s="43" t="s">
+        <v>207</v>
+      </c>
+      <c r="AA6" s="43"/>
+      <c r="AB6" s="44" t="s">
+        <v>208</v>
+      </c>
+      <c r="AC6" s="44"/>
+      <c r="AD6" s="44" t="s">
         <v>209</v>
       </c>
-      <c r="B6" s="55" t="s">
+      <c r="AE6" s="44"/>
+      <c r="AF6" s="44" t="s">
         <v>210</v>
       </c>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55" t="s">
+      <c r="AG6" s="44"/>
+      <c r="AH6" s="44" t="s">
         <v>211</v>
       </c>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55" t="s">
+      <c r="AI6" s="44"/>
+      <c r="AJ6" s="44" t="s">
         <v>211</v>
       </c>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55" t="s">
+      <c r="AK6" s="44"/>
+      <c r="AL6" s="44" t="s">
+        <v>211</v>
+      </c>
+      <c r="AM6" s="44"/>
+      <c r="AN6" s="36" t="s">
         <v>212</v>
       </c>
-      <c r="I6" s="55"/>
-      <c r="J6" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="M6" s="56"/>
-      <c r="N6" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="O6" s="56"/>
-      <c r="P6" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q6" s="56"/>
-      <c r="R6" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="S6" s="56"/>
-      <c r="T6" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="U6" s="56"/>
-      <c r="V6" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="W6" s="56"/>
-      <c r="X6" s="58" t="s">
-        <v>213</v>
-      </c>
-      <c r="Y6" s="58"/>
-      <c r="Z6" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="AA6" s="57"/>
-      <c r="AB6" s="55" t="s">
-        <v>214</v>
-      </c>
-      <c r="AC6" s="55"/>
-      <c r="AD6" s="55" t="s">
-        <v>215</v>
-      </c>
-      <c r="AE6" s="55"/>
-      <c r="AF6" s="55" t="s">
-        <v>216</v>
-      </c>
-      <c r="AG6" s="55"/>
-      <c r="AH6" s="55" t="s">
-        <v>217</v>
-      </c>
-      <c r="AI6" s="55"/>
-      <c r="AJ6" s="55" t="s">
-        <v>217</v>
-      </c>
-      <c r="AK6" s="55"/>
-      <c r="AL6" s="55" t="s">
-        <v>217</v>
-      </c>
-      <c r="AM6" s="55"/>
-      <c r="AN6" s="50" t="s">
-        <v>218</v>
-      </c>
-      <c r="AO6" s="51"/>
+      <c r="AO6" s="37"/>
     </row>
     <row r="7" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="B7" s="47" t="s">
-        <v>220</v>
-      </c>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47" t="s">
-        <v>220</v>
-      </c>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47" t="s">
-        <v>220</v>
-      </c>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47" t="s">
-        <v>221</v>
-      </c>
-      <c r="I7" s="47"/>
-      <c r="J7" s="48" t="s">
-        <v>222</v>
-      </c>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48" t="s">
-        <v>222</v>
-      </c>
-      <c r="M7" s="48"/>
-      <c r="N7" s="48" t="s">
-        <v>222</v>
-      </c>
-      <c r="O7" s="48"/>
-      <c r="P7" s="48" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q7" s="48"/>
-      <c r="R7" s="48" t="s">
-        <v>222</v>
-      </c>
-      <c r="S7" s="48"/>
-      <c r="T7" s="48" t="s">
-        <v>222</v>
-      </c>
-      <c r="U7" s="48"/>
-      <c r="V7" s="48" t="s">
-        <v>222</v>
-      </c>
-      <c r="W7" s="48"/>
-      <c r="X7" s="49" t="s">
-        <v>222</v>
-      </c>
-      <c r="Y7" s="49"/>
-      <c r="Z7" s="46" t="s">
-        <v>222</v>
-      </c>
-      <c r="AA7" s="46"/>
-      <c r="AB7" s="47" t="s">
-        <v>221</v>
-      </c>
-      <c r="AC7" s="47"/>
-      <c r="AD7" s="47" t="s">
-        <v>223</v>
-      </c>
-      <c r="AE7" s="47"/>
-      <c r="AF7" s="47" t="s">
-        <v>221</v>
-      </c>
-      <c r="AG7" s="47"/>
-      <c r="AH7" s="47" t="s">
-        <v>221</v>
-      </c>
-      <c r="AI7" s="47"/>
-      <c r="AJ7" s="47" t="s">
-        <v>221</v>
-      </c>
-      <c r="AK7" s="47"/>
-      <c r="AL7" s="47" t="s">
-        <v>221</v>
-      </c>
-      <c r="AM7" s="47"/>
-      <c r="AN7" s="50" t="s">
-        <v>221</v>
-      </c>
-      <c r="AO7" s="51"/>
+        <v>213</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>214</v>
+      </c>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35" t="s">
+        <v>214</v>
+      </c>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35" t="s">
+        <v>214</v>
+      </c>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35" t="s">
+        <v>215</v>
+      </c>
+      <c r="I7" s="35"/>
+      <c r="J7" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="O7" s="38"/>
+      <c r="P7" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q7" s="38"/>
+      <c r="R7" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="S7" s="38"/>
+      <c r="T7" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="U7" s="38"/>
+      <c r="V7" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="W7" s="38"/>
+      <c r="X7" s="39" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y7" s="39"/>
+      <c r="Z7" s="40" t="s">
+        <v>216</v>
+      </c>
+      <c r="AA7" s="40"/>
+      <c r="AB7" s="35" t="s">
+        <v>215</v>
+      </c>
+      <c r="AC7" s="35"/>
+      <c r="AD7" s="35" t="s">
+        <v>217</v>
+      </c>
+      <c r="AE7" s="35"/>
+      <c r="AF7" s="35" t="s">
+        <v>215</v>
+      </c>
+      <c r="AG7" s="35"/>
+      <c r="AH7" s="35" t="s">
+        <v>215</v>
+      </c>
+      <c r="AI7" s="35"/>
+      <c r="AJ7" s="35" t="s">
+        <v>215</v>
+      </c>
+      <c r="AK7" s="35"/>
+      <c r="AL7" s="35" t="s">
+        <v>215</v>
+      </c>
+      <c r="AM7" s="35"/>
+      <c r="AN7" s="36" t="s">
+        <v>215</v>
+      </c>
+      <c r="AO7" s="37"/>
     </row>
     <row r="8" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>219</v>
+      </c>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34" t="s">
+        <v>220</v>
+      </c>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34" t="s">
+        <v>221</v>
+      </c>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34" t="s">
+        <v>222</v>
+      </c>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34" t="s">
+        <v>223</v>
+      </c>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34" t="s">
         <v>224</v>
       </c>
-      <c r="B8" s="59" t="s">
+      <c r="M8" s="34"/>
+      <c r="N8" s="34" t="s">
+        <v>224</v>
+      </c>
+      <c r="O8" s="34"/>
+      <c r="P8" s="34" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q8" s="34"/>
+      <c r="R8" s="34" t="s">
+        <v>224</v>
+      </c>
+      <c r="S8" s="34"/>
+      <c r="T8" s="34" t="s">
+        <v>224</v>
+      </c>
+      <c r="U8" s="34"/>
+      <c r="V8" s="34" t="s">
         <v>225</v>
       </c>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59" t="s">
+      <c r="W8" s="34"/>
+      <c r="X8" s="34" t="s">
         <v>226</v>
       </c>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59" t="s">
+      <c r="Y8" s="34"/>
+      <c r="Z8" s="34" t="s">
+        <v>226</v>
+      </c>
+      <c r="AA8" s="34"/>
+      <c r="AB8" s="34" t="s">
+        <v>226</v>
+      </c>
+      <c r="AC8" s="34"/>
+      <c r="AD8" s="34" t="s">
         <v>227</v>
       </c>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59" t="s">
+      <c r="AE8" s="34"/>
+      <c r="AF8" s="34" t="s">
         <v>228</v>
       </c>
-      <c r="I8" s="59"/>
-      <c r="J8" s="59" t="s">
+      <c r="AG8" s="34"/>
+      <c r="AH8" s="34" t="s">
         <v>229</v>
       </c>
-      <c r="K8" s="59"/>
-      <c r="L8" s="59" t="s">
+      <c r="AI8" s="34"/>
+      <c r="AJ8" s="34" t="s">
+        <v>229</v>
+      </c>
+      <c r="AK8" s="34"/>
+      <c r="AL8" s="34" t="s">
+        <v>229</v>
+      </c>
+      <c r="AM8" s="34"/>
+      <c r="AN8" s="41" t="s">
         <v>230</v>
       </c>
-      <c r="M8" s="59"/>
-      <c r="N8" s="59" t="s">
-        <v>230</v>
-      </c>
-      <c r="O8" s="59"/>
-      <c r="P8" s="59" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q8" s="59"/>
-      <c r="R8" s="59" t="s">
-        <v>230</v>
-      </c>
-      <c r="S8" s="59"/>
-      <c r="T8" s="59" t="s">
-        <v>230</v>
-      </c>
-      <c r="U8" s="59"/>
-      <c r="V8" s="59" t="s">
-        <v>231</v>
-      </c>
-      <c r="W8" s="59"/>
-      <c r="X8" s="59" t="s">
-        <v>232</v>
-      </c>
-      <c r="Y8" s="59"/>
-      <c r="Z8" s="59" t="s">
-        <v>232</v>
-      </c>
-      <c r="AA8" s="59"/>
-      <c r="AB8" s="59" t="s">
-        <v>232</v>
-      </c>
-      <c r="AC8" s="59"/>
-      <c r="AD8" s="59" t="s">
-        <v>233</v>
-      </c>
-      <c r="AE8" s="59"/>
-      <c r="AF8" s="59" t="s">
-        <v>234</v>
-      </c>
-      <c r="AG8" s="59"/>
-      <c r="AH8" s="59" t="s">
-        <v>235</v>
-      </c>
-      <c r="AI8" s="59"/>
-      <c r="AJ8" s="59" t="s">
-        <v>235</v>
-      </c>
-      <c r="AK8" s="59"/>
-      <c r="AL8" s="59" t="s">
-        <v>235</v>
-      </c>
-      <c r="AM8" s="59"/>
-      <c r="AN8" s="60" t="s">
-        <v>236</v>
-      </c>
-      <c r="AO8" s="61"/>
+      <c r="AO8" s="42"/>
     </row>
     <row r="9" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>37</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="L9" s="12" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="M9" s="12" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="N9" s="12" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="O9" s="12" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="P9" s="12" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="Q9" s="12" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="R9" s="12" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="S9" s="12" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="T9" s="12" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="U9" s="12" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="V9" s="3" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="W9" s="3" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="X9" s="3" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="Y9" s="3" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="Z9" s="3" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="AA9" s="3" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="AB9" s="3" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="AC9" s="3" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="AD9" s="3" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="AE9" s="3" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="AF9" s="3" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="AG9" s="13" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="AH9" s="3" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="AI9" s="13" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="AJ9" s="3" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="AK9" s="13" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="AL9" s="3" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="AM9" s="13" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="AN9" s="14" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="AO9" s="14" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="10" spans="1:41" x14ac:dyDescent="0.25">
@@ -11864,10 +11025,10 @@
       <c r="AL20" s="22"/>
       <c r="AM20" s="22"/>
       <c r="AN20" s="22" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="AO20" s="18" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="21" spans="1:41" x14ac:dyDescent="0.25">
@@ -11922,10 +11083,10 @@
       <c r="AL21" s="22"/>
       <c r="AM21" s="22"/>
       <c r="AN21" s="22" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="AO21" s="18" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="22" spans="1:41" x14ac:dyDescent="0.25">
@@ -11980,10 +11141,10 @@
       <c r="AL22" s="22"/>
       <c r="AM22" s="22"/>
       <c r="AN22" s="22" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="AO22" s="18" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="1:41" x14ac:dyDescent="0.25">
@@ -12042,10 +11203,10 @@
       <c r="AL23" s="22"/>
       <c r="AM23" s="22"/>
       <c r="AN23" s="22" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="AO23" s="18" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:41" x14ac:dyDescent="0.25">
@@ -16045,37 +15206,107 @@
     </row>
   </sheetData>
   <mergeCells count="156">
-    <mergeCell ref="AJ8:AK8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="AL7:AM7"/>
-    <mergeCell ref="AN7:AO7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AL8:AM8"/>
-    <mergeCell ref="AN8:AO8"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AF7:AG7"/>
-    <mergeCell ref="AH7:AI7"/>
-    <mergeCell ref="Z8:AA8"/>
-    <mergeCell ref="AB8:AC8"/>
-    <mergeCell ref="AD8:AE8"/>
-    <mergeCell ref="AF8:AG8"/>
-    <mergeCell ref="AH8:AI8"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="AL1:AM1"/>
+    <mergeCell ref="AN1:AO1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="AH1:AI1"/>
+    <mergeCell ref="AJ1:AK1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="AN2:AO2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AH2:AI2"/>
+    <mergeCell ref="AJ2:AK2"/>
+    <mergeCell ref="AL2:AM2"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="Z4:AA4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="AN5:AO5"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="T5:U5"/>
+    <mergeCell ref="V5:W5"/>
+    <mergeCell ref="X5:Y5"/>
+    <mergeCell ref="Z5:AA5"/>
+    <mergeCell ref="AB5:AC5"/>
+    <mergeCell ref="AL4:AM4"/>
+    <mergeCell ref="AN4:AO4"/>
+    <mergeCell ref="AB4:AC4"/>
+    <mergeCell ref="AD4:AE4"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="AH4:AI4"/>
+    <mergeCell ref="AJ4:AK4"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="AD5:AE5"/>
+    <mergeCell ref="AF5:AG5"/>
+    <mergeCell ref="AH5:AI5"/>
+    <mergeCell ref="AJ5:AK5"/>
+    <mergeCell ref="AL5:AM5"/>
+    <mergeCell ref="AL6:AM6"/>
     <mergeCell ref="AN6:AO6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
@@ -16100,107 +15331,37 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="AJ7:AK7"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="AD5:AE5"/>
-    <mergeCell ref="AF5:AG5"/>
-    <mergeCell ref="AH5:AI5"/>
-    <mergeCell ref="AJ5:AK5"/>
-    <mergeCell ref="AL5:AM5"/>
-    <mergeCell ref="AL6:AM6"/>
-    <mergeCell ref="AN5:AO5"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="T5:U5"/>
-    <mergeCell ref="V5:W5"/>
-    <mergeCell ref="X5:Y5"/>
-    <mergeCell ref="Z5:AA5"/>
-    <mergeCell ref="AB5:AC5"/>
-    <mergeCell ref="AL4:AM4"/>
-    <mergeCell ref="AN4:AO4"/>
-    <mergeCell ref="AB4:AC4"/>
-    <mergeCell ref="AD4:AE4"/>
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="AH4:AI4"/>
-    <mergeCell ref="AJ4:AK4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="Z4:AA4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="V4:W4"/>
-    <mergeCell ref="X4:Y4"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="AN2:AO2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="X2:Y2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="AB2:AC2"/>
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AH2:AI2"/>
-    <mergeCell ref="AJ2:AK2"/>
-    <mergeCell ref="AL2:AM2"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="AL1:AM1"/>
-    <mergeCell ref="AN1:AO1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="AH1:AI1"/>
-    <mergeCell ref="AJ1:AK1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AG7"/>
+    <mergeCell ref="AH7:AI7"/>
+    <mergeCell ref="Z8:AA8"/>
+    <mergeCell ref="AB8:AC8"/>
+    <mergeCell ref="AD8:AE8"/>
+    <mergeCell ref="AF8:AG8"/>
+    <mergeCell ref="AH8:AI8"/>
+    <mergeCell ref="AJ8:AK8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="AL7:AM7"/>
+    <mergeCell ref="AN7:AO7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AL8:AM8"/>
+    <mergeCell ref="AN8:AO8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16218,43 +15379,43 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" t="s">
         <v>89</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
         <v>90</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>91</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
         <v>92</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>93</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>94</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>95</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
         <v>96</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
         <v>97</v>
-      </c>
-      <c r="J1" t="s">
-        <v>98</v>
-      </c>
-      <c r="K1" t="s">
-        <v>99</v>
-      </c>
-      <c r="L1" t="s">
-        <v>100</v>
-      </c>
-      <c r="M1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -16298,7 +15459,7 @@
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="O2">
         <f>SUM(A2:K2)</f>
@@ -16346,7 +15507,7 @@
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="O3">
         <f t="shared" ref="O3:O66" si="0">SUM(A3:K3)</f>
@@ -16394,7 +15555,7 @@
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="O4">
         <f t="shared" si="0"/>
@@ -16442,7 +15603,7 @@
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="O5">
         <f t="shared" si="0"/>
@@ -16490,7 +15651,7 @@
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="O6">
         <f t="shared" si="0"/>
@@ -16538,7 +15699,7 @@
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="O7">
         <f t="shared" si="0"/>
@@ -16586,7 +15747,7 @@
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="O8">
         <f t="shared" si="0"/>
@@ -16634,7 +15795,7 @@
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="O9">
         <f t="shared" si="0"/>
@@ -16682,7 +15843,7 @@
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="O10">
         <f t="shared" si="0"/>
@@ -16730,7 +15891,7 @@
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="O11">
         <f t="shared" si="0"/>
@@ -16778,7 +15939,7 @@
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="O12">
         <f t="shared" si="0"/>
@@ -16826,7 +15987,7 @@
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="O13">
         <f t="shared" si="0"/>
@@ -16874,7 +16035,7 @@
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="O14">
         <f t="shared" si="0"/>
@@ -16922,7 +16083,7 @@
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="O15">
         <f t="shared" si="0"/>
@@ -16970,7 +16131,7 @@
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="O16">
         <f t="shared" si="0"/>
@@ -17018,7 +16179,7 @@
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="O17">
         <f t="shared" si="0"/>
@@ -17066,7 +16227,7 @@
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="O18">
         <f t="shared" si="0"/>
@@ -17114,7 +16275,7 @@
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="O19">
         <f t="shared" si="0"/>
@@ -17162,7 +16323,7 @@
         <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="O20">
         <f t="shared" si="0"/>
@@ -17210,7 +16371,7 @@
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="O21">
         <f t="shared" si="0"/>
@@ -17258,7 +16419,7 @@
         <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="O22">
         <f t="shared" si="0"/>
@@ -17306,7 +16467,7 @@
         <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="O23">
         <f t="shared" si="0"/>
@@ -17354,7 +16515,7 @@
         <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="O24">
         <f t="shared" si="0"/>
@@ -17402,7 +16563,7 @@
         <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="O25">
         <f t="shared" si="0"/>
@@ -17450,7 +16611,7 @@
         <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="O26">
         <f t="shared" si="0"/>
@@ -17498,7 +16659,7 @@
         <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="O27">
         <f t="shared" si="0"/>
@@ -17546,7 +16707,7 @@
         <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O28">
         <f t="shared" si="0"/>
@@ -17594,7 +16755,7 @@
         <v>1</v>
       </c>
       <c r="N29" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="O29">
         <f t="shared" si="0"/>
@@ -17642,7 +16803,7 @@
         <v>1</v>
       </c>
       <c r="N30" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="O30">
         <f t="shared" si="0"/>
@@ -17690,7 +16851,7 @@
         <v>1</v>
       </c>
       <c r="N31" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="O31">
         <f t="shared" si="0"/>
@@ -17738,7 +16899,7 @@
         <v>1</v>
       </c>
       <c r="N32" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="O32">
         <f t="shared" si="0"/>
@@ -17786,7 +16947,7 @@
         <v>1</v>
       </c>
       <c r="N33" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="O33">
         <f t="shared" si="0"/>
@@ -17834,7 +16995,7 @@
         <v>1</v>
       </c>
       <c r="N34" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="O34">
         <f t="shared" si="0"/>
@@ -17882,7 +17043,7 @@
         <v>1</v>
       </c>
       <c r="N35" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="O35">
         <f t="shared" si="0"/>
@@ -17930,7 +17091,7 @@
         <v>1</v>
       </c>
       <c r="N36" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="O36">
         <f t="shared" si="0"/>
@@ -17978,7 +17139,7 @@
         <v>1</v>
       </c>
       <c r="N37" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="O37">
         <f t="shared" si="0"/>
@@ -18026,7 +17187,7 @@
         <v>1</v>
       </c>
       <c r="N38" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="O38">
         <f t="shared" si="0"/>
@@ -18074,7 +17235,7 @@
         <v>1</v>
       </c>
       <c r="N39" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="O39">
         <f t="shared" si="0"/>
@@ -18122,7 +17283,7 @@
         <v>1</v>
       </c>
       <c r="N40" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="O40">
         <f t="shared" si="0"/>
@@ -18170,7 +17331,7 @@
         <v>1</v>
       </c>
       <c r="N41" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="O41">
         <f t="shared" si="0"/>
@@ -18218,7 +17379,7 @@
         <v>1</v>
       </c>
       <c r="N42" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="O42">
         <f t="shared" si="0"/>
@@ -18266,7 +17427,7 @@
         <v>1</v>
       </c>
       <c r="N43" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="O43">
         <f t="shared" si="0"/>
@@ -18314,7 +17475,7 @@
         <v>1</v>
       </c>
       <c r="N44" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="O44">
         <f t="shared" si="0"/>
@@ -18362,7 +17523,7 @@
         <v>1</v>
       </c>
       <c r="N45" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="O45">
         <f t="shared" si="0"/>
@@ -18410,7 +17571,7 @@
         <v>1</v>
       </c>
       <c r="N46" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="O46">
         <f t="shared" si="0"/>
@@ -18458,7 +17619,7 @@
         <v>1</v>
       </c>
       <c r="N47" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="O47">
         <f t="shared" si="0"/>
@@ -18506,7 +17667,7 @@
         <v>1</v>
       </c>
       <c r="N48" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="O48">
         <f t="shared" si="0"/>
@@ -18554,7 +17715,7 @@
         <v>1</v>
       </c>
       <c r="N49" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="O49">
         <f t="shared" si="0"/>
@@ -18602,7 +17763,7 @@
         <v>1</v>
       </c>
       <c r="N50" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="O50">
         <f t="shared" si="0"/>
@@ -18650,7 +17811,7 @@
         <v>1</v>
       </c>
       <c r="N51" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="O51">
         <f t="shared" si="0"/>
@@ -18698,7 +17859,7 @@
         <v>1</v>
       </c>
       <c r="N52" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="O52">
         <f t="shared" si="0"/>
@@ -18746,7 +17907,7 @@
         <v>1</v>
       </c>
       <c r="N53" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="O53">
         <f t="shared" si="0"/>
@@ -18794,7 +17955,7 @@
         <v>1</v>
       </c>
       <c r="N54" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="O54">
         <f t="shared" si="0"/>
@@ -18842,7 +18003,7 @@
         <v>1</v>
       </c>
       <c r="N55" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="O55">
         <f t="shared" si="0"/>
@@ -18890,7 +18051,7 @@
         <v>1</v>
       </c>
       <c r="N56" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="O56">
         <f t="shared" si="0"/>
@@ -18938,7 +18099,7 @@
         <v>1</v>
       </c>
       <c r="N57" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="O57">
         <f t="shared" si="0"/>
@@ -18986,7 +18147,7 @@
         <v>1</v>
       </c>
       <c r="N58" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="O58">
         <f t="shared" si="0"/>
@@ -19034,7 +18195,7 @@
         <v>1</v>
       </c>
       <c r="N59" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="O59">
         <f t="shared" si="0"/>
@@ -19082,7 +18243,7 @@
         <v>1</v>
       </c>
       <c r="N60" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="O60">
         <f t="shared" si="0"/>
@@ -19130,7 +18291,7 @@
         <v>1</v>
       </c>
       <c r="N61" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="O61">
         <f t="shared" si="0"/>
@@ -19178,7 +18339,7 @@
         <v>1</v>
       </c>
       <c r="N62" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="O62">
         <f t="shared" si="0"/>
@@ -19226,7 +18387,7 @@
         <v>1</v>
       </c>
       <c r="N63" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="O63">
         <f t="shared" si="0"/>
@@ -19274,7 +18435,7 @@
         <v>1</v>
       </c>
       <c r="N64" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="O64">
         <f t="shared" si="0"/>
@@ -19322,7 +18483,7 @@
         <v>1</v>
       </c>
       <c r="N65" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="O65">
         <f t="shared" si="0"/>
@@ -19370,7 +18531,7 @@
         <v>1</v>
       </c>
       <c r="N66" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="O66">
         <f t="shared" si="0"/>
@@ -19418,7 +18579,7 @@
         <v>1</v>
       </c>
       <c r="N67" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="O67">
         <f t="shared" ref="O67:O69" si="1">SUM(A67:K67)</f>
@@ -19466,7 +18627,7 @@
         <v>1</v>
       </c>
       <c r="N68" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="O68">
         <f t="shared" si="1"/>
@@ -19514,7 +18675,7 @@
         <v>1</v>
       </c>
       <c r="N69" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="O69">
         <f t="shared" si="1"/>

--- a/inst/SWO_Data.xlsx
+++ b/inst/SWO_Data.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adrian\Documents\GitHub\nswo-mse\inst\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\nswo-mse\inst\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D7E482F-764D-494E-A68B-0045C22D869E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="Indices" sheetId="3" r:id="rId2"/>
     <sheet name="Catches" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -855,7 +854,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -1605,17 +1604,47 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="24" fillId="0" borderId="18" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="10" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="12" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="12" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="44" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="13" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="12" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="15" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="19" fillId="34" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="19" fillId="34" borderId="0" xfId="42" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="42" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="42" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="19" fillId="35" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="19" fillId="34" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="42" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="36" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1623,28 +1652,10 @@
     <xf numFmtId="0" fontId="19" fillId="35" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="42" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="42" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="36" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1656,37 +1667,25 @@
     <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="42" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="42" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="10" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="19" fillId="34" borderId="0" xfId="42" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="19" fillId="34" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="44" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="15" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="19" fillId="34" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="19" fillId="35" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="12" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="13" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="12" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="12" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1730,12 +1729,12 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="TableStyleLight1" xfId="43" xr:uid="{325A3DA1-44F3-482E-A6F8-86CFD4572BA1}"/>
+    <cellStyle name="TableStyleLight1" xfId="43"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="標準 2" xfId="42" xr:uid="{9239F856-9890-45B1-9FF5-5D0F5E771D96}"/>
-    <cellStyle name="標準 3" xfId="44" xr:uid="{2D484D1F-B25B-4B14-B368-EF2E2688C7B3}"/>
+    <cellStyle name="標準 2" xfId="42"/>
+    <cellStyle name="標準 3" xfId="44"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2046,20 +2045,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BQ134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AN34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BO48" sqref="BO48"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71:BA71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2067,7 +2066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2075,7 +2074,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2083,7 +2082,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2091,7 +2090,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2099,7 +2098,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2107,7 +2106,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2115,7 +2114,7 @@
         <v>13200</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2123,22 +2122,22 @@
         <v>272</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -2146,142 +2145,142 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="35" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>37</v>
       </c>
@@ -2490,7 +2489,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="44" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>38</v>
       </c>
@@ -2699,22 +2698,22 @@
         <v>11172</v>
       </c>
     </row>
-    <row r="45" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="48" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>42</v>
       </c>
@@ -2878,7 +2877,7 @@
         <v>177.4</v>
       </c>
     </row>
-    <row r="49" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>43</v>
       </c>
@@ -3042,403 +3041,453 @@
         <v>0.15998062900000001</v>
       </c>
     </row>
-    <row r="50" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A50" s="2"/>
     </row>
-    <row r="51" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A51" s="2"/>
     </row>
-    <row r="52" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A52" s="2"/>
     </row>
-    <row r="53" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A53" s="2"/>
     </row>
-    <row r="54" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A54" s="2"/>
     </row>
-    <row r="55" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A55" s="2"/>
     </row>
-    <row r="56" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A56" s="2"/>
     </row>
-    <row r="57" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A57" s="2"/>
     </row>
-    <row r="58" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A58" s="2"/>
     </row>
-    <row r="59" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="60" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="61" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="62" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="63" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="65" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="66" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="67" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="69" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="70" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="71" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>54</v>
       </c>
       <c r="B71">
-        <v>47.5</v>
+        <v>45</v>
       </c>
       <c r="C71">
-        <v>52.5</v>
+        <v>50</v>
       </c>
       <c r="D71">
-        <v>57.5</v>
+        <v>55</v>
       </c>
       <c r="E71">
-        <v>62.5</v>
+        <v>60</v>
       </c>
       <c r="F71">
-        <v>67.5</v>
+        <v>65</v>
       </c>
       <c r="G71">
-        <v>72.5</v>
+        <v>70</v>
       </c>
       <c r="H71">
-        <v>77.5</v>
+        <v>75</v>
       </c>
       <c r="I71">
-        <v>82.5</v>
+        <v>80</v>
       </c>
       <c r="J71">
-        <v>87.5</v>
+        <v>85</v>
       </c>
       <c r="K71">
-        <v>92.5</v>
+        <v>90</v>
       </c>
       <c r="L71">
-        <v>97.5</v>
+        <v>95</v>
       </c>
       <c r="M71">
-        <v>102.5</v>
+        <v>100</v>
       </c>
       <c r="N71">
-        <v>107.5</v>
+        <v>105</v>
       </c>
       <c r="O71">
-        <v>112.5</v>
+        <v>110</v>
       </c>
       <c r="P71">
-        <v>117.5</v>
+        <v>115</v>
       </c>
       <c r="Q71">
-        <v>122.5</v>
+        <v>120</v>
       </c>
       <c r="R71">
-        <v>127.5</v>
+        <v>125</v>
       </c>
       <c r="S71">
-        <v>132.5</v>
+        <v>130</v>
       </c>
       <c r="T71">
-        <v>137.5</v>
+        <v>135</v>
       </c>
       <c r="U71">
-        <v>142.5</v>
+        <v>140</v>
       </c>
       <c r="V71">
-        <v>147.5</v>
+        <v>145</v>
       </c>
       <c r="W71">
-        <v>152.5</v>
+        <v>150</v>
       </c>
       <c r="X71">
-        <v>157.5</v>
+        <v>155</v>
       </c>
       <c r="Y71">
-        <v>162.5</v>
+        <v>160</v>
       </c>
       <c r="Z71">
-        <v>167.5</v>
+        <v>165</v>
       </c>
       <c r="AA71">
-        <v>172.5</v>
+        <v>170</v>
       </c>
       <c r="AB71">
-        <v>177.5</v>
+        <v>175</v>
       </c>
       <c r="AC71">
-        <v>182.5</v>
+        <v>180</v>
       </c>
       <c r="AD71">
-        <v>187.5</v>
+        <v>185</v>
       </c>
       <c r="AE71">
-        <v>192.5</v>
+        <v>190</v>
       </c>
       <c r="AF71">
-        <v>197.5</v>
+        <v>195</v>
       </c>
       <c r="AG71">
-        <v>202.5</v>
+        <v>200</v>
       </c>
       <c r="AH71">
-        <v>207.5</v>
+        <v>205</v>
       </c>
       <c r="AI71">
-        <v>212.5</v>
+        <v>210</v>
       </c>
       <c r="AJ71">
-        <v>217.5</v>
+        <v>215</v>
       </c>
       <c r="AK71">
-        <v>222.5</v>
+        <v>220</v>
       </c>
       <c r="AL71">
-        <v>227.5</v>
+        <v>225</v>
       </c>
       <c r="AM71">
-        <v>232.5</v>
+        <v>230</v>
       </c>
       <c r="AN71">
-        <v>237.5</v>
+        <v>235</v>
       </c>
       <c r="AO71">
-        <v>242.5</v>
+        <v>240</v>
       </c>
       <c r="AP71">
-        <v>247.5</v>
+        <v>245</v>
       </c>
       <c r="AQ71">
-        <v>252.5</v>
+        <v>250</v>
       </c>
       <c r="AR71">
-        <v>257.5</v>
+        <v>255</v>
       </c>
       <c r="AS71">
-        <v>262.5</v>
+        <v>260</v>
       </c>
       <c r="AT71">
-        <v>267.5</v>
+        <v>265</v>
       </c>
       <c r="AU71">
-        <v>272.5</v>
+        <v>270</v>
       </c>
       <c r="AV71">
-        <v>277.5</v>
+        <v>275</v>
       </c>
       <c r="AW71">
-        <v>282.5</v>
+        <v>280</v>
       </c>
       <c r="AX71">
-        <v>287.5</v>
+        <v>285</v>
       </c>
       <c r="AY71">
-        <v>292.5</v>
+        <v>290</v>
       </c>
       <c r="AZ71">
-        <v>297.5</v>
+        <v>295</v>
       </c>
       <c r="BA71">
-        <v>302.5</v>
-      </c>
-    </row>
-    <row r="72" spans="1:53" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="72" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>55</v>
       </c>
       <c r="B72">
-        <v>50</v>
+        <v>47.5</v>
       </c>
       <c r="C72">
-        <v>55</v>
+        <f>B72+5</f>
+        <v>52.5</v>
       </c>
       <c r="D72">
-        <v>60</v>
+        <f t="shared" ref="D72:AZ72" si="0">C72+5</f>
+        <v>57.5</v>
       </c>
       <c r="E72">
-        <v>65</v>
+        <f t="shared" si="0"/>
+        <v>62.5</v>
       </c>
       <c r="F72">
-        <v>70</v>
+        <f t="shared" si="0"/>
+        <v>67.5</v>
       </c>
       <c r="G72">
-        <v>75</v>
+        <f t="shared" si="0"/>
+        <v>72.5</v>
       </c>
       <c r="H72">
-        <v>80</v>
+        <f t="shared" si="0"/>
+        <v>77.5</v>
       </c>
       <c r="I72">
-        <v>85</v>
+        <f t="shared" si="0"/>
+        <v>82.5</v>
       </c>
       <c r="J72">
-        <v>90</v>
+        <f t="shared" si="0"/>
+        <v>87.5</v>
       </c>
       <c r="K72">
-        <v>95</v>
+        <f t="shared" si="0"/>
+        <v>92.5</v>
       </c>
       <c r="L72">
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>97.5</v>
       </c>
       <c r="M72">
-        <v>105</v>
+        <f t="shared" si="0"/>
+        <v>102.5</v>
       </c>
       <c r="N72">
-        <v>110</v>
+        <f t="shared" si="0"/>
+        <v>107.5</v>
       </c>
       <c r="O72">
-        <v>115</v>
+        <f t="shared" si="0"/>
+        <v>112.5</v>
       </c>
       <c r="P72">
-        <v>120</v>
+        <f t="shared" si="0"/>
+        <v>117.5</v>
       </c>
       <c r="Q72">
-        <v>125</v>
+        <f t="shared" si="0"/>
+        <v>122.5</v>
       </c>
       <c r="R72">
-        <v>130</v>
+        <f t="shared" si="0"/>
+        <v>127.5</v>
       </c>
       <c r="S72">
-        <v>135</v>
+        <f t="shared" si="0"/>
+        <v>132.5</v>
       </c>
       <c r="T72">
-        <v>140</v>
+        <f t="shared" si="0"/>
+        <v>137.5</v>
       </c>
       <c r="U72">
-        <v>145</v>
+        <f t="shared" si="0"/>
+        <v>142.5</v>
       </c>
       <c r="V72">
-        <v>150</v>
+        <f t="shared" si="0"/>
+        <v>147.5</v>
       </c>
       <c r="W72">
-        <v>155</v>
+        <f t="shared" si="0"/>
+        <v>152.5</v>
       </c>
       <c r="X72">
-        <v>160</v>
+        <f t="shared" si="0"/>
+        <v>157.5</v>
       </c>
       <c r="Y72">
-        <v>165</v>
+        <f t="shared" si="0"/>
+        <v>162.5</v>
       </c>
       <c r="Z72">
-        <v>170</v>
+        <f t="shared" si="0"/>
+        <v>167.5</v>
       </c>
       <c r="AA72">
-        <v>175</v>
+        <f t="shared" si="0"/>
+        <v>172.5</v>
       </c>
       <c r="AB72">
-        <v>180</v>
+        <f t="shared" si="0"/>
+        <v>177.5</v>
       </c>
       <c r="AC72">
-        <v>185</v>
+        <f t="shared" si="0"/>
+        <v>182.5</v>
       </c>
       <c r="AD72">
-        <v>190</v>
+        <f t="shared" si="0"/>
+        <v>187.5</v>
       </c>
       <c r="AE72">
-        <v>195</v>
+        <f t="shared" si="0"/>
+        <v>192.5</v>
       </c>
       <c r="AF72">
-        <v>200</v>
+        <f t="shared" si="0"/>
+        <v>197.5</v>
       </c>
       <c r="AG72">
-        <v>205</v>
+        <f t="shared" si="0"/>
+        <v>202.5</v>
       </c>
       <c r="AH72">
-        <v>210</v>
+        <f t="shared" si="0"/>
+        <v>207.5</v>
       </c>
       <c r="AI72">
-        <v>215</v>
+        <f t="shared" si="0"/>
+        <v>212.5</v>
       </c>
       <c r="AJ72">
-        <v>220</v>
+        <f t="shared" si="0"/>
+        <v>217.5</v>
       </c>
       <c r="AK72">
-        <v>225</v>
+        <f t="shared" si="0"/>
+        <v>222.5</v>
       </c>
       <c r="AL72">
-        <v>230</v>
+        <f t="shared" si="0"/>
+        <v>227.5</v>
       </c>
       <c r="AM72">
-        <v>235</v>
+        <f t="shared" si="0"/>
+        <v>232.5</v>
       </c>
       <c r="AN72">
-        <v>240</v>
+        <f t="shared" si="0"/>
+        <v>237.5</v>
       </c>
       <c r="AO72">
-        <v>245</v>
+        <f t="shared" si="0"/>
+        <v>242.5</v>
       </c>
       <c r="AP72">
-        <v>250</v>
+        <f t="shared" si="0"/>
+        <v>247.5</v>
       </c>
       <c r="AQ72">
-        <v>255</v>
+        <f t="shared" si="0"/>
+        <v>252.5</v>
       </c>
       <c r="AR72">
-        <v>260</v>
+        <f t="shared" si="0"/>
+        <v>257.5</v>
       </c>
       <c r="AS72">
-        <v>265</v>
+        <f t="shared" si="0"/>
+        <v>262.5</v>
       </c>
       <c r="AT72">
-        <v>270</v>
+        <f t="shared" si="0"/>
+        <v>267.5</v>
       </c>
       <c r="AU72">
-        <v>275</v>
+        <f t="shared" si="0"/>
+        <v>272.5</v>
       </c>
       <c r="AV72">
-        <v>280</v>
+        <f t="shared" si="0"/>
+        <v>277.5</v>
       </c>
       <c r="AW72">
-        <v>285</v>
+        <f t="shared" si="0"/>
+        <v>282.5</v>
       </c>
       <c r="AX72">
-        <v>290</v>
+        <f t="shared" si="0"/>
+        <v>287.5</v>
       </c>
       <c r="AY72">
-        <v>295</v>
+        <f t="shared" si="0"/>
+        <v>292.5</v>
       </c>
       <c r="AZ72">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="73" spans="1:53" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>297.5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>233</v>
       </c>
@@ -3596,7 +3645,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="74" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>234</v>
       </c>
@@ -3754,7 +3803,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="75" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>235</v>
       </c>
@@ -3912,7 +3961,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="76" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>236</v>
       </c>
@@ -4070,7 +4119,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="77" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>237</v>
       </c>
@@ -4228,7 +4277,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="78" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>238</v>
       </c>
@@ -4386,7 +4435,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="79" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>239</v>
       </c>
@@ -4544,7 +4593,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="80" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>240</v>
       </c>
@@ -4702,7 +4751,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>241</v>
       </c>
@@ -4860,7 +4909,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>242</v>
       </c>
@@ -5018,7 +5067,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="83" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>243</v>
       </c>
@@ -5176,7 +5225,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="84" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>244</v>
       </c>
@@ -5334,7 +5383,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="85" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>245</v>
       </c>
@@ -5492,7 +5541,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="86" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>246</v>
       </c>
@@ -5650,7 +5699,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="87" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>247</v>
       </c>
@@ -5808,7 +5857,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>248</v>
       </c>
@@ -5966,7 +6015,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="89" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>249</v>
       </c>
@@ -6124,7 +6173,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="90" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>250</v>
       </c>
@@ -6282,7 +6331,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="91" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>251</v>
       </c>
@@ -6440,7 +6489,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="92" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>252</v>
       </c>
@@ -6598,7 +6647,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="93" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>253</v>
       </c>
@@ -6756,7 +6805,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>254</v>
       </c>
@@ -6914,7 +6963,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>255</v>
       </c>
@@ -7072,7 +7121,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="96" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>256</v>
       </c>
@@ -7230,7 +7279,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="97" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>257</v>
       </c>
@@ -7388,7 +7437,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="98" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>258</v>
       </c>
@@ -7546,7 +7595,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="99" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>259</v>
       </c>
@@ -7704,7 +7753,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="100" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>260</v>
       </c>
@@ -7862,7 +7911,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>261</v>
       </c>
@@ -8020,7 +8069,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="102" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>262</v>
       </c>
@@ -8178,7 +8227,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="103" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>263</v>
       </c>
@@ -8336,7 +8385,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="104" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>264</v>
       </c>
@@ -8494,7 +8543,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="105" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>265</v>
       </c>
@@ -8652,7 +8701,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>266</v>
       </c>
@@ -8810,7 +8859,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="107" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>267</v>
       </c>
@@ -8968,7 +9017,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="108" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>268</v>
       </c>
@@ -9126,7 +9175,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="109" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>269</v>
       </c>
@@ -9284,7 +9333,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="110" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>270</v>
       </c>
@@ -9442,82 +9491,82 @@
         <v>99</v>
       </c>
     </row>
-    <row r="111" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="112" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>71</v>
       </c>
@@ -9525,42 +9574,42 @@
         <v>375</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>79</v>
       </c>
@@ -9572,247 +9621,247 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD3E144E-F02C-4D91-A3DE-9477BA693899}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO65"/>
   <sheetViews>
     <sheetView topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AO12" sqref="AO12:AO64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="35" t="s">
         <v>168</v>
       </c>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58" t="s">
+      <c r="C1" s="35"/>
+      <c r="D1" s="35" t="s">
         <v>169</v>
       </c>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58" t="s">
+      <c r="E1" s="35"/>
+      <c r="F1" s="35" t="s">
         <v>170</v>
       </c>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58" t="s">
+      <c r="G1" s="35"/>
+      <c r="H1" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58" t="s">
+      <c r="I1" s="35"/>
+      <c r="J1" s="35" t="s">
         <v>172</v>
       </c>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58" t="s">
+      <c r="K1" s="35"/>
+      <c r="L1" s="35" t="s">
         <v>173</v>
       </c>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58" t="s">
+      <c r="M1" s="35"/>
+      <c r="N1" s="35" t="s">
         <v>174</v>
       </c>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58" t="s">
+      <c r="O1" s="35"/>
+      <c r="P1" s="35" t="s">
         <v>175</v>
       </c>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58" t="s">
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35" t="s">
         <v>176</v>
       </c>
-      <c r="S1" s="58"/>
-      <c r="T1" s="58" t="s">
+      <c r="S1" s="35"/>
+      <c r="T1" s="35" t="s">
         <v>177</v>
       </c>
-      <c r="U1" s="58"/>
-      <c r="V1" s="61" t="s">
+      <c r="U1" s="35"/>
+      <c r="V1" s="34" t="s">
         <v>178</v>
       </c>
-      <c r="W1" s="61"/>
-      <c r="X1" s="61" t="s">
+      <c r="W1" s="34"/>
+      <c r="X1" s="34" t="s">
         <v>179</v>
       </c>
-      <c r="Y1" s="61"/>
-      <c r="Z1" s="60" t="s">
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="AA1" s="60"/>
-      <c r="AB1" s="58" t="s">
+      <c r="AA1" s="38"/>
+      <c r="AB1" s="35" t="s">
         <v>181</v>
       </c>
-      <c r="AC1" s="58"/>
-      <c r="AD1" s="58" t="s">
+      <c r="AC1" s="35"/>
+      <c r="AD1" s="35" t="s">
         <v>182</v>
       </c>
-      <c r="AE1" s="58"/>
-      <c r="AF1" s="58" t="s">
+      <c r="AE1" s="35"/>
+      <c r="AF1" s="35" t="s">
         <v>183</v>
       </c>
-      <c r="AG1" s="58"/>
-      <c r="AH1" s="58" t="s">
+      <c r="AG1" s="35"/>
+      <c r="AH1" s="35" t="s">
         <v>184</v>
       </c>
-      <c r="AI1" s="58"/>
-      <c r="AJ1" s="58" t="s">
+      <c r="AI1" s="35"/>
+      <c r="AJ1" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="AK1" s="58"/>
-      <c r="AL1" s="58" t="s">
+      <c r="AK1" s="35"/>
+      <c r="AL1" s="35" t="s">
         <v>186</v>
       </c>
-      <c r="AM1" s="58"/>
-      <c r="AN1" s="58" t="s">
+      <c r="AM1" s="35"/>
+      <c r="AN1" s="35" t="s">
         <v>187</v>
       </c>
-      <c r="AO1" s="59"/>
-    </row>
-    <row r="2" spans="1:41" ht="36.75" x14ac:dyDescent="0.25">
+      <c r="AO1" s="37"/>
+    </row>
+    <row r="2" spans="1:41" ht="36.5" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="36" t="s">
         <v>189</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54" t="s">
+      <c r="C2" s="36"/>
+      <c r="D2" s="36" t="s">
         <v>189</v>
       </c>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54" t="s">
+      <c r="E2" s="36"/>
+      <c r="F2" s="36" t="s">
         <v>190</v>
       </c>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54" t="s">
+      <c r="G2" s="36"/>
+      <c r="H2" s="36" t="s">
         <v>190</v>
       </c>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54" t="s">
+      <c r="I2" s="36"/>
+      <c r="J2" s="36" t="s">
         <v>190</v>
       </c>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54" t="s">
+      <c r="K2" s="36"/>
+      <c r="L2" s="36" t="s">
         <v>190</v>
       </c>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54" t="s">
+      <c r="M2" s="36"/>
+      <c r="N2" s="36" t="s">
         <v>190</v>
       </c>
-      <c r="O2" s="54"/>
-      <c r="P2" s="54" t="s">
+      <c r="O2" s="36"/>
+      <c r="P2" s="36" t="s">
         <v>190</v>
       </c>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="54" t="s">
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36" t="s">
         <v>190</v>
       </c>
-      <c r="S2" s="54"/>
-      <c r="T2" s="54" t="s">
+      <c r="S2" s="36"/>
+      <c r="T2" s="36" t="s">
         <v>190</v>
       </c>
-      <c r="U2" s="54"/>
-      <c r="V2" s="54" t="s">
+      <c r="U2" s="36"/>
+      <c r="V2" s="36" t="s">
         <v>190</v>
       </c>
-      <c r="W2" s="54"/>
-      <c r="X2" s="54" t="s">
+      <c r="W2" s="36"/>
+      <c r="X2" s="36" t="s">
         <v>190</v>
       </c>
-      <c r="Y2" s="54"/>
-      <c r="Z2" s="54" t="s">
+      <c r="Y2" s="36"/>
+      <c r="Z2" s="36" t="s">
         <v>190</v>
       </c>
-      <c r="AA2" s="54"/>
-      <c r="AB2" s="54" t="s">
+      <c r="AA2" s="36"/>
+      <c r="AB2" s="36" t="s">
         <v>190</v>
       </c>
-      <c r="AC2" s="54"/>
-      <c r="AD2" s="54" t="s">
+      <c r="AC2" s="36"/>
+      <c r="AD2" s="36" t="s">
         <v>189</v>
       </c>
-      <c r="AE2" s="54"/>
-      <c r="AF2" s="54" t="s">
+      <c r="AE2" s="36"/>
+      <c r="AF2" s="36" t="s">
         <v>190</v>
       </c>
-      <c r="AG2" s="54"/>
-      <c r="AH2" s="54" t="s">
+      <c r="AG2" s="36"/>
+      <c r="AH2" s="36" t="s">
         <v>189</v>
       </c>
-      <c r="AI2" s="54"/>
-      <c r="AJ2" s="54" t="s">
+      <c r="AI2" s="36"/>
+      <c r="AJ2" s="36" t="s">
         <v>189</v>
       </c>
-      <c r="AK2" s="54"/>
-      <c r="AL2" s="54" t="s">
+      <c r="AK2" s="36"/>
+      <c r="AL2" s="36" t="s">
         <v>189</v>
       </c>
-      <c r="AM2" s="54"/>
-      <c r="AN2" s="54" t="s">
+      <c r="AM2" s="36"/>
+      <c r="AN2" s="36" t="s">
         <v>190</v>
       </c>
-      <c r="AO2" s="55"/>
-    </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AO2" s="39"/>
+    </row>
+    <row r="3" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="41" t="s">
         <v>192</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52" t="s">
+      <c r="C3" s="41"/>
+      <c r="D3" s="41" t="s">
         <v>192</v>
       </c>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52" t="s">
+      <c r="E3" s="41"/>
+      <c r="F3" s="41" t="s">
         <v>192</v>
       </c>
-      <c r="G3" s="52"/>
-      <c r="H3" s="53" t="s">
+      <c r="G3" s="41"/>
+      <c r="H3" s="45" t="s">
         <v>192</v>
       </c>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="51">
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="43">
         <v>1</v>
       </c>
-      <c r="M3" s="51"/>
-      <c r="N3" s="51">
+      <c r="M3" s="43"/>
+      <c r="N3" s="43">
         <v>2</v>
       </c>
-      <c r="O3" s="51"/>
-      <c r="P3" s="51">
+      <c r="O3" s="43"/>
+      <c r="P3" s="43">
         <v>3</v>
       </c>
-      <c r="Q3" s="51"/>
-      <c r="R3" s="51">
+      <c r="Q3" s="43"/>
+      <c r="R3" s="43">
         <v>4</v>
       </c>
-      <c r="S3" s="51"/>
-      <c r="T3" s="47" t="s">
+      <c r="S3" s="43"/>
+      <c r="T3" s="42" t="s">
         <v>193</v>
       </c>
-      <c r="U3" s="51"/>
-      <c r="V3" s="57" t="s">
+      <c r="U3" s="43"/>
+      <c r="V3" s="44" t="s">
         <v>192</v>
       </c>
-      <c r="W3" s="57"/>
-      <c r="X3" s="57" t="s">
+      <c r="W3" s="44"/>
+      <c r="X3" s="44" t="s">
         <v>192</v>
       </c>
-      <c r="Y3" s="57"/>
-      <c r="Z3" s="56" t="s">
+      <c r="Y3" s="44"/>
+      <c r="Z3" s="40" t="s">
         <v>192</v>
       </c>
-      <c r="AA3" s="56"/>
-      <c r="AB3" s="52"/>
-      <c r="AC3" s="52"/>
-      <c r="AD3" s="52" t="s">
+      <c r="AA3" s="40"/>
+      <c r="AB3" s="41"/>
+      <c r="AC3" s="41"/>
+      <c r="AD3" s="41" t="s">
         <v>192</v>
       </c>
-      <c r="AE3" s="52"/>
-      <c r="AF3" s="52"/>
-      <c r="AG3" s="52"/>
+      <c r="AE3" s="41"/>
+      <c r="AF3" s="41"/>
+      <c r="AG3" s="41"/>
       <c r="AH3" s="7"/>
       <c r="AI3" s="7"/>
       <c r="AJ3" s="7"/>
@@ -9822,432 +9871,432 @@
       <c r="AN3" s="8"/>
       <c r="AO3" s="9"/>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="47" t="s">
         <v>195</v>
       </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35" t="s">
+      <c r="C4" s="47"/>
+      <c r="D4" s="47" t="s">
         <v>195</v>
       </c>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35" t="s">
+      <c r="E4" s="47"/>
+      <c r="F4" s="47" t="s">
         <v>195</v>
       </c>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35" t="s">
+      <c r="G4" s="47"/>
+      <c r="H4" s="47" t="s">
         <v>196</v>
       </c>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35" t="s">
+      <c r="I4" s="47"/>
+      <c r="J4" s="47" t="s">
         <v>196</v>
       </c>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35" t="s">
+      <c r="K4" s="47"/>
+      <c r="L4" s="47" t="s">
         <v>196</v>
       </c>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35" t="s">
+      <c r="M4" s="47"/>
+      <c r="N4" s="47" t="s">
         <v>196</v>
       </c>
-      <c r="O4" s="35"/>
-      <c r="P4" s="35" t="s">
+      <c r="O4" s="47"/>
+      <c r="P4" s="47" t="s">
         <v>196</v>
       </c>
-      <c r="Q4" s="35"/>
-      <c r="R4" s="35" t="s">
+      <c r="Q4" s="47"/>
+      <c r="R4" s="47" t="s">
         <v>196</v>
       </c>
-      <c r="S4" s="35"/>
-      <c r="T4" s="35" t="s">
+      <c r="S4" s="47"/>
+      <c r="T4" s="47" t="s">
         <v>196</v>
       </c>
-      <c r="U4" s="35"/>
-      <c r="V4" s="38" t="s">
+      <c r="U4" s="47"/>
+      <c r="V4" s="48" t="s">
         <v>196</v>
       </c>
-      <c r="W4" s="38"/>
-      <c r="X4" s="39" t="s">
+      <c r="W4" s="48"/>
+      <c r="X4" s="49" t="s">
         <v>196</v>
       </c>
-      <c r="Y4" s="39"/>
-      <c r="Z4" s="40" t="s">
+      <c r="Y4" s="49"/>
+      <c r="Z4" s="46" t="s">
         <v>196</v>
       </c>
-      <c r="AA4" s="40"/>
-      <c r="AB4" s="47" t="s">
+      <c r="AA4" s="46"/>
+      <c r="AB4" s="42" t="s">
         <v>195</v>
       </c>
-      <c r="AC4" s="47"/>
-      <c r="AD4" s="47" t="s">
+      <c r="AC4" s="42"/>
+      <c r="AD4" s="42" t="s">
         <v>195</v>
       </c>
-      <c r="AE4" s="47"/>
-      <c r="AF4" s="35" t="s">
+      <c r="AE4" s="42"/>
+      <c r="AF4" s="47" t="s">
         <v>196</v>
       </c>
-      <c r="AG4" s="35"/>
-      <c r="AH4" s="35" t="s">
+      <c r="AG4" s="47"/>
+      <c r="AH4" s="47" t="s">
         <v>195</v>
       </c>
-      <c r="AI4" s="35"/>
-      <c r="AJ4" s="35" t="s">
+      <c r="AI4" s="47"/>
+      <c r="AJ4" s="47" t="s">
         <v>195</v>
       </c>
-      <c r="AK4" s="35"/>
-      <c r="AL4" s="35" t="s">
+      <c r="AK4" s="47"/>
+      <c r="AL4" s="47" t="s">
         <v>195</v>
       </c>
-      <c r="AM4" s="35"/>
-      <c r="AN4" s="36" t="s">
+      <c r="AM4" s="47"/>
+      <c r="AN4" s="50" t="s">
         <v>196</v>
       </c>
-      <c r="AO4" s="37"/>
-    </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AO4" s="51"/>
+    </row>
+    <row r="5" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="42" t="s">
         <v>198</v>
       </c>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47" t="s">
+      <c r="C5" s="42"/>
+      <c r="D5" s="42" t="s">
         <v>198</v>
       </c>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47" t="s">
+      <c r="E5" s="42"/>
+      <c r="F5" s="42" t="s">
         <v>198</v>
       </c>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47" t="s">
+      <c r="G5" s="42"/>
+      <c r="H5" s="42" t="s">
         <v>199</v>
       </c>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47" t="s">
+      <c r="I5" s="42"/>
+      <c r="J5" s="42" t="s">
         <v>199</v>
       </c>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47" t="s">
+      <c r="K5" s="42"/>
+      <c r="L5" s="42" t="s">
         <v>199</v>
       </c>
-      <c r="M5" s="47"/>
-      <c r="N5" s="47" t="s">
+      <c r="M5" s="42"/>
+      <c r="N5" s="42" t="s">
         <v>199</v>
       </c>
-      <c r="O5" s="47"/>
-      <c r="P5" s="47" t="s">
+      <c r="O5" s="42"/>
+      <c r="P5" s="42" t="s">
         <v>199</v>
       </c>
-      <c r="Q5" s="47"/>
-      <c r="R5" s="47" t="s">
+      <c r="Q5" s="42"/>
+      <c r="R5" s="42" t="s">
         <v>199</v>
       </c>
-      <c r="S5" s="47"/>
-      <c r="T5" s="47" t="s">
+      <c r="S5" s="42"/>
+      <c r="T5" s="42" t="s">
         <v>199</v>
       </c>
-      <c r="U5" s="47"/>
-      <c r="V5" s="48" t="s">
+      <c r="U5" s="42"/>
+      <c r="V5" s="52" t="s">
         <v>200</v>
       </c>
-      <c r="W5" s="48"/>
-      <c r="X5" s="49" t="s">
+      <c r="W5" s="52"/>
+      <c r="X5" s="53" t="s">
         <v>200</v>
       </c>
-      <c r="Y5" s="49"/>
-      <c r="Z5" s="50" t="s">
+      <c r="Y5" s="53"/>
+      <c r="Z5" s="54" t="s">
         <v>200</v>
       </c>
-      <c r="AA5" s="50"/>
-      <c r="AB5" s="50" t="s">
+      <c r="AA5" s="54"/>
+      <c r="AB5" s="54" t="s">
         <v>200</v>
       </c>
-      <c r="AC5" s="50"/>
-      <c r="AD5" s="47" t="s">
+      <c r="AC5" s="54"/>
+      <c r="AD5" s="42" t="s">
         <v>201</v>
       </c>
-      <c r="AE5" s="47"/>
-      <c r="AF5" s="47" t="s">
+      <c r="AE5" s="42"/>
+      <c r="AF5" s="42" t="s">
         <v>202</v>
       </c>
-      <c r="AG5" s="47"/>
-      <c r="AH5" s="47" t="s">
+      <c r="AG5" s="42"/>
+      <c r="AH5" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="AI5" s="47"/>
-      <c r="AJ5" s="47" t="s">
+      <c r="AI5" s="42"/>
+      <c r="AJ5" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="AK5" s="47"/>
-      <c r="AL5" s="47" t="s">
+      <c r="AK5" s="42"/>
+      <c r="AL5" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="AM5" s="47"/>
-      <c r="AN5" s="36" t="s">
+      <c r="AM5" s="42"/>
+      <c r="AN5" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="AO5" s="37"/>
-    </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AO5" s="51"/>
+    </row>
+    <row r="6" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="55" t="s">
         <v>204</v>
       </c>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44" t="s">
+      <c r="C6" s="55"/>
+      <c r="D6" s="55" t="s">
         <v>205</v>
       </c>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44" t="s">
+      <c r="E6" s="55"/>
+      <c r="F6" s="55" t="s">
         <v>205</v>
       </c>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44" t="s">
+      <c r="G6" s="55"/>
+      <c r="H6" s="55" t="s">
         <v>206</v>
       </c>
-      <c r="I6" s="44"/>
-      <c r="J6" s="45" t="s">
+      <c r="I6" s="55"/>
+      <c r="J6" s="56" t="s">
         <v>207</v>
       </c>
-      <c r="K6" s="45"/>
-      <c r="L6" s="45" t="s">
+      <c r="K6" s="56"/>
+      <c r="L6" s="56" t="s">
         <v>207</v>
       </c>
-      <c r="M6" s="45"/>
-      <c r="N6" s="45" t="s">
+      <c r="M6" s="56"/>
+      <c r="N6" s="56" t="s">
         <v>207</v>
       </c>
-      <c r="O6" s="45"/>
-      <c r="P6" s="45" t="s">
+      <c r="O6" s="56"/>
+      <c r="P6" s="56" t="s">
         <v>207</v>
       </c>
-      <c r="Q6" s="45"/>
-      <c r="R6" s="45" t="s">
+      <c r="Q6" s="56"/>
+      <c r="R6" s="56" t="s">
         <v>207</v>
       </c>
-      <c r="S6" s="45"/>
-      <c r="T6" s="45" t="s">
+      <c r="S6" s="56"/>
+      <c r="T6" s="56" t="s">
         <v>207</v>
       </c>
-      <c r="U6" s="45"/>
-      <c r="V6" s="45" t="s">
+      <c r="U6" s="56"/>
+      <c r="V6" s="56" t="s">
         <v>207</v>
       </c>
-      <c r="W6" s="45"/>
-      <c r="X6" s="46" t="s">
+      <c r="W6" s="56"/>
+      <c r="X6" s="58" t="s">
         <v>207</v>
       </c>
-      <c r="Y6" s="46"/>
-      <c r="Z6" s="43" t="s">
+      <c r="Y6" s="58"/>
+      <c r="Z6" s="57" t="s">
         <v>207</v>
       </c>
-      <c r="AA6" s="43"/>
-      <c r="AB6" s="44" t="s">
+      <c r="AA6" s="57"/>
+      <c r="AB6" s="55" t="s">
         <v>208</v>
       </c>
-      <c r="AC6" s="44"/>
-      <c r="AD6" s="44" t="s">
+      <c r="AC6" s="55"/>
+      <c r="AD6" s="55" t="s">
         <v>209</v>
       </c>
-      <c r="AE6" s="44"/>
-      <c r="AF6" s="44" t="s">
+      <c r="AE6" s="55"/>
+      <c r="AF6" s="55" t="s">
         <v>210</v>
       </c>
-      <c r="AG6" s="44"/>
-      <c r="AH6" s="44" t="s">
+      <c r="AG6" s="55"/>
+      <c r="AH6" s="55" t="s">
         <v>211</v>
       </c>
-      <c r="AI6" s="44"/>
-      <c r="AJ6" s="44" t="s">
+      <c r="AI6" s="55"/>
+      <c r="AJ6" s="55" t="s">
         <v>211</v>
       </c>
-      <c r="AK6" s="44"/>
-      <c r="AL6" s="44" t="s">
+      <c r="AK6" s="55"/>
+      <c r="AL6" s="55" t="s">
         <v>211</v>
       </c>
-      <c r="AM6" s="44"/>
-      <c r="AN6" s="36" t="s">
+      <c r="AM6" s="55"/>
+      <c r="AN6" s="50" t="s">
         <v>212</v>
       </c>
-      <c r="AO6" s="37"/>
-    </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AO6" s="51"/>
+    </row>
+    <row r="7" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="47" t="s">
         <v>214</v>
       </c>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35" t="s">
+      <c r="C7" s="47"/>
+      <c r="D7" s="47" t="s">
         <v>214</v>
       </c>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35" t="s">
+      <c r="E7" s="47"/>
+      <c r="F7" s="47" t="s">
         <v>214</v>
       </c>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35" t="s">
+      <c r="G7" s="47"/>
+      <c r="H7" s="47" t="s">
         <v>215</v>
       </c>
-      <c r="I7" s="35"/>
-      <c r="J7" s="38" t="s">
+      <c r="I7" s="47"/>
+      <c r="J7" s="48" t="s">
         <v>216</v>
       </c>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38" t="s">
+      <c r="K7" s="48"/>
+      <c r="L7" s="48" t="s">
         <v>216</v>
       </c>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38" t="s">
+      <c r="M7" s="48"/>
+      <c r="N7" s="48" t="s">
         <v>216</v>
       </c>
-      <c r="O7" s="38"/>
-      <c r="P7" s="38" t="s">
+      <c r="O7" s="48"/>
+      <c r="P7" s="48" t="s">
         <v>216</v>
       </c>
-      <c r="Q7" s="38"/>
-      <c r="R7" s="38" t="s">
+      <c r="Q7" s="48"/>
+      <c r="R7" s="48" t="s">
         <v>216</v>
       </c>
-      <c r="S7" s="38"/>
-      <c r="T7" s="38" t="s">
+      <c r="S7" s="48"/>
+      <c r="T7" s="48" t="s">
         <v>216</v>
       </c>
-      <c r="U7" s="38"/>
-      <c r="V7" s="38" t="s">
+      <c r="U7" s="48"/>
+      <c r="V7" s="48" t="s">
         <v>216</v>
       </c>
-      <c r="W7" s="38"/>
-      <c r="X7" s="39" t="s">
+      <c r="W7" s="48"/>
+      <c r="X7" s="49" t="s">
         <v>216</v>
       </c>
-      <c r="Y7" s="39"/>
-      <c r="Z7" s="40" t="s">
+      <c r="Y7" s="49"/>
+      <c r="Z7" s="46" t="s">
         <v>216</v>
       </c>
-      <c r="AA7" s="40"/>
-      <c r="AB7" s="35" t="s">
+      <c r="AA7" s="46"/>
+      <c r="AB7" s="47" t="s">
         <v>215</v>
       </c>
-      <c r="AC7" s="35"/>
-      <c r="AD7" s="35" t="s">
+      <c r="AC7" s="47"/>
+      <c r="AD7" s="47" t="s">
         <v>217</v>
       </c>
-      <c r="AE7" s="35"/>
-      <c r="AF7" s="35" t="s">
+      <c r="AE7" s="47"/>
+      <c r="AF7" s="47" t="s">
         <v>215</v>
       </c>
-      <c r="AG7" s="35"/>
-      <c r="AH7" s="35" t="s">
+      <c r="AG7" s="47"/>
+      <c r="AH7" s="47" t="s">
         <v>215</v>
       </c>
-      <c r="AI7" s="35"/>
-      <c r="AJ7" s="35" t="s">
+      <c r="AI7" s="47"/>
+      <c r="AJ7" s="47" t="s">
         <v>215</v>
       </c>
-      <c r="AK7" s="35"/>
-      <c r="AL7" s="35" t="s">
+      <c r="AK7" s="47"/>
+      <c r="AL7" s="47" t="s">
         <v>215</v>
       </c>
-      <c r="AM7" s="35"/>
-      <c r="AN7" s="36" t="s">
+      <c r="AM7" s="47"/>
+      <c r="AN7" s="50" t="s">
         <v>215</v>
       </c>
-      <c r="AO7" s="37"/>
-    </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AO7" s="51"/>
+    </row>
+    <row r="8" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="59" t="s">
         <v>219</v>
       </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34" t="s">
+      <c r="C8" s="59"/>
+      <c r="D8" s="59" t="s">
         <v>220</v>
       </c>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34" t="s">
+      <c r="E8" s="59"/>
+      <c r="F8" s="59" t="s">
         <v>221</v>
       </c>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34" t="s">
+      <c r="G8" s="59"/>
+      <c r="H8" s="59" t="s">
         <v>222</v>
       </c>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34" t="s">
+      <c r="I8" s="59"/>
+      <c r="J8" s="59" t="s">
         <v>223</v>
       </c>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34" t="s">
+      <c r="K8" s="59"/>
+      <c r="L8" s="59" t="s">
         <v>224</v>
       </c>
-      <c r="M8" s="34"/>
-      <c r="N8" s="34" t="s">
+      <c r="M8" s="59"/>
+      <c r="N8" s="59" t="s">
         <v>224</v>
       </c>
-      <c r="O8" s="34"/>
-      <c r="P8" s="34" t="s">
+      <c r="O8" s="59"/>
+      <c r="P8" s="59" t="s">
         <v>224</v>
       </c>
-      <c r="Q8" s="34"/>
-      <c r="R8" s="34" t="s">
+      <c r="Q8" s="59"/>
+      <c r="R8" s="59" t="s">
         <v>224</v>
       </c>
-      <c r="S8" s="34"/>
-      <c r="T8" s="34" t="s">
+      <c r="S8" s="59"/>
+      <c r="T8" s="59" t="s">
         <v>224</v>
       </c>
-      <c r="U8" s="34"/>
-      <c r="V8" s="34" t="s">
+      <c r="U8" s="59"/>
+      <c r="V8" s="59" t="s">
         <v>225</v>
       </c>
-      <c r="W8" s="34"/>
-      <c r="X8" s="34" t="s">
+      <c r="W8" s="59"/>
+      <c r="X8" s="59" t="s">
         <v>226</v>
       </c>
-      <c r="Y8" s="34"/>
-      <c r="Z8" s="34" t="s">
+      <c r="Y8" s="59"/>
+      <c r="Z8" s="59" t="s">
         <v>226</v>
       </c>
-      <c r="AA8" s="34"/>
-      <c r="AB8" s="34" t="s">
+      <c r="AA8" s="59"/>
+      <c r="AB8" s="59" t="s">
         <v>226</v>
       </c>
-      <c r="AC8" s="34"/>
-      <c r="AD8" s="34" t="s">
+      <c r="AC8" s="59"/>
+      <c r="AD8" s="59" t="s">
         <v>227</v>
       </c>
-      <c r="AE8" s="34"/>
-      <c r="AF8" s="34" t="s">
+      <c r="AE8" s="59"/>
+      <c r="AF8" s="59" t="s">
         <v>228</v>
       </c>
-      <c r="AG8" s="34"/>
-      <c r="AH8" s="34" t="s">
+      <c r="AG8" s="59"/>
+      <c r="AH8" s="59" t="s">
         <v>229</v>
       </c>
-      <c r="AI8" s="34"/>
-      <c r="AJ8" s="34" t="s">
+      <c r="AI8" s="59"/>
+      <c r="AJ8" s="59" t="s">
         <v>229</v>
       </c>
-      <c r="AK8" s="34"/>
-      <c r="AL8" s="34" t="s">
+      <c r="AK8" s="59"/>
+      <c r="AL8" s="59" t="s">
         <v>229</v>
       </c>
-      <c r="AM8" s="34"/>
-      <c r="AN8" s="41" t="s">
+      <c r="AM8" s="59"/>
+      <c r="AN8" s="60" t="s">
         <v>230</v>
       </c>
-      <c r="AO8" s="42"/>
-    </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AO8" s="61"/>
+    </row>
+    <row r="9" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
         <v>37</v>
       </c>
@@ -10372,7 +10421,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A10" s="15">
         <f>+A11-1</f>
         <v>1961</v>
@@ -10418,7 +10467,7 @@
       <c r="AN10" s="17"/>
       <c r="AO10" s="17"/>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A11" s="15">
         <f>+A12-1</f>
         <v>1962</v>
@@ -10472,7 +10521,7 @@
       <c r="AN11" s="20"/>
       <c r="AO11" s="20"/>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A12" s="15">
         <v>1963</v>
       </c>
@@ -10533,7 +10582,7 @@
         <v>0.35332910029999998</v>
       </c>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A13" s="23">
         <v>1964</v>
       </c>
@@ -10594,7 +10643,7 @@
         <v>0.34919709110000002</v>
       </c>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A14" s="23">
         <v>1965</v>
       </c>
@@ -10655,7 +10704,7 @@
         <v>0.34843401940000002</v>
       </c>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A15" s="23">
         <v>1966</v>
       </c>
@@ -10716,7 +10765,7 @@
         <v>0.34771855639999999</v>
       </c>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A16" s="23">
         <v>1967</v>
       </c>
@@ -10777,7 +10826,7 @@
         <v>0.347194316</v>
       </c>
     </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A17" s="23">
         <v>1968</v>
       </c>
@@ -10842,7 +10891,7 @@
         <v>0.35148494619999998</v>
       </c>
     </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A18" s="23">
         <v>1969</v>
       </c>
@@ -10907,7 +10956,7 @@
         <v>0.34745107790000002</v>
       </c>
     </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A19" s="15">
         <f>+A20-1</f>
         <v>1970</v>
@@ -10973,7 +11022,7 @@
         <v>0.34783666089999998</v>
       </c>
     </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A20" s="15">
         <f>+A21-1</f>
         <v>1971</v>
@@ -11031,7 +11080,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A21" s="15">
         <f>+A22-1</f>
         <v>1972</v>
@@ -11089,7 +11138,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A22" s="15">
         <f>+A23-1</f>
         <v>1973</v>
@@ -11147,7 +11196,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A23" s="15">
         <f>+A24-1</f>
         <v>1974</v>
@@ -11209,7 +11258,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="24" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A24" s="23">
         <v>1975</v>
       </c>
@@ -11270,7 +11319,7 @@
         <v>0.31871116199999999</v>
       </c>
     </row>
-    <row r="25" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A25" s="23">
         <f t="shared" ref="A25:A65" si="0">+A24+1</f>
         <v>1976</v>
@@ -11332,7 +11381,7 @@
         <v>0.31900634319999999</v>
       </c>
     </row>
-    <row r="26" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A26" s="23">
         <f t="shared" si="0"/>
         <v>1977</v>
@@ -11394,7 +11443,7 @@
         <v>0.32031986680000002</v>
       </c>
     </row>
-    <row r="27" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A27" s="23">
         <f t="shared" si="0"/>
         <v>1978</v>
@@ -11456,7 +11505,7 @@
         <v>0.28665293920000001</v>
       </c>
     </row>
-    <row r="28" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A28" s="23">
         <f t="shared" si="0"/>
         <v>1979</v>
@@ -11526,7 +11575,7 @@
         <v>0.1976681478</v>
       </c>
     </row>
-    <row r="29" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A29" s="23">
         <f t="shared" si="0"/>
         <v>1980</v>
@@ -11596,7 +11645,7 @@
         <v>0.1968531885</v>
       </c>
     </row>
-    <row r="30" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A30" s="23">
         <f>+A29+1</f>
         <v>1981</v>
@@ -11666,7 +11715,7 @@
         <v>0.20417149800000001</v>
       </c>
     </row>
-    <row r="31" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A31" s="23">
         <f t="shared" si="0"/>
         <v>1982</v>
@@ -11760,7 +11809,7 @@
         <v>0.177994069</v>
       </c>
     </row>
-    <row r="32" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A32" s="23">
         <f t="shared" si="0"/>
         <v>1983</v>
@@ -11854,7 +11903,7 @@
         <v>0.17590504570000001</v>
       </c>
     </row>
-    <row r="33" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A33" s="23">
         <f t="shared" si="0"/>
         <v>1984</v>
@@ -11948,7 +11997,7 @@
         <v>0.17020716799999999</v>
       </c>
     </row>
-    <row r="34" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A34" s="23">
         <f t="shared" si="0"/>
         <v>1985</v>
@@ -12038,7 +12087,7 @@
         <v>0.1676144785</v>
       </c>
     </row>
-    <row r="35" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A35" s="23">
         <f t="shared" si="0"/>
         <v>1986</v>
@@ -12136,7 +12185,7 @@
         <v>0.16744807789999999</v>
       </c>
     </row>
-    <row r="36" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A36" s="23">
         <f t="shared" si="0"/>
         <v>1987</v>
@@ -12232,7 +12281,7 @@
         <v>0.16711292759999999</v>
       </c>
     </row>
-    <row r="37" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A37" s="23">
         <f t="shared" si="0"/>
         <v>1988</v>
@@ -12328,7 +12377,7 @@
         <v>0.16609492640000001</v>
       </c>
     </row>
-    <row r="38" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A38" s="23">
         <f t="shared" si="0"/>
         <v>1989</v>
@@ -12426,7 +12475,7 @@
         <v>0.15901131939999999</v>
       </c>
     </row>
-    <row r="39" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A39" s="23">
         <f t="shared" si="0"/>
         <v>1990</v>
@@ -12524,7 +12573,7 @@
         <v>0.1578159619</v>
       </c>
     </row>
-    <row r="40" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A40" s="23">
         <f t="shared" si="0"/>
         <v>1991</v>
@@ -12622,7 +12671,7 @@
         <v>0.1562590146</v>
       </c>
     </row>
-    <row r="41" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A41" s="23">
         <f t="shared" si="0"/>
         <v>1992</v>
@@ -12724,7 +12773,7 @@
         <v>0.15747075369999999</v>
       </c>
     </row>
-    <row r="42" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A42" s="23">
         <f t="shared" si="0"/>
         <v>1993</v>
@@ -12826,7 +12875,7 @@
         <v>0.15655190099999999</v>
       </c>
     </row>
-    <row r="43" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A43" s="23">
         <f t="shared" si="0"/>
         <v>1994</v>
@@ -12928,7 +12977,7 @@
         <v>0.16419604239999999</v>
       </c>
     </row>
-    <row r="44" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A44" s="23">
         <f t="shared" si="0"/>
         <v>1995</v>
@@ -13030,7 +13079,7 @@
         <v>0.1595530614</v>
       </c>
     </row>
-    <row r="45" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A45" s="23">
         <f t="shared" si="0"/>
         <v>1996</v>
@@ -13132,7 +13181,7 @@
         <v>0.16153028189999999</v>
       </c>
     </row>
-    <row r="46" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A46" s="23">
         <f t="shared" si="0"/>
         <v>1997</v>
@@ -13234,7 +13283,7 @@
         <v>0.1535243687</v>
       </c>
     </row>
-    <row r="47" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A47" s="23">
         <f t="shared" si="0"/>
         <v>1998</v>
@@ -13336,7 +13385,7 @@
         <v>0.15395424099999999</v>
       </c>
     </row>
-    <row r="48" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A48" s="23">
         <f t="shared" si="0"/>
         <v>1999</v>
@@ -13438,7 +13487,7 @@
         <v>0.15277607409999999</v>
       </c>
     </row>
-    <row r="49" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A49" s="23">
         <f t="shared" si="0"/>
         <v>2000</v>
@@ -13540,7 +13589,7 @@
         <v>0.15960057559999999</v>
       </c>
     </row>
-    <row r="50" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A50" s="23">
         <f t="shared" si="0"/>
         <v>2001</v>
@@ -13642,7 +13691,7 @@
         <v>0.17468311349999999</v>
       </c>
     </row>
-    <row r="51" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A51" s="23">
         <f t="shared" si="0"/>
         <v>2002</v>
@@ -13744,7 +13793,7 @@
         <v>0.17273404940000001</v>
       </c>
     </row>
-    <row r="52" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A52" s="23">
         <f t="shared" si="0"/>
         <v>2003</v>
@@ -13846,7 +13895,7 @@
         <v>0.17128397149999999</v>
       </c>
     </row>
-    <row r="53" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A53" s="23">
         <f t="shared" si="0"/>
         <v>2004</v>
@@ -13948,7 +13997,7 @@
         <v>0.15510191409999999</v>
       </c>
     </row>
-    <row r="54" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A54" s="23">
         <f t="shared" si="0"/>
         <v>2005</v>
@@ -14054,7 +14103,7 @@
         <v>0.15545594509999999</v>
       </c>
     </row>
-    <row r="55" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A55" s="23">
         <f t="shared" si="0"/>
         <v>2006</v>
@@ -14164,7 +14213,7 @@
         <v>0.1584234591</v>
       </c>
     </row>
-    <row r="56" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A56" s="23">
         <f t="shared" si="0"/>
         <v>2007</v>
@@ -14274,7 +14323,7 @@
         <v>0.15698843570000001</v>
       </c>
     </row>
-    <row r="57" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A57" s="23">
         <f t="shared" si="0"/>
         <v>2008</v>
@@ -14384,7 +14433,7 @@
         <v>0.15646395390000001</v>
       </c>
     </row>
-    <row r="58" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A58" s="23">
         <f t="shared" si="0"/>
         <v>2009</v>
@@ -14494,7 +14543,7 @@
         <v>0.15755338660000001</v>
       </c>
     </row>
-    <row r="59" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A59" s="23">
         <f t="shared" si="0"/>
         <v>2010</v>
@@ -14604,7 +14653,7 @@
         <v>0.15684492219999999</v>
       </c>
     </row>
-    <row r="60" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A60" s="23">
         <f t="shared" si="0"/>
         <v>2011</v>
@@ -14714,7 +14763,7 @@
         <v>0.15837887149999999</v>
       </c>
     </row>
-    <row r="61" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A61" s="23">
         <f t="shared" si="0"/>
         <v>2012</v>
@@ -14824,7 +14873,7 @@
         <v>0.1574096492</v>
       </c>
     </row>
-    <row r="62" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A62" s="23">
         <f t="shared" si="0"/>
         <v>2013</v>
@@ -14930,7 +14979,7 @@
         <v>0.15908433250000001</v>
       </c>
     </row>
-    <row r="63" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A63" s="23">
         <f t="shared" si="0"/>
         <v>2014</v>
@@ -15036,7 +15085,7 @@
         <v>0.15972896410000001</v>
       </c>
     </row>
-    <row r="64" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A64" s="23">
         <f t="shared" si="0"/>
         <v>2015</v>
@@ -15142,7 +15191,7 @@
         <v>0.15998062900000001</v>
       </c>
     </row>
-    <row r="65" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A65" s="23">
         <f t="shared" si="0"/>
         <v>2016</v>
@@ -15206,15 +15255,126 @@
     </row>
   </sheetData>
   <mergeCells count="156">
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="AJ8:AK8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="AL7:AM7"/>
+    <mergeCell ref="AN7:AO7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AL8:AM8"/>
+    <mergeCell ref="AN8:AO8"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AG7"/>
+    <mergeCell ref="AH7:AI7"/>
+    <mergeCell ref="Z8:AA8"/>
+    <mergeCell ref="AB8:AC8"/>
+    <mergeCell ref="AD8:AE8"/>
+    <mergeCell ref="AF8:AG8"/>
+    <mergeCell ref="AH8:AI8"/>
+    <mergeCell ref="AN6:AO6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="Z6:AA6"/>
+    <mergeCell ref="AB6:AC6"/>
+    <mergeCell ref="AD6:AE6"/>
+    <mergeCell ref="AF6:AG6"/>
+    <mergeCell ref="AH6:AI6"/>
+    <mergeCell ref="AJ6:AK6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="X6:Y6"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="AJ7:AK7"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="AD5:AE5"/>
+    <mergeCell ref="AF5:AG5"/>
+    <mergeCell ref="AH5:AI5"/>
+    <mergeCell ref="AJ5:AK5"/>
+    <mergeCell ref="AL5:AM5"/>
+    <mergeCell ref="AL6:AM6"/>
+    <mergeCell ref="AN5:AO5"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="T5:U5"/>
+    <mergeCell ref="V5:W5"/>
+    <mergeCell ref="X5:Y5"/>
+    <mergeCell ref="Z5:AA5"/>
+    <mergeCell ref="AB5:AC5"/>
+    <mergeCell ref="AL4:AM4"/>
+    <mergeCell ref="AN4:AO4"/>
+    <mergeCell ref="AB4:AC4"/>
+    <mergeCell ref="AD4:AE4"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="AH4:AI4"/>
+    <mergeCell ref="AJ4:AK4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="Z4:AA4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="AJ2:AK2"/>
+    <mergeCell ref="AL2:AM2"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="AL1:AM1"/>
     <mergeCell ref="AN1:AO1"/>
     <mergeCell ref="B2:C2"/>
@@ -15239,145 +15399,34 @@
     <mergeCell ref="R2:S2"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="V2:W2"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
     <mergeCell ref="X2:Y2"/>
     <mergeCell ref="Z2:AA2"/>
     <mergeCell ref="AB2:AC2"/>
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AH2:AI2"/>
-    <mergeCell ref="AJ2:AK2"/>
-    <mergeCell ref="AL2:AM2"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="Z4:AA4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="V4:W4"/>
-    <mergeCell ref="X4:Y4"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="AN5:AO5"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="T5:U5"/>
-    <mergeCell ref="V5:W5"/>
-    <mergeCell ref="X5:Y5"/>
-    <mergeCell ref="Z5:AA5"/>
-    <mergeCell ref="AB5:AC5"/>
-    <mergeCell ref="AL4:AM4"/>
-    <mergeCell ref="AN4:AO4"/>
-    <mergeCell ref="AB4:AC4"/>
-    <mergeCell ref="AD4:AE4"/>
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="AH4:AI4"/>
-    <mergeCell ref="AJ4:AK4"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="AD5:AE5"/>
-    <mergeCell ref="AF5:AG5"/>
-    <mergeCell ref="AH5:AI5"/>
-    <mergeCell ref="AJ5:AK5"/>
-    <mergeCell ref="AL5:AM5"/>
-    <mergeCell ref="AL6:AM6"/>
-    <mergeCell ref="AN6:AO6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="Z6:AA6"/>
-    <mergeCell ref="AB6:AC6"/>
-    <mergeCell ref="AD6:AE6"/>
-    <mergeCell ref="AF6:AG6"/>
-    <mergeCell ref="AH6:AI6"/>
-    <mergeCell ref="AJ6:AK6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="X6:Y6"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="AJ7:AK7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AF7:AG7"/>
-    <mergeCell ref="AH7:AI7"/>
-    <mergeCell ref="Z8:AA8"/>
-    <mergeCell ref="AB8:AC8"/>
-    <mergeCell ref="AD8:AE8"/>
-    <mergeCell ref="AF8:AG8"/>
-    <mergeCell ref="AH8:AI8"/>
-    <mergeCell ref="AJ8:AK8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="AL7:AM7"/>
-    <mergeCell ref="AN7:AO7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AL8:AM8"/>
-    <mergeCell ref="AN8:AO8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD6929AF-18A8-4FBE-9AAF-4623CB37AEDC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="U25" sqref="U25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>85</v>
       </c>
@@ -15418,7 +15467,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1445</v>
       </c>
@@ -15466,7 +15515,7 @@
         <v>3646</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>966</v>
       </c>
@@ -15514,7 +15563,7 @@
         <v>2581</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>966</v>
       </c>
@@ -15562,7 +15611,7 @@
         <v>2993</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1203</v>
       </c>
@@ -15610,7 +15659,7 @@
         <v>3303</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>305</v>
       </c>
@@ -15658,7 +15707,7 @@
         <v>3034</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>619</v>
       </c>
@@ -15706,7 +15755,7 @@
         <v>3502</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>374</v>
       </c>
@@ -15754,7 +15803,7 @@
         <v>3358</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>1000</v>
       </c>
@@ -15802,7 +15851,7 @@
         <v>4578</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>832</v>
       </c>
@@ -15850,7 +15899,7 @@
         <v>4904</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>1100</v>
       </c>
@@ -15898,7 +15947,7 @@
         <v>6232</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>722</v>
       </c>
@@ -15946,7 +15995,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>1700</v>
       </c>
@@ -15994,7 +16043,7 @@
         <v>4381</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2300</v>
       </c>
@@ -16042,7 +16091,7 @@
         <v>5342</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>1000</v>
       </c>
@@ -16090,7 +16139,7 @@
         <v>10190</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>1800</v>
       </c>
@@ -16138,7 +16187,7 @@
         <v>11258</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>1433</v>
       </c>
@@ -16186,7 +16235,7 @@
         <v>8652</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>2999</v>
       </c>
@@ -16234,7 +16283,7 @@
         <v>9349</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>2690</v>
       </c>
@@ -16282,7 +16331,7 @@
         <v>9107</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>3551</v>
       </c>
@@ -16330,7 +16379,7 @@
         <v>9172</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>3502</v>
       </c>
@@ -16378,7 +16427,7 @@
         <v>9203</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>3160</v>
       </c>
@@ -16426,7 +16475,7 @@
         <v>9495</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>3384</v>
       </c>
@@ -16474,7 +16523,7 @@
         <v>5266</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>3210</v>
       </c>
@@ -16522,7 +16571,7 @@
         <v>4766</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>3833</v>
       </c>
@@ -16570,7 +16619,7 @@
         <v>6074</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>2893</v>
       </c>
@@ -16618,7 +16667,7 @@
         <v>6362</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>3747</v>
       </c>
@@ -16666,7 +16715,7 @@
         <v>8839</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>2816</v>
       </c>
@@ -16714,7 +16763,7 @@
         <v>6696</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>3309</v>
       </c>
@@ -16762,7 +16811,7 @@
         <v>6409</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>3622</v>
       </c>
@@ -16810,7 +16859,7 @@
         <v>11827</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>2582</v>
       </c>
@@ -16858,7 +16907,7 @@
         <v>11937</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>3810</v>
       </c>
@@ -16906,7 +16955,7 @@
         <v>13558</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>4014</v>
       </c>
@@ -16954,7 +17003,7 @@
         <v>11180</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>4554</v>
       </c>
@@ -17002,7 +17051,7 @@
         <v>13215</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>7100</v>
       </c>
@@ -17050,7 +17099,7 @@
         <v>14527</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>6315</v>
       </c>
@@ -17098,7 +17147,7 @@
         <v>12791</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>7441</v>
       </c>
@@ -17146,7 +17195,7 @@
         <v>14383</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>9719</v>
       </c>
@@ -17194,7 +17243,7 @@
         <v>18486</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>11135</v>
       </c>
@@ -17242,7 +17291,7 @@
         <v>20236</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>9799</v>
       </c>
@@ -17290,7 +17339,7 @@
         <v>19513</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>6648</v>
       </c>
@@ -17338,7 +17387,7 @@
         <v>17250</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>6386</v>
       </c>
@@ -17386,7 +17435,7 @@
         <v>15672</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>6633</v>
       </c>
@@ -17434,7 +17483,7 @@
         <v>14934</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>6672</v>
       </c>
@@ -17482,7 +17531,7 @@
         <v>15394</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>6598</v>
       </c>
@@ -17530,7 +17579,7 @@
         <v>16738</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>6185</v>
       </c>
@@ -17578,7 +17627,7 @@
         <v>15501</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>6953</v>
       </c>
@@ -17626,7 +17675,7 @@
         <v>16872</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>5547</v>
       </c>
@@ -17674,7 +17723,7 @@
         <v>15222</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>5140</v>
       </c>
@@ -17722,7 +17771,7 @@
         <v>13025</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>4079</v>
       </c>
@@ -17770,7 +17819,7 @@
         <v>12223</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>3996</v>
       </c>
@@ -17818,7 +17867,7 @@
         <v>11621</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>4595</v>
       </c>
@@ -17866,7 +17915,7 @@
         <v>11452</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>3968</v>
       </c>
@@ -17914,7 +17963,7 @@
         <v>10010</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>3957</v>
       </c>
@@ -17962,7 +18011,7 @@
         <v>9654</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>4586</v>
       </c>
@@ -18010,7 +18059,7 @@
         <v>11443</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>5376</v>
       </c>
@@ -18058,7 +18107,7 @@
         <v>12176</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>5521</v>
       </c>
@@ -18106,7 +18155,7 @@
         <v>12480</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>5448</v>
       </c>
@@ -18154,7 +18203,7 @@
         <v>11471</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>5564</v>
       </c>
@@ -18202,7 +18251,7 @@
         <v>12302</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>4366</v>
       </c>
@@ -18250,7 +18299,7 @@
         <v>11050</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>4949</v>
       </c>
@@ -18298,7 +18347,7 @@
         <v>12082</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>4147</v>
       </c>
@@ -18346,7 +18395,7 @@
         <v>11553</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>4889</v>
       </c>
@@ -18394,7 +18443,7 @@
         <v>12522</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>5622</v>
       </c>
@@ -18442,7 +18491,7 @@
         <v>13873</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>4084</v>
       </c>
@@ -18490,7 +18539,7 @@
         <v>12068</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>3750</v>
       </c>
@@ -18538,7 +18587,7 @@
         <v>10811</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>3962</v>
       </c>
@@ -18586,7 +18635,7 @@
         <v>10549</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>4196</v>
       </c>
@@ -18634,7 +18683,7 @@
         <v>11172</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>4196</v>
       </c>

--- a/inst/SWO_Data.xlsx
+++ b/inst/SWO_Data.xlsx
@@ -1484,58 +1484,22 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="24" fillId="0" borderId="18" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="10" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="42" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="12" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="42" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="42" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="12" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="44" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="13" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="12" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="15" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="42" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1550,22 +1514,58 @@
     <xf numFmtId="16" fontId="19" fillId="34" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="42" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="16" fontId="19" fillId="35" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="12" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="42" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="13" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="12" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="15" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="12" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="42" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="10" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1929,7 +1929,7 @@
   <dimension ref="A1:BT94"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1990,6 +1990,9 @@
       <c r="A7" t="s">
         <v>6</v>
       </c>
+      <c r="B7">
+        <v>13200</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
@@ -3093,75 +3096,72 @@
         <v>63</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>69</v>
       </c>
-      <c r="B86">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>77</v>
       </c>
@@ -3186,234 +3186,234 @@
       <c r="A1" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="35" t="s">
         <v>166</v>
       </c>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57" t="s">
+      <c r="C1" s="35"/>
+      <c r="D1" s="35" t="s">
         <v>167</v>
       </c>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57" t="s">
+      <c r="E1" s="35"/>
+      <c r="F1" s="35" t="s">
         <v>168</v>
       </c>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57" t="s">
+      <c r="G1" s="35"/>
+      <c r="H1" s="35" t="s">
         <v>169</v>
       </c>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57" t="s">
+      <c r="I1" s="35"/>
+      <c r="J1" s="35" t="s">
         <v>170</v>
       </c>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57" t="s">
+      <c r="K1" s="35"/>
+      <c r="L1" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57" t="s">
+      <c r="M1" s="35"/>
+      <c r="N1" s="35" t="s">
         <v>172</v>
       </c>
-      <c r="O1" s="57"/>
-      <c r="P1" s="57" t="s">
+      <c r="O1" s="35"/>
+      <c r="P1" s="35" t="s">
         <v>173</v>
       </c>
-      <c r="Q1" s="57"/>
-      <c r="R1" s="57" t="s">
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35" t="s">
         <v>174</v>
       </c>
-      <c r="S1" s="57"/>
-      <c r="T1" s="57" t="s">
+      <c r="S1" s="35"/>
+      <c r="T1" s="35" t="s">
         <v>175</v>
       </c>
-      <c r="U1" s="57"/>
-      <c r="V1" s="61" t="s">
+      <c r="U1" s="35"/>
+      <c r="V1" s="34" t="s">
         <v>176</v>
       </c>
-      <c r="W1" s="61"/>
-      <c r="X1" s="61" t="s">
+      <c r="W1" s="34"/>
+      <c r="X1" s="34" t="s">
         <v>177</v>
       </c>
-      <c r="Y1" s="61"/>
-      <c r="Z1" s="59" t="s">
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="38" t="s">
         <v>178</v>
       </c>
-      <c r="AA1" s="59"/>
-      <c r="AB1" s="57" t="s">
+      <c r="AA1" s="38"/>
+      <c r="AB1" s="35" t="s">
         <v>179</v>
       </c>
-      <c r="AC1" s="57"/>
-      <c r="AD1" s="57" t="s">
+      <c r="AC1" s="35"/>
+      <c r="AD1" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="AE1" s="57"/>
-      <c r="AF1" s="57" t="s">
+      <c r="AE1" s="35"/>
+      <c r="AF1" s="35" t="s">
         <v>181</v>
       </c>
-      <c r="AG1" s="57"/>
-      <c r="AH1" s="57" t="s">
+      <c r="AG1" s="35"/>
+      <c r="AH1" s="35" t="s">
         <v>182</v>
       </c>
-      <c r="AI1" s="57"/>
-      <c r="AJ1" s="57" t="s">
+      <c r="AI1" s="35"/>
+      <c r="AJ1" s="35" t="s">
         <v>183</v>
       </c>
-      <c r="AK1" s="57"/>
-      <c r="AL1" s="57" t="s">
+      <c r="AK1" s="35"/>
+      <c r="AL1" s="35" t="s">
         <v>184</v>
       </c>
-      <c r="AM1" s="57"/>
-      <c r="AN1" s="57" t="s">
+      <c r="AM1" s="35"/>
+      <c r="AN1" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="AO1" s="58"/>
+      <c r="AO1" s="37"/>
     </row>
     <row r="2" spans="1:41" ht="36.5" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="36" t="s">
         <v>187</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51" t="s">
+      <c r="C2" s="36"/>
+      <c r="D2" s="36" t="s">
         <v>187</v>
       </c>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51" t="s">
+      <c r="E2" s="36"/>
+      <c r="F2" s="36" t="s">
         <v>188</v>
       </c>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51" t="s">
+      <c r="G2" s="36"/>
+      <c r="H2" s="36" t="s">
         <v>188</v>
       </c>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51" t="s">
+      <c r="I2" s="36"/>
+      <c r="J2" s="36" t="s">
         <v>188</v>
       </c>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51" t="s">
+      <c r="K2" s="36"/>
+      <c r="L2" s="36" t="s">
         <v>188</v>
       </c>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51" t="s">
+      <c r="M2" s="36"/>
+      <c r="N2" s="36" t="s">
         <v>188</v>
       </c>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51" t="s">
+      <c r="O2" s="36"/>
+      <c r="P2" s="36" t="s">
         <v>188</v>
       </c>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="51" t="s">
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36" t="s">
         <v>188</v>
       </c>
-      <c r="S2" s="51"/>
-      <c r="T2" s="51" t="s">
+      <c r="S2" s="36"/>
+      <c r="T2" s="36" t="s">
         <v>188</v>
       </c>
-      <c r="U2" s="51"/>
-      <c r="V2" s="51" t="s">
+      <c r="U2" s="36"/>
+      <c r="V2" s="36" t="s">
         <v>188</v>
       </c>
-      <c r="W2" s="51"/>
-      <c r="X2" s="51" t="s">
+      <c r="W2" s="36"/>
+      <c r="X2" s="36" t="s">
         <v>188</v>
       </c>
-      <c r="Y2" s="51"/>
-      <c r="Z2" s="51" t="s">
+      <c r="Y2" s="36"/>
+      <c r="Z2" s="36" t="s">
         <v>188</v>
       </c>
-      <c r="AA2" s="51"/>
-      <c r="AB2" s="51" t="s">
+      <c r="AA2" s="36"/>
+      <c r="AB2" s="36" t="s">
         <v>188</v>
       </c>
-      <c r="AC2" s="51"/>
-      <c r="AD2" s="51" t="s">
+      <c r="AC2" s="36"/>
+      <c r="AD2" s="36" t="s">
         <v>187</v>
       </c>
-      <c r="AE2" s="51"/>
-      <c r="AF2" s="51" t="s">
+      <c r="AE2" s="36"/>
+      <c r="AF2" s="36" t="s">
         <v>188</v>
       </c>
-      <c r="AG2" s="51"/>
-      <c r="AH2" s="51" t="s">
+      <c r="AG2" s="36"/>
+      <c r="AH2" s="36" t="s">
         <v>187</v>
       </c>
-      <c r="AI2" s="51"/>
-      <c r="AJ2" s="51" t="s">
+      <c r="AI2" s="36"/>
+      <c r="AJ2" s="36" t="s">
         <v>187</v>
       </c>
-      <c r="AK2" s="51"/>
-      <c r="AL2" s="51" t="s">
+      <c r="AK2" s="36"/>
+      <c r="AL2" s="36" t="s">
         <v>187</v>
       </c>
-      <c r="AM2" s="51"/>
-      <c r="AN2" s="51" t="s">
+      <c r="AM2" s="36"/>
+      <c r="AN2" s="36" t="s">
         <v>188</v>
       </c>
-      <c r="AO2" s="60"/>
+      <c r="AO2" s="39"/>
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="41" t="s">
         <v>190</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53" t="s">
+      <c r="C3" s="41"/>
+      <c r="D3" s="41" t="s">
         <v>190</v>
       </c>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53" t="s">
+      <c r="E3" s="41"/>
+      <c r="F3" s="41" t="s">
         <v>190</v>
       </c>
-      <c r="G3" s="53"/>
-      <c r="H3" s="54" t="s">
+      <c r="G3" s="41"/>
+      <c r="H3" s="42" t="s">
         <v>190</v>
       </c>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="52">
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="40">
         <v>1</v>
       </c>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52">
+      <c r="M3" s="40"/>
+      <c r="N3" s="40">
         <v>2</v>
       </c>
-      <c r="O3" s="52"/>
-      <c r="P3" s="52">
+      <c r="O3" s="40"/>
+      <c r="P3" s="40">
         <v>3</v>
       </c>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="52">
+      <c r="Q3" s="40"/>
+      <c r="R3" s="40">
         <v>4</v>
       </c>
-      <c r="S3" s="52"/>
-      <c r="T3" s="47" t="s">
+      <c r="S3" s="40"/>
+      <c r="T3" s="44" t="s">
         <v>191</v>
       </c>
-      <c r="U3" s="52"/>
-      <c r="V3" s="56" t="s">
+      <c r="U3" s="40"/>
+      <c r="V3" s="45" t="s">
         <v>190</v>
       </c>
-      <c r="W3" s="56"/>
-      <c r="X3" s="56" t="s">
+      <c r="W3" s="45"/>
+      <c r="X3" s="45" t="s">
         <v>190</v>
       </c>
-      <c r="Y3" s="56"/>
-      <c r="Z3" s="55" t="s">
+      <c r="Y3" s="45"/>
+      <c r="Z3" s="43" t="s">
         <v>190</v>
       </c>
-      <c r="AA3" s="55"/>
-      <c r="AB3" s="53"/>
-      <c r="AC3" s="53"/>
-      <c r="AD3" s="53" t="s">
+      <c r="AA3" s="43"/>
+      <c r="AB3" s="41"/>
+      <c r="AC3" s="41"/>
+      <c r="AD3" s="41" t="s">
         <v>190</v>
       </c>
-      <c r="AE3" s="53"/>
-      <c r="AF3" s="53"/>
-      <c r="AG3" s="53"/>
+      <c r="AE3" s="41"/>
+      <c r="AF3" s="41"/>
+      <c r="AG3" s="41"/>
       <c r="AH3" s="7"/>
       <c r="AI3" s="7"/>
       <c r="AJ3" s="7"/>
@@ -3427,426 +3427,426 @@
       <c r="A4" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="47" t="s">
         <v>193</v>
       </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35" t="s">
+      <c r="C4" s="47"/>
+      <c r="D4" s="47" t="s">
         <v>193</v>
       </c>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35" t="s">
+      <c r="E4" s="47"/>
+      <c r="F4" s="47" t="s">
         <v>193</v>
       </c>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35" t="s">
+      <c r="G4" s="47"/>
+      <c r="H4" s="47" t="s">
         <v>194</v>
       </c>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35" t="s">
+      <c r="I4" s="47"/>
+      <c r="J4" s="47" t="s">
         <v>194</v>
       </c>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35" t="s">
+      <c r="K4" s="47"/>
+      <c r="L4" s="47" t="s">
         <v>194</v>
       </c>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35" t="s">
+      <c r="M4" s="47"/>
+      <c r="N4" s="47" t="s">
         <v>194</v>
       </c>
-      <c r="O4" s="35"/>
-      <c r="P4" s="35" t="s">
+      <c r="O4" s="47"/>
+      <c r="P4" s="47" t="s">
         <v>194</v>
       </c>
-      <c r="Q4" s="35"/>
-      <c r="R4" s="35" t="s">
+      <c r="Q4" s="47"/>
+      <c r="R4" s="47" t="s">
         <v>194</v>
       </c>
-      <c r="S4" s="35"/>
-      <c r="T4" s="35" t="s">
+      <c r="S4" s="47"/>
+      <c r="T4" s="47" t="s">
         <v>194</v>
       </c>
-      <c r="U4" s="35"/>
-      <c r="V4" s="38" t="s">
+      <c r="U4" s="47"/>
+      <c r="V4" s="48" t="s">
         <v>194</v>
       </c>
-      <c r="W4" s="38"/>
-      <c r="X4" s="39" t="s">
+      <c r="W4" s="48"/>
+      <c r="X4" s="49" t="s">
         <v>194</v>
       </c>
-      <c r="Y4" s="39"/>
-      <c r="Z4" s="40" t="s">
+      <c r="Y4" s="49"/>
+      <c r="Z4" s="46" t="s">
         <v>194</v>
       </c>
-      <c r="AA4" s="40"/>
-      <c r="AB4" s="47" t="s">
+      <c r="AA4" s="46"/>
+      <c r="AB4" s="44" t="s">
         <v>193</v>
       </c>
-      <c r="AC4" s="47"/>
-      <c r="AD4" s="47" t="s">
+      <c r="AC4" s="44"/>
+      <c r="AD4" s="44" t="s">
         <v>193</v>
       </c>
-      <c r="AE4" s="47"/>
-      <c r="AF4" s="35" t="s">
+      <c r="AE4" s="44"/>
+      <c r="AF4" s="47" t="s">
         <v>194</v>
       </c>
-      <c r="AG4" s="35"/>
-      <c r="AH4" s="35" t="s">
+      <c r="AG4" s="47"/>
+      <c r="AH4" s="47" t="s">
         <v>193</v>
       </c>
-      <c r="AI4" s="35"/>
-      <c r="AJ4" s="35" t="s">
+      <c r="AI4" s="47"/>
+      <c r="AJ4" s="47" t="s">
         <v>193</v>
       </c>
-      <c r="AK4" s="35"/>
-      <c r="AL4" s="35" t="s">
+      <c r="AK4" s="47"/>
+      <c r="AL4" s="47" t="s">
         <v>193</v>
       </c>
-      <c r="AM4" s="35"/>
-      <c r="AN4" s="36" t="s">
+      <c r="AM4" s="47"/>
+      <c r="AN4" s="50" t="s">
         <v>194</v>
       </c>
-      <c r="AO4" s="37"/>
+      <c r="AO4" s="51"/>
     </row>
     <row r="5" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="44" t="s">
         <v>196</v>
       </c>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47" t="s">
+      <c r="C5" s="44"/>
+      <c r="D5" s="44" t="s">
         <v>196</v>
       </c>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47" t="s">
+      <c r="E5" s="44"/>
+      <c r="F5" s="44" t="s">
         <v>196</v>
       </c>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47" t="s">
+      <c r="G5" s="44"/>
+      <c r="H5" s="44" t="s">
         <v>197</v>
       </c>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47" t="s">
+      <c r="I5" s="44"/>
+      <c r="J5" s="44" t="s">
         <v>197</v>
       </c>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47" t="s">
+      <c r="K5" s="44"/>
+      <c r="L5" s="44" t="s">
         <v>197</v>
       </c>
-      <c r="M5" s="47"/>
-      <c r="N5" s="47" t="s">
+      <c r="M5" s="44"/>
+      <c r="N5" s="44" t="s">
         <v>197</v>
       </c>
-      <c r="O5" s="47"/>
-      <c r="P5" s="47" t="s">
+      <c r="O5" s="44"/>
+      <c r="P5" s="44" t="s">
         <v>197</v>
       </c>
-      <c r="Q5" s="47"/>
-      <c r="R5" s="47" t="s">
+      <c r="Q5" s="44"/>
+      <c r="R5" s="44" t="s">
         <v>197</v>
       </c>
-      <c r="S5" s="47"/>
-      <c r="T5" s="47" t="s">
+      <c r="S5" s="44"/>
+      <c r="T5" s="44" t="s">
         <v>197</v>
       </c>
-      <c r="U5" s="47"/>
-      <c r="V5" s="48" t="s">
+      <c r="U5" s="44"/>
+      <c r="V5" s="52" t="s">
         <v>198</v>
       </c>
-      <c r="W5" s="48"/>
-      <c r="X5" s="49" t="s">
+      <c r="W5" s="52"/>
+      <c r="X5" s="53" t="s">
         <v>198</v>
       </c>
-      <c r="Y5" s="49"/>
-      <c r="Z5" s="50" t="s">
+      <c r="Y5" s="53"/>
+      <c r="Z5" s="54" t="s">
         <v>198</v>
       </c>
-      <c r="AA5" s="50"/>
-      <c r="AB5" s="50" t="s">
+      <c r="AA5" s="54"/>
+      <c r="AB5" s="54" t="s">
         <v>198</v>
       </c>
-      <c r="AC5" s="50"/>
-      <c r="AD5" s="47" t="s">
+      <c r="AC5" s="54"/>
+      <c r="AD5" s="44" t="s">
         <v>199</v>
       </c>
-      <c r="AE5" s="47"/>
-      <c r="AF5" s="47" t="s">
+      <c r="AE5" s="44"/>
+      <c r="AF5" s="44" t="s">
         <v>200</v>
       </c>
-      <c r="AG5" s="47"/>
-      <c r="AH5" s="47" t="s">
+      <c r="AG5" s="44"/>
+      <c r="AH5" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="AI5" s="47"/>
-      <c r="AJ5" s="47" t="s">
+      <c r="AI5" s="44"/>
+      <c r="AJ5" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="AK5" s="47"/>
-      <c r="AL5" s="47" t="s">
+      <c r="AK5" s="44"/>
+      <c r="AL5" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="AM5" s="47"/>
-      <c r="AN5" s="36" t="s">
+      <c r="AM5" s="44"/>
+      <c r="AN5" s="50" t="s">
         <v>81</v>
       </c>
-      <c r="AO5" s="37"/>
+      <c r="AO5" s="51"/>
     </row>
     <row r="6" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="55" t="s">
         <v>202</v>
       </c>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44" t="s">
+      <c r="C6" s="55"/>
+      <c r="D6" s="55" t="s">
         <v>203</v>
       </c>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44" t="s">
+      <c r="E6" s="55"/>
+      <c r="F6" s="55" t="s">
         <v>203</v>
       </c>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44" t="s">
+      <c r="G6" s="55"/>
+      <c r="H6" s="55" t="s">
         <v>204</v>
       </c>
-      <c r="I6" s="44"/>
-      <c r="J6" s="45" t="s">
+      <c r="I6" s="55"/>
+      <c r="J6" s="56" t="s">
         <v>205</v>
       </c>
-      <c r="K6" s="45"/>
-      <c r="L6" s="45" t="s">
+      <c r="K6" s="56"/>
+      <c r="L6" s="56" t="s">
         <v>205</v>
       </c>
-      <c r="M6" s="45"/>
-      <c r="N6" s="45" t="s">
+      <c r="M6" s="56"/>
+      <c r="N6" s="56" t="s">
         <v>205</v>
       </c>
-      <c r="O6" s="45"/>
-      <c r="P6" s="45" t="s">
+      <c r="O6" s="56"/>
+      <c r="P6" s="56" t="s">
         <v>205</v>
       </c>
-      <c r="Q6" s="45"/>
-      <c r="R6" s="45" t="s">
+      <c r="Q6" s="56"/>
+      <c r="R6" s="56" t="s">
         <v>205</v>
       </c>
-      <c r="S6" s="45"/>
-      <c r="T6" s="45" t="s">
+      <c r="S6" s="56"/>
+      <c r="T6" s="56" t="s">
         <v>205</v>
       </c>
-      <c r="U6" s="45"/>
-      <c r="V6" s="45" t="s">
+      <c r="U6" s="56"/>
+      <c r="V6" s="56" t="s">
         <v>205</v>
       </c>
-      <c r="W6" s="45"/>
-      <c r="X6" s="46" t="s">
+      <c r="W6" s="56"/>
+      <c r="X6" s="58" t="s">
         <v>205</v>
       </c>
-      <c r="Y6" s="46"/>
-      <c r="Z6" s="43" t="s">
+      <c r="Y6" s="58"/>
+      <c r="Z6" s="57" t="s">
         <v>205</v>
       </c>
-      <c r="AA6" s="43"/>
-      <c r="AB6" s="44" t="s">
+      <c r="AA6" s="57"/>
+      <c r="AB6" s="55" t="s">
         <v>206</v>
       </c>
-      <c r="AC6" s="44"/>
-      <c r="AD6" s="44" t="s">
+      <c r="AC6" s="55"/>
+      <c r="AD6" s="55" t="s">
         <v>207</v>
       </c>
-      <c r="AE6" s="44"/>
-      <c r="AF6" s="44" t="s">
+      <c r="AE6" s="55"/>
+      <c r="AF6" s="55" t="s">
         <v>208</v>
       </c>
-      <c r="AG6" s="44"/>
-      <c r="AH6" s="44" t="s">
+      <c r="AG6" s="55"/>
+      <c r="AH6" s="55" t="s">
         <v>209</v>
       </c>
-      <c r="AI6" s="44"/>
-      <c r="AJ6" s="44" t="s">
+      <c r="AI6" s="55"/>
+      <c r="AJ6" s="55" t="s">
         <v>209</v>
       </c>
-      <c r="AK6" s="44"/>
-      <c r="AL6" s="44" t="s">
+      <c r="AK6" s="55"/>
+      <c r="AL6" s="55" t="s">
         <v>209</v>
       </c>
-      <c r="AM6" s="44"/>
-      <c r="AN6" s="36" t="s">
+      <c r="AM6" s="55"/>
+      <c r="AN6" s="50" t="s">
         <v>210</v>
       </c>
-      <c r="AO6" s="37"/>
+      <c r="AO6" s="51"/>
     </row>
     <row r="7" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="47" t="s">
         <v>212</v>
       </c>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35" t="s">
+      <c r="C7" s="47"/>
+      <c r="D7" s="47" t="s">
         <v>212</v>
       </c>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35" t="s">
+      <c r="E7" s="47"/>
+      <c r="F7" s="47" t="s">
         <v>212</v>
       </c>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35" t="s">
+      <c r="G7" s="47"/>
+      <c r="H7" s="47" t="s">
         <v>213</v>
       </c>
-      <c r="I7" s="35"/>
-      <c r="J7" s="38" t="s">
+      <c r="I7" s="47"/>
+      <c r="J7" s="48" t="s">
         <v>214</v>
       </c>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38" t="s">
+      <c r="K7" s="48"/>
+      <c r="L7" s="48" t="s">
         <v>214</v>
       </c>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38" t="s">
+      <c r="M7" s="48"/>
+      <c r="N7" s="48" t="s">
         <v>214</v>
       </c>
-      <c r="O7" s="38"/>
-      <c r="P7" s="38" t="s">
+      <c r="O7" s="48"/>
+      <c r="P7" s="48" t="s">
         <v>214</v>
       </c>
-      <c r="Q7" s="38"/>
-      <c r="R7" s="38" t="s">
+      <c r="Q7" s="48"/>
+      <c r="R7" s="48" t="s">
         <v>214</v>
       </c>
-      <c r="S7" s="38"/>
-      <c r="T7" s="38" t="s">
+      <c r="S7" s="48"/>
+      <c r="T7" s="48" t="s">
         <v>214</v>
       </c>
-      <c r="U7" s="38"/>
-      <c r="V7" s="38" t="s">
+      <c r="U7" s="48"/>
+      <c r="V7" s="48" t="s">
         <v>214</v>
       </c>
-      <c r="W7" s="38"/>
-      <c r="X7" s="39" t="s">
+      <c r="W7" s="48"/>
+      <c r="X7" s="49" t="s">
         <v>214</v>
       </c>
-      <c r="Y7" s="39"/>
-      <c r="Z7" s="40" t="s">
+      <c r="Y7" s="49"/>
+      <c r="Z7" s="46" t="s">
         <v>214</v>
       </c>
-      <c r="AA7" s="40"/>
-      <c r="AB7" s="35" t="s">
+      <c r="AA7" s="46"/>
+      <c r="AB7" s="47" t="s">
         <v>213</v>
       </c>
-      <c r="AC7" s="35"/>
-      <c r="AD7" s="35" t="s">
+      <c r="AC7" s="47"/>
+      <c r="AD7" s="47" t="s">
         <v>215</v>
       </c>
-      <c r="AE7" s="35"/>
-      <c r="AF7" s="35" t="s">
+      <c r="AE7" s="47"/>
+      <c r="AF7" s="47" t="s">
         <v>213</v>
       </c>
-      <c r="AG7" s="35"/>
-      <c r="AH7" s="35" t="s">
+      <c r="AG7" s="47"/>
+      <c r="AH7" s="47" t="s">
         <v>213</v>
       </c>
-      <c r="AI7" s="35"/>
-      <c r="AJ7" s="35" t="s">
+      <c r="AI7" s="47"/>
+      <c r="AJ7" s="47" t="s">
         <v>213</v>
       </c>
-      <c r="AK7" s="35"/>
-      <c r="AL7" s="35" t="s">
+      <c r="AK7" s="47"/>
+      <c r="AL7" s="47" t="s">
         <v>213</v>
       </c>
-      <c r="AM7" s="35"/>
-      <c r="AN7" s="36" t="s">
+      <c r="AM7" s="47"/>
+      <c r="AN7" s="50" t="s">
         <v>213</v>
       </c>
-      <c r="AO7" s="37"/>
+      <c r="AO7" s="51"/>
     </row>
     <row r="8" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="59" t="s">
         <v>217</v>
       </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34" t="s">
+      <c r="C8" s="59"/>
+      <c r="D8" s="59" t="s">
         <v>218</v>
       </c>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34" t="s">
+      <c r="E8" s="59"/>
+      <c r="F8" s="59" t="s">
         <v>219</v>
       </c>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34" t="s">
+      <c r="G8" s="59"/>
+      <c r="H8" s="59" t="s">
         <v>220</v>
       </c>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34" t="s">
+      <c r="I8" s="59"/>
+      <c r="J8" s="59" t="s">
         <v>221</v>
       </c>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34" t="s">
+      <c r="K8" s="59"/>
+      <c r="L8" s="59" t="s">
         <v>222</v>
       </c>
-      <c r="M8" s="34"/>
-      <c r="N8" s="34" t="s">
+      <c r="M8" s="59"/>
+      <c r="N8" s="59" t="s">
         <v>222</v>
       </c>
-      <c r="O8" s="34"/>
-      <c r="P8" s="34" t="s">
+      <c r="O8" s="59"/>
+      <c r="P8" s="59" t="s">
         <v>222</v>
       </c>
-      <c r="Q8" s="34"/>
-      <c r="R8" s="34" t="s">
+      <c r="Q8" s="59"/>
+      <c r="R8" s="59" t="s">
         <v>222</v>
       </c>
-      <c r="S8" s="34"/>
-      <c r="T8" s="34" t="s">
+      <c r="S8" s="59"/>
+      <c r="T8" s="59" t="s">
         <v>222</v>
       </c>
-      <c r="U8" s="34"/>
-      <c r="V8" s="34" t="s">
+      <c r="U8" s="59"/>
+      <c r="V8" s="59" t="s">
         <v>223</v>
       </c>
-      <c r="W8" s="34"/>
-      <c r="X8" s="34" t="s">
+      <c r="W8" s="59"/>
+      <c r="X8" s="59" t="s">
         <v>224</v>
       </c>
-      <c r="Y8" s="34"/>
-      <c r="Z8" s="34" t="s">
+      <c r="Y8" s="59"/>
+      <c r="Z8" s="59" t="s">
         <v>224</v>
       </c>
-      <c r="AA8" s="34"/>
-      <c r="AB8" s="34" t="s">
+      <c r="AA8" s="59"/>
+      <c r="AB8" s="59" t="s">
         <v>224</v>
       </c>
-      <c r="AC8" s="34"/>
-      <c r="AD8" s="34" t="s">
+      <c r="AC8" s="59"/>
+      <c r="AD8" s="59" t="s">
         <v>225</v>
       </c>
-      <c r="AE8" s="34"/>
-      <c r="AF8" s="34" t="s">
+      <c r="AE8" s="59"/>
+      <c r="AF8" s="59" t="s">
         <v>226</v>
       </c>
-      <c r="AG8" s="34"/>
-      <c r="AH8" s="34" t="s">
+      <c r="AG8" s="59"/>
+      <c r="AH8" s="59" t="s">
         <v>227</v>
       </c>
-      <c r="AI8" s="34"/>
-      <c r="AJ8" s="34" t="s">
+      <c r="AI8" s="59"/>
+      <c r="AJ8" s="59" t="s">
         <v>227</v>
       </c>
-      <c r="AK8" s="34"/>
-      <c r="AL8" s="34" t="s">
+      <c r="AK8" s="59"/>
+      <c r="AL8" s="59" t="s">
         <v>227</v>
       </c>
-      <c r="AM8" s="34"/>
-      <c r="AN8" s="41" t="s">
+      <c r="AM8" s="59"/>
+      <c r="AN8" s="60" t="s">
         <v>228</v>
       </c>
-      <c r="AO8" s="42"/>
+      <c r="AO8" s="61"/>
     </row>
     <row r="9" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
@@ -8807,18 +8807,126 @@
     </row>
   </sheetData>
   <mergeCells count="156">
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="X2:Y2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="AJ8:AK8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="AL7:AM7"/>
+    <mergeCell ref="AN7:AO7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AL8:AM8"/>
+    <mergeCell ref="AN8:AO8"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AG7"/>
+    <mergeCell ref="AH7:AI7"/>
+    <mergeCell ref="Z8:AA8"/>
+    <mergeCell ref="AB8:AC8"/>
+    <mergeCell ref="AD8:AE8"/>
+    <mergeCell ref="AF8:AG8"/>
+    <mergeCell ref="AH8:AI8"/>
+    <mergeCell ref="AN6:AO6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="Z6:AA6"/>
+    <mergeCell ref="AB6:AC6"/>
+    <mergeCell ref="AD6:AE6"/>
+    <mergeCell ref="AF6:AG6"/>
+    <mergeCell ref="AH6:AI6"/>
+    <mergeCell ref="AJ6:AK6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="X6:Y6"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="AJ7:AK7"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="AD5:AE5"/>
+    <mergeCell ref="AF5:AG5"/>
+    <mergeCell ref="AH5:AI5"/>
+    <mergeCell ref="AJ5:AK5"/>
+    <mergeCell ref="AL5:AM5"/>
+    <mergeCell ref="AL6:AM6"/>
+    <mergeCell ref="AN5:AO5"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="T5:U5"/>
+    <mergeCell ref="V5:W5"/>
+    <mergeCell ref="X5:Y5"/>
+    <mergeCell ref="Z5:AA5"/>
+    <mergeCell ref="AB5:AC5"/>
+    <mergeCell ref="AL4:AM4"/>
+    <mergeCell ref="AN4:AO4"/>
+    <mergeCell ref="AB4:AC4"/>
+    <mergeCell ref="AD4:AE4"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="AH4:AI4"/>
+    <mergeCell ref="AJ4:AK4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="Z4:AA4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="AJ2:AK2"/>
+    <mergeCell ref="AL2:AM2"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="AL1:AM1"/>
     <mergeCell ref="AN1:AO1"/>
     <mergeCell ref="B2:C2"/>
@@ -8843,126 +8951,18 @@
     <mergeCell ref="R2:S2"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="V2:W2"/>
-    <mergeCell ref="AJ2:AK2"/>
-    <mergeCell ref="AL2:AM2"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AH2:AI2"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="Z4:AA4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="V4:W4"/>
-    <mergeCell ref="X4:Y4"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="AN5:AO5"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="T5:U5"/>
-    <mergeCell ref="V5:W5"/>
-    <mergeCell ref="X5:Y5"/>
-    <mergeCell ref="Z5:AA5"/>
-    <mergeCell ref="AB5:AC5"/>
-    <mergeCell ref="AL4:AM4"/>
-    <mergeCell ref="AN4:AO4"/>
-    <mergeCell ref="AB4:AC4"/>
-    <mergeCell ref="AD4:AE4"/>
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="AH4:AI4"/>
-    <mergeCell ref="AJ4:AK4"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="AD5:AE5"/>
-    <mergeCell ref="AF5:AG5"/>
-    <mergeCell ref="AH5:AI5"/>
-    <mergeCell ref="AJ5:AK5"/>
-    <mergeCell ref="AL5:AM5"/>
-    <mergeCell ref="AL6:AM6"/>
-    <mergeCell ref="AN6:AO6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="Z6:AA6"/>
-    <mergeCell ref="AB6:AC6"/>
-    <mergeCell ref="AD6:AE6"/>
-    <mergeCell ref="AF6:AG6"/>
-    <mergeCell ref="AH6:AI6"/>
-    <mergeCell ref="AJ6:AK6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="X6:Y6"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="AJ7:AK7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AF7:AG7"/>
-    <mergeCell ref="AH7:AI7"/>
-    <mergeCell ref="Z8:AA8"/>
-    <mergeCell ref="AB8:AC8"/>
-    <mergeCell ref="AD8:AE8"/>
-    <mergeCell ref="AF8:AG8"/>
-    <mergeCell ref="AH8:AI8"/>
-    <mergeCell ref="AJ8:AK8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="AL7:AM7"/>
-    <mergeCell ref="AN7:AO7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AL8:AM8"/>
-    <mergeCell ref="AN8:AO8"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AB2:AC2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/inst/SWO_Data.xlsx
+++ b/inst/SWO_Data.xlsx
@@ -1484,22 +1484,58 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="24" fillId="0" borderId="18" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="12" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="10" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="42" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="12" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="42" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="42" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="44" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="13" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="12" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="15" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="42" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1514,58 +1550,22 @@
     <xf numFmtId="16" fontId="19" fillId="34" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="42" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="16" fontId="19" fillId="35" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="42" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="12" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="13" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="12" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="15" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="42" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="10" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="12" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1929,7 +1929,7 @@
   <dimension ref="A1:BT94"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="J57" sqref="J57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2029,6 +2029,9 @@
       <c r="A14" t="s">
         <v>11</v>
       </c>
+      <c r="B14">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
@@ -2040,82 +2043,88 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B26">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B28">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>29</v>
       </c>
@@ -3186,234 +3195,234 @@
       <c r="A1" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="57" t="s">
         <v>166</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35" t="s">
+      <c r="C1" s="57"/>
+      <c r="D1" s="57" t="s">
         <v>167</v>
       </c>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35" t="s">
+      <c r="E1" s="57"/>
+      <c r="F1" s="57" t="s">
         <v>168</v>
       </c>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35" t="s">
+      <c r="G1" s="57"/>
+      <c r="H1" s="57" t="s">
         <v>169</v>
       </c>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35" t="s">
+      <c r="I1" s="57"/>
+      <c r="J1" s="57" t="s">
         <v>170</v>
       </c>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35" t="s">
+      <c r="K1" s="57"/>
+      <c r="L1" s="57" t="s">
         <v>171</v>
       </c>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35" t="s">
+      <c r="M1" s="57"/>
+      <c r="N1" s="57" t="s">
         <v>172</v>
       </c>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35" t="s">
+      <c r="O1" s="57"/>
+      <c r="P1" s="57" t="s">
         <v>173</v>
       </c>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35" t="s">
+      <c r="Q1" s="57"/>
+      <c r="R1" s="57" t="s">
         <v>174</v>
       </c>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35" t="s">
+      <c r="S1" s="57"/>
+      <c r="T1" s="57" t="s">
         <v>175</v>
       </c>
-      <c r="U1" s="35"/>
-      <c r="V1" s="34" t="s">
+      <c r="U1" s="57"/>
+      <c r="V1" s="61" t="s">
         <v>176</v>
       </c>
-      <c r="W1" s="34"/>
-      <c r="X1" s="34" t="s">
+      <c r="W1" s="61"/>
+      <c r="X1" s="61" t="s">
         <v>177</v>
       </c>
-      <c r="Y1" s="34"/>
-      <c r="Z1" s="38" t="s">
+      <c r="Y1" s="61"/>
+      <c r="Z1" s="59" t="s">
         <v>178</v>
       </c>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="35" t="s">
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="57" t="s">
         <v>179</v>
       </c>
-      <c r="AC1" s="35"/>
-      <c r="AD1" s="35" t="s">
+      <c r="AC1" s="57"/>
+      <c r="AD1" s="57" t="s">
         <v>180</v>
       </c>
-      <c r="AE1" s="35"/>
-      <c r="AF1" s="35" t="s">
+      <c r="AE1" s="57"/>
+      <c r="AF1" s="57" t="s">
         <v>181</v>
       </c>
-      <c r="AG1" s="35"/>
-      <c r="AH1" s="35" t="s">
+      <c r="AG1" s="57"/>
+      <c r="AH1" s="57" t="s">
         <v>182</v>
       </c>
-      <c r="AI1" s="35"/>
-      <c r="AJ1" s="35" t="s">
+      <c r="AI1" s="57"/>
+      <c r="AJ1" s="57" t="s">
         <v>183</v>
       </c>
-      <c r="AK1" s="35"/>
-      <c r="AL1" s="35" t="s">
+      <c r="AK1" s="57"/>
+      <c r="AL1" s="57" t="s">
         <v>184</v>
       </c>
-      <c r="AM1" s="35"/>
-      <c r="AN1" s="35" t="s">
+      <c r="AM1" s="57"/>
+      <c r="AN1" s="57" t="s">
         <v>185</v>
       </c>
-      <c r="AO1" s="37"/>
+      <c r="AO1" s="58"/>
     </row>
     <row r="2" spans="1:41" ht="36.5" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="51" t="s">
         <v>187</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36" t="s">
+      <c r="C2" s="51"/>
+      <c r="D2" s="51" t="s">
         <v>187</v>
       </c>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36" t="s">
+      <c r="E2" s="51"/>
+      <c r="F2" s="51" t="s">
         <v>188</v>
       </c>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36" t="s">
+      <c r="G2" s="51"/>
+      <c r="H2" s="51" t="s">
         <v>188</v>
       </c>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36" t="s">
+      <c r="I2" s="51"/>
+      <c r="J2" s="51" t="s">
         <v>188</v>
       </c>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36" t="s">
+      <c r="K2" s="51"/>
+      <c r="L2" s="51" t="s">
         <v>188</v>
       </c>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36" t="s">
+      <c r="M2" s="51"/>
+      <c r="N2" s="51" t="s">
         <v>188</v>
       </c>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36" t="s">
+      <c r="O2" s="51"/>
+      <c r="P2" s="51" t="s">
         <v>188</v>
       </c>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="36" t="s">
+      <c r="Q2" s="51"/>
+      <c r="R2" s="51" t="s">
         <v>188</v>
       </c>
-      <c r="S2" s="36"/>
-      <c r="T2" s="36" t="s">
+      <c r="S2" s="51"/>
+      <c r="T2" s="51" t="s">
         <v>188</v>
       </c>
-      <c r="U2" s="36"/>
-      <c r="V2" s="36" t="s">
+      <c r="U2" s="51"/>
+      <c r="V2" s="51" t="s">
         <v>188</v>
       </c>
-      <c r="W2" s="36"/>
-      <c r="X2" s="36" t="s">
+      <c r="W2" s="51"/>
+      <c r="X2" s="51" t="s">
         <v>188</v>
       </c>
-      <c r="Y2" s="36"/>
-      <c r="Z2" s="36" t="s">
+      <c r="Y2" s="51"/>
+      <c r="Z2" s="51" t="s">
         <v>188</v>
       </c>
-      <c r="AA2" s="36"/>
-      <c r="AB2" s="36" t="s">
+      <c r="AA2" s="51"/>
+      <c r="AB2" s="51" t="s">
         <v>188</v>
       </c>
-      <c r="AC2" s="36"/>
-      <c r="AD2" s="36" t="s">
+      <c r="AC2" s="51"/>
+      <c r="AD2" s="51" t="s">
         <v>187</v>
       </c>
-      <c r="AE2" s="36"/>
-      <c r="AF2" s="36" t="s">
+      <c r="AE2" s="51"/>
+      <c r="AF2" s="51" t="s">
         <v>188</v>
       </c>
-      <c r="AG2" s="36"/>
-      <c r="AH2" s="36" t="s">
+      <c r="AG2" s="51"/>
+      <c r="AH2" s="51" t="s">
         <v>187</v>
       </c>
-      <c r="AI2" s="36"/>
-      <c r="AJ2" s="36" t="s">
+      <c r="AI2" s="51"/>
+      <c r="AJ2" s="51" t="s">
         <v>187</v>
       </c>
-      <c r="AK2" s="36"/>
-      <c r="AL2" s="36" t="s">
+      <c r="AK2" s="51"/>
+      <c r="AL2" s="51" t="s">
         <v>187</v>
       </c>
-      <c r="AM2" s="36"/>
-      <c r="AN2" s="36" t="s">
+      <c r="AM2" s="51"/>
+      <c r="AN2" s="51" t="s">
         <v>188</v>
       </c>
-      <c r="AO2" s="39"/>
+      <c r="AO2" s="60"/>
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="53" t="s">
         <v>190</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41" t="s">
+      <c r="C3" s="53"/>
+      <c r="D3" s="53" t="s">
         <v>190</v>
       </c>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41" t="s">
+      <c r="E3" s="53"/>
+      <c r="F3" s="53" t="s">
         <v>190</v>
       </c>
-      <c r="G3" s="41"/>
-      <c r="H3" s="42" t="s">
+      <c r="G3" s="53"/>
+      <c r="H3" s="54" t="s">
         <v>190</v>
       </c>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="40">
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="52">
         <v>1</v>
       </c>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40">
+      <c r="M3" s="52"/>
+      <c r="N3" s="52">
         <v>2</v>
       </c>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40">
+      <c r="O3" s="52"/>
+      <c r="P3" s="52">
         <v>3</v>
       </c>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="40">
+      <c r="Q3" s="52"/>
+      <c r="R3" s="52">
         <v>4</v>
       </c>
-      <c r="S3" s="40"/>
-      <c r="T3" s="44" t="s">
+      <c r="S3" s="52"/>
+      <c r="T3" s="47" t="s">
         <v>191</v>
       </c>
-      <c r="U3" s="40"/>
-      <c r="V3" s="45" t="s">
+      <c r="U3" s="52"/>
+      <c r="V3" s="56" t="s">
         <v>190</v>
       </c>
-      <c r="W3" s="45"/>
-      <c r="X3" s="45" t="s">
+      <c r="W3" s="56"/>
+      <c r="X3" s="56" t="s">
         <v>190</v>
       </c>
-      <c r="Y3" s="45"/>
-      <c r="Z3" s="43" t="s">
+      <c r="Y3" s="56"/>
+      <c r="Z3" s="55" t="s">
         <v>190</v>
       </c>
-      <c r="AA3" s="43"/>
-      <c r="AB3" s="41"/>
-      <c r="AC3" s="41"/>
-      <c r="AD3" s="41" t="s">
+      <c r="AA3" s="55"/>
+      <c r="AB3" s="53"/>
+      <c r="AC3" s="53"/>
+      <c r="AD3" s="53" t="s">
         <v>190</v>
       </c>
-      <c r="AE3" s="41"/>
-      <c r="AF3" s="41"/>
-      <c r="AG3" s="41"/>
+      <c r="AE3" s="53"/>
+      <c r="AF3" s="53"/>
+      <c r="AG3" s="53"/>
       <c r="AH3" s="7"/>
       <c r="AI3" s="7"/>
       <c r="AJ3" s="7"/>
@@ -3427,426 +3436,426 @@
       <c r="A4" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="35" t="s">
         <v>193</v>
       </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47" t="s">
+      <c r="C4" s="35"/>
+      <c r="D4" s="35" t="s">
         <v>193</v>
       </c>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47" t="s">
+      <c r="E4" s="35"/>
+      <c r="F4" s="35" t="s">
         <v>193</v>
       </c>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47" t="s">
+      <c r="G4" s="35"/>
+      <c r="H4" s="35" t="s">
         <v>194</v>
       </c>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47" t="s">
+      <c r="I4" s="35"/>
+      <c r="J4" s="35" t="s">
         <v>194</v>
       </c>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47" t="s">
+      <c r="K4" s="35"/>
+      <c r="L4" s="35" t="s">
         <v>194</v>
       </c>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47" t="s">
+      <c r="M4" s="35"/>
+      <c r="N4" s="35" t="s">
         <v>194</v>
       </c>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47" t="s">
+      <c r="O4" s="35"/>
+      <c r="P4" s="35" t="s">
         <v>194</v>
       </c>
-      <c r="Q4" s="47"/>
-      <c r="R4" s="47" t="s">
+      <c r="Q4" s="35"/>
+      <c r="R4" s="35" t="s">
         <v>194</v>
       </c>
-      <c r="S4" s="47"/>
-      <c r="T4" s="47" t="s">
+      <c r="S4" s="35"/>
+      <c r="T4" s="35" t="s">
         <v>194</v>
       </c>
-      <c r="U4" s="47"/>
-      <c r="V4" s="48" t="s">
+      <c r="U4" s="35"/>
+      <c r="V4" s="38" t="s">
         <v>194</v>
       </c>
-      <c r="W4" s="48"/>
-      <c r="X4" s="49" t="s">
+      <c r="W4" s="38"/>
+      <c r="X4" s="39" t="s">
         <v>194</v>
       </c>
-      <c r="Y4" s="49"/>
-      <c r="Z4" s="46" t="s">
+      <c r="Y4" s="39"/>
+      <c r="Z4" s="40" t="s">
         <v>194</v>
       </c>
-      <c r="AA4" s="46"/>
-      <c r="AB4" s="44" t="s">
+      <c r="AA4" s="40"/>
+      <c r="AB4" s="47" t="s">
         <v>193</v>
       </c>
-      <c r="AC4" s="44"/>
-      <c r="AD4" s="44" t="s">
+      <c r="AC4" s="47"/>
+      <c r="AD4" s="47" t="s">
         <v>193</v>
       </c>
-      <c r="AE4" s="44"/>
-      <c r="AF4" s="47" t="s">
+      <c r="AE4" s="47"/>
+      <c r="AF4" s="35" t="s">
         <v>194</v>
       </c>
-      <c r="AG4" s="47"/>
-      <c r="AH4" s="47" t="s">
+      <c r="AG4" s="35"/>
+      <c r="AH4" s="35" t="s">
         <v>193</v>
       </c>
-      <c r="AI4" s="47"/>
-      <c r="AJ4" s="47" t="s">
+      <c r="AI4" s="35"/>
+      <c r="AJ4" s="35" t="s">
         <v>193</v>
       </c>
-      <c r="AK4" s="47"/>
-      <c r="AL4" s="47" t="s">
+      <c r="AK4" s="35"/>
+      <c r="AL4" s="35" t="s">
         <v>193</v>
       </c>
-      <c r="AM4" s="47"/>
-      <c r="AN4" s="50" t="s">
+      <c r="AM4" s="35"/>
+      <c r="AN4" s="36" t="s">
         <v>194</v>
       </c>
-      <c r="AO4" s="51"/>
+      <c r="AO4" s="37"/>
     </row>
     <row r="5" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="47" t="s">
         <v>196</v>
       </c>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44" t="s">
+      <c r="C5" s="47"/>
+      <c r="D5" s="47" t="s">
         <v>196</v>
       </c>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44" t="s">
+      <c r="E5" s="47"/>
+      <c r="F5" s="47" t="s">
         <v>196</v>
       </c>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44" t="s">
+      <c r="G5" s="47"/>
+      <c r="H5" s="47" t="s">
         <v>197</v>
       </c>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44" t="s">
+      <c r="I5" s="47"/>
+      <c r="J5" s="47" t="s">
         <v>197</v>
       </c>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44" t="s">
+      <c r="K5" s="47"/>
+      <c r="L5" s="47" t="s">
         <v>197</v>
       </c>
-      <c r="M5" s="44"/>
-      <c r="N5" s="44" t="s">
+      <c r="M5" s="47"/>
+      <c r="N5" s="47" t="s">
         <v>197</v>
       </c>
-      <c r="O5" s="44"/>
-      <c r="P5" s="44" t="s">
+      <c r="O5" s="47"/>
+      <c r="P5" s="47" t="s">
         <v>197</v>
       </c>
-      <c r="Q5" s="44"/>
-      <c r="R5" s="44" t="s">
+      <c r="Q5" s="47"/>
+      <c r="R5" s="47" t="s">
         <v>197</v>
       </c>
-      <c r="S5" s="44"/>
-      <c r="T5" s="44" t="s">
+      <c r="S5" s="47"/>
+      <c r="T5" s="47" t="s">
         <v>197</v>
       </c>
-      <c r="U5" s="44"/>
-      <c r="V5" s="52" t="s">
+      <c r="U5" s="47"/>
+      <c r="V5" s="48" t="s">
         <v>198</v>
       </c>
-      <c r="W5" s="52"/>
-      <c r="X5" s="53" t="s">
+      <c r="W5" s="48"/>
+      <c r="X5" s="49" t="s">
         <v>198</v>
       </c>
-      <c r="Y5" s="53"/>
-      <c r="Z5" s="54" t="s">
+      <c r="Y5" s="49"/>
+      <c r="Z5" s="50" t="s">
         <v>198</v>
       </c>
-      <c r="AA5" s="54"/>
-      <c r="AB5" s="54" t="s">
+      <c r="AA5" s="50"/>
+      <c r="AB5" s="50" t="s">
         <v>198</v>
       </c>
-      <c r="AC5" s="54"/>
-      <c r="AD5" s="44" t="s">
+      <c r="AC5" s="50"/>
+      <c r="AD5" s="47" t="s">
         <v>199</v>
       </c>
-      <c r="AE5" s="44"/>
-      <c r="AF5" s="44" t="s">
+      <c r="AE5" s="47"/>
+      <c r="AF5" s="47" t="s">
         <v>200</v>
       </c>
-      <c r="AG5" s="44"/>
-      <c r="AH5" s="44" t="s">
+      <c r="AG5" s="47"/>
+      <c r="AH5" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="AI5" s="44"/>
-      <c r="AJ5" s="44" t="s">
+      <c r="AI5" s="47"/>
+      <c r="AJ5" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="AK5" s="44"/>
-      <c r="AL5" s="44" t="s">
+      <c r="AK5" s="47"/>
+      <c r="AL5" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="AM5" s="44"/>
-      <c r="AN5" s="50" t="s">
+      <c r="AM5" s="47"/>
+      <c r="AN5" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="AO5" s="51"/>
+      <c r="AO5" s="37"/>
     </row>
     <row r="6" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="B6" s="55" t="s">
+      <c r="B6" s="44" t="s">
         <v>202</v>
       </c>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55" t="s">
+      <c r="C6" s="44"/>
+      <c r="D6" s="44" t="s">
         <v>203</v>
       </c>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55" t="s">
+      <c r="E6" s="44"/>
+      <c r="F6" s="44" t="s">
         <v>203</v>
       </c>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55" t="s">
+      <c r="G6" s="44"/>
+      <c r="H6" s="44" t="s">
         <v>204</v>
       </c>
-      <c r="I6" s="55"/>
-      <c r="J6" s="56" t="s">
+      <c r="I6" s="44"/>
+      <c r="J6" s="45" t="s">
         <v>205</v>
       </c>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56" t="s">
+      <c r="K6" s="45"/>
+      <c r="L6" s="45" t="s">
         <v>205</v>
       </c>
-      <c r="M6" s="56"/>
-      <c r="N6" s="56" t="s">
+      <c r="M6" s="45"/>
+      <c r="N6" s="45" t="s">
         <v>205</v>
       </c>
-      <c r="O6" s="56"/>
-      <c r="P6" s="56" t="s">
+      <c r="O6" s="45"/>
+      <c r="P6" s="45" t="s">
         <v>205</v>
       </c>
-      <c r="Q6" s="56"/>
-      <c r="R6" s="56" t="s">
+      <c r="Q6" s="45"/>
+      <c r="R6" s="45" t="s">
         <v>205</v>
       </c>
-      <c r="S6" s="56"/>
-      <c r="T6" s="56" t="s">
+      <c r="S6" s="45"/>
+      <c r="T6" s="45" t="s">
         <v>205</v>
       </c>
-      <c r="U6" s="56"/>
-      <c r="V6" s="56" t="s">
+      <c r="U6" s="45"/>
+      <c r="V6" s="45" t="s">
         <v>205</v>
       </c>
-      <c r="W6" s="56"/>
-      <c r="X6" s="58" t="s">
+      <c r="W6" s="45"/>
+      <c r="X6" s="46" t="s">
         <v>205</v>
       </c>
-      <c r="Y6" s="58"/>
-      <c r="Z6" s="57" t="s">
+      <c r="Y6" s="46"/>
+      <c r="Z6" s="43" t="s">
         <v>205</v>
       </c>
-      <c r="AA6" s="57"/>
-      <c r="AB6" s="55" t="s">
+      <c r="AA6" s="43"/>
+      <c r="AB6" s="44" t="s">
         <v>206</v>
       </c>
-      <c r="AC6" s="55"/>
-      <c r="AD6" s="55" t="s">
+      <c r="AC6" s="44"/>
+      <c r="AD6" s="44" t="s">
         <v>207</v>
       </c>
-      <c r="AE6" s="55"/>
-      <c r="AF6" s="55" t="s">
+      <c r="AE6" s="44"/>
+      <c r="AF6" s="44" t="s">
         <v>208</v>
       </c>
-      <c r="AG6" s="55"/>
-      <c r="AH6" s="55" t="s">
+      <c r="AG6" s="44"/>
+      <c r="AH6" s="44" t="s">
         <v>209</v>
       </c>
-      <c r="AI6" s="55"/>
-      <c r="AJ6" s="55" t="s">
+      <c r="AI6" s="44"/>
+      <c r="AJ6" s="44" t="s">
         <v>209</v>
       </c>
-      <c r="AK6" s="55"/>
-      <c r="AL6" s="55" t="s">
+      <c r="AK6" s="44"/>
+      <c r="AL6" s="44" t="s">
         <v>209</v>
       </c>
-      <c r="AM6" s="55"/>
-      <c r="AN6" s="50" t="s">
+      <c r="AM6" s="44"/>
+      <c r="AN6" s="36" t="s">
         <v>210</v>
       </c>
-      <c r="AO6" s="51"/>
+      <c r="AO6" s="37"/>
     </row>
     <row r="7" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="35" t="s">
         <v>212</v>
       </c>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47" t="s">
+      <c r="C7" s="35"/>
+      <c r="D7" s="35" t="s">
         <v>212</v>
       </c>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47" t="s">
+      <c r="E7" s="35"/>
+      <c r="F7" s="35" t="s">
         <v>212</v>
       </c>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47" t="s">
+      <c r="G7" s="35"/>
+      <c r="H7" s="35" t="s">
         <v>213</v>
       </c>
-      <c r="I7" s="47"/>
-      <c r="J7" s="48" t="s">
+      <c r="I7" s="35"/>
+      <c r="J7" s="38" t="s">
         <v>214</v>
       </c>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48" t="s">
+      <c r="K7" s="38"/>
+      <c r="L7" s="38" t="s">
         <v>214</v>
       </c>
-      <c r="M7" s="48"/>
-      <c r="N7" s="48" t="s">
+      <c r="M7" s="38"/>
+      <c r="N7" s="38" t="s">
         <v>214</v>
       </c>
-      <c r="O7" s="48"/>
-      <c r="P7" s="48" t="s">
+      <c r="O7" s="38"/>
+      <c r="P7" s="38" t="s">
         <v>214</v>
       </c>
-      <c r="Q7" s="48"/>
-      <c r="R7" s="48" t="s">
+      <c r="Q7" s="38"/>
+      <c r="R7" s="38" t="s">
         <v>214</v>
       </c>
-      <c r="S7" s="48"/>
-      <c r="T7" s="48" t="s">
+      <c r="S7" s="38"/>
+      <c r="T7" s="38" t="s">
         <v>214</v>
       </c>
-      <c r="U7" s="48"/>
-      <c r="V7" s="48" t="s">
+      <c r="U7" s="38"/>
+      <c r="V7" s="38" t="s">
         <v>214</v>
       </c>
-      <c r="W7" s="48"/>
-      <c r="X7" s="49" t="s">
+      <c r="W7" s="38"/>
+      <c r="X7" s="39" t="s">
         <v>214</v>
       </c>
-      <c r="Y7" s="49"/>
-      <c r="Z7" s="46" t="s">
+      <c r="Y7" s="39"/>
+      <c r="Z7" s="40" t="s">
         <v>214</v>
       </c>
-      <c r="AA7" s="46"/>
-      <c r="AB7" s="47" t="s">
+      <c r="AA7" s="40"/>
+      <c r="AB7" s="35" t="s">
         <v>213</v>
       </c>
-      <c r="AC7" s="47"/>
-      <c r="AD7" s="47" t="s">
+      <c r="AC7" s="35"/>
+      <c r="AD7" s="35" t="s">
         <v>215</v>
       </c>
-      <c r="AE7" s="47"/>
-      <c r="AF7" s="47" t="s">
+      <c r="AE7" s="35"/>
+      <c r="AF7" s="35" t="s">
         <v>213</v>
       </c>
-      <c r="AG7" s="47"/>
-      <c r="AH7" s="47" t="s">
+      <c r="AG7" s="35"/>
+      <c r="AH7" s="35" t="s">
         <v>213</v>
       </c>
-      <c r="AI7" s="47"/>
-      <c r="AJ7" s="47" t="s">
+      <c r="AI7" s="35"/>
+      <c r="AJ7" s="35" t="s">
         <v>213</v>
       </c>
-      <c r="AK7" s="47"/>
-      <c r="AL7" s="47" t="s">
+      <c r="AK7" s="35"/>
+      <c r="AL7" s="35" t="s">
         <v>213</v>
       </c>
-      <c r="AM7" s="47"/>
-      <c r="AN7" s="50" t="s">
+      <c r="AM7" s="35"/>
+      <c r="AN7" s="36" t="s">
         <v>213</v>
       </c>
-      <c r="AO7" s="51"/>
+      <c r="AO7" s="37"/>
     </row>
     <row r="8" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="34" t="s">
         <v>217</v>
       </c>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59" t="s">
+      <c r="C8" s="34"/>
+      <c r="D8" s="34" t="s">
         <v>218</v>
       </c>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59" t="s">
+      <c r="E8" s="34"/>
+      <c r="F8" s="34" t="s">
         <v>219</v>
       </c>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59" t="s">
+      <c r="G8" s="34"/>
+      <c r="H8" s="34" t="s">
         <v>220</v>
       </c>
-      <c r="I8" s="59"/>
-      <c r="J8" s="59" t="s">
+      <c r="I8" s="34"/>
+      <c r="J8" s="34" t="s">
         <v>221</v>
       </c>
-      <c r="K8" s="59"/>
-      <c r="L8" s="59" t="s">
+      <c r="K8" s="34"/>
+      <c r="L8" s="34" t="s">
         <v>222</v>
       </c>
-      <c r="M8" s="59"/>
-      <c r="N8" s="59" t="s">
+      <c r="M8" s="34"/>
+      <c r="N8" s="34" t="s">
         <v>222</v>
       </c>
-      <c r="O8" s="59"/>
-      <c r="P8" s="59" t="s">
+      <c r="O8" s="34"/>
+      <c r="P8" s="34" t="s">
         <v>222</v>
       </c>
-      <c r="Q8" s="59"/>
-      <c r="R8" s="59" t="s">
+      <c r="Q8" s="34"/>
+      <c r="R8" s="34" t="s">
         <v>222</v>
       </c>
-      <c r="S8" s="59"/>
-      <c r="T8" s="59" t="s">
+      <c r="S8" s="34"/>
+      <c r="T8" s="34" t="s">
         <v>222</v>
       </c>
-      <c r="U8" s="59"/>
-      <c r="V8" s="59" t="s">
+      <c r="U8" s="34"/>
+      <c r="V8" s="34" t="s">
         <v>223</v>
       </c>
-      <c r="W8" s="59"/>
-      <c r="X8" s="59" t="s">
+      <c r="W8" s="34"/>
+      <c r="X8" s="34" t="s">
         <v>224</v>
       </c>
-      <c r="Y8" s="59"/>
-      <c r="Z8" s="59" t="s">
+      <c r="Y8" s="34"/>
+      <c r="Z8" s="34" t="s">
         <v>224</v>
       </c>
-      <c r="AA8" s="59"/>
-      <c r="AB8" s="59" t="s">
+      <c r="AA8" s="34"/>
+      <c r="AB8" s="34" t="s">
         <v>224</v>
       </c>
-      <c r="AC8" s="59"/>
-      <c r="AD8" s="59" t="s">
+      <c r="AC8" s="34"/>
+      <c r="AD8" s="34" t="s">
         <v>225</v>
       </c>
-      <c r="AE8" s="59"/>
-      <c r="AF8" s="59" t="s">
+      <c r="AE8" s="34"/>
+      <c r="AF8" s="34" t="s">
         <v>226</v>
       </c>
-      <c r="AG8" s="59"/>
-      <c r="AH8" s="59" t="s">
+      <c r="AG8" s="34"/>
+      <c r="AH8" s="34" t="s">
         <v>227</v>
       </c>
-      <c r="AI8" s="59"/>
-      <c r="AJ8" s="59" t="s">
+      <c r="AI8" s="34"/>
+      <c r="AJ8" s="34" t="s">
         <v>227</v>
       </c>
-      <c r="AK8" s="59"/>
-      <c r="AL8" s="59" t="s">
+      <c r="AK8" s="34"/>
+      <c r="AL8" s="34" t="s">
         <v>227</v>
       </c>
-      <c r="AM8" s="59"/>
-      <c r="AN8" s="60" t="s">
+      <c r="AM8" s="34"/>
+      <c r="AN8" s="41" t="s">
         <v>228</v>
       </c>
-      <c r="AO8" s="61"/>
+      <c r="AO8" s="42"/>
     </row>
     <row r="9" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
@@ -8807,37 +8816,107 @@
     </row>
   </sheetData>
   <mergeCells count="156">
-    <mergeCell ref="AJ8:AK8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="AL7:AM7"/>
-    <mergeCell ref="AN7:AO7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AL8:AM8"/>
-    <mergeCell ref="AN8:AO8"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AF7:AG7"/>
-    <mergeCell ref="AH7:AI7"/>
-    <mergeCell ref="Z8:AA8"/>
-    <mergeCell ref="AB8:AC8"/>
-    <mergeCell ref="AD8:AE8"/>
-    <mergeCell ref="AF8:AG8"/>
-    <mergeCell ref="AH8:AI8"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="AL1:AM1"/>
+    <mergeCell ref="AN1:AO1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="AH1:AI1"/>
+    <mergeCell ref="AJ1:AK1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="AN2:AO2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="AJ2:AK2"/>
+    <mergeCell ref="AL2:AM2"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AH2:AI2"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="Z4:AA4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="AN5:AO5"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="T5:U5"/>
+    <mergeCell ref="V5:W5"/>
+    <mergeCell ref="X5:Y5"/>
+    <mergeCell ref="Z5:AA5"/>
+    <mergeCell ref="AB5:AC5"/>
+    <mergeCell ref="AL4:AM4"/>
+    <mergeCell ref="AN4:AO4"/>
+    <mergeCell ref="AB4:AC4"/>
+    <mergeCell ref="AD4:AE4"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="AH4:AI4"/>
+    <mergeCell ref="AJ4:AK4"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="AD5:AE5"/>
+    <mergeCell ref="AF5:AG5"/>
+    <mergeCell ref="AH5:AI5"/>
+    <mergeCell ref="AJ5:AK5"/>
+    <mergeCell ref="AL5:AM5"/>
+    <mergeCell ref="AL6:AM6"/>
     <mergeCell ref="AN6:AO6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
@@ -8862,107 +8941,37 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="AJ7:AK7"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="AD5:AE5"/>
-    <mergeCell ref="AF5:AG5"/>
-    <mergeCell ref="AH5:AI5"/>
-    <mergeCell ref="AJ5:AK5"/>
-    <mergeCell ref="AL5:AM5"/>
-    <mergeCell ref="AL6:AM6"/>
-    <mergeCell ref="AN5:AO5"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="T5:U5"/>
-    <mergeCell ref="V5:W5"/>
-    <mergeCell ref="X5:Y5"/>
-    <mergeCell ref="Z5:AA5"/>
-    <mergeCell ref="AB5:AC5"/>
-    <mergeCell ref="AL4:AM4"/>
-    <mergeCell ref="AN4:AO4"/>
-    <mergeCell ref="AB4:AC4"/>
-    <mergeCell ref="AD4:AE4"/>
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="AH4:AI4"/>
-    <mergeCell ref="AJ4:AK4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="Z4:AA4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="V4:W4"/>
-    <mergeCell ref="X4:Y4"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="AJ2:AK2"/>
-    <mergeCell ref="AL2:AM2"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AH2:AI2"/>
-    <mergeCell ref="AL1:AM1"/>
-    <mergeCell ref="AN1:AO1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="AH1:AI1"/>
-    <mergeCell ref="AJ1:AK1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="AN2:AO2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="X2:Y2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AG7"/>
+    <mergeCell ref="AH7:AI7"/>
+    <mergeCell ref="Z8:AA8"/>
+    <mergeCell ref="AB8:AC8"/>
+    <mergeCell ref="AD8:AE8"/>
+    <mergeCell ref="AF8:AG8"/>
+    <mergeCell ref="AH8:AI8"/>
+    <mergeCell ref="AJ8:AK8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="AL7:AM7"/>
+    <mergeCell ref="AN7:AO7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AL8:AM8"/>
+    <mergeCell ref="AN8:AO8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/inst/SWO_Data.xlsx
+++ b/inst/SWO_Data.xlsx
@@ -1484,58 +1484,22 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="24" fillId="0" borderId="18" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="10" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="42" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="12" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="42" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="42" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="12" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="44" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="13" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="12" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="15" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="42" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1550,22 +1514,58 @@
     <xf numFmtId="16" fontId="19" fillId="34" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="42" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="16" fontId="19" fillId="35" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="12" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="42" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="13" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="12" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="15" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="12" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="42" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="10" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1929,7 +1929,7 @@
   <dimension ref="A1:BT94"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J57" sqref="J57"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1989,9 +1989,6 @@
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
-      </c>
-      <c r="B7">
-        <v>13200</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -3195,234 +3192,234 @@
       <c r="A1" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="35" t="s">
         <v>166</v>
       </c>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57" t="s">
+      <c r="C1" s="35"/>
+      <c r="D1" s="35" t="s">
         <v>167</v>
       </c>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57" t="s">
+      <c r="E1" s="35"/>
+      <c r="F1" s="35" t="s">
         <v>168</v>
       </c>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57" t="s">
+      <c r="G1" s="35"/>
+      <c r="H1" s="35" t="s">
         <v>169</v>
       </c>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57" t="s">
+      <c r="I1" s="35"/>
+      <c r="J1" s="35" t="s">
         <v>170</v>
       </c>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57" t="s">
+      <c r="K1" s="35"/>
+      <c r="L1" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57" t="s">
+      <c r="M1" s="35"/>
+      <c r="N1" s="35" t="s">
         <v>172</v>
       </c>
-      <c r="O1" s="57"/>
-      <c r="P1" s="57" t="s">
+      <c r="O1" s="35"/>
+      <c r="P1" s="35" t="s">
         <v>173</v>
       </c>
-      <c r="Q1" s="57"/>
-      <c r="R1" s="57" t="s">
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35" t="s">
         <v>174</v>
       </c>
-      <c r="S1" s="57"/>
-      <c r="T1" s="57" t="s">
+      <c r="S1" s="35"/>
+      <c r="T1" s="35" t="s">
         <v>175</v>
       </c>
-      <c r="U1" s="57"/>
-      <c r="V1" s="61" t="s">
+      <c r="U1" s="35"/>
+      <c r="V1" s="34" t="s">
         <v>176</v>
       </c>
-      <c r="W1" s="61"/>
-      <c r="X1" s="61" t="s">
+      <c r="W1" s="34"/>
+      <c r="X1" s="34" t="s">
         <v>177</v>
       </c>
-      <c r="Y1" s="61"/>
-      <c r="Z1" s="59" t="s">
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="38" t="s">
         <v>178</v>
       </c>
-      <c r="AA1" s="59"/>
-      <c r="AB1" s="57" t="s">
+      <c r="AA1" s="38"/>
+      <c r="AB1" s="35" t="s">
         <v>179</v>
       </c>
-      <c r="AC1" s="57"/>
-      <c r="AD1" s="57" t="s">
+      <c r="AC1" s="35"/>
+      <c r="AD1" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="AE1" s="57"/>
-      <c r="AF1" s="57" t="s">
+      <c r="AE1" s="35"/>
+      <c r="AF1" s="35" t="s">
         <v>181</v>
       </c>
-      <c r="AG1" s="57"/>
-      <c r="AH1" s="57" t="s">
+      <c r="AG1" s="35"/>
+      <c r="AH1" s="35" t="s">
         <v>182</v>
       </c>
-      <c r="AI1" s="57"/>
-      <c r="AJ1" s="57" t="s">
+      <c r="AI1" s="35"/>
+      <c r="AJ1" s="35" t="s">
         <v>183</v>
       </c>
-      <c r="AK1" s="57"/>
-      <c r="AL1" s="57" t="s">
+      <c r="AK1" s="35"/>
+      <c r="AL1" s="35" t="s">
         <v>184</v>
       </c>
-      <c r="AM1" s="57"/>
-      <c r="AN1" s="57" t="s">
+      <c r="AM1" s="35"/>
+      <c r="AN1" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="AO1" s="58"/>
+      <c r="AO1" s="37"/>
     </row>
     <row r="2" spans="1:41" ht="36.5" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="36" t="s">
         <v>187</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51" t="s">
+      <c r="C2" s="36"/>
+      <c r="D2" s="36" t="s">
         <v>187</v>
       </c>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51" t="s">
+      <c r="E2" s="36"/>
+      <c r="F2" s="36" t="s">
         <v>188</v>
       </c>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51" t="s">
+      <c r="G2" s="36"/>
+      <c r="H2" s="36" t="s">
         <v>188</v>
       </c>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51" t="s">
+      <c r="I2" s="36"/>
+      <c r="J2" s="36" t="s">
         <v>188</v>
       </c>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51" t="s">
+      <c r="K2" s="36"/>
+      <c r="L2" s="36" t="s">
         <v>188</v>
       </c>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51" t="s">
+      <c r="M2" s="36"/>
+      <c r="N2" s="36" t="s">
         <v>188</v>
       </c>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51" t="s">
+      <c r="O2" s="36"/>
+      <c r="P2" s="36" t="s">
         <v>188</v>
       </c>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="51" t="s">
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36" t="s">
         <v>188</v>
       </c>
-      <c r="S2" s="51"/>
-      <c r="T2" s="51" t="s">
+      <c r="S2" s="36"/>
+      <c r="T2" s="36" t="s">
         <v>188</v>
       </c>
-      <c r="U2" s="51"/>
-      <c r="V2" s="51" t="s">
+      <c r="U2" s="36"/>
+      <c r="V2" s="36" t="s">
         <v>188</v>
       </c>
-      <c r="W2" s="51"/>
-      <c r="X2" s="51" t="s">
+      <c r="W2" s="36"/>
+      <c r="X2" s="36" t="s">
         <v>188</v>
       </c>
-      <c r="Y2" s="51"/>
-      <c r="Z2" s="51" t="s">
+      <c r="Y2" s="36"/>
+      <c r="Z2" s="36" t="s">
         <v>188</v>
       </c>
-      <c r="AA2" s="51"/>
-      <c r="AB2" s="51" t="s">
+      <c r="AA2" s="36"/>
+      <c r="AB2" s="36" t="s">
         <v>188</v>
       </c>
-      <c r="AC2" s="51"/>
-      <c r="AD2" s="51" t="s">
+      <c r="AC2" s="36"/>
+      <c r="AD2" s="36" t="s">
         <v>187</v>
       </c>
-      <c r="AE2" s="51"/>
-      <c r="AF2" s="51" t="s">
+      <c r="AE2" s="36"/>
+      <c r="AF2" s="36" t="s">
         <v>188</v>
       </c>
-      <c r="AG2" s="51"/>
-      <c r="AH2" s="51" t="s">
+      <c r="AG2" s="36"/>
+      <c r="AH2" s="36" t="s">
         <v>187</v>
       </c>
-      <c r="AI2" s="51"/>
-      <c r="AJ2" s="51" t="s">
+      <c r="AI2" s="36"/>
+      <c r="AJ2" s="36" t="s">
         <v>187</v>
       </c>
-      <c r="AK2" s="51"/>
-      <c r="AL2" s="51" t="s">
+      <c r="AK2" s="36"/>
+      <c r="AL2" s="36" t="s">
         <v>187</v>
       </c>
-      <c r="AM2" s="51"/>
-      <c r="AN2" s="51" t="s">
+      <c r="AM2" s="36"/>
+      <c r="AN2" s="36" t="s">
         <v>188</v>
       </c>
-      <c r="AO2" s="60"/>
+      <c r="AO2" s="39"/>
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="41" t="s">
         <v>190</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53" t="s">
+      <c r="C3" s="41"/>
+      <c r="D3" s="41" t="s">
         <v>190</v>
       </c>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53" t="s">
+      <c r="E3" s="41"/>
+      <c r="F3" s="41" t="s">
         <v>190</v>
       </c>
-      <c r="G3" s="53"/>
-      <c r="H3" s="54" t="s">
+      <c r="G3" s="41"/>
+      <c r="H3" s="42" t="s">
         <v>190</v>
       </c>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="52">
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="40">
         <v>1</v>
       </c>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52">
+      <c r="M3" s="40"/>
+      <c r="N3" s="40">
         <v>2</v>
       </c>
-      <c r="O3" s="52"/>
-      <c r="P3" s="52">
+      <c r="O3" s="40"/>
+      <c r="P3" s="40">
         <v>3</v>
       </c>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="52">
+      <c r="Q3" s="40"/>
+      <c r="R3" s="40">
         <v>4</v>
       </c>
-      <c r="S3" s="52"/>
-      <c r="T3" s="47" t="s">
+      <c r="S3" s="40"/>
+      <c r="T3" s="44" t="s">
         <v>191</v>
       </c>
-      <c r="U3" s="52"/>
-      <c r="V3" s="56" t="s">
+      <c r="U3" s="40"/>
+      <c r="V3" s="45" t="s">
         <v>190</v>
       </c>
-      <c r="W3" s="56"/>
-      <c r="X3" s="56" t="s">
+      <c r="W3" s="45"/>
+      <c r="X3" s="45" t="s">
         <v>190</v>
       </c>
-      <c r="Y3" s="56"/>
-      <c r="Z3" s="55" t="s">
+      <c r="Y3" s="45"/>
+      <c r="Z3" s="43" t="s">
         <v>190</v>
       </c>
-      <c r="AA3" s="55"/>
-      <c r="AB3" s="53"/>
-      <c r="AC3" s="53"/>
-      <c r="AD3" s="53" t="s">
+      <c r="AA3" s="43"/>
+      <c r="AB3" s="41"/>
+      <c r="AC3" s="41"/>
+      <c r="AD3" s="41" t="s">
         <v>190</v>
       </c>
-      <c r="AE3" s="53"/>
-      <c r="AF3" s="53"/>
-      <c r="AG3" s="53"/>
+      <c r="AE3" s="41"/>
+      <c r="AF3" s="41"/>
+      <c r="AG3" s="41"/>
       <c r="AH3" s="7"/>
       <c r="AI3" s="7"/>
       <c r="AJ3" s="7"/>
@@ -3436,426 +3433,426 @@
       <c r="A4" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="47" t="s">
         <v>193</v>
       </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35" t="s">
+      <c r="C4" s="47"/>
+      <c r="D4" s="47" t="s">
         <v>193</v>
       </c>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35" t="s">
+      <c r="E4" s="47"/>
+      <c r="F4" s="47" t="s">
         <v>193</v>
       </c>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35" t="s">
+      <c r="G4" s="47"/>
+      <c r="H4" s="47" t="s">
         <v>194</v>
       </c>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35" t="s">
+      <c r="I4" s="47"/>
+      <c r="J4" s="47" t="s">
         <v>194</v>
       </c>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35" t="s">
+      <c r="K4" s="47"/>
+      <c r="L4" s="47" t="s">
         <v>194</v>
       </c>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35" t="s">
+      <c r="M4" s="47"/>
+      <c r="N4" s="47" t="s">
         <v>194</v>
       </c>
-      <c r="O4" s="35"/>
-      <c r="P4" s="35" t="s">
+      <c r="O4" s="47"/>
+      <c r="P4" s="47" t="s">
         <v>194</v>
       </c>
-      <c r="Q4" s="35"/>
-      <c r="R4" s="35" t="s">
+      <c r="Q4" s="47"/>
+      <c r="R4" s="47" t="s">
         <v>194</v>
       </c>
-      <c r="S4" s="35"/>
-      <c r="T4" s="35" t="s">
+      <c r="S4" s="47"/>
+      <c r="T4" s="47" t="s">
         <v>194</v>
       </c>
-      <c r="U4" s="35"/>
-      <c r="V4" s="38" t="s">
+      <c r="U4" s="47"/>
+      <c r="V4" s="48" t="s">
         <v>194</v>
       </c>
-      <c r="W4" s="38"/>
-      <c r="X4" s="39" t="s">
+      <c r="W4" s="48"/>
+      <c r="X4" s="49" t="s">
         <v>194</v>
       </c>
-      <c r="Y4" s="39"/>
-      <c r="Z4" s="40" t="s">
+      <c r="Y4" s="49"/>
+      <c r="Z4" s="46" t="s">
         <v>194</v>
       </c>
-      <c r="AA4" s="40"/>
-      <c r="AB4" s="47" t="s">
+      <c r="AA4" s="46"/>
+      <c r="AB4" s="44" t="s">
         <v>193</v>
       </c>
-      <c r="AC4" s="47"/>
-      <c r="AD4" s="47" t="s">
+      <c r="AC4" s="44"/>
+      <c r="AD4" s="44" t="s">
         <v>193</v>
       </c>
-      <c r="AE4" s="47"/>
-      <c r="AF4" s="35" t="s">
+      <c r="AE4" s="44"/>
+      <c r="AF4" s="47" t="s">
         <v>194</v>
       </c>
-      <c r="AG4" s="35"/>
-      <c r="AH4" s="35" t="s">
+      <c r="AG4" s="47"/>
+      <c r="AH4" s="47" t="s">
         <v>193</v>
       </c>
-      <c r="AI4" s="35"/>
-      <c r="AJ4" s="35" t="s">
+      <c r="AI4" s="47"/>
+      <c r="AJ4" s="47" t="s">
         <v>193</v>
       </c>
-      <c r="AK4" s="35"/>
-      <c r="AL4" s="35" t="s">
+      <c r="AK4" s="47"/>
+      <c r="AL4" s="47" t="s">
         <v>193</v>
       </c>
-      <c r="AM4" s="35"/>
-      <c r="AN4" s="36" t="s">
+      <c r="AM4" s="47"/>
+      <c r="AN4" s="50" t="s">
         <v>194</v>
       </c>
-      <c r="AO4" s="37"/>
+      <c r="AO4" s="51"/>
     </row>
     <row r="5" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="44" t="s">
         <v>196</v>
       </c>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47" t="s">
+      <c r="C5" s="44"/>
+      <c r="D5" s="44" t="s">
         <v>196</v>
       </c>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47" t="s">
+      <c r="E5" s="44"/>
+      <c r="F5" s="44" t="s">
         <v>196</v>
       </c>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47" t="s">
+      <c r="G5" s="44"/>
+      <c r="H5" s="44" t="s">
         <v>197</v>
       </c>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47" t="s">
+      <c r="I5" s="44"/>
+      <c r="J5" s="44" t="s">
         <v>197</v>
       </c>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47" t="s">
+      <c r="K5" s="44"/>
+      <c r="L5" s="44" t="s">
         <v>197</v>
       </c>
-      <c r="M5" s="47"/>
-      <c r="N5" s="47" t="s">
+      <c r="M5" s="44"/>
+      <c r="N5" s="44" t="s">
         <v>197</v>
       </c>
-      <c r="O5" s="47"/>
-      <c r="P5" s="47" t="s">
+      <c r="O5" s="44"/>
+      <c r="P5" s="44" t="s">
         <v>197</v>
       </c>
-      <c r="Q5" s="47"/>
-      <c r="R5" s="47" t="s">
+      <c r="Q5" s="44"/>
+      <c r="R5" s="44" t="s">
         <v>197</v>
       </c>
-      <c r="S5" s="47"/>
-      <c r="T5" s="47" t="s">
+      <c r="S5" s="44"/>
+      <c r="T5" s="44" t="s">
         <v>197</v>
       </c>
-      <c r="U5" s="47"/>
-      <c r="V5" s="48" t="s">
+      <c r="U5" s="44"/>
+      <c r="V5" s="52" t="s">
         <v>198</v>
       </c>
-      <c r="W5" s="48"/>
-      <c r="X5" s="49" t="s">
+      <c r="W5" s="52"/>
+      <c r="X5" s="53" t="s">
         <v>198</v>
       </c>
-      <c r="Y5" s="49"/>
-      <c r="Z5" s="50" t="s">
+      <c r="Y5" s="53"/>
+      <c r="Z5" s="54" t="s">
         <v>198</v>
       </c>
-      <c r="AA5" s="50"/>
-      <c r="AB5" s="50" t="s">
+      <c r="AA5" s="54"/>
+      <c r="AB5" s="54" t="s">
         <v>198</v>
       </c>
-      <c r="AC5" s="50"/>
-      <c r="AD5" s="47" t="s">
+      <c r="AC5" s="54"/>
+      <c r="AD5" s="44" t="s">
         <v>199</v>
       </c>
-      <c r="AE5" s="47"/>
-      <c r="AF5" s="47" t="s">
+      <c r="AE5" s="44"/>
+      <c r="AF5" s="44" t="s">
         <v>200</v>
       </c>
-      <c r="AG5" s="47"/>
-      <c r="AH5" s="47" t="s">
+      <c r="AG5" s="44"/>
+      <c r="AH5" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="AI5" s="47"/>
-      <c r="AJ5" s="47" t="s">
+      <c r="AI5" s="44"/>
+      <c r="AJ5" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="AK5" s="47"/>
-      <c r="AL5" s="47" t="s">
+      <c r="AK5" s="44"/>
+      <c r="AL5" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="AM5" s="47"/>
-      <c r="AN5" s="36" t="s">
+      <c r="AM5" s="44"/>
+      <c r="AN5" s="50" t="s">
         <v>81</v>
       </c>
-      <c r="AO5" s="37"/>
+      <c r="AO5" s="51"/>
     </row>
     <row r="6" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="55" t="s">
         <v>202</v>
       </c>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44" t="s">
+      <c r="C6" s="55"/>
+      <c r="D6" s="55" t="s">
         <v>203</v>
       </c>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44" t="s">
+      <c r="E6" s="55"/>
+      <c r="F6" s="55" t="s">
         <v>203</v>
       </c>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44" t="s">
+      <c r="G6" s="55"/>
+      <c r="H6" s="55" t="s">
         <v>204</v>
       </c>
-      <c r="I6" s="44"/>
-      <c r="J6" s="45" t="s">
+      <c r="I6" s="55"/>
+      <c r="J6" s="56" t="s">
         <v>205</v>
       </c>
-      <c r="K6" s="45"/>
-      <c r="L6" s="45" t="s">
+      <c r="K6" s="56"/>
+      <c r="L6" s="56" t="s">
         <v>205</v>
       </c>
-      <c r="M6" s="45"/>
-      <c r="N6" s="45" t="s">
+      <c r="M6" s="56"/>
+      <c r="N6" s="56" t="s">
         <v>205</v>
       </c>
-      <c r="O6" s="45"/>
-      <c r="P6" s="45" t="s">
+      <c r="O6" s="56"/>
+      <c r="P6" s="56" t="s">
         <v>205</v>
       </c>
-      <c r="Q6" s="45"/>
-      <c r="R6" s="45" t="s">
+      <c r="Q6" s="56"/>
+      <c r="R6" s="56" t="s">
         <v>205</v>
       </c>
-      <c r="S6" s="45"/>
-      <c r="T6" s="45" t="s">
+      <c r="S6" s="56"/>
+      <c r="T6" s="56" t="s">
         <v>205</v>
       </c>
-      <c r="U6" s="45"/>
-      <c r="V6" s="45" t="s">
+      <c r="U6" s="56"/>
+      <c r="V6" s="56" t="s">
         <v>205</v>
       </c>
-      <c r="W6" s="45"/>
-      <c r="X6" s="46" t="s">
+      <c r="W6" s="56"/>
+      <c r="X6" s="58" t="s">
         <v>205</v>
       </c>
-      <c r="Y6" s="46"/>
-      <c r="Z6" s="43" t="s">
+      <c r="Y6" s="58"/>
+      <c r="Z6" s="57" t="s">
         <v>205</v>
       </c>
-      <c r="AA6" s="43"/>
-      <c r="AB6" s="44" t="s">
+      <c r="AA6" s="57"/>
+      <c r="AB6" s="55" t="s">
         <v>206</v>
       </c>
-      <c r="AC6" s="44"/>
-      <c r="AD6" s="44" t="s">
+      <c r="AC6" s="55"/>
+      <c r="AD6" s="55" t="s">
         <v>207</v>
       </c>
-      <c r="AE6" s="44"/>
-      <c r="AF6" s="44" t="s">
+      <c r="AE6" s="55"/>
+      <c r="AF6" s="55" t="s">
         <v>208</v>
       </c>
-      <c r="AG6" s="44"/>
-      <c r="AH6" s="44" t="s">
+      <c r="AG6" s="55"/>
+      <c r="AH6" s="55" t="s">
         <v>209</v>
       </c>
-      <c r="AI6" s="44"/>
-      <c r="AJ6" s="44" t="s">
+      <c r="AI6" s="55"/>
+      <c r="AJ6" s="55" t="s">
         <v>209</v>
       </c>
-      <c r="AK6" s="44"/>
-      <c r="AL6" s="44" t="s">
+      <c r="AK6" s="55"/>
+      <c r="AL6" s="55" t="s">
         <v>209</v>
       </c>
-      <c r="AM6" s="44"/>
-      <c r="AN6" s="36" t="s">
+      <c r="AM6" s="55"/>
+      <c r="AN6" s="50" t="s">
         <v>210</v>
       </c>
-      <c r="AO6" s="37"/>
+      <c r="AO6" s="51"/>
     </row>
     <row r="7" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="47" t="s">
         <v>212</v>
       </c>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35" t="s">
+      <c r="C7" s="47"/>
+      <c r="D7" s="47" t="s">
         <v>212</v>
       </c>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35" t="s">
+      <c r="E7" s="47"/>
+      <c r="F7" s="47" t="s">
         <v>212</v>
       </c>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35" t="s">
+      <c r="G7" s="47"/>
+      <c r="H7" s="47" t="s">
         <v>213</v>
       </c>
-      <c r="I7" s="35"/>
-      <c r="J7" s="38" t="s">
+      <c r="I7" s="47"/>
+      <c r="J7" s="48" t="s">
         <v>214</v>
       </c>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38" t="s">
+      <c r="K7" s="48"/>
+      <c r="L7" s="48" t="s">
         <v>214</v>
       </c>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38" t="s">
+      <c r="M7" s="48"/>
+      <c r="N7" s="48" t="s">
         <v>214</v>
       </c>
-      <c r="O7" s="38"/>
-      <c r="P7" s="38" t="s">
+      <c r="O7" s="48"/>
+      <c r="P7" s="48" t="s">
         <v>214</v>
       </c>
-      <c r="Q7" s="38"/>
-      <c r="R7" s="38" t="s">
+      <c r="Q7" s="48"/>
+      <c r="R7" s="48" t="s">
         <v>214</v>
       </c>
-      <c r="S7" s="38"/>
-      <c r="T7" s="38" t="s">
+      <c r="S7" s="48"/>
+      <c r="T7" s="48" t="s">
         <v>214</v>
       </c>
-      <c r="U7" s="38"/>
-      <c r="V7" s="38" t="s">
+      <c r="U7" s="48"/>
+      <c r="V7" s="48" t="s">
         <v>214</v>
       </c>
-      <c r="W7" s="38"/>
-      <c r="X7" s="39" t="s">
+      <c r="W7" s="48"/>
+      <c r="X7" s="49" t="s">
         <v>214</v>
       </c>
-      <c r="Y7" s="39"/>
-      <c r="Z7" s="40" t="s">
+      <c r="Y7" s="49"/>
+      <c r="Z7" s="46" t="s">
         <v>214</v>
       </c>
-      <c r="AA7" s="40"/>
-      <c r="AB7" s="35" t="s">
+      <c r="AA7" s="46"/>
+      <c r="AB7" s="47" t="s">
         <v>213</v>
       </c>
-      <c r="AC7" s="35"/>
-      <c r="AD7" s="35" t="s">
+      <c r="AC7" s="47"/>
+      <c r="AD7" s="47" t="s">
         <v>215</v>
       </c>
-      <c r="AE7" s="35"/>
-      <c r="AF7" s="35" t="s">
+      <c r="AE7" s="47"/>
+      <c r="AF7" s="47" t="s">
         <v>213</v>
       </c>
-      <c r="AG7" s="35"/>
-      <c r="AH7" s="35" t="s">
+      <c r="AG7" s="47"/>
+      <c r="AH7" s="47" t="s">
         <v>213</v>
       </c>
-      <c r="AI7" s="35"/>
-      <c r="AJ7" s="35" t="s">
+      <c r="AI7" s="47"/>
+      <c r="AJ7" s="47" t="s">
         <v>213</v>
       </c>
-      <c r="AK7" s="35"/>
-      <c r="AL7" s="35" t="s">
+      <c r="AK7" s="47"/>
+      <c r="AL7" s="47" t="s">
         <v>213</v>
       </c>
-      <c r="AM7" s="35"/>
-      <c r="AN7" s="36" t="s">
+      <c r="AM7" s="47"/>
+      <c r="AN7" s="50" t="s">
         <v>213</v>
       </c>
-      <c r="AO7" s="37"/>
+      <c r="AO7" s="51"/>
     </row>
     <row r="8" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="59" t="s">
         <v>217</v>
       </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34" t="s">
+      <c r="C8" s="59"/>
+      <c r="D8" s="59" t="s">
         <v>218</v>
       </c>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34" t="s">
+      <c r="E8" s="59"/>
+      <c r="F8" s="59" t="s">
         <v>219</v>
       </c>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34" t="s">
+      <c r="G8" s="59"/>
+      <c r="H8" s="59" t="s">
         <v>220</v>
       </c>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34" t="s">
+      <c r="I8" s="59"/>
+      <c r="J8" s="59" t="s">
         <v>221</v>
       </c>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34" t="s">
+      <c r="K8" s="59"/>
+      <c r="L8" s="59" t="s">
         <v>222</v>
       </c>
-      <c r="M8" s="34"/>
-      <c r="N8" s="34" t="s">
+      <c r="M8" s="59"/>
+      <c r="N8" s="59" t="s">
         <v>222</v>
       </c>
-      <c r="O8" s="34"/>
-      <c r="P8" s="34" t="s">
+      <c r="O8" s="59"/>
+      <c r="P8" s="59" t="s">
         <v>222</v>
       </c>
-      <c r="Q8" s="34"/>
-      <c r="R8" s="34" t="s">
+      <c r="Q8" s="59"/>
+      <c r="R8" s="59" t="s">
         <v>222</v>
       </c>
-      <c r="S8" s="34"/>
-      <c r="T8" s="34" t="s">
+      <c r="S8" s="59"/>
+      <c r="T8" s="59" t="s">
         <v>222</v>
       </c>
-      <c r="U8" s="34"/>
-      <c r="V8" s="34" t="s">
+      <c r="U8" s="59"/>
+      <c r="V8" s="59" t="s">
         <v>223</v>
       </c>
-      <c r="W8" s="34"/>
-      <c r="X8" s="34" t="s">
+      <c r="W8" s="59"/>
+      <c r="X8" s="59" t="s">
         <v>224</v>
       </c>
-      <c r="Y8" s="34"/>
-      <c r="Z8" s="34" t="s">
+      <c r="Y8" s="59"/>
+      <c r="Z8" s="59" t="s">
         <v>224</v>
       </c>
-      <c r="AA8" s="34"/>
-      <c r="AB8" s="34" t="s">
+      <c r="AA8" s="59"/>
+      <c r="AB8" s="59" t="s">
         <v>224</v>
       </c>
-      <c r="AC8" s="34"/>
-      <c r="AD8" s="34" t="s">
+      <c r="AC8" s="59"/>
+      <c r="AD8" s="59" t="s">
         <v>225</v>
       </c>
-      <c r="AE8" s="34"/>
-      <c r="AF8" s="34" t="s">
+      <c r="AE8" s="59"/>
+      <c r="AF8" s="59" t="s">
         <v>226</v>
       </c>
-      <c r="AG8" s="34"/>
-      <c r="AH8" s="34" t="s">
+      <c r="AG8" s="59"/>
+      <c r="AH8" s="59" t="s">
         <v>227</v>
       </c>
-      <c r="AI8" s="34"/>
-      <c r="AJ8" s="34" t="s">
+      <c r="AI8" s="59"/>
+      <c r="AJ8" s="59" t="s">
         <v>227</v>
       </c>
-      <c r="AK8" s="34"/>
-      <c r="AL8" s="34" t="s">
+      <c r="AK8" s="59"/>
+      <c r="AL8" s="59" t="s">
         <v>227</v>
       </c>
-      <c r="AM8" s="34"/>
-      <c r="AN8" s="41" t="s">
+      <c r="AM8" s="59"/>
+      <c r="AN8" s="60" t="s">
         <v>228</v>
       </c>
-      <c r="AO8" s="42"/>
+      <c r="AO8" s="61"/>
     </row>
     <row r="9" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
@@ -8816,18 +8813,126 @@
     </row>
   </sheetData>
   <mergeCells count="156">
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="X2:Y2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="AJ8:AK8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="AL7:AM7"/>
+    <mergeCell ref="AN7:AO7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AL8:AM8"/>
+    <mergeCell ref="AN8:AO8"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AG7"/>
+    <mergeCell ref="AH7:AI7"/>
+    <mergeCell ref="Z8:AA8"/>
+    <mergeCell ref="AB8:AC8"/>
+    <mergeCell ref="AD8:AE8"/>
+    <mergeCell ref="AF8:AG8"/>
+    <mergeCell ref="AH8:AI8"/>
+    <mergeCell ref="AN6:AO6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="Z6:AA6"/>
+    <mergeCell ref="AB6:AC6"/>
+    <mergeCell ref="AD6:AE6"/>
+    <mergeCell ref="AF6:AG6"/>
+    <mergeCell ref="AH6:AI6"/>
+    <mergeCell ref="AJ6:AK6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="X6:Y6"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="AJ7:AK7"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="AD5:AE5"/>
+    <mergeCell ref="AF5:AG5"/>
+    <mergeCell ref="AH5:AI5"/>
+    <mergeCell ref="AJ5:AK5"/>
+    <mergeCell ref="AL5:AM5"/>
+    <mergeCell ref="AL6:AM6"/>
+    <mergeCell ref="AN5:AO5"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="T5:U5"/>
+    <mergeCell ref="V5:W5"/>
+    <mergeCell ref="X5:Y5"/>
+    <mergeCell ref="Z5:AA5"/>
+    <mergeCell ref="AB5:AC5"/>
+    <mergeCell ref="AL4:AM4"/>
+    <mergeCell ref="AN4:AO4"/>
+    <mergeCell ref="AB4:AC4"/>
+    <mergeCell ref="AD4:AE4"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="AH4:AI4"/>
+    <mergeCell ref="AJ4:AK4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="Z4:AA4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="AJ2:AK2"/>
+    <mergeCell ref="AL2:AM2"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="AL1:AM1"/>
     <mergeCell ref="AN1:AO1"/>
     <mergeCell ref="B2:C2"/>
@@ -8852,126 +8957,18 @@
     <mergeCell ref="R2:S2"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="V2:W2"/>
-    <mergeCell ref="AJ2:AK2"/>
-    <mergeCell ref="AL2:AM2"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AH2:AI2"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="Z4:AA4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="V4:W4"/>
-    <mergeCell ref="X4:Y4"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="AN5:AO5"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="T5:U5"/>
-    <mergeCell ref="V5:W5"/>
-    <mergeCell ref="X5:Y5"/>
-    <mergeCell ref="Z5:AA5"/>
-    <mergeCell ref="AB5:AC5"/>
-    <mergeCell ref="AL4:AM4"/>
-    <mergeCell ref="AN4:AO4"/>
-    <mergeCell ref="AB4:AC4"/>
-    <mergeCell ref="AD4:AE4"/>
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="AH4:AI4"/>
-    <mergeCell ref="AJ4:AK4"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="AD5:AE5"/>
-    <mergeCell ref="AF5:AG5"/>
-    <mergeCell ref="AH5:AI5"/>
-    <mergeCell ref="AJ5:AK5"/>
-    <mergeCell ref="AL5:AM5"/>
-    <mergeCell ref="AL6:AM6"/>
-    <mergeCell ref="AN6:AO6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="Z6:AA6"/>
-    <mergeCell ref="AB6:AC6"/>
-    <mergeCell ref="AD6:AE6"/>
-    <mergeCell ref="AF6:AG6"/>
-    <mergeCell ref="AH6:AI6"/>
-    <mergeCell ref="AJ6:AK6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="X6:Y6"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="AJ7:AK7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AF7:AG7"/>
-    <mergeCell ref="AH7:AI7"/>
-    <mergeCell ref="Z8:AA8"/>
-    <mergeCell ref="AB8:AC8"/>
-    <mergeCell ref="AD8:AE8"/>
-    <mergeCell ref="AF8:AG8"/>
-    <mergeCell ref="AH8:AI8"/>
-    <mergeCell ref="AJ8:AK8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="AL7:AM7"/>
-    <mergeCell ref="AN7:AO7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AL8:AM8"/>
-    <mergeCell ref="AN8:AO8"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AB2:AC2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/inst/SWO_Data.xlsx
+++ b/inst/SWO_Data.xlsx
@@ -739,7 +739,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -940,6 +940,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="37">
@@ -1405,7 +1411,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
@@ -1484,22 +1490,58 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="24" fillId="0" borderId="18" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="12" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="10" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="42" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="12" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="42" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="42" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="44" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="13" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="12" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="15" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="42" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1514,60 +1556,28 @@
     <xf numFmtId="16" fontId="19" fillId="34" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="42" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="16" fontId="19" fillId="35" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="42" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="12" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="13" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="12" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="15" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="12" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="42" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="10" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="45">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1929,7 +1939,7 @@
   <dimension ref="A1:BT94"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2039,6 +2049,9 @@
       <c r="A16" t="s">
         <v>13</v>
       </c>
+      <c r="B16">
+        <v>312</v>
+      </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
@@ -2049,6 +2062,9 @@
       <c r="A18" t="s">
         <v>15</v>
       </c>
+      <c r="B18">
+        <v>9.2600000000000002E-2</v>
+      </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
@@ -2059,6 +2075,9 @@
       <c r="A20" t="s">
         <v>17</v>
       </c>
+      <c r="B20" s="62">
+        <v>-3.7620200000000001</v>
+      </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
@@ -2069,6 +2088,9 @@
       <c r="A22" t="s">
         <v>19</v>
       </c>
+      <c r="B22" s="63">
+        <v>4.4499999999999997E-6</v>
+      </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
@@ -2078,6 +2100,9 @@
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>21</v>
+      </c>
+      <c r="B24">
+        <v>3.2</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
@@ -3192,234 +3217,234 @@
       <c r="A1" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="57" t="s">
         <v>166</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35" t="s">
+      <c r="C1" s="57"/>
+      <c r="D1" s="57" t="s">
         <v>167</v>
       </c>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35" t="s">
+      <c r="E1" s="57"/>
+      <c r="F1" s="57" t="s">
         <v>168</v>
       </c>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35" t="s">
+      <c r="G1" s="57"/>
+      <c r="H1" s="57" t="s">
         <v>169</v>
       </c>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35" t="s">
+      <c r="I1" s="57"/>
+      <c r="J1" s="57" t="s">
         <v>170</v>
       </c>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35" t="s">
+      <c r="K1" s="57"/>
+      <c r="L1" s="57" t="s">
         <v>171</v>
       </c>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35" t="s">
+      <c r="M1" s="57"/>
+      <c r="N1" s="57" t="s">
         <v>172</v>
       </c>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35" t="s">
+      <c r="O1" s="57"/>
+      <c r="P1" s="57" t="s">
         <v>173</v>
       </c>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35" t="s">
+      <c r="Q1" s="57"/>
+      <c r="R1" s="57" t="s">
         <v>174</v>
       </c>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35" t="s">
+      <c r="S1" s="57"/>
+      <c r="T1" s="57" t="s">
         <v>175</v>
       </c>
-      <c r="U1" s="35"/>
-      <c r="V1" s="34" t="s">
+      <c r="U1" s="57"/>
+      <c r="V1" s="61" t="s">
         <v>176</v>
       </c>
-      <c r="W1" s="34"/>
-      <c r="X1" s="34" t="s">
+      <c r="W1" s="61"/>
+      <c r="X1" s="61" t="s">
         <v>177</v>
       </c>
-      <c r="Y1" s="34"/>
-      <c r="Z1" s="38" t="s">
+      <c r="Y1" s="61"/>
+      <c r="Z1" s="59" t="s">
         <v>178</v>
       </c>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="35" t="s">
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="57" t="s">
         <v>179</v>
       </c>
-      <c r="AC1" s="35"/>
-      <c r="AD1" s="35" t="s">
+      <c r="AC1" s="57"/>
+      <c r="AD1" s="57" t="s">
         <v>180</v>
       </c>
-      <c r="AE1" s="35"/>
-      <c r="AF1" s="35" t="s">
+      <c r="AE1" s="57"/>
+      <c r="AF1" s="57" t="s">
         <v>181</v>
       </c>
-      <c r="AG1" s="35"/>
-      <c r="AH1" s="35" t="s">
+      <c r="AG1" s="57"/>
+      <c r="AH1" s="57" t="s">
         <v>182</v>
       </c>
-      <c r="AI1" s="35"/>
-      <c r="AJ1" s="35" t="s">
+      <c r="AI1" s="57"/>
+      <c r="AJ1" s="57" t="s">
         <v>183</v>
       </c>
-      <c r="AK1" s="35"/>
-      <c r="AL1" s="35" t="s">
+      <c r="AK1" s="57"/>
+      <c r="AL1" s="57" t="s">
         <v>184</v>
       </c>
-      <c r="AM1" s="35"/>
-      <c r="AN1" s="35" t="s">
+      <c r="AM1" s="57"/>
+      <c r="AN1" s="57" t="s">
         <v>185</v>
       </c>
-      <c r="AO1" s="37"/>
+      <c r="AO1" s="58"/>
     </row>
     <row r="2" spans="1:41" ht="36.5" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="51" t="s">
         <v>187</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36" t="s">
+      <c r="C2" s="51"/>
+      <c r="D2" s="51" t="s">
         <v>187</v>
       </c>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36" t="s">
+      <c r="E2" s="51"/>
+      <c r="F2" s="51" t="s">
         <v>188</v>
       </c>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36" t="s">
+      <c r="G2" s="51"/>
+      <c r="H2" s="51" t="s">
         <v>188</v>
       </c>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36" t="s">
+      <c r="I2" s="51"/>
+      <c r="J2" s="51" t="s">
         <v>188</v>
       </c>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36" t="s">
+      <c r="K2" s="51"/>
+      <c r="L2" s="51" t="s">
         <v>188</v>
       </c>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36" t="s">
+      <c r="M2" s="51"/>
+      <c r="N2" s="51" t="s">
         <v>188</v>
       </c>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36" t="s">
+      <c r="O2" s="51"/>
+      <c r="P2" s="51" t="s">
         <v>188</v>
       </c>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="36" t="s">
+      <c r="Q2" s="51"/>
+      <c r="R2" s="51" t="s">
         <v>188</v>
       </c>
-      <c r="S2" s="36"/>
-      <c r="T2" s="36" t="s">
+      <c r="S2" s="51"/>
+      <c r="T2" s="51" t="s">
         <v>188</v>
       </c>
-      <c r="U2" s="36"/>
-      <c r="V2" s="36" t="s">
+      <c r="U2" s="51"/>
+      <c r="V2" s="51" t="s">
         <v>188</v>
       </c>
-      <c r="W2" s="36"/>
-      <c r="X2" s="36" t="s">
+      <c r="W2" s="51"/>
+      <c r="X2" s="51" t="s">
         <v>188</v>
       </c>
-      <c r="Y2" s="36"/>
-      <c r="Z2" s="36" t="s">
+      <c r="Y2" s="51"/>
+      <c r="Z2" s="51" t="s">
         <v>188</v>
       </c>
-      <c r="AA2" s="36"/>
-      <c r="AB2" s="36" t="s">
+      <c r="AA2" s="51"/>
+      <c r="AB2" s="51" t="s">
         <v>188</v>
       </c>
-      <c r="AC2" s="36"/>
-      <c r="AD2" s="36" t="s">
+      <c r="AC2" s="51"/>
+      <c r="AD2" s="51" t="s">
         <v>187</v>
       </c>
-      <c r="AE2" s="36"/>
-      <c r="AF2" s="36" t="s">
+      <c r="AE2" s="51"/>
+      <c r="AF2" s="51" t="s">
         <v>188</v>
       </c>
-      <c r="AG2" s="36"/>
-      <c r="AH2" s="36" t="s">
+      <c r="AG2" s="51"/>
+      <c r="AH2" s="51" t="s">
         <v>187</v>
       </c>
-      <c r="AI2" s="36"/>
-      <c r="AJ2" s="36" t="s">
+      <c r="AI2" s="51"/>
+      <c r="AJ2" s="51" t="s">
         <v>187</v>
       </c>
-      <c r="AK2" s="36"/>
-      <c r="AL2" s="36" t="s">
+      <c r="AK2" s="51"/>
+      <c r="AL2" s="51" t="s">
         <v>187</v>
       </c>
-      <c r="AM2" s="36"/>
-      <c r="AN2" s="36" t="s">
+      <c r="AM2" s="51"/>
+      <c r="AN2" s="51" t="s">
         <v>188</v>
       </c>
-      <c r="AO2" s="39"/>
+      <c r="AO2" s="60"/>
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="53" t="s">
         <v>190</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41" t="s">
+      <c r="C3" s="53"/>
+      <c r="D3" s="53" t="s">
         <v>190</v>
       </c>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41" t="s">
+      <c r="E3" s="53"/>
+      <c r="F3" s="53" t="s">
         <v>190</v>
       </c>
-      <c r="G3" s="41"/>
-      <c r="H3" s="42" t="s">
+      <c r="G3" s="53"/>
+      <c r="H3" s="54" t="s">
         <v>190</v>
       </c>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="40">
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="52">
         <v>1</v>
       </c>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40">
+      <c r="M3" s="52"/>
+      <c r="N3" s="52">
         <v>2</v>
       </c>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40">
+      <c r="O3" s="52"/>
+      <c r="P3" s="52">
         <v>3</v>
       </c>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="40">
+      <c r="Q3" s="52"/>
+      <c r="R3" s="52">
         <v>4</v>
       </c>
-      <c r="S3" s="40"/>
-      <c r="T3" s="44" t="s">
+      <c r="S3" s="52"/>
+      <c r="T3" s="47" t="s">
         <v>191</v>
       </c>
-      <c r="U3" s="40"/>
-      <c r="V3" s="45" t="s">
+      <c r="U3" s="52"/>
+      <c r="V3" s="56" t="s">
         <v>190</v>
       </c>
-      <c r="W3" s="45"/>
-      <c r="X3" s="45" t="s">
+      <c r="W3" s="56"/>
+      <c r="X3" s="56" t="s">
         <v>190</v>
       </c>
-      <c r="Y3" s="45"/>
-      <c r="Z3" s="43" t="s">
+      <c r="Y3" s="56"/>
+      <c r="Z3" s="55" t="s">
         <v>190</v>
       </c>
-      <c r="AA3" s="43"/>
-      <c r="AB3" s="41"/>
-      <c r="AC3" s="41"/>
-      <c r="AD3" s="41" t="s">
+      <c r="AA3" s="55"/>
+      <c r="AB3" s="53"/>
+      <c r="AC3" s="53"/>
+      <c r="AD3" s="53" t="s">
         <v>190</v>
       </c>
-      <c r="AE3" s="41"/>
-      <c r="AF3" s="41"/>
-      <c r="AG3" s="41"/>
+      <c r="AE3" s="53"/>
+      <c r="AF3" s="53"/>
+      <c r="AG3" s="53"/>
       <c r="AH3" s="7"/>
       <c r="AI3" s="7"/>
       <c r="AJ3" s="7"/>
@@ -3433,426 +3458,426 @@
       <c r="A4" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="35" t="s">
         <v>193</v>
       </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47" t="s">
+      <c r="C4" s="35"/>
+      <c r="D4" s="35" t="s">
         <v>193</v>
       </c>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47" t="s">
+      <c r="E4" s="35"/>
+      <c r="F4" s="35" t="s">
         <v>193</v>
       </c>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47" t="s">
+      <c r="G4" s="35"/>
+      <c r="H4" s="35" t="s">
         <v>194</v>
       </c>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47" t="s">
+      <c r="I4" s="35"/>
+      <c r="J4" s="35" t="s">
         <v>194</v>
       </c>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47" t="s">
+      <c r="K4" s="35"/>
+      <c r="L4" s="35" t="s">
         <v>194</v>
       </c>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47" t="s">
+      <c r="M4" s="35"/>
+      <c r="N4" s="35" t="s">
         <v>194</v>
       </c>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47" t="s">
+      <c r="O4" s="35"/>
+      <c r="P4" s="35" t="s">
         <v>194</v>
       </c>
-      <c r="Q4" s="47"/>
-      <c r="R4" s="47" t="s">
+      <c r="Q4" s="35"/>
+      <c r="R4" s="35" t="s">
         <v>194</v>
       </c>
-      <c r="S4" s="47"/>
-      <c r="T4" s="47" t="s">
+      <c r="S4" s="35"/>
+      <c r="T4" s="35" t="s">
         <v>194</v>
       </c>
-      <c r="U4" s="47"/>
-      <c r="V4" s="48" t="s">
+      <c r="U4" s="35"/>
+      <c r="V4" s="38" t="s">
         <v>194</v>
       </c>
-      <c r="W4" s="48"/>
-      <c r="X4" s="49" t="s">
+      <c r="W4" s="38"/>
+      <c r="X4" s="39" t="s">
         <v>194</v>
       </c>
-      <c r="Y4" s="49"/>
-      <c r="Z4" s="46" t="s">
+      <c r="Y4" s="39"/>
+      <c r="Z4" s="40" t="s">
         <v>194</v>
       </c>
-      <c r="AA4" s="46"/>
-      <c r="AB4" s="44" t="s">
+      <c r="AA4" s="40"/>
+      <c r="AB4" s="47" t="s">
         <v>193</v>
       </c>
-      <c r="AC4" s="44"/>
-      <c r="AD4" s="44" t="s">
+      <c r="AC4" s="47"/>
+      <c r="AD4" s="47" t="s">
         <v>193</v>
       </c>
-      <c r="AE4" s="44"/>
-      <c r="AF4" s="47" t="s">
+      <c r="AE4" s="47"/>
+      <c r="AF4" s="35" t="s">
         <v>194</v>
       </c>
-      <c r="AG4" s="47"/>
-      <c r="AH4" s="47" t="s">
+      <c r="AG4" s="35"/>
+      <c r="AH4" s="35" t="s">
         <v>193</v>
       </c>
-      <c r="AI4" s="47"/>
-      <c r="AJ4" s="47" t="s">
+      <c r="AI4" s="35"/>
+      <c r="AJ4" s="35" t="s">
         <v>193</v>
       </c>
-      <c r="AK4" s="47"/>
-      <c r="AL4" s="47" t="s">
+      <c r="AK4" s="35"/>
+      <c r="AL4" s="35" t="s">
         <v>193</v>
       </c>
-      <c r="AM4" s="47"/>
-      <c r="AN4" s="50" t="s">
+      <c r="AM4" s="35"/>
+      <c r="AN4" s="36" t="s">
         <v>194</v>
       </c>
-      <c r="AO4" s="51"/>
+      <c r="AO4" s="37"/>
     </row>
     <row r="5" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="47" t="s">
         <v>196</v>
       </c>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44" t="s">
+      <c r="C5" s="47"/>
+      <c r="D5" s="47" t="s">
         <v>196</v>
       </c>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44" t="s">
+      <c r="E5" s="47"/>
+      <c r="F5" s="47" t="s">
         <v>196</v>
       </c>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44" t="s">
+      <c r="G5" s="47"/>
+      <c r="H5" s="47" t="s">
         <v>197</v>
       </c>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44" t="s">
+      <c r="I5" s="47"/>
+      <c r="J5" s="47" t="s">
         <v>197</v>
       </c>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44" t="s">
+      <c r="K5" s="47"/>
+      <c r="L5" s="47" t="s">
         <v>197</v>
       </c>
-      <c r="M5" s="44"/>
-      <c r="N5" s="44" t="s">
+      <c r="M5" s="47"/>
+      <c r="N5" s="47" t="s">
         <v>197</v>
       </c>
-      <c r="O5" s="44"/>
-      <c r="P5" s="44" t="s">
+      <c r="O5" s="47"/>
+      <c r="P5" s="47" t="s">
         <v>197</v>
       </c>
-      <c r="Q5" s="44"/>
-      <c r="R5" s="44" t="s">
+      <c r="Q5" s="47"/>
+      <c r="R5" s="47" t="s">
         <v>197</v>
       </c>
-      <c r="S5" s="44"/>
-      <c r="T5" s="44" t="s">
+      <c r="S5" s="47"/>
+      <c r="T5" s="47" t="s">
         <v>197</v>
       </c>
-      <c r="U5" s="44"/>
-      <c r="V5" s="52" t="s">
+      <c r="U5" s="47"/>
+      <c r="V5" s="48" t="s">
         <v>198</v>
       </c>
-      <c r="W5" s="52"/>
-      <c r="X5" s="53" t="s">
+      <c r="W5" s="48"/>
+      <c r="X5" s="49" t="s">
         <v>198</v>
       </c>
-      <c r="Y5" s="53"/>
-      <c r="Z5" s="54" t="s">
+      <c r="Y5" s="49"/>
+      <c r="Z5" s="50" t="s">
         <v>198</v>
       </c>
-      <c r="AA5" s="54"/>
-      <c r="AB5" s="54" t="s">
+      <c r="AA5" s="50"/>
+      <c r="AB5" s="50" t="s">
         <v>198</v>
       </c>
-      <c r="AC5" s="54"/>
-      <c r="AD5" s="44" t="s">
+      <c r="AC5" s="50"/>
+      <c r="AD5" s="47" t="s">
         <v>199</v>
       </c>
-      <c r="AE5" s="44"/>
-      <c r="AF5" s="44" t="s">
+      <c r="AE5" s="47"/>
+      <c r="AF5" s="47" t="s">
         <v>200</v>
       </c>
-      <c r="AG5" s="44"/>
-      <c r="AH5" s="44" t="s">
+      <c r="AG5" s="47"/>
+      <c r="AH5" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="AI5" s="44"/>
-      <c r="AJ5" s="44" t="s">
+      <c r="AI5" s="47"/>
+      <c r="AJ5" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="AK5" s="44"/>
-      <c r="AL5" s="44" t="s">
+      <c r="AK5" s="47"/>
+      <c r="AL5" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="AM5" s="44"/>
-      <c r="AN5" s="50" t="s">
+      <c r="AM5" s="47"/>
+      <c r="AN5" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="AO5" s="51"/>
+      <c r="AO5" s="37"/>
     </row>
     <row r="6" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="B6" s="55" t="s">
+      <c r="B6" s="44" t="s">
         <v>202</v>
       </c>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55" t="s">
+      <c r="C6" s="44"/>
+      <c r="D6" s="44" t="s">
         <v>203</v>
       </c>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55" t="s">
+      <c r="E6" s="44"/>
+      <c r="F6" s="44" t="s">
         <v>203</v>
       </c>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55" t="s">
+      <c r="G6" s="44"/>
+      <c r="H6" s="44" t="s">
         <v>204</v>
       </c>
-      <c r="I6" s="55"/>
-      <c r="J6" s="56" t="s">
+      <c r="I6" s="44"/>
+      <c r="J6" s="45" t="s">
         <v>205</v>
       </c>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56" t="s">
+      <c r="K6" s="45"/>
+      <c r="L6" s="45" t="s">
         <v>205</v>
       </c>
-      <c r="M6" s="56"/>
-      <c r="N6" s="56" t="s">
+      <c r="M6" s="45"/>
+      <c r="N6" s="45" t="s">
         <v>205</v>
       </c>
-      <c r="O6" s="56"/>
-      <c r="P6" s="56" t="s">
+      <c r="O6" s="45"/>
+      <c r="P6" s="45" t="s">
         <v>205</v>
       </c>
-      <c r="Q6" s="56"/>
-      <c r="R6" s="56" t="s">
+      <c r="Q6" s="45"/>
+      <c r="R6" s="45" t="s">
         <v>205</v>
       </c>
-      <c r="S6" s="56"/>
-      <c r="T6" s="56" t="s">
+      <c r="S6" s="45"/>
+      <c r="T6" s="45" t="s">
         <v>205</v>
       </c>
-      <c r="U6" s="56"/>
-      <c r="V6" s="56" t="s">
+      <c r="U6" s="45"/>
+      <c r="V6" s="45" t="s">
         <v>205</v>
       </c>
-      <c r="W6" s="56"/>
-      <c r="X6" s="58" t="s">
+      <c r="W6" s="45"/>
+      <c r="X6" s="46" t="s">
         <v>205</v>
       </c>
-      <c r="Y6" s="58"/>
-      <c r="Z6" s="57" t="s">
+      <c r="Y6" s="46"/>
+      <c r="Z6" s="43" t="s">
         <v>205</v>
       </c>
-      <c r="AA6" s="57"/>
-      <c r="AB6" s="55" t="s">
+      <c r="AA6" s="43"/>
+      <c r="AB6" s="44" t="s">
         <v>206</v>
       </c>
-      <c r="AC6" s="55"/>
-      <c r="AD6" s="55" t="s">
+      <c r="AC6" s="44"/>
+      <c r="AD6" s="44" t="s">
         <v>207</v>
       </c>
-      <c r="AE6" s="55"/>
-      <c r="AF6" s="55" t="s">
+      <c r="AE6" s="44"/>
+      <c r="AF6" s="44" t="s">
         <v>208</v>
       </c>
-      <c r="AG6" s="55"/>
-      <c r="AH6" s="55" t="s">
+      <c r="AG6" s="44"/>
+      <c r="AH6" s="44" t="s">
         <v>209</v>
       </c>
-      <c r="AI6" s="55"/>
-      <c r="AJ6" s="55" t="s">
+      <c r="AI6" s="44"/>
+      <c r="AJ6" s="44" t="s">
         <v>209</v>
       </c>
-      <c r="AK6" s="55"/>
-      <c r="AL6" s="55" t="s">
+      <c r="AK6" s="44"/>
+      <c r="AL6" s="44" t="s">
         <v>209</v>
       </c>
-      <c r="AM6" s="55"/>
-      <c r="AN6" s="50" t="s">
+      <c r="AM6" s="44"/>
+      <c r="AN6" s="36" t="s">
         <v>210</v>
       </c>
-      <c r="AO6" s="51"/>
+      <c r="AO6" s="37"/>
     </row>
     <row r="7" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="35" t="s">
         <v>212</v>
       </c>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47" t="s">
+      <c r="C7" s="35"/>
+      <c r="D7" s="35" t="s">
         <v>212</v>
       </c>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47" t="s">
+      <c r="E7" s="35"/>
+      <c r="F7" s="35" t="s">
         <v>212</v>
       </c>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47" t="s">
+      <c r="G7" s="35"/>
+      <c r="H7" s="35" t="s">
         <v>213</v>
       </c>
-      <c r="I7" s="47"/>
-      <c r="J7" s="48" t="s">
+      <c r="I7" s="35"/>
+      <c r="J7" s="38" t="s">
         <v>214</v>
       </c>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48" t="s">
+      <c r="K7" s="38"/>
+      <c r="L7" s="38" t="s">
         <v>214</v>
       </c>
-      <c r="M7" s="48"/>
-      <c r="N7" s="48" t="s">
+      <c r="M7" s="38"/>
+      <c r="N7" s="38" t="s">
         <v>214</v>
       </c>
-      <c r="O7" s="48"/>
-      <c r="P7" s="48" t="s">
+      <c r="O7" s="38"/>
+      <c r="P7" s="38" t="s">
         <v>214</v>
       </c>
-      <c r="Q7" s="48"/>
-      <c r="R7" s="48" t="s">
+      <c r="Q7" s="38"/>
+      <c r="R7" s="38" t="s">
         <v>214</v>
       </c>
-      <c r="S7" s="48"/>
-      <c r="T7" s="48" t="s">
+      <c r="S7" s="38"/>
+      <c r="T7" s="38" t="s">
         <v>214</v>
       </c>
-      <c r="U7" s="48"/>
-      <c r="V7" s="48" t="s">
+      <c r="U7" s="38"/>
+      <c r="V7" s="38" t="s">
         <v>214</v>
       </c>
-      <c r="W7" s="48"/>
-      <c r="X7" s="49" t="s">
+      <c r="W7" s="38"/>
+      <c r="X7" s="39" t="s">
         <v>214</v>
       </c>
-      <c r="Y7" s="49"/>
-      <c r="Z7" s="46" t="s">
+      <c r="Y7" s="39"/>
+      <c r="Z7" s="40" t="s">
         <v>214</v>
       </c>
-      <c r="AA7" s="46"/>
-      <c r="AB7" s="47" t="s">
+      <c r="AA7" s="40"/>
+      <c r="AB7" s="35" t="s">
         <v>213</v>
       </c>
-      <c r="AC7" s="47"/>
-      <c r="AD7" s="47" t="s">
+      <c r="AC7" s="35"/>
+      <c r="AD7" s="35" t="s">
         <v>215</v>
       </c>
-      <c r="AE7" s="47"/>
-      <c r="AF7" s="47" t="s">
+      <c r="AE7" s="35"/>
+      <c r="AF7" s="35" t="s">
         <v>213</v>
       </c>
-      <c r="AG7" s="47"/>
-      <c r="AH7" s="47" t="s">
+      <c r="AG7" s="35"/>
+      <c r="AH7" s="35" t="s">
         <v>213</v>
       </c>
-      <c r="AI7" s="47"/>
-      <c r="AJ7" s="47" t="s">
+      <c r="AI7" s="35"/>
+      <c r="AJ7" s="35" t="s">
         <v>213</v>
       </c>
-      <c r="AK7" s="47"/>
-      <c r="AL7" s="47" t="s">
+      <c r="AK7" s="35"/>
+      <c r="AL7" s="35" t="s">
         <v>213</v>
       </c>
-      <c r="AM7" s="47"/>
-      <c r="AN7" s="50" t="s">
+      <c r="AM7" s="35"/>
+      <c r="AN7" s="36" t="s">
         <v>213</v>
       </c>
-      <c r="AO7" s="51"/>
+      <c r="AO7" s="37"/>
     </row>
     <row r="8" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="34" t="s">
         <v>217</v>
       </c>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59" t="s">
+      <c r="C8" s="34"/>
+      <c r="D8" s="34" t="s">
         <v>218</v>
       </c>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59" t="s">
+      <c r="E8" s="34"/>
+      <c r="F8" s="34" t="s">
         <v>219</v>
       </c>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59" t="s">
+      <c r="G8" s="34"/>
+      <c r="H8" s="34" t="s">
         <v>220</v>
       </c>
-      <c r="I8" s="59"/>
-      <c r="J8" s="59" t="s">
+      <c r="I8" s="34"/>
+      <c r="J8" s="34" t="s">
         <v>221</v>
       </c>
-      <c r="K8" s="59"/>
-      <c r="L8" s="59" t="s">
+      <c r="K8" s="34"/>
+      <c r="L8" s="34" t="s">
         <v>222</v>
       </c>
-      <c r="M8" s="59"/>
-      <c r="N8" s="59" t="s">
+      <c r="M8" s="34"/>
+      <c r="N8" s="34" t="s">
         <v>222</v>
       </c>
-      <c r="O8" s="59"/>
-      <c r="P8" s="59" t="s">
+      <c r="O8" s="34"/>
+      <c r="P8" s="34" t="s">
         <v>222</v>
       </c>
-      <c r="Q8" s="59"/>
-      <c r="R8" s="59" t="s">
+      <c r="Q8" s="34"/>
+      <c r="R8" s="34" t="s">
         <v>222</v>
       </c>
-      <c r="S8" s="59"/>
-      <c r="T8" s="59" t="s">
+      <c r="S8" s="34"/>
+      <c r="T8" s="34" t="s">
         <v>222</v>
       </c>
-      <c r="U8" s="59"/>
-      <c r="V8" s="59" t="s">
+      <c r="U8" s="34"/>
+      <c r="V8" s="34" t="s">
         <v>223</v>
       </c>
-      <c r="W8" s="59"/>
-      <c r="X8" s="59" t="s">
+      <c r="W8" s="34"/>
+      <c r="X8" s="34" t="s">
         <v>224</v>
       </c>
-      <c r="Y8" s="59"/>
-      <c r="Z8" s="59" t="s">
+      <c r="Y8" s="34"/>
+      <c r="Z8" s="34" t="s">
         <v>224</v>
       </c>
-      <c r="AA8" s="59"/>
-      <c r="AB8" s="59" t="s">
+      <c r="AA8" s="34"/>
+      <c r="AB8" s="34" t="s">
         <v>224</v>
       </c>
-      <c r="AC8" s="59"/>
-      <c r="AD8" s="59" t="s">
+      <c r="AC8" s="34"/>
+      <c r="AD8" s="34" t="s">
         <v>225</v>
       </c>
-      <c r="AE8" s="59"/>
-      <c r="AF8" s="59" t="s">
+      <c r="AE8" s="34"/>
+      <c r="AF8" s="34" t="s">
         <v>226</v>
       </c>
-      <c r="AG8" s="59"/>
-      <c r="AH8" s="59" t="s">
+      <c r="AG8" s="34"/>
+      <c r="AH8" s="34" t="s">
         <v>227</v>
       </c>
-      <c r="AI8" s="59"/>
-      <c r="AJ8" s="59" t="s">
+      <c r="AI8" s="34"/>
+      <c r="AJ8" s="34" t="s">
         <v>227</v>
       </c>
-      <c r="AK8" s="59"/>
-      <c r="AL8" s="59" t="s">
+      <c r="AK8" s="34"/>
+      <c r="AL8" s="34" t="s">
         <v>227</v>
       </c>
-      <c r="AM8" s="59"/>
-      <c r="AN8" s="60" t="s">
+      <c r="AM8" s="34"/>
+      <c r="AN8" s="41" t="s">
         <v>228</v>
       </c>
-      <c r="AO8" s="61"/>
+      <c r="AO8" s="42"/>
     </row>
     <row r="9" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
@@ -8813,37 +8838,107 @@
     </row>
   </sheetData>
   <mergeCells count="156">
-    <mergeCell ref="AJ8:AK8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="AL7:AM7"/>
-    <mergeCell ref="AN7:AO7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AL8:AM8"/>
-    <mergeCell ref="AN8:AO8"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AF7:AG7"/>
-    <mergeCell ref="AH7:AI7"/>
-    <mergeCell ref="Z8:AA8"/>
-    <mergeCell ref="AB8:AC8"/>
-    <mergeCell ref="AD8:AE8"/>
-    <mergeCell ref="AF8:AG8"/>
-    <mergeCell ref="AH8:AI8"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="AL1:AM1"/>
+    <mergeCell ref="AN1:AO1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="AH1:AI1"/>
+    <mergeCell ref="AJ1:AK1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="AN2:AO2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="AJ2:AK2"/>
+    <mergeCell ref="AL2:AM2"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AH2:AI2"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="Z4:AA4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="AN5:AO5"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="T5:U5"/>
+    <mergeCell ref="V5:W5"/>
+    <mergeCell ref="X5:Y5"/>
+    <mergeCell ref="Z5:AA5"/>
+    <mergeCell ref="AB5:AC5"/>
+    <mergeCell ref="AL4:AM4"/>
+    <mergeCell ref="AN4:AO4"/>
+    <mergeCell ref="AB4:AC4"/>
+    <mergeCell ref="AD4:AE4"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="AH4:AI4"/>
+    <mergeCell ref="AJ4:AK4"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="AD5:AE5"/>
+    <mergeCell ref="AF5:AG5"/>
+    <mergeCell ref="AH5:AI5"/>
+    <mergeCell ref="AJ5:AK5"/>
+    <mergeCell ref="AL5:AM5"/>
+    <mergeCell ref="AL6:AM6"/>
     <mergeCell ref="AN6:AO6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
@@ -8868,107 +8963,37 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="AJ7:AK7"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="AD5:AE5"/>
-    <mergeCell ref="AF5:AG5"/>
-    <mergeCell ref="AH5:AI5"/>
-    <mergeCell ref="AJ5:AK5"/>
-    <mergeCell ref="AL5:AM5"/>
-    <mergeCell ref="AL6:AM6"/>
-    <mergeCell ref="AN5:AO5"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="T5:U5"/>
-    <mergeCell ref="V5:W5"/>
-    <mergeCell ref="X5:Y5"/>
-    <mergeCell ref="Z5:AA5"/>
-    <mergeCell ref="AB5:AC5"/>
-    <mergeCell ref="AL4:AM4"/>
-    <mergeCell ref="AN4:AO4"/>
-    <mergeCell ref="AB4:AC4"/>
-    <mergeCell ref="AD4:AE4"/>
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="AH4:AI4"/>
-    <mergeCell ref="AJ4:AK4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="Z4:AA4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="V4:W4"/>
-    <mergeCell ref="X4:Y4"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="AJ2:AK2"/>
-    <mergeCell ref="AL2:AM2"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AH2:AI2"/>
-    <mergeCell ref="AL1:AM1"/>
-    <mergeCell ref="AN1:AO1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="AH1:AI1"/>
-    <mergeCell ref="AJ1:AK1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="AN2:AO2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="X2:Y2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AG7"/>
+    <mergeCell ref="AH7:AI7"/>
+    <mergeCell ref="Z8:AA8"/>
+    <mergeCell ref="AB8:AC8"/>
+    <mergeCell ref="AD8:AE8"/>
+    <mergeCell ref="AF8:AG8"/>
+    <mergeCell ref="AH8:AI8"/>
+    <mergeCell ref="AJ8:AK8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="AL7:AM7"/>
+    <mergeCell ref="AN7:AO7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AL8:AM8"/>
+    <mergeCell ref="AN8:AO8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/inst/SWO_Data.xlsx
+++ b/inst/SWO_Data.xlsx
@@ -1,27 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\nswo-mse\inst\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adrian\GitHub\nswo-mse\inst\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C70D06-7FE2-49BA-82BC-D863A980608F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="578"/>
+    <workbookView xWindow="-1248" yWindow="2298" windowWidth="19158" windowHeight="10794" tabRatio="578" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="Indices" sheetId="3" r:id="rId2"/>
     <sheet name="Catches" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -734,7 +738,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -948,7 +952,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1152,8 +1156,14 @@
         <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -1363,6 +1373,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1411,7 +1449,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
@@ -1490,6 +1528,12 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="24" fillId="0" borderId="18" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="37" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="37" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="34" borderId="10" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1574,10 +1618,6 @@
     <xf numFmtId="0" fontId="19" fillId="35" borderId="12" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="45">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1619,12 +1659,12 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="TableStyleLight1" xfId="43"/>
+    <cellStyle name="TableStyleLight1" xfId="43" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="標準 2" xfId="42"/>
-    <cellStyle name="標準 3" xfId="44"/>
+    <cellStyle name="標準 2" xfId="42" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="標準 3" xfId="44" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1935,20 +1975,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BT94"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:BV94"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="AZ31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="BV44" sqref="BV44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="31.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.26171875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1956,7 +1996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1964,7 +2004,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1972,7 +2012,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1980,7 +2020,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1988,7 +2028,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1996,12 +2036,12 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2009,22 +2049,22 @@
         <v>232</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -2032,7 +2072,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -2040,12 +2080,12 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -2053,12 +2093,12 @@
         <v>312</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -2066,38 +2106,38 @@
         <v>9.2600000000000002E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="62">
+      <c r="B20" s="34">
         <v>-3.7620200000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="63">
+      <c r="B22" s="35">
         <v>4.4499999999999997E-6</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -2105,12 +2145,12 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -2118,12 +2158,12 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -2131,67 +2171,67 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:74" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="35" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:74" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:74" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:74" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:74" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:74" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:74" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:74" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:74" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>37</v>
       </c>
@@ -2408,8 +2448,14 @@
       <c r="BT43">
         <v>2020</v>
       </c>
-    </row>
-    <row r="44" spans="1:72" x14ac:dyDescent="0.35">
+      <c r="BU43">
+        <v>2021</v>
+      </c>
+      <c r="BV43">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="44" spans="1:74" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A44" t="s">
         <v>38</v>
       </c>
@@ -2626,573 +2672,591 @@
       <c r="BT44">
         <v>10476.290000000001</v>
       </c>
-    </row>
-    <row r="45" spans="1:72" x14ac:dyDescent="0.35">
+      <c r="BU44" s="36">
+        <v>9845</v>
+      </c>
+      <c r="BV44" s="37">
+        <v>10342</v>
+      </c>
+    </row>
+    <row r="45" spans="1:74" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:74" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:74" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="48" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:74" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>42</v>
       </c>
       <c r="O48">
-        <v>1.318605</v>
+        <v>1.1729060554442401</v>
       </c>
       <c r="P48">
-        <v>1.095566</v>
+        <v>0.94149260714539296</v>
       </c>
       <c r="Q48">
-        <v>1.3647640000000001</v>
+        <v>1.07782726103185</v>
       </c>
       <c r="R48">
-        <v>1.4400679999999999</v>
+        <v>1.09676184673105</v>
       </c>
       <c r="S48">
-        <v>1.451918</v>
+        <v>1.0958690598426299</v>
       </c>
       <c r="T48">
-        <v>1.3074699999999999</v>
+        <v>1.1848472485278101</v>
       </c>
       <c r="U48">
-        <v>1.462831</v>
+        <v>1.2711975375575899</v>
       </c>
       <c r="V48">
-        <v>1.570438</v>
+        <v>1.2544985928807699</v>
       </c>
       <c r="W48">
-        <v>1.6033489999999999</v>
+        <v>1.725115672204</v>
       </c>
       <c r="X48">
-        <v>1.806775</v>
+        <v>1.96857840019046</v>
       </c>
       <c r="Y48">
-        <v>2.2137259999999999</v>
+        <v>1.97598097355396</v>
       </c>
       <c r="Z48">
-        <v>2.1853220000000002</v>
+        <v>1.6765489072809501</v>
       </c>
       <c r="AA48">
-        <v>1.1317090000000001</v>
+        <v>1.1167348736827201</v>
       </c>
       <c r="AB48">
-        <v>0.78999900000000001</v>
+        <v>0.91087405908879604</v>
       </c>
       <c r="AC48">
-        <v>0.93801400000000001</v>
+        <v>1.1859567479816</v>
       </c>
       <c r="AD48">
-        <v>1.1304339999999999</v>
+        <v>1.46815670955703</v>
       </c>
       <c r="AE48">
-        <v>1.404217</v>
+        <v>1.1840492502297</v>
       </c>
       <c r="AF48">
-        <v>1.106725</v>
+        <v>1.13762752698306</v>
       </c>
       <c r="AG48">
-        <v>1.242977</v>
+        <v>1.0371290784265901</v>
       </c>
       <c r="AH48">
-        <v>1.1995100000000001</v>
+        <v>1.08655483400973</v>
       </c>
       <c r="AI48">
-        <v>0.93693400000000004</v>
+        <v>0.78673704951061096</v>
       </c>
       <c r="AJ48">
-        <v>0.97287800000000002</v>
+        <v>0.75726913871567103</v>
       </c>
       <c r="AK48">
-        <v>1.1170040000000001</v>
+        <v>0.99356617883180698</v>
       </c>
       <c r="AL48">
-        <v>0.78548099999999998</v>
+        <v>0.98927990929337395</v>
       </c>
       <c r="AM48">
-        <v>1.132409</v>
+        <v>1.2202550052148</v>
       </c>
       <c r="AN48">
-        <v>1.185713</v>
+        <v>1.38238043998522</v>
       </c>
       <c r="AO48">
-        <v>1.130803</v>
+        <v>1.2323817878480701</v>
       </c>
       <c r="AP48">
-        <v>1.095024</v>
+        <v>1.0477886726063701</v>
       </c>
       <c r="AQ48">
-        <v>0.92360699999999996</v>
+        <v>1.0827013397485401</v>
       </c>
       <c r="AR48">
-        <v>0.825519</v>
+        <v>0.94892839965812403</v>
       </c>
       <c r="AS48">
-        <v>0.75577000000000005</v>
+        <v>0.88075955366285696</v>
       </c>
       <c r="AT48">
-        <v>0.69422200000000001</v>
+        <v>0.83912473454579395</v>
       </c>
       <c r="AU48">
-        <v>0.67335599999999995</v>
+        <v>0.74200301646619204</v>
       </c>
       <c r="AV48">
-        <v>0.53945299999999996</v>
+        <v>0.68640585343634897</v>
       </c>
       <c r="AW48">
-        <v>0.555423</v>
+        <v>0.73597305701083804</v>
       </c>
       <c r="AX48">
-        <v>0.66369199999999995</v>
+        <v>0.68752228165741902</v>
       </c>
       <c r="AY48">
-        <v>0.67728200000000005</v>
+        <v>0.71380998338481605</v>
       </c>
       <c r="AZ48">
-        <v>0.83263200000000004</v>
+        <v>0.84618311252281697</v>
       </c>
       <c r="BA48">
-        <v>0.85589599999999999</v>
+        <v>0.94746330139814505</v>
       </c>
       <c r="BB48">
-        <v>0.85714199999999996</v>
+        <v>0.94151910747636702</v>
       </c>
       <c r="BC48">
-        <v>0.92622800000000005</v>
+        <v>0.94165251298594899</v>
       </c>
       <c r="BD48">
-        <v>0.85211800000000004</v>
+        <v>0.69813516924587504</v>
       </c>
       <c r="BE48">
-        <v>0.81701199999999996</v>
+        <v>0.65627936561181299</v>
       </c>
       <c r="BF48">
-        <v>0.79630199999999995</v>
+        <v>0.75463846093503795</v>
       </c>
       <c r="BG48">
-        <v>0.88217199999999996</v>
+        <v>0.88758612489898503</v>
       </c>
       <c r="BH48">
-        <v>0.95416999999999996</v>
+        <v>0.77180245243260803</v>
       </c>
       <c r="BI48">
-        <v>0.52909300000000004</v>
+        <v>0.81266887072670502</v>
       </c>
       <c r="BJ48">
-        <v>0.601464</v>
+        <v>0.70667031789927803</v>
       </c>
       <c r="BK48">
-        <v>0.73446999999999996</v>
+        <v>0.84931070310328305</v>
       </c>
       <c r="BL48">
-        <v>0.78979100000000002</v>
+        <v>0.88904376247430394</v>
       </c>
       <c r="BM48">
-        <v>0.668956</v>
+        <v>0.76077171276209199</v>
       </c>
       <c r="BN48">
-        <v>0.67196999999999996</v>
+        <v>0.726956265541576</v>
       </c>
       <c r="BO48">
-        <v>0.58223199999999997</v>
+        <v>0.62631104794028203</v>
       </c>
       <c r="BP48">
-        <v>0.51405500000000004</v>
+        <v>0.68150269300373401</v>
       </c>
       <c r="BQ48">
-        <v>0.53784900000000002</v>
+        <v>0.73559757063162501</v>
       </c>
       <c r="BR48">
-        <v>0.71787100000000004</v>
+        <v>0.80298935404656702</v>
       </c>
       <c r="BS48">
-        <v>0.62986600000000004</v>
+        <v>0.63326345734862399</v>
       </c>
       <c r="BT48">
-        <v>0.81972599999999995</v>
-      </c>
-    </row>
-    <row r="49" spans="1:72" x14ac:dyDescent="0.35">
+        <v>1.02176836396162</v>
+      </c>
+      <c r="BU48">
+        <v>0.83423533577710896</v>
+      </c>
+      <c r="BV48">
+        <v>1.17805729334882</v>
+      </c>
+    </row>
+    <row r="49" spans="1:74" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
         <v>43</v>
       </c>
       <c r="O49">
-        <v>0.193408</v>
+        <v>0.134376247953121</v>
       </c>
       <c r="P49">
-        <v>0.173876</v>
+        <v>9.7790006385192793E-2</v>
       </c>
       <c r="Q49">
-        <v>0.16528699999999999</v>
+        <v>9.23548104479536E-2</v>
       </c>
       <c r="R49">
-        <v>0.17680499999999999</v>
+        <v>9.4741827157202793E-2</v>
       </c>
       <c r="S49">
-        <v>0.18978600000000001</v>
+        <v>0.10258247073558301</v>
       </c>
       <c r="T49">
-        <v>0.22298200000000001</v>
+        <v>9.86269334913525E-2</v>
       </c>
       <c r="U49">
-        <v>0.21712699999999999</v>
+        <v>0.100664014295508</v>
       </c>
       <c r="V49">
-        <v>0.196634</v>
+        <v>8.5433459821280797E-2</v>
       </c>
       <c r="W49">
-        <v>0.33768900000000002</v>
+        <v>8.8507124026644804E-2</v>
       </c>
       <c r="X49">
-        <v>0.42393700000000001</v>
+        <v>9.4951829188671094E-2</v>
       </c>
       <c r="Y49">
-        <v>0.38085200000000002</v>
+        <v>9.9576190919438007E-2</v>
       </c>
       <c r="Z49">
-        <v>0.37507299999999999</v>
+        <v>9.2023645141513705E-2</v>
       </c>
       <c r="AA49">
-        <v>0.67568300000000003</v>
+        <v>9.6099651579129697E-2</v>
       </c>
       <c r="AB49">
-        <v>0.77260799999999996</v>
+        <v>0.105632862226384</v>
       </c>
       <c r="AC49">
-        <v>0.735344</v>
+        <v>0.11849197846543701</v>
       </c>
       <c r="AD49">
-        <v>0.68344400000000005</v>
+        <v>0.118815929995483</v>
       </c>
       <c r="AE49">
-        <v>0.56341600000000003</v>
+        <v>0.12497384521857501</v>
       </c>
       <c r="AF49">
-        <v>0.39146599999999998</v>
+        <v>0.11719784226862701</v>
       </c>
       <c r="AG49">
-        <v>0.28649999999999998</v>
+        <v>0.10263905478337999</v>
       </c>
       <c r="AH49">
-        <v>0.29055500000000001</v>
+        <v>0.104283589487142</v>
       </c>
       <c r="AI49">
-        <v>0.23680399999999999</v>
+        <v>0.104779912217868</v>
       </c>
       <c r="AJ49">
-        <v>0.26367099999999999</v>
+        <v>0.112032402477071</v>
       </c>
       <c r="AK49">
-        <v>0.244559</v>
+        <v>0.111774512947195</v>
       </c>
       <c r="AL49">
-        <v>0.197792</v>
+        <v>0.109690569566889</v>
       </c>
       <c r="AM49">
-        <v>0.172762</v>
+        <v>0.12185323464966299</v>
       </c>
       <c r="AN49">
-        <v>0.15341199999999999</v>
+        <v>0.102954082365791</v>
       </c>
       <c r="AO49">
-        <v>0.16728399999999999</v>
+        <v>9.3198229356375395E-2</v>
       </c>
       <c r="AP49">
-        <v>0.148122</v>
+        <v>8.4908969875681001E-2</v>
       </c>
       <c r="AQ49">
-        <v>0.15454200000000001</v>
+        <v>8.2283199731082099E-2</v>
       </c>
       <c r="AR49">
-        <v>0.14265800000000001</v>
+        <v>8.1723569424669198E-2</v>
       </c>
       <c r="AS49">
-        <v>0.148005</v>
+        <v>8.58333069296041E-2</v>
       </c>
       <c r="AT49">
-        <v>0.15285899999999999</v>
+        <v>9.4713213299986498E-2</v>
       </c>
       <c r="AU49">
-        <v>0.14749599999999999</v>
+        <v>8.7161414305245793E-2</v>
       </c>
       <c r="AV49">
-        <v>0.14938299999999999</v>
+        <v>0.104167536090322</v>
       </c>
       <c r="AW49">
-        <v>0.141212</v>
+        <v>0.12692935109877501</v>
       </c>
       <c r="AX49">
-        <v>0.14117399999999999</v>
+        <v>0.10777509572232701</v>
       </c>
       <c r="AY49">
-        <v>0.14330599999999999</v>
+        <v>0.113504286907952</v>
       </c>
       <c r="AZ49">
-        <v>0.15400700000000001</v>
+        <v>0.105919415028535</v>
       </c>
       <c r="BA49">
-        <v>0.23929400000000001</v>
+        <v>0.110753003965413</v>
       </c>
       <c r="BB49">
-        <v>0.197659</v>
+        <v>0.107419590496359</v>
       </c>
       <c r="BC49">
-        <v>0.18745200000000001</v>
+        <v>0.105681024560224</v>
       </c>
       <c r="BD49">
-        <v>0.147067</v>
+        <v>9.3607049761615102E-2</v>
       </c>
       <c r="BE49">
-        <v>0.143345</v>
+        <v>8.2500699949724296E-2</v>
       </c>
       <c r="BF49">
-        <v>0.145119</v>
+        <v>9.1129462441345802E-2</v>
       </c>
       <c r="BG49">
-        <v>0.14160800000000001</v>
+        <v>8.5532550195292906E-2</v>
       </c>
       <c r="BH49">
-        <v>0.15875400000000001</v>
+        <v>8.1048635829410298E-2</v>
       </c>
       <c r="BI49">
-        <v>0.27189400000000002</v>
+        <v>8.8589512910389898E-2</v>
       </c>
       <c r="BJ49">
-        <v>0.169735</v>
+        <v>8.8055290099277803E-2</v>
       </c>
       <c r="BK49">
-        <v>0.148757</v>
+        <v>9.0026955407398496E-2</v>
       </c>
       <c r="BL49">
-        <v>0.15090000000000001</v>
+        <v>8.4488747023662006E-2</v>
       </c>
       <c r="BM49">
-        <v>0.155858</v>
+        <v>8.6335808772263906E-2</v>
       </c>
       <c r="BN49">
-        <v>0.14710200000000001</v>
+        <v>8.9913224425587801E-2</v>
       </c>
       <c r="BO49">
-        <v>0.18215899999999999</v>
+        <v>8.6997403043124893E-2</v>
       </c>
       <c r="BP49">
-        <v>0.164353</v>
+        <v>8.7267987057855503E-2</v>
       </c>
       <c r="BQ49">
-        <v>0.16950999999999999</v>
+        <v>9.25107977938458E-2</v>
       </c>
       <c r="BR49">
-        <v>0.14879700000000001</v>
+        <v>0.11504748164331199</v>
       </c>
       <c r="BS49">
-        <v>0.15071899999999999</v>
+        <v>9.2866776783031804E-2</v>
       </c>
       <c r="BT49">
-        <v>0.14462</v>
-      </c>
-    </row>
-    <row r="50" spans="1:72" x14ac:dyDescent="0.35">
+        <v>0.10071790027183999</v>
+      </c>
+      <c r="BU49">
+        <v>9.8363962318148396E-2</v>
+      </c>
+      <c r="BV49">
+        <v>0.104856552857202</v>
+      </c>
+    </row>
+    <row r="50" spans="1:74" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="2"/>
     </row>
-    <row r="51" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:74" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="2"/>
     </row>
-    <row r="52" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:74" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="2"/>
     </row>
-    <row r="53" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:74" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="2"/>
     </row>
-    <row r="54" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:74" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="2"/>
     </row>
-    <row r="55" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:74" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="2"/>
     </row>
-    <row r="56" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:74" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="2"/>
     </row>
-    <row r="57" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:74" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="2"/>
     </row>
-    <row r="58" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:74" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="2"/>
     </row>
-    <row r="59" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:74" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="60" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:74" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="61" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:74" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="62" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:74" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="63" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:74" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" t="s">
         <v>77</v>
       </c>
@@ -3204,247 +3268,247 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AO65"/>
   <sheetViews>
     <sheetView topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AO12" sqref="AO12:AO64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="61" t="s">
         <v>166</v>
       </c>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57" t="s">
+      <c r="C1" s="61"/>
+      <c r="D1" s="61" t="s">
         <v>167</v>
       </c>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57" t="s">
+      <c r="E1" s="61"/>
+      <c r="F1" s="61" t="s">
         <v>168</v>
       </c>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57" t="s">
+      <c r="G1" s="61"/>
+      <c r="H1" s="61" t="s">
         <v>169</v>
       </c>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57" t="s">
+      <c r="I1" s="61"/>
+      <c r="J1" s="61" t="s">
         <v>170</v>
       </c>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57" t="s">
+      <c r="K1" s="61"/>
+      <c r="L1" s="61" t="s">
         <v>171</v>
       </c>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57" t="s">
+      <c r="M1" s="61"/>
+      <c r="N1" s="61" t="s">
         <v>172</v>
       </c>
-      <c r="O1" s="57"/>
-      <c r="P1" s="57" t="s">
+      <c r="O1" s="61"/>
+      <c r="P1" s="61" t="s">
         <v>173</v>
       </c>
-      <c r="Q1" s="57"/>
-      <c r="R1" s="57" t="s">
+      <c r="Q1" s="61"/>
+      <c r="R1" s="61" t="s">
         <v>174</v>
       </c>
-      <c r="S1" s="57"/>
-      <c r="T1" s="57" t="s">
+      <c r="S1" s="61"/>
+      <c r="T1" s="61" t="s">
         <v>175</v>
       </c>
-      <c r="U1" s="57"/>
-      <c r="V1" s="61" t="s">
+      <c r="U1" s="61"/>
+      <c r="V1" s="65" t="s">
         <v>176</v>
       </c>
-      <c r="W1" s="61"/>
-      <c r="X1" s="61" t="s">
+      <c r="W1" s="65"/>
+      <c r="X1" s="65" t="s">
         <v>177</v>
       </c>
-      <c r="Y1" s="61"/>
-      <c r="Z1" s="59" t="s">
+      <c r="Y1" s="65"/>
+      <c r="Z1" s="63" t="s">
         <v>178</v>
       </c>
-      <c r="AA1" s="59"/>
-      <c r="AB1" s="57" t="s">
+      <c r="AA1" s="63"/>
+      <c r="AB1" s="61" t="s">
         <v>179</v>
       </c>
-      <c r="AC1" s="57"/>
-      <c r="AD1" s="57" t="s">
+      <c r="AC1" s="61"/>
+      <c r="AD1" s="61" t="s">
         <v>180</v>
       </c>
-      <c r="AE1" s="57"/>
-      <c r="AF1" s="57" t="s">
+      <c r="AE1" s="61"/>
+      <c r="AF1" s="61" t="s">
         <v>181</v>
       </c>
-      <c r="AG1" s="57"/>
-      <c r="AH1" s="57" t="s">
+      <c r="AG1" s="61"/>
+      <c r="AH1" s="61" t="s">
         <v>182</v>
       </c>
-      <c r="AI1" s="57"/>
-      <c r="AJ1" s="57" t="s">
+      <c r="AI1" s="61"/>
+      <c r="AJ1" s="61" t="s">
         <v>183</v>
       </c>
-      <c r="AK1" s="57"/>
-      <c r="AL1" s="57" t="s">
+      <c r="AK1" s="61"/>
+      <c r="AL1" s="61" t="s">
         <v>184</v>
       </c>
-      <c r="AM1" s="57"/>
-      <c r="AN1" s="57" t="s">
+      <c r="AM1" s="61"/>
+      <c r="AN1" s="61" t="s">
         <v>185</v>
       </c>
-      <c r="AO1" s="58"/>
-    </row>
-    <row r="2" spans="1:41" ht="36.5" x14ac:dyDescent="0.35">
+      <c r="AO1" s="62"/>
+    </row>
+    <row r="2" spans="1:41" ht="34.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="55" t="s">
         <v>187</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51" t="s">
+      <c r="C2" s="55"/>
+      <c r="D2" s="55" t="s">
         <v>187</v>
       </c>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51" t="s">
+      <c r="E2" s="55"/>
+      <c r="F2" s="55" t="s">
         <v>188</v>
       </c>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51" t="s">
+      <c r="G2" s="55"/>
+      <c r="H2" s="55" t="s">
         <v>188</v>
       </c>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51" t="s">
+      <c r="I2" s="55"/>
+      <c r="J2" s="55" t="s">
         <v>188</v>
       </c>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51" t="s">
+      <c r="K2" s="55"/>
+      <c r="L2" s="55" t="s">
         <v>188</v>
       </c>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51" t="s">
+      <c r="M2" s="55"/>
+      <c r="N2" s="55" t="s">
         <v>188</v>
       </c>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51" t="s">
+      <c r="O2" s="55"/>
+      <c r="P2" s="55" t="s">
         <v>188</v>
       </c>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="51" t="s">
+      <c r="Q2" s="55"/>
+      <c r="R2" s="55" t="s">
         <v>188</v>
       </c>
-      <c r="S2" s="51"/>
-      <c r="T2" s="51" t="s">
+      <c r="S2" s="55"/>
+      <c r="T2" s="55" t="s">
         <v>188</v>
       </c>
-      <c r="U2" s="51"/>
-      <c r="V2" s="51" t="s">
+      <c r="U2" s="55"/>
+      <c r="V2" s="55" t="s">
         <v>188</v>
       </c>
-      <c r="W2" s="51"/>
-      <c r="X2" s="51" t="s">
+      <c r="W2" s="55"/>
+      <c r="X2" s="55" t="s">
         <v>188</v>
       </c>
-      <c r="Y2" s="51"/>
-      <c r="Z2" s="51" t="s">
+      <c r="Y2" s="55"/>
+      <c r="Z2" s="55" t="s">
         <v>188</v>
       </c>
-      <c r="AA2" s="51"/>
-      <c r="AB2" s="51" t="s">
+      <c r="AA2" s="55"/>
+      <c r="AB2" s="55" t="s">
         <v>188</v>
       </c>
-      <c r="AC2" s="51"/>
-      <c r="AD2" s="51" t="s">
+      <c r="AC2" s="55"/>
+      <c r="AD2" s="55" t="s">
         <v>187</v>
       </c>
-      <c r="AE2" s="51"/>
-      <c r="AF2" s="51" t="s">
+      <c r="AE2" s="55"/>
+      <c r="AF2" s="55" t="s">
         <v>188</v>
       </c>
-      <c r="AG2" s="51"/>
-      <c r="AH2" s="51" t="s">
+      <c r="AG2" s="55"/>
+      <c r="AH2" s="55" t="s">
         <v>187</v>
       </c>
-      <c r="AI2" s="51"/>
-      <c r="AJ2" s="51" t="s">
+      <c r="AI2" s="55"/>
+      <c r="AJ2" s="55" t="s">
         <v>187</v>
       </c>
-      <c r="AK2" s="51"/>
-      <c r="AL2" s="51" t="s">
+      <c r="AK2" s="55"/>
+      <c r="AL2" s="55" t="s">
         <v>187</v>
       </c>
-      <c r="AM2" s="51"/>
-      <c r="AN2" s="51" t="s">
+      <c r="AM2" s="55"/>
+      <c r="AN2" s="55" t="s">
         <v>188</v>
       </c>
-      <c r="AO2" s="60"/>
-    </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="AO2" s="64"/>
+    </row>
+    <row r="3" spans="1:41" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="57" t="s">
         <v>190</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53" t="s">
+      <c r="C3" s="57"/>
+      <c r="D3" s="57" t="s">
         <v>190</v>
       </c>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53" t="s">
+      <c r="E3" s="57"/>
+      <c r="F3" s="57" t="s">
         <v>190</v>
       </c>
-      <c r="G3" s="53"/>
-      <c r="H3" s="54" t="s">
+      <c r="G3" s="57"/>
+      <c r="H3" s="58" t="s">
         <v>190</v>
       </c>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="52">
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="56">
         <v>1</v>
       </c>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52">
+      <c r="M3" s="56"/>
+      <c r="N3" s="56">
         <v>2</v>
       </c>
-      <c r="O3" s="52"/>
-      <c r="P3" s="52">
+      <c r="O3" s="56"/>
+      <c r="P3" s="56">
         <v>3</v>
       </c>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="52">
+      <c r="Q3" s="56"/>
+      <c r="R3" s="56">
         <v>4</v>
       </c>
-      <c r="S3" s="52"/>
-      <c r="T3" s="47" t="s">
+      <c r="S3" s="56"/>
+      <c r="T3" s="51" t="s">
         <v>191</v>
       </c>
-      <c r="U3" s="52"/>
-      <c r="V3" s="56" t="s">
+      <c r="U3" s="56"/>
+      <c r="V3" s="60" t="s">
         <v>190</v>
       </c>
-      <c r="W3" s="56"/>
-      <c r="X3" s="56" t="s">
+      <c r="W3" s="60"/>
+      <c r="X3" s="60" t="s">
         <v>190</v>
       </c>
-      <c r="Y3" s="56"/>
-      <c r="Z3" s="55" t="s">
+      <c r="Y3" s="60"/>
+      <c r="Z3" s="59" t="s">
         <v>190</v>
       </c>
-      <c r="AA3" s="55"/>
-      <c r="AB3" s="53"/>
-      <c r="AC3" s="53"/>
-      <c r="AD3" s="53" t="s">
+      <c r="AA3" s="59"/>
+      <c r="AB3" s="57"/>
+      <c r="AC3" s="57"/>
+      <c r="AD3" s="57" t="s">
         <v>190</v>
       </c>
-      <c r="AE3" s="53"/>
-      <c r="AF3" s="53"/>
-      <c r="AG3" s="53"/>
+      <c r="AE3" s="57"/>
+      <c r="AF3" s="57"/>
+      <c r="AG3" s="57"/>
       <c r="AH3" s="7"/>
       <c r="AI3" s="7"/>
       <c r="AJ3" s="7"/>
@@ -3454,432 +3518,432 @@
       <c r="AN3" s="8"/>
       <c r="AO3" s="9"/>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="39" t="s">
         <v>193</v>
       </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35" t="s">
+      <c r="C4" s="39"/>
+      <c r="D4" s="39" t="s">
         <v>193</v>
       </c>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35" t="s">
+      <c r="E4" s="39"/>
+      <c r="F4" s="39" t="s">
         <v>193</v>
       </c>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35" t="s">
+      <c r="G4" s="39"/>
+      <c r="H4" s="39" t="s">
         <v>194</v>
       </c>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35" t="s">
+      <c r="I4" s="39"/>
+      <c r="J4" s="39" t="s">
         <v>194</v>
       </c>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35" t="s">
+      <c r="K4" s="39"/>
+      <c r="L4" s="39" t="s">
         <v>194</v>
       </c>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35" t="s">
+      <c r="M4" s="39"/>
+      <c r="N4" s="39" t="s">
         <v>194</v>
       </c>
-      <c r="O4" s="35"/>
-      <c r="P4" s="35" t="s">
+      <c r="O4" s="39"/>
+      <c r="P4" s="39" t="s">
         <v>194</v>
       </c>
-      <c r="Q4" s="35"/>
-      <c r="R4" s="35" t="s">
+      <c r="Q4" s="39"/>
+      <c r="R4" s="39" t="s">
         <v>194</v>
       </c>
-      <c r="S4" s="35"/>
-      <c r="T4" s="35" t="s">
+      <c r="S4" s="39"/>
+      <c r="T4" s="39" t="s">
         <v>194</v>
       </c>
-      <c r="U4" s="35"/>
-      <c r="V4" s="38" t="s">
+      <c r="U4" s="39"/>
+      <c r="V4" s="42" t="s">
         <v>194</v>
       </c>
-      <c r="W4" s="38"/>
-      <c r="X4" s="39" t="s">
+      <c r="W4" s="42"/>
+      <c r="X4" s="43" t="s">
         <v>194</v>
       </c>
-      <c r="Y4" s="39"/>
-      <c r="Z4" s="40" t="s">
+      <c r="Y4" s="43"/>
+      <c r="Z4" s="44" t="s">
         <v>194</v>
       </c>
-      <c r="AA4" s="40"/>
-      <c r="AB4" s="47" t="s">
+      <c r="AA4" s="44"/>
+      <c r="AB4" s="51" t="s">
         <v>193</v>
       </c>
-      <c r="AC4" s="47"/>
-      <c r="AD4" s="47" t="s">
+      <c r="AC4" s="51"/>
+      <c r="AD4" s="51" t="s">
         <v>193</v>
       </c>
-      <c r="AE4" s="47"/>
-      <c r="AF4" s="35" t="s">
+      <c r="AE4" s="51"/>
+      <c r="AF4" s="39" t="s">
         <v>194</v>
       </c>
-      <c r="AG4" s="35"/>
-      <c r="AH4" s="35" t="s">
+      <c r="AG4" s="39"/>
+      <c r="AH4" s="39" t="s">
         <v>193</v>
       </c>
-      <c r="AI4" s="35"/>
-      <c r="AJ4" s="35" t="s">
+      <c r="AI4" s="39"/>
+      <c r="AJ4" s="39" t="s">
         <v>193</v>
       </c>
-      <c r="AK4" s="35"/>
-      <c r="AL4" s="35" t="s">
+      <c r="AK4" s="39"/>
+      <c r="AL4" s="39" t="s">
         <v>193</v>
       </c>
-      <c r="AM4" s="35"/>
-      <c r="AN4" s="36" t="s">
+      <c r="AM4" s="39"/>
+      <c r="AN4" s="40" t="s">
         <v>194</v>
       </c>
-      <c r="AO4" s="37"/>
-    </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="AO4" s="41"/>
+    </row>
+    <row r="5" spans="1:41" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="51" t="s">
         <v>196</v>
       </c>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47" t="s">
+      <c r="C5" s="51"/>
+      <c r="D5" s="51" t="s">
         <v>196</v>
       </c>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47" t="s">
+      <c r="E5" s="51"/>
+      <c r="F5" s="51" t="s">
         <v>196</v>
       </c>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47" t="s">
+      <c r="G5" s="51"/>
+      <c r="H5" s="51" t="s">
         <v>197</v>
       </c>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47" t="s">
+      <c r="I5" s="51"/>
+      <c r="J5" s="51" t="s">
         <v>197</v>
       </c>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47" t="s">
+      <c r="K5" s="51"/>
+      <c r="L5" s="51" t="s">
         <v>197</v>
       </c>
-      <c r="M5" s="47"/>
-      <c r="N5" s="47" t="s">
+      <c r="M5" s="51"/>
+      <c r="N5" s="51" t="s">
         <v>197</v>
       </c>
-      <c r="O5" s="47"/>
-      <c r="P5" s="47" t="s">
+      <c r="O5" s="51"/>
+      <c r="P5" s="51" t="s">
         <v>197</v>
       </c>
-      <c r="Q5" s="47"/>
-      <c r="R5" s="47" t="s">
+      <c r="Q5" s="51"/>
+      <c r="R5" s="51" t="s">
         <v>197</v>
       </c>
-      <c r="S5" s="47"/>
-      <c r="T5" s="47" t="s">
+      <c r="S5" s="51"/>
+      <c r="T5" s="51" t="s">
         <v>197</v>
       </c>
-      <c r="U5" s="47"/>
-      <c r="V5" s="48" t="s">
+      <c r="U5" s="51"/>
+      <c r="V5" s="52" t="s">
         <v>198</v>
       </c>
-      <c r="W5" s="48"/>
-      <c r="X5" s="49" t="s">
+      <c r="W5" s="52"/>
+      <c r="X5" s="53" t="s">
         <v>198</v>
       </c>
-      <c r="Y5" s="49"/>
-      <c r="Z5" s="50" t="s">
+      <c r="Y5" s="53"/>
+      <c r="Z5" s="54" t="s">
         <v>198</v>
       </c>
-      <c r="AA5" s="50"/>
-      <c r="AB5" s="50" t="s">
+      <c r="AA5" s="54"/>
+      <c r="AB5" s="54" t="s">
         <v>198</v>
       </c>
-      <c r="AC5" s="50"/>
-      <c r="AD5" s="47" t="s">
+      <c r="AC5" s="54"/>
+      <c r="AD5" s="51" t="s">
         <v>199</v>
       </c>
-      <c r="AE5" s="47"/>
-      <c r="AF5" s="47" t="s">
+      <c r="AE5" s="51"/>
+      <c r="AF5" s="51" t="s">
         <v>200</v>
       </c>
-      <c r="AG5" s="47"/>
-      <c r="AH5" s="47" t="s">
+      <c r="AG5" s="51"/>
+      <c r="AH5" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="AI5" s="47"/>
-      <c r="AJ5" s="47" t="s">
+      <c r="AI5" s="51"/>
+      <c r="AJ5" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="AK5" s="47"/>
-      <c r="AL5" s="47" t="s">
+      <c r="AK5" s="51"/>
+      <c r="AL5" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="AM5" s="47"/>
-      <c r="AN5" s="36" t="s">
+      <c r="AM5" s="51"/>
+      <c r="AN5" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="AO5" s="37"/>
-    </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="AO5" s="41"/>
+    </row>
+    <row r="6" spans="1:41" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="48" t="s">
         <v>202</v>
       </c>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44" t="s">
+      <c r="C6" s="48"/>
+      <c r="D6" s="48" t="s">
         <v>203</v>
       </c>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44" t="s">
+      <c r="E6" s="48"/>
+      <c r="F6" s="48" t="s">
         <v>203</v>
       </c>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44" t="s">
+      <c r="G6" s="48"/>
+      <c r="H6" s="48" t="s">
         <v>204</v>
       </c>
-      <c r="I6" s="44"/>
-      <c r="J6" s="45" t="s">
+      <c r="I6" s="48"/>
+      <c r="J6" s="49" t="s">
         <v>205</v>
       </c>
-      <c r="K6" s="45"/>
-      <c r="L6" s="45" t="s">
+      <c r="K6" s="49"/>
+      <c r="L6" s="49" t="s">
         <v>205</v>
       </c>
-      <c r="M6" s="45"/>
-      <c r="N6" s="45" t="s">
+      <c r="M6" s="49"/>
+      <c r="N6" s="49" t="s">
         <v>205</v>
       </c>
-      <c r="O6" s="45"/>
-      <c r="P6" s="45" t="s">
+      <c r="O6" s="49"/>
+      <c r="P6" s="49" t="s">
         <v>205</v>
       </c>
-      <c r="Q6" s="45"/>
-      <c r="R6" s="45" t="s">
+      <c r="Q6" s="49"/>
+      <c r="R6" s="49" t="s">
         <v>205</v>
       </c>
-      <c r="S6" s="45"/>
-      <c r="T6" s="45" t="s">
+      <c r="S6" s="49"/>
+      <c r="T6" s="49" t="s">
         <v>205</v>
       </c>
-      <c r="U6" s="45"/>
-      <c r="V6" s="45" t="s">
+      <c r="U6" s="49"/>
+      <c r="V6" s="49" t="s">
         <v>205</v>
       </c>
-      <c r="W6" s="45"/>
-      <c r="X6" s="46" t="s">
+      <c r="W6" s="49"/>
+      <c r="X6" s="50" t="s">
         <v>205</v>
       </c>
-      <c r="Y6" s="46"/>
-      <c r="Z6" s="43" t="s">
+      <c r="Y6" s="50"/>
+      <c r="Z6" s="47" t="s">
         <v>205</v>
       </c>
-      <c r="AA6" s="43"/>
-      <c r="AB6" s="44" t="s">
+      <c r="AA6" s="47"/>
+      <c r="AB6" s="48" t="s">
         <v>206</v>
       </c>
-      <c r="AC6" s="44"/>
-      <c r="AD6" s="44" t="s">
+      <c r="AC6" s="48"/>
+      <c r="AD6" s="48" t="s">
         <v>207</v>
       </c>
-      <c r="AE6" s="44"/>
-      <c r="AF6" s="44" t="s">
+      <c r="AE6" s="48"/>
+      <c r="AF6" s="48" t="s">
         <v>208</v>
       </c>
-      <c r="AG6" s="44"/>
-      <c r="AH6" s="44" t="s">
+      <c r="AG6" s="48"/>
+      <c r="AH6" s="48" t="s">
         <v>209</v>
       </c>
-      <c r="AI6" s="44"/>
-      <c r="AJ6" s="44" t="s">
+      <c r="AI6" s="48"/>
+      <c r="AJ6" s="48" t="s">
         <v>209</v>
       </c>
-      <c r="AK6" s="44"/>
-      <c r="AL6" s="44" t="s">
+      <c r="AK6" s="48"/>
+      <c r="AL6" s="48" t="s">
         <v>209</v>
       </c>
-      <c r="AM6" s="44"/>
-      <c r="AN6" s="36" t="s">
+      <c r="AM6" s="48"/>
+      <c r="AN6" s="40" t="s">
         <v>210</v>
       </c>
-      <c r="AO6" s="37"/>
-    </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="AO6" s="41"/>
+    </row>
+    <row r="7" spans="1:41" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="39" t="s">
         <v>212</v>
       </c>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35" t="s">
+      <c r="C7" s="39"/>
+      <c r="D7" s="39" t="s">
         <v>212</v>
       </c>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35" t="s">
+      <c r="E7" s="39"/>
+      <c r="F7" s="39" t="s">
         <v>212</v>
       </c>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35" t="s">
+      <c r="G7" s="39"/>
+      <c r="H7" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="I7" s="35"/>
-      <c r="J7" s="38" t="s">
+      <c r="I7" s="39"/>
+      <c r="J7" s="42" t="s">
         <v>214</v>
       </c>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38" t="s">
+      <c r="K7" s="42"/>
+      <c r="L7" s="42" t="s">
         <v>214</v>
       </c>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38" t="s">
+      <c r="M7" s="42"/>
+      <c r="N7" s="42" t="s">
         <v>214</v>
       </c>
-      <c r="O7" s="38"/>
-      <c r="P7" s="38" t="s">
+      <c r="O7" s="42"/>
+      <c r="P7" s="42" t="s">
         <v>214</v>
       </c>
-      <c r="Q7" s="38"/>
-      <c r="R7" s="38" t="s">
+      <c r="Q7" s="42"/>
+      <c r="R7" s="42" t="s">
         <v>214</v>
       </c>
-      <c r="S7" s="38"/>
-      <c r="T7" s="38" t="s">
+      <c r="S7" s="42"/>
+      <c r="T7" s="42" t="s">
         <v>214</v>
       </c>
-      <c r="U7" s="38"/>
-      <c r="V7" s="38" t="s">
+      <c r="U7" s="42"/>
+      <c r="V7" s="42" t="s">
         <v>214</v>
       </c>
-      <c r="W7" s="38"/>
-      <c r="X7" s="39" t="s">
+      <c r="W7" s="42"/>
+      <c r="X7" s="43" t="s">
         <v>214</v>
       </c>
-      <c r="Y7" s="39"/>
-      <c r="Z7" s="40" t="s">
+      <c r="Y7" s="43"/>
+      <c r="Z7" s="44" t="s">
         <v>214</v>
       </c>
-      <c r="AA7" s="40"/>
-      <c r="AB7" s="35" t="s">
+      <c r="AA7" s="44"/>
+      <c r="AB7" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="AC7" s="35"/>
-      <c r="AD7" s="35" t="s">
+      <c r="AC7" s="39"/>
+      <c r="AD7" s="39" t="s">
         <v>215</v>
       </c>
-      <c r="AE7" s="35"/>
-      <c r="AF7" s="35" t="s">
+      <c r="AE7" s="39"/>
+      <c r="AF7" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="AG7" s="35"/>
-      <c r="AH7" s="35" t="s">
+      <c r="AG7" s="39"/>
+      <c r="AH7" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="AI7" s="35"/>
-      <c r="AJ7" s="35" t="s">
+      <c r="AI7" s="39"/>
+      <c r="AJ7" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="AK7" s="35"/>
-      <c r="AL7" s="35" t="s">
+      <c r="AK7" s="39"/>
+      <c r="AL7" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="AM7" s="35"/>
-      <c r="AN7" s="36" t="s">
+      <c r="AM7" s="39"/>
+      <c r="AN7" s="40" t="s">
         <v>213</v>
       </c>
-      <c r="AO7" s="37"/>
-    </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="AO7" s="41"/>
+    </row>
+    <row r="8" spans="1:41" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="38" t="s">
         <v>217</v>
       </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34" t="s">
+      <c r="C8" s="38"/>
+      <c r="D8" s="38" t="s">
         <v>218</v>
       </c>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34" t="s">
+      <c r="E8" s="38"/>
+      <c r="F8" s="38" t="s">
         <v>219</v>
       </c>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34" t="s">
+      <c r="G8" s="38"/>
+      <c r="H8" s="38" t="s">
         <v>220</v>
       </c>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34" t="s">
+      <c r="I8" s="38"/>
+      <c r="J8" s="38" t="s">
         <v>221</v>
       </c>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34" t="s">
+      <c r="K8" s="38"/>
+      <c r="L8" s="38" t="s">
         <v>222</v>
       </c>
-      <c r="M8" s="34"/>
-      <c r="N8" s="34" t="s">
+      <c r="M8" s="38"/>
+      <c r="N8" s="38" t="s">
         <v>222</v>
       </c>
-      <c r="O8" s="34"/>
-      <c r="P8" s="34" t="s">
+      <c r="O8" s="38"/>
+      <c r="P8" s="38" t="s">
         <v>222</v>
       </c>
-      <c r="Q8" s="34"/>
-      <c r="R8" s="34" t="s">
+      <c r="Q8" s="38"/>
+      <c r="R8" s="38" t="s">
         <v>222</v>
       </c>
-      <c r="S8" s="34"/>
-      <c r="T8" s="34" t="s">
+      <c r="S8" s="38"/>
+      <c r="T8" s="38" t="s">
         <v>222</v>
       </c>
-      <c r="U8" s="34"/>
-      <c r="V8" s="34" t="s">
+      <c r="U8" s="38"/>
+      <c r="V8" s="38" t="s">
         <v>223</v>
       </c>
-      <c r="W8" s="34"/>
-      <c r="X8" s="34" t="s">
+      <c r="W8" s="38"/>
+      <c r="X8" s="38" t="s">
         <v>224</v>
       </c>
-      <c r="Y8" s="34"/>
-      <c r="Z8" s="34" t="s">
+      <c r="Y8" s="38"/>
+      <c r="Z8" s="38" t="s">
         <v>224</v>
       </c>
-      <c r="AA8" s="34"/>
-      <c r="AB8" s="34" t="s">
+      <c r="AA8" s="38"/>
+      <c r="AB8" s="38" t="s">
         <v>224</v>
       </c>
-      <c r="AC8" s="34"/>
-      <c r="AD8" s="34" t="s">
+      <c r="AC8" s="38"/>
+      <c r="AD8" s="38" t="s">
         <v>225</v>
       </c>
-      <c r="AE8" s="34"/>
-      <c r="AF8" s="34" t="s">
+      <c r="AE8" s="38"/>
+      <c r="AF8" s="38" t="s">
         <v>226</v>
       </c>
-      <c r="AG8" s="34"/>
-      <c r="AH8" s="34" t="s">
+      <c r="AG8" s="38"/>
+      <c r="AH8" s="38" t="s">
         <v>227</v>
       </c>
-      <c r="AI8" s="34"/>
-      <c r="AJ8" s="34" t="s">
+      <c r="AI8" s="38"/>
+      <c r="AJ8" s="38" t="s">
         <v>227</v>
       </c>
-      <c r="AK8" s="34"/>
-      <c r="AL8" s="34" t="s">
+      <c r="AK8" s="38"/>
+      <c r="AL8" s="38" t="s">
         <v>227</v>
       </c>
-      <c r="AM8" s="34"/>
-      <c r="AN8" s="41" t="s">
+      <c r="AM8" s="38"/>
+      <c r="AN8" s="45" t="s">
         <v>228</v>
       </c>
-      <c r="AO8" s="42"/>
-    </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="AO8" s="46"/>
+    </row>
+    <row r="9" spans="1:41" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="11" t="s">
         <v>37</v>
       </c>
@@ -4004,7 +4068,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="15">
         <f>+A11-1</f>
         <v>1961</v>
@@ -4050,7 +4114,7 @@
       <c r="AN10" s="17"/>
       <c r="AO10" s="17"/>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="15">
         <f>+A12-1</f>
         <v>1962</v>
@@ -4104,7 +4168,7 @@
       <c r="AN11" s="20"/>
       <c r="AO11" s="20"/>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="15">
         <v>1963</v>
       </c>
@@ -4165,7 +4229,7 @@
         <v>0.35332910029999998</v>
       </c>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="23">
         <v>1964</v>
       </c>
@@ -4226,7 +4290,7 @@
         <v>0.34919709110000002</v>
       </c>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="23">
         <v>1965</v>
       </c>
@@ -4287,7 +4351,7 @@
         <v>0.34843401940000002</v>
       </c>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="23">
         <v>1966</v>
       </c>
@@ -4348,7 +4412,7 @@
         <v>0.34771855639999999</v>
       </c>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="23">
         <v>1967</v>
       </c>
@@ -4409,7 +4473,7 @@
         <v>0.347194316</v>
       </c>
     </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="23">
         <v>1968</v>
       </c>
@@ -4474,7 +4538,7 @@
         <v>0.35148494619999998</v>
       </c>
     </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:41" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="23">
         <v>1969</v>
       </c>
@@ -4539,7 +4603,7 @@
         <v>0.34745107790000002</v>
       </c>
     </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="15">
         <f>+A20-1</f>
         <v>1970</v>
@@ -4605,7 +4669,7 @@
         <v>0.34783666089999998</v>
       </c>
     </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:41" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="15">
         <f>+A21-1</f>
         <v>1971</v>
@@ -4663,7 +4727,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:41" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="15">
         <f>+A22-1</f>
         <v>1972</v>
@@ -4721,7 +4785,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:41" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="15">
         <f>+A23-1</f>
         <v>1973</v>
@@ -4779,7 +4843,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:41" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="15">
         <f>+A24-1</f>
         <v>1974</v>
@@ -4841,7 +4905,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="24" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:41" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="23">
         <v>1975</v>
       </c>
@@ -4902,7 +4966,7 @@
         <v>0.31871116199999999</v>
       </c>
     </row>
-    <row r="25" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:41" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="23">
         <f t="shared" ref="A25:A65" si="0">+A24+1</f>
         <v>1976</v>
@@ -4964,7 +5028,7 @@
         <v>0.31900634319999999</v>
       </c>
     </row>
-    <row r="26" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:41" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="23">
         <f t="shared" si="0"/>
         <v>1977</v>
@@ -5026,7 +5090,7 @@
         <v>0.32031986680000002</v>
       </c>
     </row>
-    <row r="27" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:41" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="23">
         <f t="shared" si="0"/>
         <v>1978</v>
@@ -5088,7 +5152,7 @@
         <v>0.28665293920000001</v>
       </c>
     </row>
-    <row r="28" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:41" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="23">
         <f t="shared" si="0"/>
         <v>1979</v>
@@ -5158,7 +5222,7 @@
         <v>0.1976681478</v>
       </c>
     </row>
-    <row r="29" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:41" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="23">
         <f t="shared" si="0"/>
         <v>1980</v>
@@ -5228,7 +5292,7 @@
         <v>0.1968531885</v>
       </c>
     </row>
-    <row r="30" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:41" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="23">
         <f>+A29+1</f>
         <v>1981</v>
@@ -5298,7 +5362,7 @@
         <v>0.20417149800000001</v>
       </c>
     </row>
-    <row r="31" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:41" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="23">
         <f t="shared" si="0"/>
         <v>1982</v>
@@ -5392,7 +5456,7 @@
         <v>0.177994069</v>
       </c>
     </row>
-    <row r="32" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:41" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="23">
         <f t="shared" si="0"/>
         <v>1983</v>
@@ -5486,7 +5550,7 @@
         <v>0.17590504570000001</v>
       </c>
     </row>
-    <row r="33" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:41" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="23">
         <f t="shared" si="0"/>
         <v>1984</v>
@@ -5580,7 +5644,7 @@
         <v>0.17020716799999999</v>
       </c>
     </row>
-    <row r="34" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:41" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="23">
         <f t="shared" si="0"/>
         <v>1985</v>
@@ -5670,7 +5734,7 @@
         <v>0.1676144785</v>
       </c>
     </row>
-    <row r="35" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:41" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="23">
         <f t="shared" si="0"/>
         <v>1986</v>
@@ -5768,7 +5832,7 @@
         <v>0.16744807789999999</v>
       </c>
     </row>
-    <row r="36" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:41" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="23">
         <f t="shared" si="0"/>
         <v>1987</v>
@@ -5864,7 +5928,7 @@
         <v>0.16711292759999999</v>
       </c>
     </row>
-    <row r="37" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:41" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="23">
         <f t="shared" si="0"/>
         <v>1988</v>
@@ -5960,7 +6024,7 @@
         <v>0.16609492640000001</v>
       </c>
     </row>
-    <row r="38" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:41" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="23">
         <f t="shared" si="0"/>
         <v>1989</v>
@@ -6058,7 +6122,7 @@
         <v>0.15901131939999999</v>
       </c>
     </row>
-    <row r="39" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:41" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="23">
         <f t="shared" si="0"/>
         <v>1990</v>
@@ -6156,7 +6220,7 @@
         <v>0.1578159619</v>
       </c>
     </row>
-    <row r="40" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:41" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="23">
         <f t="shared" si="0"/>
         <v>1991</v>
@@ -6254,7 +6318,7 @@
         <v>0.1562590146</v>
       </c>
     </row>
-    <row r="41" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:41" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="23">
         <f t="shared" si="0"/>
         <v>1992</v>
@@ -6356,7 +6420,7 @@
         <v>0.15747075369999999</v>
       </c>
     </row>
-    <row r="42" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:41" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="23">
         <f t="shared" si="0"/>
         <v>1993</v>
@@ -6458,7 +6522,7 @@
         <v>0.15655190099999999</v>
       </c>
     </row>
-    <row r="43" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:41" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="23">
         <f t="shared" si="0"/>
         <v>1994</v>
@@ -6560,7 +6624,7 @@
         <v>0.16419604239999999</v>
       </c>
     </row>
-    <row r="44" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:41" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="23">
         <f t="shared" si="0"/>
         <v>1995</v>
@@ -6662,7 +6726,7 @@
         <v>0.1595530614</v>
       </c>
     </row>
-    <row r="45" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:41" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="23">
         <f t="shared" si="0"/>
         <v>1996</v>
@@ -6764,7 +6828,7 @@
         <v>0.16153028189999999</v>
       </c>
     </row>
-    <row r="46" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:41" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="23">
         <f t="shared" si="0"/>
         <v>1997</v>
@@ -6866,7 +6930,7 @@
         <v>0.1535243687</v>
       </c>
     </row>
-    <row r="47" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:41" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="23">
         <f t="shared" si="0"/>
         <v>1998</v>
@@ -6968,7 +7032,7 @@
         <v>0.15395424099999999</v>
       </c>
     </row>
-    <row r="48" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:41" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="23">
         <f t="shared" si="0"/>
         <v>1999</v>
@@ -7070,7 +7134,7 @@
         <v>0.15277607409999999</v>
       </c>
     </row>
-    <row r="49" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:41" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="23">
         <f t="shared" si="0"/>
         <v>2000</v>
@@ -7172,7 +7236,7 @@
         <v>0.15960057559999999</v>
       </c>
     </row>
-    <row r="50" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:41" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="23">
         <f t="shared" si="0"/>
         <v>2001</v>
@@ -7274,7 +7338,7 @@
         <v>0.17468311349999999</v>
       </c>
     </row>
-    <row r="51" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:41" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="23">
         <f t="shared" si="0"/>
         <v>2002</v>
@@ -7376,7 +7440,7 @@
         <v>0.17273404940000001</v>
       </c>
     </row>
-    <row r="52" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:41" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="23">
         <f t="shared" si="0"/>
         <v>2003</v>
@@ -7478,7 +7542,7 @@
         <v>0.17128397149999999</v>
       </c>
     </row>
-    <row r="53" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:41" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="23">
         <f t="shared" si="0"/>
         <v>2004</v>
@@ -7580,7 +7644,7 @@
         <v>0.15510191409999999</v>
       </c>
     </row>
-    <row r="54" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:41" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="23">
         <f t="shared" si="0"/>
         <v>2005</v>
@@ -7686,7 +7750,7 @@
         <v>0.15545594509999999</v>
       </c>
     </row>
-    <row r="55" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:41" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="23">
         <f t="shared" si="0"/>
         <v>2006</v>
@@ -7796,7 +7860,7 @@
         <v>0.1584234591</v>
       </c>
     </row>
-    <row r="56" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:41" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="23">
         <f t="shared" si="0"/>
         <v>2007</v>
@@ -7906,7 +7970,7 @@
         <v>0.15698843570000001</v>
       </c>
     </row>
-    <row r="57" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:41" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="23">
         <f t="shared" si="0"/>
         <v>2008</v>
@@ -8016,7 +8080,7 @@
         <v>0.15646395390000001</v>
       </c>
     </row>
-    <row r="58" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:41" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="23">
         <f t="shared" si="0"/>
         <v>2009</v>
@@ -8126,7 +8190,7 @@
         <v>0.15755338660000001</v>
       </c>
     </row>
-    <row r="59" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:41" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="23">
         <f t="shared" si="0"/>
         <v>2010</v>
@@ -8236,7 +8300,7 @@
         <v>0.15684492219999999</v>
       </c>
     </row>
-    <row r="60" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:41" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="23">
         <f t="shared" si="0"/>
         <v>2011</v>
@@ -8346,7 +8410,7 @@
         <v>0.15837887149999999</v>
       </c>
     </row>
-    <row r="61" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:41" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="23">
         <f t="shared" si="0"/>
         <v>2012</v>
@@ -8456,7 +8520,7 @@
         <v>0.1574096492</v>
       </c>
     </row>
-    <row r="62" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:41" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="23">
         <f t="shared" si="0"/>
         <v>2013</v>
@@ -8562,7 +8626,7 @@
         <v>0.15908433250000001</v>
       </c>
     </row>
-    <row r="63" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:41" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="23">
         <f t="shared" si="0"/>
         <v>2014</v>
@@ -8668,7 +8732,7 @@
         <v>0.15972896410000001</v>
       </c>
     </row>
-    <row r="64" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:41" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="23">
         <f t="shared" si="0"/>
         <v>2015</v>
@@ -8774,7 +8838,7 @@
         <v>0.15998062900000001</v>
       </c>
     </row>
-    <row r="65" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:41" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="23">
         <f t="shared" si="0"/>
         <v>2016</v>
@@ -9000,16 +9064,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="U25" sqref="U25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>83</v>
       </c>
@@ -9050,7 +9114,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>1445</v>
       </c>
@@ -9098,7 +9162,7 @@
         <v>3646</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>966</v>
       </c>
@@ -9146,7 +9210,7 @@
         <v>2581</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>966</v>
       </c>
@@ -9194,7 +9258,7 @@
         <v>2993</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>1203</v>
       </c>
@@ -9242,7 +9306,7 @@
         <v>3303</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>305</v>
       </c>
@@ -9290,7 +9354,7 @@
         <v>3034</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>619</v>
       </c>
@@ -9338,7 +9402,7 @@
         <v>3502</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>374</v>
       </c>
@@ -9386,7 +9450,7 @@
         <v>3358</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>1000</v>
       </c>
@@ -9434,7 +9498,7 @@
         <v>4578</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>832</v>
       </c>
@@ -9482,7 +9546,7 @@
         <v>4904</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>1100</v>
       </c>
@@ -9530,7 +9594,7 @@
         <v>6232</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>722</v>
       </c>
@@ -9578,7 +9642,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>1700</v>
       </c>
@@ -9626,7 +9690,7 @@
         <v>4381</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>2300</v>
       </c>
@@ -9674,7 +9738,7 @@
         <v>5342</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>1000</v>
       </c>
@@ -9722,7 +9786,7 @@
         <v>10190</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <v>1800</v>
       </c>
@@ -9770,7 +9834,7 @@
         <v>11258</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <v>1433</v>
       </c>
@@ -9818,7 +9882,7 @@
         <v>8652</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
         <v>2999</v>
       </c>
@@ -9866,7 +9930,7 @@
         <v>9349</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <v>2690</v>
       </c>
@@ -9914,7 +9978,7 @@
         <v>9107</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
         <v>3551</v>
       </c>
@@ -9962,7 +10026,7 @@
         <v>9172</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
         <v>3502</v>
       </c>
@@ -10010,7 +10074,7 @@
         <v>9203</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
         <v>3160</v>
       </c>
@@ -10058,7 +10122,7 @@
         <v>9495</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
         <v>3384</v>
       </c>
@@ -10106,7 +10170,7 @@
         <v>5266</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
         <v>3210</v>
       </c>
@@ -10154,7 +10218,7 @@
         <v>4766</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
         <v>3833</v>
       </c>
@@ -10202,7 +10266,7 @@
         <v>6074</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
         <v>2893</v>
       </c>
@@ -10250,7 +10314,7 @@
         <v>6362</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
         <v>3747</v>
       </c>
@@ -10298,7 +10362,7 @@
         <v>8839</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
         <v>2816</v>
       </c>
@@ -10346,7 +10410,7 @@
         <v>6696</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
         <v>3309</v>
       </c>
@@ -10394,7 +10458,7 @@
         <v>6409</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
         <v>3622</v>
       </c>
@@ -10442,7 +10506,7 @@
         <v>11827</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
         <v>2582</v>
       </c>
@@ -10490,7 +10554,7 @@
         <v>11937</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
         <v>3810</v>
       </c>
@@ -10538,7 +10602,7 @@
         <v>13558</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
         <v>4014</v>
       </c>
@@ -10586,7 +10650,7 @@
         <v>11180</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
         <v>4554</v>
       </c>
@@ -10634,7 +10698,7 @@
         <v>13215</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A35">
         <v>7100</v>
       </c>
@@ -10682,7 +10746,7 @@
         <v>14527</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A36">
         <v>6315</v>
       </c>
@@ -10730,7 +10794,7 @@
         <v>12791</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A37">
         <v>7441</v>
       </c>
@@ -10778,7 +10842,7 @@
         <v>14383</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A38">
         <v>9719</v>
       </c>
@@ -10826,7 +10890,7 @@
         <v>18486</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A39">
         <v>11135</v>
       </c>
@@ -10874,7 +10938,7 @@
         <v>20236</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A40">
         <v>9799</v>
       </c>
@@ -10922,7 +10986,7 @@
         <v>19513</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A41">
         <v>6648</v>
       </c>
@@ -10970,7 +11034,7 @@
         <v>17250</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A42">
         <v>6386</v>
       </c>
@@ -11018,7 +11082,7 @@
         <v>15672</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A43">
         <v>6633</v>
       </c>
@@ -11066,7 +11130,7 @@
         <v>14934</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A44">
         <v>6672</v>
       </c>
@@ -11114,7 +11178,7 @@
         <v>15394</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A45">
         <v>6598</v>
       </c>
@@ -11162,7 +11226,7 @@
         <v>16738</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A46">
         <v>6185</v>
       </c>
@@ -11210,7 +11274,7 @@
         <v>15501</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A47">
         <v>6953</v>
       </c>
@@ -11258,7 +11322,7 @@
         <v>16872</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A48">
         <v>5547</v>
       </c>
@@ -11306,7 +11370,7 @@
         <v>15222</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A49">
         <v>5140</v>
       </c>
@@ -11354,7 +11418,7 @@
         <v>13025</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A50">
         <v>4079</v>
       </c>
@@ -11402,7 +11466,7 @@
         <v>12223</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A51">
         <v>3996</v>
       </c>
@@ -11450,7 +11514,7 @@
         <v>11621</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A52">
         <v>4595</v>
       </c>
@@ -11498,7 +11562,7 @@
         <v>11452</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A53">
         <v>3968</v>
       </c>
@@ -11546,7 +11610,7 @@
         <v>10010</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A54">
         <v>3957</v>
       </c>
@@ -11594,7 +11658,7 @@
         <v>9654</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A55">
         <v>4586</v>
       </c>
@@ -11642,7 +11706,7 @@
         <v>11443</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A56">
         <v>5376</v>
       </c>
@@ -11690,7 +11754,7 @@
         <v>12176</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A57">
         <v>5521</v>
       </c>
@@ -11738,7 +11802,7 @@
         <v>12480</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A58">
         <v>5448</v>
       </c>
@@ -11786,7 +11850,7 @@
         <v>11471</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A59">
         <v>5564</v>
       </c>
@@ -11834,7 +11898,7 @@
         <v>12302</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A60">
         <v>4366</v>
       </c>
@@ -11882,7 +11946,7 @@
         <v>11050</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A61">
         <v>4949</v>
       </c>
@@ -11930,7 +11994,7 @@
         <v>12082</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A62">
         <v>4147</v>
       </c>
@@ -11978,7 +12042,7 @@
         <v>11553</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A63">
         <v>4889</v>
       </c>
@@ -12026,7 +12090,7 @@
         <v>12522</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A64">
         <v>5622</v>
       </c>
@@ -12074,7 +12138,7 @@
         <v>13873</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A65">
         <v>4084</v>
       </c>
@@ -12122,7 +12186,7 @@
         <v>12068</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A66">
         <v>3750</v>
       </c>
@@ -12170,7 +12234,7 @@
         <v>10811</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A67">
         <v>3962</v>
       </c>
@@ -12218,7 +12282,7 @@
         <v>10549</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A68">
         <v>4196</v>
       </c>
@@ -12266,7 +12330,7 @@
         <v>11172</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A69">
         <v>4196</v>
       </c>

--- a/inst/SWO_Data.xlsx
+++ b/inst/SWO_Data.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adrian\GitHub\nswo-mse\inst\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\nswo-mse\inst\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C70D06-7FE2-49BA-82BC-D863A980608F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1248" yWindow="2298" windowWidth="19158" windowHeight="10794" tabRatio="578" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1250" yWindow="2300" windowWidth="19160" windowHeight="10790" tabRatio="578"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="Indices" sheetId="3" r:id="rId2"/>
     <sheet name="Catches" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -738,7 +737,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -1534,58 +1533,22 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="37" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="37" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="10" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="42" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="12" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="42" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="42" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="12" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="44" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="13" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="12" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="15" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="42" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1600,22 +1563,58 @@
     <xf numFmtId="16" fontId="19" fillId="34" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="42" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="16" fontId="19" fillId="35" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="12" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="42" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="13" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="12" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="15" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="12" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="42" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="10" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1659,12 +1658,12 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="TableStyleLight1" xfId="43" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="TableStyleLight1" xfId="43"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="標準 2" xfId="42" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
-    <cellStyle name="標準 3" xfId="44" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="標準 2" xfId="42"/>
+    <cellStyle name="標準 3" xfId="44"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1975,20 +1974,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BV94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AZ31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BV44" sqref="BV44"/>
+    <sheetView tabSelected="1" topLeftCell="E27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AS28" sqref="AS28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.26171875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1996,7 +1995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2004,7 +2003,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2012,7 +2011,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2020,7 +2019,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2028,7 +2027,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2036,12 +2035,12 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2049,22 +2048,22 @@
         <v>232</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -2072,7 +2071,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -2080,12 +2079,12 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -2093,12 +2092,12 @@
         <v>312</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -2106,12 +2105,12 @@
         <v>9.2600000000000002E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -2119,12 +2118,12 @@
         <v>-3.7620200000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -2132,12 +2131,12 @@
         <v>4.4499999999999997E-6</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -2145,12 +2144,12 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -2158,12 +2157,12 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -2171,67 +2170,67 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:74" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="35" spans="1:74" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:74" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:74" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="1:74" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:74" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:74" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="1:74" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:74" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>37</v>
       </c>
@@ -2455,7 +2454,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="44" spans="1:74" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="44" spans="1:74" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>38</v>
       </c>
@@ -2679,584 +2678,584 @@
         <v>10342</v>
       </c>
     </row>
-    <row r="45" spans="1:74" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:74" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="1:74" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="1:74" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="48" spans="1:74" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>42</v>
       </c>
       <c r="O48">
-        <v>1.1729060554442401</v>
+        <v>1.6343752940332026</v>
       </c>
       <c r="P48">
-        <v>0.94149260714539296</v>
+        <v>1.0809234754995374</v>
       </c>
       <c r="Q48">
-        <v>1.07782726103185</v>
+        <v>1.0068005408435903</v>
       </c>
       <c r="R48">
-        <v>1.09676184673105</v>
+        <v>0.87188015330098478</v>
       </c>
       <c r="S48">
-        <v>1.0958690598426299</v>
+        <v>0.94311003747579125</v>
       </c>
       <c r="T48">
-        <v>1.1848472485278101</v>
+        <v>1.0438239990246707</v>
       </c>
       <c r="U48">
-        <v>1.2711975375575899</v>
+        <v>1.1592304866884551</v>
       </c>
       <c r="V48">
-        <v>1.2544985928807699</v>
+        <v>1.218852181070202</v>
       </c>
       <c r="W48">
-        <v>1.725115672204</v>
+        <v>1.6764402331710375</v>
       </c>
       <c r="X48">
-        <v>1.96857840019046</v>
+        <v>2.0198548000294276</v>
       </c>
       <c r="Y48">
-        <v>1.97598097355396</v>
+        <v>2.3286996320504643</v>
       </c>
       <c r="Z48">
-        <v>1.6765489072809501</v>
+        <v>1.7383130240254323</v>
       </c>
       <c r="AA48">
-        <v>1.1167348736827201</v>
+        <v>1.0624537155482876</v>
       </c>
       <c r="AB48">
-        <v>0.91087405908879604</v>
+        <v>0.76848882643887761</v>
       </c>
       <c r="AC48">
-        <v>1.1859567479816</v>
+        <v>0.99259801416721449</v>
       </c>
       <c r="AD48">
-        <v>1.46815670955703</v>
+        <v>1.3872631890272091</v>
       </c>
       <c r="AE48">
-        <v>1.1840492502297</v>
+        <v>1.0257695959268496</v>
       </c>
       <c r="AF48">
-        <v>1.13762752698306</v>
+        <v>1.0968735896340904</v>
       </c>
       <c r="AG48">
-        <v>1.0371290784265901</v>
+        <v>0.99477610148099971</v>
       </c>
       <c r="AH48">
-        <v>1.08655483400973</v>
+        <v>1.0568449822208188</v>
       </c>
       <c r="AI48">
-        <v>0.78673704951061096</v>
+        <v>0.72972926144218964</v>
       </c>
       <c r="AJ48">
-        <v>0.75726913871567103</v>
+        <v>0.6455820971353623</v>
       </c>
       <c r="AK48">
-        <v>0.99356617883180698</v>
+        <v>0.77920780282793667</v>
       </c>
       <c r="AL48">
-        <v>0.98927990929337395</v>
+        <v>1.1467654778950749</v>
       </c>
       <c r="AM48">
-        <v>1.2202550052148</v>
+        <v>1.2865213243588889</v>
       </c>
       <c r="AN48">
-        <v>1.38238043998522</v>
+        <v>1.4263910014211216</v>
       </c>
       <c r="AO48">
-        <v>1.2323817878480701</v>
+        <v>1.1988993138378761</v>
       </c>
       <c r="AP48">
-        <v>1.0477886726063701</v>
+        <v>1.127158224480745</v>
       </c>
       <c r="AQ48">
-        <v>1.0827013397485401</v>
+        <v>1.1090302508590966</v>
       </c>
       <c r="AR48">
-        <v>0.94892839965812403</v>
+        <v>0.86684684567230452</v>
       </c>
       <c r="AS48">
-        <v>0.88075955366285696</v>
+        <v>0.79813193048789921</v>
       </c>
       <c r="AT48">
-        <v>0.83912473454579395</v>
+        <v>0.71895977387105059</v>
       </c>
       <c r="AU48">
-        <v>0.74200301646619204</v>
+        <v>0.68635177337397546</v>
       </c>
       <c r="AV48">
-        <v>0.68640585343634897</v>
+        <v>0.60678820102586695</v>
       </c>
       <c r="AW48">
-        <v>0.73597305701083804</v>
+        <v>0.60734668553197624</v>
       </c>
       <c r="AX48">
-        <v>0.68752228165741902</v>
+        <v>0.61834128008936418</v>
       </c>
       <c r="AY48">
-        <v>0.71380998338481605</v>
+        <v>0.66250102877754358</v>
       </c>
       <c r="AZ48">
-        <v>0.84618311252281697</v>
+        <v>0.80689490356263571</v>
       </c>
       <c r="BA48">
-        <v>0.94746330139814505</v>
+        <v>0.86012210056923855</v>
       </c>
       <c r="BB48">
-        <v>0.94151910747636702</v>
+        <v>0.86594328611275617</v>
       </c>
       <c r="BC48">
-        <v>0.94165251298594899</v>
+        <v>0.89843229036017103</v>
       </c>
       <c r="BD48">
-        <v>0.69813516924587504</v>
+        <v>0.81681639941525974</v>
       </c>
       <c r="BE48">
-        <v>0.65627936561181299</v>
+        <v>0.84957302274478186</v>
       </c>
       <c r="BF48">
-        <v>0.75463846093503795</v>
+        <v>0.81038896121690207</v>
       </c>
       <c r="BG48">
-        <v>0.88758612489898503</v>
+        <v>0.8644138709609025</v>
       </c>
       <c r="BH48">
-        <v>0.77180245243260803</v>
+        <v>0.9143501908943058</v>
       </c>
       <c r="BI48">
-        <v>0.81266887072670502</v>
+        <v>0.91068266417554922</v>
       </c>
       <c r="BJ48">
-        <v>0.70667031789927803</v>
+        <v>0.83025791350010003</v>
       </c>
       <c r="BK48">
-        <v>0.84931070310328305</v>
+        <v>0.93062386267158992</v>
       </c>
       <c r="BL48">
-        <v>0.88904376247430394</v>
+        <v>0.93522935369628823</v>
       </c>
       <c r="BM48">
-        <v>0.76077171276209199</v>
+        <v>0.91986427371448432</v>
       </c>
       <c r="BN48">
-        <v>0.726956265541576</v>
+        <v>0.86432423227627286</v>
       </c>
       <c r="BO48">
-        <v>0.62631104794028203</v>
+        <v>0.75619895950467753</v>
       </c>
       <c r="BP48">
-        <v>0.68150269300373401</v>
+        <v>0.67353855718355882</v>
       </c>
       <c r="BQ48">
-        <v>0.73559757063162501</v>
+        <v>0.62921771789287972</v>
       </c>
       <c r="BR48">
-        <v>0.80298935404656702</v>
+        <v>0.67223990021343794</v>
       </c>
       <c r="BS48">
-        <v>0.63326345734862399</v>
+        <v>0.73557869530814912</v>
       </c>
       <c r="BT48">
-        <v>1.02176836396162</v>
+        <v>1.0892623154722183</v>
       </c>
       <c r="BU48">
-        <v>0.83423533577710896</v>
+        <v>0.97831327632083054</v>
       </c>
       <c r="BV48">
-        <v>1.17805729334882</v>
-      </c>
-    </row>
-    <row r="49" spans="1:74" x14ac:dyDescent="0.55000000000000004">
+        <v>1.2658091074876043</v>
+      </c>
+    </row>
+    <row r="49" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>43</v>
       </c>
       <c r="O49">
-        <v>0.134376247953121</v>
+        <v>0.15741675167668862</v>
       </c>
       <c r="P49">
-        <v>9.7790006385192793E-2</v>
+        <v>7.9078251157513491E-2</v>
       </c>
       <c r="Q49">
-        <v>9.23548104479536E-2</v>
+        <v>7.2862816593564958E-2</v>
       </c>
       <c r="R49">
-        <v>9.4741827157202793E-2</v>
+        <v>6.6560169352940221E-2</v>
       </c>
       <c r="S49">
-        <v>0.10258247073558301</v>
+        <v>7.5267901053177474E-2</v>
       </c>
       <c r="T49">
-        <v>9.86269334913525E-2</v>
+        <v>7.9918516489241878E-2</v>
       </c>
       <c r="U49">
-        <v>0.100664014295508</v>
+        <v>8.3872381879702237E-2</v>
       </c>
       <c r="V49">
-        <v>8.5433459821280797E-2</v>
+        <v>7.9241318420829307E-2</v>
       </c>
       <c r="W49">
-        <v>8.8507124026644804E-2</v>
+        <v>0.11838333659259606</v>
       </c>
       <c r="X49">
-        <v>9.4951829188671094E-2</v>
+        <v>0.16461338888102101</v>
       </c>
       <c r="Y49">
-        <v>9.9576190919438007E-2</v>
+        <v>0.19776161691037303</v>
       </c>
       <c r="Z49">
-        <v>9.2023645141513705E-2</v>
+        <v>0.137825301123537</v>
       </c>
       <c r="AA49">
-        <v>9.6099651579129697E-2</v>
+        <v>8.6540780371832951E-2</v>
       </c>
       <c r="AB49">
-        <v>0.105632862226384</v>
+        <v>7.0574292096119193E-2</v>
       </c>
       <c r="AC49">
-        <v>0.11849197846543701</v>
+        <v>9.2591981017550756E-2</v>
       </c>
       <c r="AD49">
-        <v>0.118815929995483</v>
+        <v>0.13526554516043715</v>
       </c>
       <c r="AE49">
-        <v>0.12497384521857501</v>
+        <v>9.9889055308389416E-2</v>
       </c>
       <c r="AF49">
-        <v>0.11719784226862701</v>
+        <v>9.5696783940504682E-2</v>
       </c>
       <c r="AG49">
-        <v>0.10263905478337999</v>
+        <v>8.723193554071107E-2</v>
       </c>
       <c r="AH49">
-        <v>0.104283589487142</v>
+        <v>9.058950091262967E-2</v>
       </c>
       <c r="AI49">
-        <v>0.104779912217868</v>
+        <v>6.8514287574549915E-2</v>
       </c>
       <c r="AJ49">
-        <v>0.112032402477071</v>
+        <v>5.9626709667373295E-2</v>
       </c>
       <c r="AK49">
-        <v>0.111774512947195</v>
+        <v>6.6397498690326628E-2</v>
       </c>
       <c r="AL49">
-        <v>0.109690569566889</v>
+        <v>8.2305573660777925E-2</v>
       </c>
       <c r="AM49">
-        <v>0.12185323464966299</v>
+        <v>7.2240152361082777E-2</v>
       </c>
       <c r="AN49">
-        <v>0.102954082365791</v>
+        <v>7.3817015501376107E-2</v>
       </c>
       <c r="AO49">
-        <v>9.3198229356375395E-2</v>
+        <v>6.0242390009365099E-2</v>
       </c>
       <c r="AP49">
-        <v>8.4908969875681001E-2</v>
+        <v>5.7587532150510358E-2</v>
       </c>
       <c r="AQ49">
-        <v>8.2283199731082099E-2</v>
+        <v>5.6522546955644827E-2</v>
       </c>
       <c r="AR49">
-        <v>8.1723569424669198E-2</v>
+        <v>4.3588297672053328E-2</v>
       </c>
       <c r="AS49">
-        <v>8.58333069296041E-2</v>
+        <v>4.0767924488305685E-2</v>
       </c>
       <c r="AT49">
-        <v>9.4713213299986498E-2</v>
+        <v>3.6825516265152972E-2</v>
       </c>
       <c r="AU49">
-        <v>8.7161414305245793E-2</v>
+        <v>3.5124291090057186E-2</v>
       </c>
       <c r="AV49">
-        <v>0.104167536090322</v>
+        <v>3.064050021685635E-2</v>
       </c>
       <c r="AW49">
-        <v>0.12692935109877501</v>
+        <v>2.9432047269627101E-2</v>
       </c>
       <c r="AX49">
-        <v>0.10777509572232701</v>
+        <v>3.0439019171864895E-2</v>
       </c>
       <c r="AY49">
-        <v>0.113504286907952</v>
+        <v>3.2919464749151368E-2</v>
       </c>
       <c r="AZ49">
-        <v>0.105919415028535</v>
+        <v>3.9451429818366732E-2</v>
       </c>
       <c r="BA49">
-        <v>0.110753003965413</v>
+        <v>4.257481975400948E-2</v>
       </c>
       <c r="BB49">
-        <v>0.107419590496359</v>
+        <v>4.2610411677946193E-2</v>
       </c>
       <c r="BC49">
-        <v>0.105681024560224</v>
+        <v>4.1433086308642654E-2</v>
       </c>
       <c r="BD49">
-        <v>9.3607049761615102E-2</v>
+        <v>3.5916544035552535E-2</v>
       </c>
       <c r="BE49">
-        <v>8.2500699949724296E-2</v>
+        <v>3.6392365855605908E-2</v>
       </c>
       <c r="BF49">
-        <v>9.1129462441345802E-2</v>
+        <v>3.5561062165106766E-2</v>
       </c>
       <c r="BG49">
-        <v>8.5532550195292906E-2</v>
+        <v>3.771173449544956E-2</v>
       </c>
       <c r="BH49">
-        <v>8.1048635829410298E-2</v>
+        <v>4.0261069410576326E-2</v>
       </c>
       <c r="BI49">
-        <v>8.8589512910389898E-2</v>
+        <v>4.0557224277730126E-2</v>
       </c>
       <c r="BJ49">
-        <v>8.8055290099277803E-2</v>
+        <v>3.9276980552324883E-2</v>
       </c>
       <c r="BK49">
-        <v>9.0026955407398496E-2</v>
+        <v>4.1306878268897104E-2</v>
       </c>
       <c r="BL49">
-        <v>8.4488747023662006E-2</v>
+        <v>4.1055636244131784E-2</v>
       </c>
       <c r="BM49">
-        <v>8.6335808772263906E-2</v>
+        <v>4.2278255017527029E-2</v>
       </c>
       <c r="BN49">
-        <v>8.9913224425587801E-2</v>
+        <v>4.1093073309092787E-2</v>
       </c>
       <c r="BO49">
-        <v>8.6997403043124893E-2</v>
+        <v>3.5067464774485115E-2</v>
       </c>
       <c r="BP49">
-        <v>8.7267987057855503E-2</v>
+        <v>3.1187098439530499E-2</v>
       </c>
       <c r="BQ49">
-        <v>9.25107977938458E-2</v>
+        <v>2.9865279135417654E-2</v>
       </c>
       <c r="BR49">
-        <v>0.11504748164331199</v>
+        <v>3.2821000408487233E-2</v>
       </c>
       <c r="BS49">
-        <v>9.2866776783031804E-2</v>
+        <v>3.6863197523873549E-2</v>
       </c>
       <c r="BT49">
-        <v>0.10071790027183999</v>
+        <v>5.1559277079003603E-2</v>
       </c>
       <c r="BU49">
-        <v>9.8363962318148396E-2</v>
+        <v>5.4832641788898767E-2</v>
       </c>
       <c r="BV49">
-        <v>0.104856552857202</v>
-      </c>
-    </row>
-    <row r="50" spans="1:74" x14ac:dyDescent="0.55000000000000004">
+        <v>7.1944464921392615E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A50" s="2"/>
     </row>
-    <row r="51" spans="1:74" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A51" s="2"/>
     </row>
-    <row r="52" spans="1:74" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A52" s="2"/>
     </row>
-    <row r="53" spans="1:74" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A53" s="2"/>
     </row>
-    <row r="54" spans="1:74" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A54" s="2"/>
     </row>
-    <row r="55" spans="1:74" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A55" s="2"/>
     </row>
-    <row r="56" spans="1:74" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A56" s="2"/>
     </row>
-    <row r="57" spans="1:74" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A57" s="2"/>
     </row>
-    <row r="58" spans="1:74" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A58" s="2"/>
     </row>
-    <row r="59" spans="1:74" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="60" spans="1:74" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="61" spans="1:74" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="62" spans="1:74" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="63" spans="1:74" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>77</v>
       </c>
@@ -3268,247 +3267,247 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO65"/>
   <sheetViews>
     <sheetView topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AO12" sqref="AO12:AO64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="39" t="s">
         <v>166</v>
       </c>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61" t="s">
+      <c r="C1" s="39"/>
+      <c r="D1" s="39" t="s">
         <v>167</v>
       </c>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61" t="s">
+      <c r="E1" s="39"/>
+      <c r="F1" s="39" t="s">
         <v>168</v>
       </c>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61" t="s">
+      <c r="G1" s="39"/>
+      <c r="H1" s="39" t="s">
         <v>169</v>
       </c>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61" t="s">
+      <c r="I1" s="39"/>
+      <c r="J1" s="39" t="s">
         <v>170</v>
       </c>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61" t="s">
+      <c r="K1" s="39"/>
+      <c r="L1" s="39" t="s">
         <v>171</v>
       </c>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61" t="s">
+      <c r="M1" s="39"/>
+      <c r="N1" s="39" t="s">
         <v>172</v>
       </c>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61" t="s">
+      <c r="O1" s="39"/>
+      <c r="P1" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="Q1" s="61"/>
-      <c r="R1" s="61" t="s">
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="S1" s="61"/>
-      <c r="T1" s="61" t="s">
+      <c r="S1" s="39"/>
+      <c r="T1" s="39" t="s">
         <v>175</v>
       </c>
-      <c r="U1" s="61"/>
-      <c r="V1" s="65" t="s">
+      <c r="U1" s="39"/>
+      <c r="V1" s="38" t="s">
         <v>176</v>
       </c>
-      <c r="W1" s="65"/>
-      <c r="X1" s="65" t="s">
+      <c r="W1" s="38"/>
+      <c r="X1" s="38" t="s">
         <v>177</v>
       </c>
-      <c r="Y1" s="65"/>
-      <c r="Z1" s="63" t="s">
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="42" t="s">
         <v>178</v>
       </c>
-      <c r="AA1" s="63"/>
-      <c r="AB1" s="61" t="s">
+      <c r="AA1" s="42"/>
+      <c r="AB1" s="39" t="s">
         <v>179</v>
       </c>
-      <c r="AC1" s="61"/>
-      <c r="AD1" s="61" t="s">
+      <c r="AC1" s="39"/>
+      <c r="AD1" s="39" t="s">
         <v>180</v>
       </c>
-      <c r="AE1" s="61"/>
-      <c r="AF1" s="61" t="s">
+      <c r="AE1" s="39"/>
+      <c r="AF1" s="39" t="s">
         <v>181</v>
       </c>
-      <c r="AG1" s="61"/>
-      <c r="AH1" s="61" t="s">
+      <c r="AG1" s="39"/>
+      <c r="AH1" s="39" t="s">
         <v>182</v>
       </c>
-      <c r="AI1" s="61"/>
-      <c r="AJ1" s="61" t="s">
+      <c r="AI1" s="39"/>
+      <c r="AJ1" s="39" t="s">
         <v>183</v>
       </c>
-      <c r="AK1" s="61"/>
-      <c r="AL1" s="61" t="s">
+      <c r="AK1" s="39"/>
+      <c r="AL1" s="39" t="s">
         <v>184</v>
       </c>
-      <c r="AM1" s="61"/>
-      <c r="AN1" s="61" t="s">
+      <c r="AM1" s="39"/>
+      <c r="AN1" s="39" t="s">
         <v>185</v>
       </c>
-      <c r="AO1" s="62"/>
-    </row>
-    <row r="2" spans="1:41" ht="34.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="AO1" s="41"/>
+    </row>
+    <row r="2" spans="1:41" ht="36.5" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="40" t="s">
         <v>187</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55" t="s">
+      <c r="C2" s="40"/>
+      <c r="D2" s="40" t="s">
         <v>187</v>
       </c>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55" t="s">
+      <c r="E2" s="40"/>
+      <c r="F2" s="40" t="s">
         <v>188</v>
       </c>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55" t="s">
+      <c r="G2" s="40"/>
+      <c r="H2" s="40" t="s">
         <v>188</v>
       </c>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55" t="s">
+      <c r="I2" s="40"/>
+      <c r="J2" s="40" t="s">
         <v>188</v>
       </c>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55" t="s">
+      <c r="K2" s="40"/>
+      <c r="L2" s="40" t="s">
         <v>188</v>
       </c>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55" t="s">
+      <c r="M2" s="40"/>
+      <c r="N2" s="40" t="s">
         <v>188</v>
       </c>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55" t="s">
+      <c r="O2" s="40"/>
+      <c r="P2" s="40" t="s">
         <v>188</v>
       </c>
-      <c r="Q2" s="55"/>
-      <c r="R2" s="55" t="s">
+      <c r="Q2" s="40"/>
+      <c r="R2" s="40" t="s">
         <v>188</v>
       </c>
-      <c r="S2" s="55"/>
-      <c r="T2" s="55" t="s">
+      <c r="S2" s="40"/>
+      <c r="T2" s="40" t="s">
         <v>188</v>
       </c>
-      <c r="U2" s="55"/>
-      <c r="V2" s="55" t="s">
+      <c r="U2" s="40"/>
+      <c r="V2" s="40" t="s">
         <v>188</v>
       </c>
-      <c r="W2" s="55"/>
-      <c r="X2" s="55" t="s">
+      <c r="W2" s="40"/>
+      <c r="X2" s="40" t="s">
         <v>188</v>
       </c>
-      <c r="Y2" s="55"/>
-      <c r="Z2" s="55" t="s">
+      <c r="Y2" s="40"/>
+      <c r="Z2" s="40" t="s">
         <v>188</v>
       </c>
-      <c r="AA2" s="55"/>
-      <c r="AB2" s="55" t="s">
+      <c r="AA2" s="40"/>
+      <c r="AB2" s="40" t="s">
         <v>188</v>
       </c>
-      <c r="AC2" s="55"/>
-      <c r="AD2" s="55" t="s">
+      <c r="AC2" s="40"/>
+      <c r="AD2" s="40" t="s">
         <v>187</v>
       </c>
-      <c r="AE2" s="55"/>
-      <c r="AF2" s="55" t="s">
+      <c r="AE2" s="40"/>
+      <c r="AF2" s="40" t="s">
         <v>188</v>
       </c>
-      <c r="AG2" s="55"/>
-      <c r="AH2" s="55" t="s">
+      <c r="AG2" s="40"/>
+      <c r="AH2" s="40" t="s">
         <v>187</v>
       </c>
-      <c r="AI2" s="55"/>
-      <c r="AJ2" s="55" t="s">
+      <c r="AI2" s="40"/>
+      <c r="AJ2" s="40" t="s">
         <v>187</v>
       </c>
-      <c r="AK2" s="55"/>
-      <c r="AL2" s="55" t="s">
+      <c r="AK2" s="40"/>
+      <c r="AL2" s="40" t="s">
         <v>187</v>
       </c>
-      <c r="AM2" s="55"/>
-      <c r="AN2" s="55" t="s">
+      <c r="AM2" s="40"/>
+      <c r="AN2" s="40" t="s">
         <v>188</v>
       </c>
-      <c r="AO2" s="64"/>
-    </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+      <c r="AO2" s="43"/>
+    </row>
+    <row r="3" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="45" t="s">
         <v>190</v>
       </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57" t="s">
+      <c r="C3" s="45"/>
+      <c r="D3" s="45" t="s">
         <v>190</v>
       </c>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57" t="s">
+      <c r="E3" s="45"/>
+      <c r="F3" s="45" t="s">
         <v>190</v>
       </c>
-      <c r="G3" s="57"/>
-      <c r="H3" s="58" t="s">
+      <c r="G3" s="45"/>
+      <c r="H3" s="46" t="s">
         <v>190</v>
       </c>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="56">
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="44">
         <v>1</v>
       </c>
-      <c r="M3" s="56"/>
-      <c r="N3" s="56">
+      <c r="M3" s="44"/>
+      <c r="N3" s="44">
         <v>2</v>
       </c>
-      <c r="O3" s="56"/>
-      <c r="P3" s="56">
+      <c r="O3" s="44"/>
+      <c r="P3" s="44">
         <v>3</v>
       </c>
-      <c r="Q3" s="56"/>
-      <c r="R3" s="56">
+      <c r="Q3" s="44"/>
+      <c r="R3" s="44">
         <v>4</v>
       </c>
-      <c r="S3" s="56"/>
-      <c r="T3" s="51" t="s">
+      <c r="S3" s="44"/>
+      <c r="T3" s="48" t="s">
         <v>191</v>
       </c>
-      <c r="U3" s="56"/>
-      <c r="V3" s="60" t="s">
+      <c r="U3" s="44"/>
+      <c r="V3" s="49" t="s">
         <v>190</v>
       </c>
-      <c r="W3" s="60"/>
-      <c r="X3" s="60" t="s">
+      <c r="W3" s="49"/>
+      <c r="X3" s="49" t="s">
         <v>190</v>
       </c>
-      <c r="Y3" s="60"/>
-      <c r="Z3" s="59" t="s">
+      <c r="Y3" s="49"/>
+      <c r="Z3" s="47" t="s">
         <v>190</v>
       </c>
-      <c r="AA3" s="59"/>
-      <c r="AB3" s="57"/>
-      <c r="AC3" s="57"/>
-      <c r="AD3" s="57" t="s">
+      <c r="AA3" s="47"/>
+      <c r="AB3" s="45"/>
+      <c r="AC3" s="45"/>
+      <c r="AD3" s="45" t="s">
         <v>190</v>
       </c>
-      <c r="AE3" s="57"/>
-      <c r="AF3" s="57"/>
-      <c r="AG3" s="57"/>
+      <c r="AE3" s="45"/>
+      <c r="AF3" s="45"/>
+      <c r="AG3" s="45"/>
       <c r="AH3" s="7"/>
       <c r="AI3" s="7"/>
       <c r="AJ3" s="7"/>
@@ -3518,432 +3517,432 @@
       <c r="AN3" s="8"/>
       <c r="AO3" s="9"/>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="51" t="s">
         <v>193</v>
       </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39" t="s">
+      <c r="C4" s="51"/>
+      <c r="D4" s="51" t="s">
         <v>193</v>
       </c>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39" t="s">
+      <c r="E4" s="51"/>
+      <c r="F4" s="51" t="s">
         <v>193</v>
       </c>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39" t="s">
+      <c r="G4" s="51"/>
+      <c r="H4" s="51" t="s">
         <v>194</v>
       </c>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39" t="s">
+      <c r="I4" s="51"/>
+      <c r="J4" s="51" t="s">
         <v>194</v>
       </c>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39" t="s">
+      <c r="K4" s="51"/>
+      <c r="L4" s="51" t="s">
         <v>194</v>
       </c>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39" t="s">
+      <c r="M4" s="51"/>
+      <c r="N4" s="51" t="s">
         <v>194</v>
       </c>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39" t="s">
+      <c r="O4" s="51"/>
+      <c r="P4" s="51" t="s">
         <v>194</v>
       </c>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="39" t="s">
+      <c r="Q4" s="51"/>
+      <c r="R4" s="51" t="s">
         <v>194</v>
       </c>
-      <c r="S4" s="39"/>
-      <c r="T4" s="39" t="s">
+      <c r="S4" s="51"/>
+      <c r="T4" s="51" t="s">
         <v>194</v>
       </c>
-      <c r="U4" s="39"/>
-      <c r="V4" s="42" t="s">
+      <c r="U4" s="51"/>
+      <c r="V4" s="52" t="s">
         <v>194</v>
       </c>
-      <c r="W4" s="42"/>
-      <c r="X4" s="43" t="s">
+      <c r="W4" s="52"/>
+      <c r="X4" s="53" t="s">
         <v>194</v>
       </c>
-      <c r="Y4" s="43"/>
-      <c r="Z4" s="44" t="s">
+      <c r="Y4" s="53"/>
+      <c r="Z4" s="50" t="s">
         <v>194</v>
       </c>
-      <c r="AA4" s="44"/>
-      <c r="AB4" s="51" t="s">
+      <c r="AA4" s="50"/>
+      <c r="AB4" s="48" t="s">
         <v>193</v>
       </c>
-      <c r="AC4" s="51"/>
-      <c r="AD4" s="51" t="s">
+      <c r="AC4" s="48"/>
+      <c r="AD4" s="48" t="s">
         <v>193</v>
       </c>
-      <c r="AE4" s="51"/>
-      <c r="AF4" s="39" t="s">
+      <c r="AE4" s="48"/>
+      <c r="AF4" s="51" t="s">
         <v>194</v>
       </c>
-      <c r="AG4" s="39"/>
-      <c r="AH4" s="39" t="s">
+      <c r="AG4" s="51"/>
+      <c r="AH4" s="51" t="s">
         <v>193</v>
       </c>
-      <c r="AI4" s="39"/>
-      <c r="AJ4" s="39" t="s">
+      <c r="AI4" s="51"/>
+      <c r="AJ4" s="51" t="s">
         <v>193</v>
       </c>
-      <c r="AK4" s="39"/>
-      <c r="AL4" s="39" t="s">
+      <c r="AK4" s="51"/>
+      <c r="AL4" s="51" t="s">
         <v>193</v>
       </c>
-      <c r="AM4" s="39"/>
-      <c r="AN4" s="40" t="s">
+      <c r="AM4" s="51"/>
+      <c r="AN4" s="54" t="s">
         <v>194</v>
       </c>
-      <c r="AO4" s="41"/>
-    </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+      <c r="AO4" s="55"/>
+    </row>
+    <row r="5" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="48" t="s">
         <v>196</v>
       </c>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51" t="s">
+      <c r="C5" s="48"/>
+      <c r="D5" s="48" t="s">
         <v>196</v>
       </c>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51" t="s">
+      <c r="E5" s="48"/>
+      <c r="F5" s="48" t="s">
         <v>196</v>
       </c>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51" t="s">
+      <c r="G5" s="48"/>
+      <c r="H5" s="48" t="s">
         <v>197</v>
       </c>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51" t="s">
+      <c r="I5" s="48"/>
+      <c r="J5" s="48" t="s">
         <v>197</v>
       </c>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51" t="s">
+      <c r="K5" s="48"/>
+      <c r="L5" s="48" t="s">
         <v>197</v>
       </c>
-      <c r="M5" s="51"/>
-      <c r="N5" s="51" t="s">
+      <c r="M5" s="48"/>
+      <c r="N5" s="48" t="s">
         <v>197</v>
       </c>
-      <c r="O5" s="51"/>
-      <c r="P5" s="51" t="s">
+      <c r="O5" s="48"/>
+      <c r="P5" s="48" t="s">
         <v>197</v>
       </c>
-      <c r="Q5" s="51"/>
-      <c r="R5" s="51" t="s">
+      <c r="Q5" s="48"/>
+      <c r="R5" s="48" t="s">
         <v>197</v>
       </c>
-      <c r="S5" s="51"/>
-      <c r="T5" s="51" t="s">
+      <c r="S5" s="48"/>
+      <c r="T5" s="48" t="s">
         <v>197</v>
       </c>
-      <c r="U5" s="51"/>
-      <c r="V5" s="52" t="s">
+      <c r="U5" s="48"/>
+      <c r="V5" s="56" t="s">
         <v>198</v>
       </c>
-      <c r="W5" s="52"/>
-      <c r="X5" s="53" t="s">
+      <c r="W5" s="56"/>
+      <c r="X5" s="57" t="s">
         <v>198</v>
       </c>
-      <c r="Y5" s="53"/>
-      <c r="Z5" s="54" t="s">
+      <c r="Y5" s="57"/>
+      <c r="Z5" s="58" t="s">
         <v>198</v>
       </c>
-      <c r="AA5" s="54"/>
-      <c r="AB5" s="54" t="s">
+      <c r="AA5" s="58"/>
+      <c r="AB5" s="58" t="s">
         <v>198</v>
       </c>
-      <c r="AC5" s="54"/>
-      <c r="AD5" s="51" t="s">
+      <c r="AC5" s="58"/>
+      <c r="AD5" s="48" t="s">
         <v>199</v>
       </c>
-      <c r="AE5" s="51"/>
-      <c r="AF5" s="51" t="s">
+      <c r="AE5" s="48"/>
+      <c r="AF5" s="48" t="s">
         <v>200</v>
       </c>
-      <c r="AG5" s="51"/>
-      <c r="AH5" s="51" t="s">
+      <c r="AG5" s="48"/>
+      <c r="AH5" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="AI5" s="51"/>
-      <c r="AJ5" s="51" t="s">
+      <c r="AI5" s="48"/>
+      <c r="AJ5" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="AK5" s="51"/>
-      <c r="AL5" s="51" t="s">
+      <c r="AK5" s="48"/>
+      <c r="AL5" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="AM5" s="51"/>
-      <c r="AN5" s="40" t="s">
+      <c r="AM5" s="48"/>
+      <c r="AN5" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="AO5" s="41"/>
-    </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+      <c r="AO5" s="55"/>
+    </row>
+    <row r="6" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="59" t="s">
         <v>202</v>
       </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48" t="s">
+      <c r="C6" s="59"/>
+      <c r="D6" s="59" t="s">
         <v>203</v>
       </c>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48" t="s">
+      <c r="E6" s="59"/>
+      <c r="F6" s="59" t="s">
         <v>203</v>
       </c>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48" t="s">
+      <c r="G6" s="59"/>
+      <c r="H6" s="59" t="s">
         <v>204</v>
       </c>
-      <c r="I6" s="48"/>
-      <c r="J6" s="49" t="s">
+      <c r="I6" s="59"/>
+      <c r="J6" s="60" t="s">
         <v>205</v>
       </c>
-      <c r="K6" s="49"/>
-      <c r="L6" s="49" t="s">
+      <c r="K6" s="60"/>
+      <c r="L6" s="60" t="s">
         <v>205</v>
       </c>
-      <c r="M6" s="49"/>
-      <c r="N6" s="49" t="s">
+      <c r="M6" s="60"/>
+      <c r="N6" s="60" t="s">
         <v>205</v>
       </c>
-      <c r="O6" s="49"/>
-      <c r="P6" s="49" t="s">
+      <c r="O6" s="60"/>
+      <c r="P6" s="60" t="s">
         <v>205</v>
       </c>
-      <c r="Q6" s="49"/>
-      <c r="R6" s="49" t="s">
+      <c r="Q6" s="60"/>
+      <c r="R6" s="60" t="s">
         <v>205</v>
       </c>
-      <c r="S6" s="49"/>
-      <c r="T6" s="49" t="s">
+      <c r="S6" s="60"/>
+      <c r="T6" s="60" t="s">
         <v>205</v>
       </c>
-      <c r="U6" s="49"/>
-      <c r="V6" s="49" t="s">
+      <c r="U6" s="60"/>
+      <c r="V6" s="60" t="s">
         <v>205</v>
       </c>
-      <c r="W6" s="49"/>
-      <c r="X6" s="50" t="s">
+      <c r="W6" s="60"/>
+      <c r="X6" s="62" t="s">
         <v>205</v>
       </c>
-      <c r="Y6" s="50"/>
-      <c r="Z6" s="47" t="s">
+      <c r="Y6" s="62"/>
+      <c r="Z6" s="61" t="s">
         <v>205</v>
       </c>
-      <c r="AA6" s="47"/>
-      <c r="AB6" s="48" t="s">
+      <c r="AA6" s="61"/>
+      <c r="AB6" s="59" t="s">
         <v>206</v>
       </c>
-      <c r="AC6" s="48"/>
-      <c r="AD6" s="48" t="s">
+      <c r="AC6" s="59"/>
+      <c r="AD6" s="59" t="s">
         <v>207</v>
       </c>
-      <c r="AE6" s="48"/>
-      <c r="AF6" s="48" t="s">
+      <c r="AE6" s="59"/>
+      <c r="AF6" s="59" t="s">
         <v>208</v>
       </c>
-      <c r="AG6" s="48"/>
-      <c r="AH6" s="48" t="s">
+      <c r="AG6" s="59"/>
+      <c r="AH6" s="59" t="s">
         <v>209</v>
       </c>
-      <c r="AI6" s="48"/>
-      <c r="AJ6" s="48" t="s">
+      <c r="AI6" s="59"/>
+      <c r="AJ6" s="59" t="s">
         <v>209</v>
       </c>
-      <c r="AK6" s="48"/>
-      <c r="AL6" s="48" t="s">
+      <c r="AK6" s="59"/>
+      <c r="AL6" s="59" t="s">
         <v>209</v>
       </c>
-      <c r="AM6" s="48"/>
-      <c r="AN6" s="40" t="s">
+      <c r="AM6" s="59"/>
+      <c r="AN6" s="54" t="s">
         <v>210</v>
       </c>
-      <c r="AO6" s="41"/>
-    </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+      <c r="AO6" s="55"/>
+    </row>
+    <row r="7" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="51" t="s">
         <v>212</v>
       </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39" t="s">
+      <c r="C7" s="51"/>
+      <c r="D7" s="51" t="s">
         <v>212</v>
       </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39" t="s">
+      <c r="E7" s="51"/>
+      <c r="F7" s="51" t="s">
         <v>212</v>
       </c>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39" t="s">
+      <c r="G7" s="51"/>
+      <c r="H7" s="51" t="s">
         <v>213</v>
       </c>
-      <c r="I7" s="39"/>
-      <c r="J7" s="42" t="s">
+      <c r="I7" s="51"/>
+      <c r="J7" s="52" t="s">
         <v>214</v>
       </c>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42" t="s">
+      <c r="K7" s="52"/>
+      <c r="L7" s="52" t="s">
         <v>214</v>
       </c>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42" t="s">
+      <c r="M7" s="52"/>
+      <c r="N7" s="52" t="s">
         <v>214</v>
       </c>
-      <c r="O7" s="42"/>
-      <c r="P7" s="42" t="s">
+      <c r="O7" s="52"/>
+      <c r="P7" s="52" t="s">
         <v>214</v>
       </c>
-      <c r="Q7" s="42"/>
-      <c r="R7" s="42" t="s">
+      <c r="Q7" s="52"/>
+      <c r="R7" s="52" t="s">
         <v>214</v>
       </c>
-      <c r="S7" s="42"/>
-      <c r="T7" s="42" t="s">
+      <c r="S7" s="52"/>
+      <c r="T7" s="52" t="s">
         <v>214</v>
       </c>
-      <c r="U7" s="42"/>
-      <c r="V7" s="42" t="s">
+      <c r="U7" s="52"/>
+      <c r="V7" s="52" t="s">
         <v>214</v>
       </c>
-      <c r="W7" s="42"/>
-      <c r="X7" s="43" t="s">
+      <c r="W7" s="52"/>
+      <c r="X7" s="53" t="s">
         <v>214</v>
       </c>
-      <c r="Y7" s="43"/>
-      <c r="Z7" s="44" t="s">
+      <c r="Y7" s="53"/>
+      <c r="Z7" s="50" t="s">
         <v>214</v>
       </c>
-      <c r="AA7" s="44"/>
-      <c r="AB7" s="39" t="s">
+      <c r="AA7" s="50"/>
+      <c r="AB7" s="51" t="s">
         <v>213</v>
       </c>
-      <c r="AC7" s="39"/>
-      <c r="AD7" s="39" t="s">
+      <c r="AC7" s="51"/>
+      <c r="AD7" s="51" t="s">
         <v>215</v>
       </c>
-      <c r="AE7" s="39"/>
-      <c r="AF7" s="39" t="s">
+      <c r="AE7" s="51"/>
+      <c r="AF7" s="51" t="s">
         <v>213</v>
       </c>
-      <c r="AG7" s="39"/>
-      <c r="AH7" s="39" t="s">
+      <c r="AG7" s="51"/>
+      <c r="AH7" s="51" t="s">
         <v>213</v>
       </c>
-      <c r="AI7" s="39"/>
-      <c r="AJ7" s="39" t="s">
+      <c r="AI7" s="51"/>
+      <c r="AJ7" s="51" t="s">
         <v>213</v>
       </c>
-      <c r="AK7" s="39"/>
-      <c r="AL7" s="39" t="s">
+      <c r="AK7" s="51"/>
+      <c r="AL7" s="51" t="s">
         <v>213</v>
       </c>
-      <c r="AM7" s="39"/>
-      <c r="AN7" s="40" t="s">
+      <c r="AM7" s="51"/>
+      <c r="AN7" s="54" t="s">
         <v>213</v>
       </c>
-      <c r="AO7" s="41"/>
-    </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+      <c r="AO7" s="55"/>
+    </row>
+    <row r="8" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="63" t="s">
         <v>217</v>
       </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38" t="s">
+      <c r="C8" s="63"/>
+      <c r="D8" s="63" t="s">
         <v>218</v>
       </c>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38" t="s">
+      <c r="E8" s="63"/>
+      <c r="F8" s="63" t="s">
         <v>219</v>
       </c>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38" t="s">
+      <c r="G8" s="63"/>
+      <c r="H8" s="63" t="s">
         <v>220</v>
       </c>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38" t="s">
+      <c r="I8" s="63"/>
+      <c r="J8" s="63" t="s">
         <v>221</v>
       </c>
-      <c r="K8" s="38"/>
-      <c r="L8" s="38" t="s">
+      <c r="K8" s="63"/>
+      <c r="L8" s="63" t="s">
         <v>222</v>
       </c>
-      <c r="M8" s="38"/>
-      <c r="N8" s="38" t="s">
+      <c r="M8" s="63"/>
+      <c r="N8" s="63" t="s">
         <v>222</v>
       </c>
-      <c r="O8" s="38"/>
-      <c r="P8" s="38" t="s">
+      <c r="O8" s="63"/>
+      <c r="P8" s="63" t="s">
         <v>222</v>
       </c>
-      <c r="Q8" s="38"/>
-      <c r="R8" s="38" t="s">
+      <c r="Q8" s="63"/>
+      <c r="R8" s="63" t="s">
         <v>222</v>
       </c>
-      <c r="S8" s="38"/>
-      <c r="T8" s="38" t="s">
+      <c r="S8" s="63"/>
+      <c r="T8" s="63" t="s">
         <v>222</v>
       </c>
-      <c r="U8" s="38"/>
-      <c r="V8" s="38" t="s">
+      <c r="U8" s="63"/>
+      <c r="V8" s="63" t="s">
         <v>223</v>
       </c>
-      <c r="W8" s="38"/>
-      <c r="X8" s="38" t="s">
+      <c r="W8" s="63"/>
+      <c r="X8" s="63" t="s">
         <v>224</v>
       </c>
-      <c r="Y8" s="38"/>
-      <c r="Z8" s="38" t="s">
+      <c r="Y8" s="63"/>
+      <c r="Z8" s="63" t="s">
         <v>224</v>
       </c>
-      <c r="AA8" s="38"/>
-      <c r="AB8" s="38" t="s">
+      <c r="AA8" s="63"/>
+      <c r="AB8" s="63" t="s">
         <v>224</v>
       </c>
-      <c r="AC8" s="38"/>
-      <c r="AD8" s="38" t="s">
+      <c r="AC8" s="63"/>
+      <c r="AD8" s="63" t="s">
         <v>225</v>
       </c>
-      <c r="AE8" s="38"/>
-      <c r="AF8" s="38" t="s">
+      <c r="AE8" s="63"/>
+      <c r="AF8" s="63" t="s">
         <v>226</v>
       </c>
-      <c r="AG8" s="38"/>
-      <c r="AH8" s="38" t="s">
+      <c r="AG8" s="63"/>
+      <c r="AH8" s="63" t="s">
         <v>227</v>
       </c>
-      <c r="AI8" s="38"/>
-      <c r="AJ8" s="38" t="s">
+      <c r="AI8" s="63"/>
+      <c r="AJ8" s="63" t="s">
         <v>227</v>
       </c>
-      <c r="AK8" s="38"/>
-      <c r="AL8" s="38" t="s">
+      <c r="AK8" s="63"/>
+      <c r="AL8" s="63" t="s">
         <v>227</v>
       </c>
-      <c r="AM8" s="38"/>
-      <c r="AN8" s="45" t="s">
+      <c r="AM8" s="63"/>
+      <c r="AN8" s="64" t="s">
         <v>228</v>
       </c>
-      <c r="AO8" s="46"/>
-    </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+      <c r="AO8" s="65"/>
+    </row>
+    <row r="9" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
         <v>37</v>
       </c>
@@ -4068,7 +4067,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A10" s="15">
         <f>+A11-1</f>
         <v>1961</v>
@@ -4114,7 +4113,7 @@
       <c r="AN10" s="17"/>
       <c r="AO10" s="17"/>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A11" s="15">
         <f>+A12-1</f>
         <v>1962</v>
@@ -4168,7 +4167,7 @@
       <c r="AN11" s="20"/>
       <c r="AO11" s="20"/>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A12" s="15">
         <v>1963</v>
       </c>
@@ -4229,7 +4228,7 @@
         <v>0.35332910029999998</v>
       </c>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A13" s="23">
         <v>1964</v>
       </c>
@@ -4290,7 +4289,7 @@
         <v>0.34919709110000002</v>
       </c>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A14" s="23">
         <v>1965</v>
       </c>
@@ -4351,7 +4350,7 @@
         <v>0.34843401940000002</v>
       </c>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A15" s="23">
         <v>1966</v>
       </c>
@@ -4412,7 +4411,7 @@
         <v>0.34771855639999999</v>
       </c>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A16" s="23">
         <v>1967</v>
       </c>
@@ -4473,7 +4472,7 @@
         <v>0.347194316</v>
       </c>
     </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A17" s="23">
         <v>1968</v>
       </c>
@@ -4538,7 +4537,7 @@
         <v>0.35148494619999998</v>
       </c>
     </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A18" s="23">
         <v>1969</v>
       </c>
@@ -4603,7 +4602,7 @@
         <v>0.34745107790000002</v>
       </c>
     </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A19" s="15">
         <f>+A20-1</f>
         <v>1970</v>
@@ -4669,7 +4668,7 @@
         <v>0.34783666089999998</v>
       </c>
     </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A20" s="15">
         <f>+A21-1</f>
         <v>1971</v>
@@ -4727,7 +4726,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A21" s="15">
         <f>+A22-1</f>
         <v>1972</v>
@@ -4785,7 +4784,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A22" s="15">
         <f>+A23-1</f>
         <v>1973</v>
@@ -4843,7 +4842,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A23" s="15">
         <f>+A24-1</f>
         <v>1974</v>
@@ -4905,7 +4904,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="24" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A24" s="23">
         <v>1975</v>
       </c>
@@ -4966,7 +4965,7 @@
         <v>0.31871116199999999</v>
       </c>
     </row>
-    <row r="25" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A25" s="23">
         <f t="shared" ref="A25:A65" si="0">+A24+1</f>
         <v>1976</v>
@@ -5028,7 +5027,7 @@
         <v>0.31900634319999999</v>
       </c>
     </row>
-    <row r="26" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A26" s="23">
         <f t="shared" si="0"/>
         <v>1977</v>
@@ -5090,7 +5089,7 @@
         <v>0.32031986680000002</v>
       </c>
     </row>
-    <row r="27" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A27" s="23">
         <f t="shared" si="0"/>
         <v>1978</v>
@@ -5152,7 +5151,7 @@
         <v>0.28665293920000001</v>
       </c>
     </row>
-    <row r="28" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A28" s="23">
         <f t="shared" si="0"/>
         <v>1979</v>
@@ -5222,7 +5221,7 @@
         <v>0.1976681478</v>
       </c>
     </row>
-    <row r="29" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A29" s="23">
         <f t="shared" si="0"/>
         <v>1980</v>
@@ -5292,7 +5291,7 @@
         <v>0.1968531885</v>
       </c>
     </row>
-    <row r="30" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A30" s="23">
         <f>+A29+1</f>
         <v>1981</v>
@@ -5362,7 +5361,7 @@
         <v>0.20417149800000001</v>
       </c>
     </row>
-    <row r="31" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A31" s="23">
         <f t="shared" si="0"/>
         <v>1982</v>
@@ -5456,7 +5455,7 @@
         <v>0.177994069</v>
       </c>
     </row>
-    <row r="32" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A32" s="23">
         <f t="shared" si="0"/>
         <v>1983</v>
@@ -5550,7 +5549,7 @@
         <v>0.17590504570000001</v>
       </c>
     </row>
-    <row r="33" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A33" s="23">
         <f t="shared" si="0"/>
         <v>1984</v>
@@ -5644,7 +5643,7 @@
         <v>0.17020716799999999</v>
       </c>
     </row>
-    <row r="34" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A34" s="23">
         <f t="shared" si="0"/>
         <v>1985</v>
@@ -5734,7 +5733,7 @@
         <v>0.1676144785</v>
       </c>
     </row>
-    <row r="35" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A35" s="23">
         <f t="shared" si="0"/>
         <v>1986</v>
@@ -5832,7 +5831,7 @@
         <v>0.16744807789999999</v>
       </c>
     </row>
-    <row r="36" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A36" s="23">
         <f t="shared" si="0"/>
         <v>1987</v>
@@ -5928,7 +5927,7 @@
         <v>0.16711292759999999</v>
       </c>
     </row>
-    <row r="37" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A37" s="23">
         <f t="shared" si="0"/>
         <v>1988</v>
@@ -6024,7 +6023,7 @@
         <v>0.16609492640000001</v>
       </c>
     </row>
-    <row r="38" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A38" s="23">
         <f t="shared" si="0"/>
         <v>1989</v>
@@ -6122,7 +6121,7 @@
         <v>0.15901131939999999</v>
       </c>
     </row>
-    <row r="39" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A39" s="23">
         <f t="shared" si="0"/>
         <v>1990</v>
@@ -6220,7 +6219,7 @@
         <v>0.1578159619</v>
       </c>
     </row>
-    <row r="40" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A40" s="23">
         <f t="shared" si="0"/>
         <v>1991</v>
@@ -6318,7 +6317,7 @@
         <v>0.1562590146</v>
       </c>
     </row>
-    <row r="41" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A41" s="23">
         <f t="shared" si="0"/>
         <v>1992</v>
@@ -6420,7 +6419,7 @@
         <v>0.15747075369999999</v>
       </c>
     </row>
-    <row r="42" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A42" s="23">
         <f t="shared" si="0"/>
         <v>1993</v>
@@ -6522,7 +6521,7 @@
         <v>0.15655190099999999</v>
       </c>
     </row>
-    <row r="43" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A43" s="23">
         <f t="shared" si="0"/>
         <v>1994</v>
@@ -6624,7 +6623,7 @@
         <v>0.16419604239999999</v>
       </c>
     </row>
-    <row r="44" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A44" s="23">
         <f t="shared" si="0"/>
         <v>1995</v>
@@ -6726,7 +6725,7 @@
         <v>0.1595530614</v>
       </c>
     </row>
-    <row r="45" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A45" s="23">
         <f t="shared" si="0"/>
         <v>1996</v>
@@ -6828,7 +6827,7 @@
         <v>0.16153028189999999</v>
       </c>
     </row>
-    <row r="46" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A46" s="23">
         <f t="shared" si="0"/>
         <v>1997</v>
@@ -6930,7 +6929,7 @@
         <v>0.1535243687</v>
       </c>
     </row>
-    <row r="47" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A47" s="23">
         <f t="shared" si="0"/>
         <v>1998</v>
@@ -7032,7 +7031,7 @@
         <v>0.15395424099999999</v>
       </c>
     </row>
-    <row r="48" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A48" s="23">
         <f t="shared" si="0"/>
         <v>1999</v>
@@ -7134,7 +7133,7 @@
         <v>0.15277607409999999</v>
       </c>
     </row>
-    <row r="49" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A49" s="23">
         <f t="shared" si="0"/>
         <v>2000</v>
@@ -7236,7 +7235,7 @@
         <v>0.15960057559999999</v>
       </c>
     </row>
-    <row r="50" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A50" s="23">
         <f t="shared" si="0"/>
         <v>2001</v>
@@ -7338,7 +7337,7 @@
         <v>0.17468311349999999</v>
       </c>
     </row>
-    <row r="51" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A51" s="23">
         <f t="shared" si="0"/>
         <v>2002</v>
@@ -7440,7 +7439,7 @@
         <v>0.17273404940000001</v>
       </c>
     </row>
-    <row r="52" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A52" s="23">
         <f t="shared" si="0"/>
         <v>2003</v>
@@ -7542,7 +7541,7 @@
         <v>0.17128397149999999</v>
       </c>
     </row>
-    <row r="53" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A53" s="23">
         <f t="shared" si="0"/>
         <v>2004</v>
@@ -7644,7 +7643,7 @@
         <v>0.15510191409999999</v>
       </c>
     </row>
-    <row r="54" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A54" s="23">
         <f t="shared" si="0"/>
         <v>2005</v>
@@ -7750,7 +7749,7 @@
         <v>0.15545594509999999</v>
       </c>
     </row>
-    <row r="55" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A55" s="23">
         <f t="shared" si="0"/>
         <v>2006</v>
@@ -7860,7 +7859,7 @@
         <v>0.1584234591</v>
       </c>
     </row>
-    <row r="56" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A56" s="23">
         <f t="shared" si="0"/>
         <v>2007</v>
@@ -7970,7 +7969,7 @@
         <v>0.15698843570000001</v>
       </c>
     </row>
-    <row r="57" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A57" s="23">
         <f t="shared" si="0"/>
         <v>2008</v>
@@ -8080,7 +8079,7 @@
         <v>0.15646395390000001</v>
       </c>
     </row>
-    <row r="58" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A58" s="23">
         <f t="shared" si="0"/>
         <v>2009</v>
@@ -8190,7 +8189,7 @@
         <v>0.15755338660000001</v>
       </c>
     </row>
-    <row r="59" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A59" s="23">
         <f t="shared" si="0"/>
         <v>2010</v>
@@ -8300,7 +8299,7 @@
         <v>0.15684492219999999</v>
       </c>
     </row>
-    <row r="60" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A60" s="23">
         <f t="shared" si="0"/>
         <v>2011</v>
@@ -8410,7 +8409,7 @@
         <v>0.15837887149999999</v>
       </c>
     </row>
-    <row r="61" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A61" s="23">
         <f t="shared" si="0"/>
         <v>2012</v>
@@ -8520,7 +8519,7 @@
         <v>0.1574096492</v>
       </c>
     </row>
-    <row r="62" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A62" s="23">
         <f t="shared" si="0"/>
         <v>2013</v>
@@ -8626,7 +8625,7 @@
         <v>0.15908433250000001</v>
       </c>
     </row>
-    <row r="63" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A63" s="23">
         <f t="shared" si="0"/>
         <v>2014</v>
@@ -8732,7 +8731,7 @@
         <v>0.15972896410000001</v>
       </c>
     </row>
-    <row r="64" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A64" s="23">
         <f t="shared" si="0"/>
         <v>2015</v>
@@ -8838,7 +8837,7 @@
         <v>0.15998062900000001</v>
       </c>
     </row>
-    <row r="65" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A65" s="23">
         <f t="shared" si="0"/>
         <v>2016</v>
@@ -8902,18 +8901,126 @@
     </row>
   </sheetData>
   <mergeCells count="156">
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="X2:Y2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="AJ8:AK8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="AL7:AM7"/>
+    <mergeCell ref="AN7:AO7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AL8:AM8"/>
+    <mergeCell ref="AN8:AO8"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AG7"/>
+    <mergeCell ref="AH7:AI7"/>
+    <mergeCell ref="Z8:AA8"/>
+    <mergeCell ref="AB8:AC8"/>
+    <mergeCell ref="AD8:AE8"/>
+    <mergeCell ref="AF8:AG8"/>
+    <mergeCell ref="AH8:AI8"/>
+    <mergeCell ref="AN6:AO6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="Z6:AA6"/>
+    <mergeCell ref="AB6:AC6"/>
+    <mergeCell ref="AD6:AE6"/>
+    <mergeCell ref="AF6:AG6"/>
+    <mergeCell ref="AH6:AI6"/>
+    <mergeCell ref="AJ6:AK6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="X6:Y6"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="AJ7:AK7"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="AD5:AE5"/>
+    <mergeCell ref="AF5:AG5"/>
+    <mergeCell ref="AH5:AI5"/>
+    <mergeCell ref="AJ5:AK5"/>
+    <mergeCell ref="AL5:AM5"/>
+    <mergeCell ref="AL6:AM6"/>
+    <mergeCell ref="AN5:AO5"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="T5:U5"/>
+    <mergeCell ref="V5:W5"/>
+    <mergeCell ref="X5:Y5"/>
+    <mergeCell ref="Z5:AA5"/>
+    <mergeCell ref="AB5:AC5"/>
+    <mergeCell ref="AL4:AM4"/>
+    <mergeCell ref="AN4:AO4"/>
+    <mergeCell ref="AB4:AC4"/>
+    <mergeCell ref="AD4:AE4"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="AH4:AI4"/>
+    <mergeCell ref="AJ4:AK4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="Z4:AA4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="AJ2:AK2"/>
+    <mergeCell ref="AL2:AM2"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="AL1:AM1"/>
     <mergeCell ref="AN1:AO1"/>
     <mergeCell ref="B2:C2"/>
@@ -8938,142 +9045,34 @@
     <mergeCell ref="R2:S2"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="V2:W2"/>
-    <mergeCell ref="AJ2:AK2"/>
-    <mergeCell ref="AL2:AM2"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AH2:AI2"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="Z4:AA4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="V4:W4"/>
-    <mergeCell ref="X4:Y4"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="AN5:AO5"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="T5:U5"/>
-    <mergeCell ref="V5:W5"/>
-    <mergeCell ref="X5:Y5"/>
-    <mergeCell ref="Z5:AA5"/>
-    <mergeCell ref="AB5:AC5"/>
-    <mergeCell ref="AL4:AM4"/>
-    <mergeCell ref="AN4:AO4"/>
-    <mergeCell ref="AB4:AC4"/>
-    <mergeCell ref="AD4:AE4"/>
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="AH4:AI4"/>
-    <mergeCell ref="AJ4:AK4"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="AD5:AE5"/>
-    <mergeCell ref="AF5:AG5"/>
-    <mergeCell ref="AH5:AI5"/>
-    <mergeCell ref="AJ5:AK5"/>
-    <mergeCell ref="AL5:AM5"/>
-    <mergeCell ref="AL6:AM6"/>
-    <mergeCell ref="AN6:AO6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="Z6:AA6"/>
-    <mergeCell ref="AB6:AC6"/>
-    <mergeCell ref="AD6:AE6"/>
-    <mergeCell ref="AF6:AG6"/>
-    <mergeCell ref="AH6:AI6"/>
-    <mergeCell ref="AJ6:AK6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="X6:Y6"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="AJ7:AK7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AF7:AG7"/>
-    <mergeCell ref="AH7:AI7"/>
-    <mergeCell ref="Z8:AA8"/>
-    <mergeCell ref="AB8:AC8"/>
-    <mergeCell ref="AD8:AE8"/>
-    <mergeCell ref="AF8:AG8"/>
-    <mergeCell ref="AH8:AI8"/>
-    <mergeCell ref="AJ8:AK8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="AL7:AM7"/>
-    <mergeCell ref="AN7:AO7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AL8:AM8"/>
-    <mergeCell ref="AN8:AO8"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AB2:AC2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="U25" sqref="U25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>83</v>
       </c>
@@ -9114,7 +9113,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1445</v>
       </c>
@@ -9162,7 +9161,7 @@
         <v>3646</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>966</v>
       </c>
@@ -9210,7 +9209,7 @@
         <v>2581</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>966</v>
       </c>
@@ -9258,7 +9257,7 @@
         <v>2993</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1203</v>
       </c>
@@ -9306,7 +9305,7 @@
         <v>3303</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>305</v>
       </c>
@@ -9354,7 +9353,7 @@
         <v>3034</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>619</v>
       </c>
@@ -9402,7 +9401,7 @@
         <v>3502</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>374</v>
       </c>
@@ -9450,7 +9449,7 @@
         <v>3358</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>1000</v>
       </c>
@@ -9498,7 +9497,7 @@
         <v>4578</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>832</v>
       </c>
@@ -9546,7 +9545,7 @@
         <v>4904</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>1100</v>
       </c>
@@ -9594,7 +9593,7 @@
         <v>6232</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>722</v>
       </c>
@@ -9642,7 +9641,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>1700</v>
       </c>
@@ -9690,7 +9689,7 @@
         <v>4381</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2300</v>
       </c>
@@ -9738,7 +9737,7 @@
         <v>5342</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>1000</v>
       </c>
@@ -9786,7 +9785,7 @@
         <v>10190</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>1800</v>
       </c>
@@ -9834,7 +9833,7 @@
         <v>11258</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>1433</v>
       </c>
@@ -9882,7 +9881,7 @@
         <v>8652</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>2999</v>
       </c>
@@ -9930,7 +9929,7 @@
         <v>9349</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>2690</v>
       </c>
@@ -9978,7 +9977,7 @@
         <v>9107</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>3551</v>
       </c>
@@ -10026,7 +10025,7 @@
         <v>9172</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>3502</v>
       </c>
@@ -10074,7 +10073,7 @@
         <v>9203</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>3160</v>
       </c>
@@ -10122,7 +10121,7 @@
         <v>9495</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>3384</v>
       </c>
@@ -10170,7 +10169,7 @@
         <v>5266</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>3210</v>
       </c>
@@ -10218,7 +10217,7 @@
         <v>4766</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>3833</v>
       </c>
@@ -10266,7 +10265,7 @@
         <v>6074</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>2893</v>
       </c>
@@ -10314,7 +10313,7 @@
         <v>6362</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>3747</v>
       </c>
@@ -10362,7 +10361,7 @@
         <v>8839</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>2816</v>
       </c>
@@ -10410,7 +10409,7 @@
         <v>6696</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>3309</v>
       </c>
@@ -10458,7 +10457,7 @@
         <v>6409</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>3622</v>
       </c>
@@ -10506,7 +10505,7 @@
         <v>11827</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>2582</v>
       </c>
@@ -10554,7 +10553,7 @@
         <v>11937</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>3810</v>
       </c>
@@ -10602,7 +10601,7 @@
         <v>13558</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>4014</v>
       </c>
@@ -10650,7 +10649,7 @@
         <v>11180</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>4554</v>
       </c>
@@ -10698,7 +10697,7 @@
         <v>13215</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>7100</v>
       </c>
@@ -10746,7 +10745,7 @@
         <v>14527</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>6315</v>
       </c>
@@ -10794,7 +10793,7 @@
         <v>12791</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>7441</v>
       </c>
@@ -10842,7 +10841,7 @@
         <v>14383</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>9719</v>
       </c>
@@ -10890,7 +10889,7 @@
         <v>18486</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>11135</v>
       </c>
@@ -10938,7 +10937,7 @@
         <v>20236</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>9799</v>
       </c>
@@ -10986,7 +10985,7 @@
         <v>19513</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>6648</v>
       </c>
@@ -11034,7 +11033,7 @@
         <v>17250</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>6386</v>
       </c>
@@ -11082,7 +11081,7 @@
         <v>15672</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>6633</v>
       </c>
@@ -11130,7 +11129,7 @@
         <v>14934</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>6672</v>
       </c>
@@ -11178,7 +11177,7 @@
         <v>15394</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>6598</v>
       </c>
@@ -11226,7 +11225,7 @@
         <v>16738</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>6185</v>
       </c>
@@ -11274,7 +11273,7 @@
         <v>15501</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>6953</v>
       </c>
@@ -11322,7 +11321,7 @@
         <v>16872</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>5547</v>
       </c>
@@ -11370,7 +11369,7 @@
         <v>15222</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>5140</v>
       </c>
@@ -11418,7 +11417,7 @@
         <v>13025</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>4079</v>
       </c>
@@ -11466,7 +11465,7 @@
         <v>12223</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>3996</v>
       </c>
@@ -11514,7 +11513,7 @@
         <v>11621</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>4595</v>
       </c>
@@ -11562,7 +11561,7 @@
         <v>11452</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>3968</v>
       </c>
@@ -11610,7 +11609,7 @@
         <v>10010</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>3957</v>
       </c>
@@ -11658,7 +11657,7 @@
         <v>9654</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>4586</v>
       </c>
@@ -11706,7 +11705,7 @@
         <v>11443</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>5376</v>
       </c>
@@ -11754,7 +11753,7 @@
         <v>12176</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>5521</v>
       </c>
@@ -11802,7 +11801,7 @@
         <v>12480</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>5448</v>
       </c>
@@ -11850,7 +11849,7 @@
         <v>11471</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>5564</v>
       </c>
@@ -11898,7 +11897,7 @@
         <v>12302</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>4366</v>
       </c>
@@ -11946,7 +11945,7 @@
         <v>11050</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>4949</v>
       </c>
@@ -11994,7 +11993,7 @@
         <v>12082</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>4147</v>
       </c>
@@ -12042,7 +12041,7 @@
         <v>11553</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>4889</v>
       </c>
@@ -12090,7 +12089,7 @@
         <v>12522</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>5622</v>
       </c>
@@ -12138,7 +12137,7 @@
         <v>13873</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>4084</v>
       </c>
@@ -12186,7 +12185,7 @@
         <v>12068</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>3750</v>
       </c>
@@ -12234,7 +12233,7 @@
         <v>10811</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>3962</v>
       </c>
@@ -12282,7 +12281,7 @@
         <v>10549</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>4196</v>
       </c>
@@ -12330,7 +12329,7 @@
         <v>11172</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>4196</v>
       </c>

--- a/inst/SWO_Data.xlsx
+++ b/inst/SWO_Data.xlsx
@@ -1533,22 +1533,58 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="37" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="37" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="12" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="10" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="42" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="12" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="42" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="42" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="44" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="13" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="12" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="15" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="42" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1563,58 +1599,22 @@
     <xf numFmtId="16" fontId="19" fillId="34" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="42" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="16" fontId="19" fillId="35" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="42" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="12" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="13" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="12" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="15" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="42" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="10" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="12" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1977,8 +1977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BV94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AS28" sqref="AS28"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2032,7 +2032,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>2020</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -3280,234 +3280,234 @@
       <c r="A1" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="61" t="s">
         <v>166</v>
       </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39" t="s">
+      <c r="C1" s="61"/>
+      <c r="D1" s="61" t="s">
         <v>167</v>
       </c>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39" t="s">
+      <c r="E1" s="61"/>
+      <c r="F1" s="61" t="s">
         <v>168</v>
       </c>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39" t="s">
+      <c r="G1" s="61"/>
+      <c r="H1" s="61" t="s">
         <v>169</v>
       </c>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39" t="s">
+      <c r="I1" s="61"/>
+      <c r="J1" s="61" t="s">
         <v>170</v>
       </c>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39" t="s">
+      <c r="K1" s="61"/>
+      <c r="L1" s="61" t="s">
         <v>171</v>
       </c>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39" t="s">
+      <c r="M1" s="61"/>
+      <c r="N1" s="61" t="s">
         <v>172</v>
       </c>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39" t="s">
+      <c r="O1" s="61"/>
+      <c r="P1" s="61" t="s">
         <v>173</v>
       </c>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39" t="s">
+      <c r="Q1" s="61"/>
+      <c r="R1" s="61" t="s">
         <v>174</v>
       </c>
-      <c r="S1" s="39"/>
-      <c r="T1" s="39" t="s">
+      <c r="S1" s="61"/>
+      <c r="T1" s="61" t="s">
         <v>175</v>
       </c>
-      <c r="U1" s="39"/>
-      <c r="V1" s="38" t="s">
+      <c r="U1" s="61"/>
+      <c r="V1" s="65" t="s">
         <v>176</v>
       </c>
-      <c r="W1" s="38"/>
-      <c r="X1" s="38" t="s">
+      <c r="W1" s="65"/>
+      <c r="X1" s="65" t="s">
         <v>177</v>
       </c>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="42" t="s">
+      <c r="Y1" s="65"/>
+      <c r="Z1" s="63" t="s">
         <v>178</v>
       </c>
-      <c r="AA1" s="42"/>
-      <c r="AB1" s="39" t="s">
+      <c r="AA1" s="63"/>
+      <c r="AB1" s="61" t="s">
         <v>179</v>
       </c>
-      <c r="AC1" s="39"/>
-      <c r="AD1" s="39" t="s">
+      <c r="AC1" s="61"/>
+      <c r="AD1" s="61" t="s">
         <v>180</v>
       </c>
-      <c r="AE1" s="39"/>
-      <c r="AF1" s="39" t="s">
+      <c r="AE1" s="61"/>
+      <c r="AF1" s="61" t="s">
         <v>181</v>
       </c>
-      <c r="AG1" s="39"/>
-      <c r="AH1" s="39" t="s">
+      <c r="AG1" s="61"/>
+      <c r="AH1" s="61" t="s">
         <v>182</v>
       </c>
-      <c r="AI1" s="39"/>
-      <c r="AJ1" s="39" t="s">
+      <c r="AI1" s="61"/>
+      <c r="AJ1" s="61" t="s">
         <v>183</v>
       </c>
-      <c r="AK1" s="39"/>
-      <c r="AL1" s="39" t="s">
+      <c r="AK1" s="61"/>
+      <c r="AL1" s="61" t="s">
         <v>184</v>
       </c>
-      <c r="AM1" s="39"/>
-      <c r="AN1" s="39" t="s">
+      <c r="AM1" s="61"/>
+      <c r="AN1" s="61" t="s">
         <v>185</v>
       </c>
-      <c r="AO1" s="41"/>
+      <c r="AO1" s="62"/>
     </row>
     <row r="2" spans="1:41" ht="36.5" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="55" t="s">
         <v>187</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40" t="s">
+      <c r="C2" s="55"/>
+      <c r="D2" s="55" t="s">
         <v>187</v>
       </c>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40" t="s">
+      <c r="E2" s="55"/>
+      <c r="F2" s="55" t="s">
         <v>188</v>
       </c>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40" t="s">
+      <c r="G2" s="55"/>
+      <c r="H2" s="55" t="s">
         <v>188</v>
       </c>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40" t="s">
+      <c r="I2" s="55"/>
+      <c r="J2" s="55" t="s">
         <v>188</v>
       </c>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40" t="s">
+      <c r="K2" s="55"/>
+      <c r="L2" s="55" t="s">
         <v>188</v>
       </c>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40" t="s">
+      <c r="M2" s="55"/>
+      <c r="N2" s="55" t="s">
         <v>188</v>
       </c>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40" t="s">
+      <c r="O2" s="55"/>
+      <c r="P2" s="55" t="s">
         <v>188</v>
       </c>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="40" t="s">
+      <c r="Q2" s="55"/>
+      <c r="R2" s="55" t="s">
         <v>188</v>
       </c>
-      <c r="S2" s="40"/>
-      <c r="T2" s="40" t="s">
+      <c r="S2" s="55"/>
+      <c r="T2" s="55" t="s">
         <v>188</v>
       </c>
-      <c r="U2" s="40"/>
-      <c r="V2" s="40" t="s">
+      <c r="U2" s="55"/>
+      <c r="V2" s="55" t="s">
         <v>188</v>
       </c>
-      <c r="W2" s="40"/>
-      <c r="X2" s="40" t="s">
+      <c r="W2" s="55"/>
+      <c r="X2" s="55" t="s">
         <v>188</v>
       </c>
-      <c r="Y2" s="40"/>
-      <c r="Z2" s="40" t="s">
+      <c r="Y2" s="55"/>
+      <c r="Z2" s="55" t="s">
         <v>188</v>
       </c>
-      <c r="AA2" s="40"/>
-      <c r="AB2" s="40" t="s">
+      <c r="AA2" s="55"/>
+      <c r="AB2" s="55" t="s">
         <v>188</v>
       </c>
-      <c r="AC2" s="40"/>
-      <c r="AD2" s="40" t="s">
+      <c r="AC2" s="55"/>
+      <c r="AD2" s="55" t="s">
         <v>187</v>
       </c>
-      <c r="AE2" s="40"/>
-      <c r="AF2" s="40" t="s">
+      <c r="AE2" s="55"/>
+      <c r="AF2" s="55" t="s">
         <v>188</v>
       </c>
-      <c r="AG2" s="40"/>
-      <c r="AH2" s="40" t="s">
+      <c r="AG2" s="55"/>
+      <c r="AH2" s="55" t="s">
         <v>187</v>
       </c>
-      <c r="AI2" s="40"/>
-      <c r="AJ2" s="40" t="s">
+      <c r="AI2" s="55"/>
+      <c r="AJ2" s="55" t="s">
         <v>187</v>
       </c>
-      <c r="AK2" s="40"/>
-      <c r="AL2" s="40" t="s">
+      <c r="AK2" s="55"/>
+      <c r="AL2" s="55" t="s">
         <v>187</v>
       </c>
-      <c r="AM2" s="40"/>
-      <c r="AN2" s="40" t="s">
+      <c r="AM2" s="55"/>
+      <c r="AN2" s="55" t="s">
         <v>188</v>
       </c>
-      <c r="AO2" s="43"/>
+      <c r="AO2" s="64"/>
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="57" t="s">
         <v>190</v>
       </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45" t="s">
+      <c r="C3" s="57"/>
+      <c r="D3" s="57" t="s">
         <v>190</v>
       </c>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45" t="s">
+      <c r="E3" s="57"/>
+      <c r="F3" s="57" t="s">
         <v>190</v>
       </c>
-      <c r="G3" s="45"/>
-      <c r="H3" s="46" t="s">
+      <c r="G3" s="57"/>
+      <c r="H3" s="58" t="s">
         <v>190</v>
       </c>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="44">
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="56">
         <v>1</v>
       </c>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44">
+      <c r="M3" s="56"/>
+      <c r="N3" s="56">
         <v>2</v>
       </c>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44">
+      <c r="O3" s="56"/>
+      <c r="P3" s="56">
         <v>3</v>
       </c>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="44">
+      <c r="Q3" s="56"/>
+      <c r="R3" s="56">
         <v>4</v>
       </c>
-      <c r="S3" s="44"/>
-      <c r="T3" s="48" t="s">
+      <c r="S3" s="56"/>
+      <c r="T3" s="51" t="s">
         <v>191</v>
       </c>
-      <c r="U3" s="44"/>
-      <c r="V3" s="49" t="s">
+      <c r="U3" s="56"/>
+      <c r="V3" s="60" t="s">
         <v>190</v>
       </c>
-      <c r="W3" s="49"/>
-      <c r="X3" s="49" t="s">
+      <c r="W3" s="60"/>
+      <c r="X3" s="60" t="s">
         <v>190</v>
       </c>
-      <c r="Y3" s="49"/>
-      <c r="Z3" s="47" t="s">
+      <c r="Y3" s="60"/>
+      <c r="Z3" s="59" t="s">
         <v>190</v>
       </c>
-      <c r="AA3" s="47"/>
-      <c r="AB3" s="45"/>
-      <c r="AC3" s="45"/>
-      <c r="AD3" s="45" t="s">
+      <c r="AA3" s="59"/>
+      <c r="AB3" s="57"/>
+      <c r="AC3" s="57"/>
+      <c r="AD3" s="57" t="s">
         <v>190</v>
       </c>
-      <c r="AE3" s="45"/>
-      <c r="AF3" s="45"/>
-      <c r="AG3" s="45"/>
+      <c r="AE3" s="57"/>
+      <c r="AF3" s="57"/>
+      <c r="AG3" s="57"/>
       <c r="AH3" s="7"/>
       <c r="AI3" s="7"/>
       <c r="AJ3" s="7"/>
@@ -3521,426 +3521,426 @@
       <c r="A4" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="39" t="s">
         <v>193</v>
       </c>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51" t="s">
+      <c r="C4" s="39"/>
+      <c r="D4" s="39" t="s">
         <v>193</v>
       </c>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51" t="s">
+      <c r="E4" s="39"/>
+      <c r="F4" s="39" t="s">
         <v>193</v>
       </c>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51" t="s">
+      <c r="G4" s="39"/>
+      <c r="H4" s="39" t="s">
         <v>194</v>
       </c>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51" t="s">
+      <c r="I4" s="39"/>
+      <c r="J4" s="39" t="s">
         <v>194</v>
       </c>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51" t="s">
+      <c r="K4" s="39"/>
+      <c r="L4" s="39" t="s">
         <v>194</v>
       </c>
-      <c r="M4" s="51"/>
-      <c r="N4" s="51" t="s">
+      <c r="M4" s="39"/>
+      <c r="N4" s="39" t="s">
         <v>194</v>
       </c>
-      <c r="O4" s="51"/>
-      <c r="P4" s="51" t="s">
+      <c r="O4" s="39"/>
+      <c r="P4" s="39" t="s">
         <v>194</v>
       </c>
-      <c r="Q4" s="51"/>
-      <c r="R4" s="51" t="s">
+      <c r="Q4" s="39"/>
+      <c r="R4" s="39" t="s">
         <v>194</v>
       </c>
-      <c r="S4" s="51"/>
-      <c r="T4" s="51" t="s">
+      <c r="S4" s="39"/>
+      <c r="T4" s="39" t="s">
         <v>194</v>
       </c>
-      <c r="U4" s="51"/>
-      <c r="V4" s="52" t="s">
+      <c r="U4" s="39"/>
+      <c r="V4" s="42" t="s">
         <v>194</v>
       </c>
-      <c r="W4" s="52"/>
-      <c r="X4" s="53" t="s">
+      <c r="W4" s="42"/>
+      <c r="X4" s="43" t="s">
         <v>194</v>
       </c>
-      <c r="Y4" s="53"/>
-      <c r="Z4" s="50" t="s">
+      <c r="Y4" s="43"/>
+      <c r="Z4" s="44" t="s">
         <v>194</v>
       </c>
-      <c r="AA4" s="50"/>
-      <c r="AB4" s="48" t="s">
+      <c r="AA4" s="44"/>
+      <c r="AB4" s="51" t="s">
         <v>193</v>
       </c>
-      <c r="AC4" s="48"/>
-      <c r="AD4" s="48" t="s">
+      <c r="AC4" s="51"/>
+      <c r="AD4" s="51" t="s">
         <v>193</v>
       </c>
-      <c r="AE4" s="48"/>
-      <c r="AF4" s="51" t="s">
+      <c r="AE4" s="51"/>
+      <c r="AF4" s="39" t="s">
         <v>194</v>
       </c>
-      <c r="AG4" s="51"/>
-      <c r="AH4" s="51" t="s">
+      <c r="AG4" s="39"/>
+      <c r="AH4" s="39" t="s">
         <v>193</v>
       </c>
-      <c r="AI4" s="51"/>
-      <c r="AJ4" s="51" t="s">
+      <c r="AI4" s="39"/>
+      <c r="AJ4" s="39" t="s">
         <v>193</v>
       </c>
-      <c r="AK4" s="51"/>
-      <c r="AL4" s="51" t="s">
+      <c r="AK4" s="39"/>
+      <c r="AL4" s="39" t="s">
         <v>193</v>
       </c>
-      <c r="AM4" s="51"/>
-      <c r="AN4" s="54" t="s">
+      <c r="AM4" s="39"/>
+      <c r="AN4" s="40" t="s">
         <v>194</v>
       </c>
-      <c r="AO4" s="55"/>
+      <c r="AO4" s="41"/>
     </row>
     <row r="5" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="51" t="s">
         <v>196</v>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48" t="s">
+      <c r="C5" s="51"/>
+      <c r="D5" s="51" t="s">
         <v>196</v>
       </c>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48" t="s">
+      <c r="E5" s="51"/>
+      <c r="F5" s="51" t="s">
         <v>196</v>
       </c>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48" t="s">
+      <c r="G5" s="51"/>
+      <c r="H5" s="51" t="s">
         <v>197</v>
       </c>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48" t="s">
+      <c r="I5" s="51"/>
+      <c r="J5" s="51" t="s">
         <v>197</v>
       </c>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48" t="s">
+      <c r="K5" s="51"/>
+      <c r="L5" s="51" t="s">
         <v>197</v>
       </c>
-      <c r="M5" s="48"/>
-      <c r="N5" s="48" t="s">
+      <c r="M5" s="51"/>
+      <c r="N5" s="51" t="s">
         <v>197</v>
       </c>
-      <c r="O5" s="48"/>
-      <c r="P5" s="48" t="s">
+      <c r="O5" s="51"/>
+      <c r="P5" s="51" t="s">
         <v>197</v>
       </c>
-      <c r="Q5" s="48"/>
-      <c r="R5" s="48" t="s">
+      <c r="Q5" s="51"/>
+      <c r="R5" s="51" t="s">
         <v>197</v>
       </c>
-      <c r="S5" s="48"/>
-      <c r="T5" s="48" t="s">
+      <c r="S5" s="51"/>
+      <c r="T5" s="51" t="s">
         <v>197</v>
       </c>
-      <c r="U5" s="48"/>
-      <c r="V5" s="56" t="s">
+      <c r="U5" s="51"/>
+      <c r="V5" s="52" t="s">
         <v>198</v>
       </c>
-      <c r="W5" s="56"/>
-      <c r="X5" s="57" t="s">
+      <c r="W5" s="52"/>
+      <c r="X5" s="53" t="s">
         <v>198</v>
       </c>
-      <c r="Y5" s="57"/>
-      <c r="Z5" s="58" t="s">
+      <c r="Y5" s="53"/>
+      <c r="Z5" s="54" t="s">
         <v>198</v>
       </c>
-      <c r="AA5" s="58"/>
-      <c r="AB5" s="58" t="s">
+      <c r="AA5" s="54"/>
+      <c r="AB5" s="54" t="s">
         <v>198</v>
       </c>
-      <c r="AC5" s="58"/>
-      <c r="AD5" s="48" t="s">
+      <c r="AC5" s="54"/>
+      <c r="AD5" s="51" t="s">
         <v>199</v>
       </c>
-      <c r="AE5" s="48"/>
-      <c r="AF5" s="48" t="s">
+      <c r="AE5" s="51"/>
+      <c r="AF5" s="51" t="s">
         <v>200</v>
       </c>
-      <c r="AG5" s="48"/>
-      <c r="AH5" s="48" t="s">
+      <c r="AG5" s="51"/>
+      <c r="AH5" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="AI5" s="48"/>
-      <c r="AJ5" s="48" t="s">
+      <c r="AI5" s="51"/>
+      <c r="AJ5" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="AK5" s="48"/>
-      <c r="AL5" s="48" t="s">
+      <c r="AK5" s="51"/>
+      <c r="AL5" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="AM5" s="48"/>
-      <c r="AN5" s="54" t="s">
+      <c r="AM5" s="51"/>
+      <c r="AN5" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="AO5" s="55"/>
+      <c r="AO5" s="41"/>
     </row>
     <row r="6" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="48" t="s">
         <v>202</v>
       </c>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59" t="s">
+      <c r="C6" s="48"/>
+      <c r="D6" s="48" t="s">
         <v>203</v>
       </c>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59" t="s">
+      <c r="E6" s="48"/>
+      <c r="F6" s="48" t="s">
         <v>203</v>
       </c>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59" t="s">
+      <c r="G6" s="48"/>
+      <c r="H6" s="48" t="s">
         <v>204</v>
       </c>
-      <c r="I6" s="59"/>
-      <c r="J6" s="60" t="s">
+      <c r="I6" s="48"/>
+      <c r="J6" s="49" t="s">
         <v>205</v>
       </c>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60" t="s">
+      <c r="K6" s="49"/>
+      <c r="L6" s="49" t="s">
         <v>205</v>
       </c>
-      <c r="M6" s="60"/>
-      <c r="N6" s="60" t="s">
+      <c r="M6" s="49"/>
+      <c r="N6" s="49" t="s">
         <v>205</v>
       </c>
-      <c r="O6" s="60"/>
-      <c r="P6" s="60" t="s">
+      <c r="O6" s="49"/>
+      <c r="P6" s="49" t="s">
         <v>205</v>
       </c>
-      <c r="Q6" s="60"/>
-      <c r="R6" s="60" t="s">
+      <c r="Q6" s="49"/>
+      <c r="R6" s="49" t="s">
         <v>205</v>
       </c>
-      <c r="S6" s="60"/>
-      <c r="T6" s="60" t="s">
+      <c r="S6" s="49"/>
+      <c r="T6" s="49" t="s">
         <v>205</v>
       </c>
-      <c r="U6" s="60"/>
-      <c r="V6" s="60" t="s">
+      <c r="U6" s="49"/>
+      <c r="V6" s="49" t="s">
         <v>205</v>
       </c>
-      <c r="W6" s="60"/>
-      <c r="X6" s="62" t="s">
+      <c r="W6" s="49"/>
+      <c r="X6" s="50" t="s">
         <v>205</v>
       </c>
-      <c r="Y6" s="62"/>
-      <c r="Z6" s="61" t="s">
+      <c r="Y6" s="50"/>
+      <c r="Z6" s="47" t="s">
         <v>205</v>
       </c>
-      <c r="AA6" s="61"/>
-      <c r="AB6" s="59" t="s">
+      <c r="AA6" s="47"/>
+      <c r="AB6" s="48" t="s">
         <v>206</v>
       </c>
-      <c r="AC6" s="59"/>
-      <c r="AD6" s="59" t="s">
+      <c r="AC6" s="48"/>
+      <c r="AD6" s="48" t="s">
         <v>207</v>
       </c>
-      <c r="AE6" s="59"/>
-      <c r="AF6" s="59" t="s">
+      <c r="AE6" s="48"/>
+      <c r="AF6" s="48" t="s">
         <v>208</v>
       </c>
-      <c r="AG6" s="59"/>
-      <c r="AH6" s="59" t="s">
+      <c r="AG6" s="48"/>
+      <c r="AH6" s="48" t="s">
         <v>209</v>
       </c>
-      <c r="AI6" s="59"/>
-      <c r="AJ6" s="59" t="s">
+      <c r="AI6" s="48"/>
+      <c r="AJ6" s="48" t="s">
         <v>209</v>
       </c>
-      <c r="AK6" s="59"/>
-      <c r="AL6" s="59" t="s">
+      <c r="AK6" s="48"/>
+      <c r="AL6" s="48" t="s">
         <v>209</v>
       </c>
-      <c r="AM6" s="59"/>
-      <c r="AN6" s="54" t="s">
+      <c r="AM6" s="48"/>
+      <c r="AN6" s="40" t="s">
         <v>210</v>
       </c>
-      <c r="AO6" s="55"/>
+      <c r="AO6" s="41"/>
     </row>
     <row r="7" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="39" t="s">
         <v>212</v>
       </c>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51" t="s">
+      <c r="C7" s="39"/>
+      <c r="D7" s="39" t="s">
         <v>212</v>
       </c>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51" t="s">
+      <c r="E7" s="39"/>
+      <c r="F7" s="39" t="s">
         <v>212</v>
       </c>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51" t="s">
+      <c r="G7" s="39"/>
+      <c r="H7" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="I7" s="51"/>
-      <c r="J7" s="52" t="s">
+      <c r="I7" s="39"/>
+      <c r="J7" s="42" t="s">
         <v>214</v>
       </c>
-      <c r="K7" s="52"/>
-      <c r="L7" s="52" t="s">
+      <c r="K7" s="42"/>
+      <c r="L7" s="42" t="s">
         <v>214</v>
       </c>
-      <c r="M7" s="52"/>
-      <c r="N7" s="52" t="s">
+      <c r="M7" s="42"/>
+      <c r="N7" s="42" t="s">
         <v>214</v>
       </c>
-      <c r="O7" s="52"/>
-      <c r="P7" s="52" t="s">
+      <c r="O7" s="42"/>
+      <c r="P7" s="42" t="s">
         <v>214</v>
       </c>
-      <c r="Q7" s="52"/>
-      <c r="R7" s="52" t="s">
+      <c r="Q7" s="42"/>
+      <c r="R7" s="42" t="s">
         <v>214</v>
       </c>
-      <c r="S7" s="52"/>
-      <c r="T7" s="52" t="s">
+      <c r="S7" s="42"/>
+      <c r="T7" s="42" t="s">
         <v>214</v>
       </c>
-      <c r="U7" s="52"/>
-      <c r="V7" s="52" t="s">
+      <c r="U7" s="42"/>
+      <c r="V7" s="42" t="s">
         <v>214</v>
       </c>
-      <c r="W7" s="52"/>
-      <c r="X7" s="53" t="s">
+      <c r="W7" s="42"/>
+      <c r="X7" s="43" t="s">
         <v>214</v>
       </c>
-      <c r="Y7" s="53"/>
-      <c r="Z7" s="50" t="s">
+      <c r="Y7" s="43"/>
+      <c r="Z7" s="44" t="s">
         <v>214</v>
       </c>
-      <c r="AA7" s="50"/>
-      <c r="AB7" s="51" t="s">
+      <c r="AA7" s="44"/>
+      <c r="AB7" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="AC7" s="51"/>
-      <c r="AD7" s="51" t="s">
+      <c r="AC7" s="39"/>
+      <c r="AD7" s="39" t="s">
         <v>215</v>
       </c>
-      <c r="AE7" s="51"/>
-      <c r="AF7" s="51" t="s">
+      <c r="AE7" s="39"/>
+      <c r="AF7" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="AG7" s="51"/>
-      <c r="AH7" s="51" t="s">
+      <c r="AG7" s="39"/>
+      <c r="AH7" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="AI7" s="51"/>
-      <c r="AJ7" s="51" t="s">
+      <c r="AI7" s="39"/>
+      <c r="AJ7" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="AK7" s="51"/>
-      <c r="AL7" s="51" t="s">
+      <c r="AK7" s="39"/>
+      <c r="AL7" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="AM7" s="51"/>
-      <c r="AN7" s="54" t="s">
+      <c r="AM7" s="39"/>
+      <c r="AN7" s="40" t="s">
         <v>213</v>
       </c>
-      <c r="AO7" s="55"/>
+      <c r="AO7" s="41"/>
     </row>
     <row r="8" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="B8" s="63" t="s">
+      <c r="B8" s="38" t="s">
         <v>217</v>
       </c>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63" t="s">
+      <c r="C8" s="38"/>
+      <c r="D8" s="38" t="s">
         <v>218</v>
       </c>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63" t="s">
+      <c r="E8" s="38"/>
+      <c r="F8" s="38" t="s">
         <v>219</v>
       </c>
-      <c r="G8" s="63"/>
-      <c r="H8" s="63" t="s">
+      <c r="G8" s="38"/>
+      <c r="H8" s="38" t="s">
         <v>220</v>
       </c>
-      <c r="I8" s="63"/>
-      <c r="J8" s="63" t="s">
+      <c r="I8" s="38"/>
+      <c r="J8" s="38" t="s">
         <v>221</v>
       </c>
-      <c r="K8" s="63"/>
-      <c r="L8" s="63" t="s">
+      <c r="K8" s="38"/>
+      <c r="L8" s="38" t="s">
         <v>222</v>
       </c>
-      <c r="M8" s="63"/>
-      <c r="N8" s="63" t="s">
+      <c r="M8" s="38"/>
+      <c r="N8" s="38" t="s">
         <v>222</v>
       </c>
-      <c r="O8" s="63"/>
-      <c r="P8" s="63" t="s">
+      <c r="O8" s="38"/>
+      <c r="P8" s="38" t="s">
         <v>222</v>
       </c>
-      <c r="Q8" s="63"/>
-      <c r="R8" s="63" t="s">
+      <c r="Q8" s="38"/>
+      <c r="R8" s="38" t="s">
         <v>222</v>
       </c>
-      <c r="S8" s="63"/>
-      <c r="T8" s="63" t="s">
+      <c r="S8" s="38"/>
+      <c r="T8" s="38" t="s">
         <v>222</v>
       </c>
-      <c r="U8" s="63"/>
-      <c r="V8" s="63" t="s">
+      <c r="U8" s="38"/>
+      <c r="V8" s="38" t="s">
         <v>223</v>
       </c>
-      <c r="W8" s="63"/>
-      <c r="X8" s="63" t="s">
+      <c r="W8" s="38"/>
+      <c r="X8" s="38" t="s">
         <v>224</v>
       </c>
-      <c r="Y8" s="63"/>
-      <c r="Z8" s="63" t="s">
+      <c r="Y8" s="38"/>
+      <c r="Z8" s="38" t="s">
         <v>224</v>
       </c>
-      <c r="AA8" s="63"/>
-      <c r="AB8" s="63" t="s">
+      <c r="AA8" s="38"/>
+      <c r="AB8" s="38" t="s">
         <v>224</v>
       </c>
-      <c r="AC8" s="63"/>
-      <c r="AD8" s="63" t="s">
+      <c r="AC8" s="38"/>
+      <c r="AD8" s="38" t="s">
         <v>225</v>
       </c>
-      <c r="AE8" s="63"/>
-      <c r="AF8" s="63" t="s">
+      <c r="AE8" s="38"/>
+      <c r="AF8" s="38" t="s">
         <v>226</v>
       </c>
-      <c r="AG8" s="63"/>
-      <c r="AH8" s="63" t="s">
+      <c r="AG8" s="38"/>
+      <c r="AH8" s="38" t="s">
         <v>227</v>
       </c>
-      <c r="AI8" s="63"/>
-      <c r="AJ8" s="63" t="s">
+      <c r="AI8" s="38"/>
+      <c r="AJ8" s="38" t="s">
         <v>227</v>
       </c>
-      <c r="AK8" s="63"/>
-      <c r="AL8" s="63" t="s">
+      <c r="AK8" s="38"/>
+      <c r="AL8" s="38" t="s">
         <v>227</v>
       </c>
-      <c r="AM8" s="63"/>
-      <c r="AN8" s="64" t="s">
+      <c r="AM8" s="38"/>
+      <c r="AN8" s="45" t="s">
         <v>228</v>
       </c>
-      <c r="AO8" s="65"/>
+      <c r="AO8" s="46"/>
     </row>
     <row r="9" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
@@ -8901,37 +8901,107 @@
     </row>
   </sheetData>
   <mergeCells count="156">
-    <mergeCell ref="AJ8:AK8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="AL7:AM7"/>
-    <mergeCell ref="AN7:AO7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AL8:AM8"/>
-    <mergeCell ref="AN8:AO8"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AF7:AG7"/>
-    <mergeCell ref="AH7:AI7"/>
-    <mergeCell ref="Z8:AA8"/>
-    <mergeCell ref="AB8:AC8"/>
-    <mergeCell ref="AD8:AE8"/>
-    <mergeCell ref="AF8:AG8"/>
-    <mergeCell ref="AH8:AI8"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="AL1:AM1"/>
+    <mergeCell ref="AN1:AO1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="AH1:AI1"/>
+    <mergeCell ref="AJ1:AK1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="AN2:AO2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="AJ2:AK2"/>
+    <mergeCell ref="AL2:AM2"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AH2:AI2"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="Z4:AA4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="AN5:AO5"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="T5:U5"/>
+    <mergeCell ref="V5:W5"/>
+    <mergeCell ref="X5:Y5"/>
+    <mergeCell ref="Z5:AA5"/>
+    <mergeCell ref="AB5:AC5"/>
+    <mergeCell ref="AL4:AM4"/>
+    <mergeCell ref="AN4:AO4"/>
+    <mergeCell ref="AB4:AC4"/>
+    <mergeCell ref="AD4:AE4"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="AH4:AI4"/>
+    <mergeCell ref="AJ4:AK4"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="AD5:AE5"/>
+    <mergeCell ref="AF5:AG5"/>
+    <mergeCell ref="AH5:AI5"/>
+    <mergeCell ref="AJ5:AK5"/>
+    <mergeCell ref="AL5:AM5"/>
+    <mergeCell ref="AL6:AM6"/>
     <mergeCell ref="AN6:AO6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
@@ -8956,107 +9026,37 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="AJ7:AK7"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="AD5:AE5"/>
-    <mergeCell ref="AF5:AG5"/>
-    <mergeCell ref="AH5:AI5"/>
-    <mergeCell ref="AJ5:AK5"/>
-    <mergeCell ref="AL5:AM5"/>
-    <mergeCell ref="AL6:AM6"/>
-    <mergeCell ref="AN5:AO5"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="T5:U5"/>
-    <mergeCell ref="V5:W5"/>
-    <mergeCell ref="X5:Y5"/>
-    <mergeCell ref="Z5:AA5"/>
-    <mergeCell ref="AB5:AC5"/>
-    <mergeCell ref="AL4:AM4"/>
-    <mergeCell ref="AN4:AO4"/>
-    <mergeCell ref="AB4:AC4"/>
-    <mergeCell ref="AD4:AE4"/>
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="AH4:AI4"/>
-    <mergeCell ref="AJ4:AK4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="Z4:AA4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="V4:W4"/>
-    <mergeCell ref="X4:Y4"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="AJ2:AK2"/>
-    <mergeCell ref="AL2:AM2"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AH2:AI2"/>
-    <mergeCell ref="AL1:AM1"/>
-    <mergeCell ref="AN1:AO1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="AH1:AI1"/>
-    <mergeCell ref="AJ1:AK1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="AN2:AO2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="X2:Y2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AG7"/>
+    <mergeCell ref="AH7:AI7"/>
+    <mergeCell ref="Z8:AA8"/>
+    <mergeCell ref="AB8:AC8"/>
+    <mergeCell ref="AD8:AE8"/>
+    <mergeCell ref="AF8:AG8"/>
+    <mergeCell ref="AH8:AI8"/>
+    <mergeCell ref="AJ8:AK8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="AL7:AM7"/>
+    <mergeCell ref="AN7:AO7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AL8:AM8"/>
+    <mergeCell ref="AN8:AO8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
